--- a/spec/support/validRoSpreadsheet.xlsx
+++ b/spec/support/validRoSpreadsheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10319"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vhaisajoness/Documents/caseflow/spec/support/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{406EE2D0-73BD-ED4B-B6DD-945FE20E4230}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{23C57C79-DF8D-614F-BC0D-F5BB7DCC5CD6}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="22300" windowHeight="14120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="26120" windowHeight="14120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RO Non-Availability Dates" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="127">
   <si>
     <t>Example</t>
   </si>
@@ -2365,8 +2365,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IV50"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AK8" sqref="AK8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" customHeight="1"/>
@@ -3444,8 +3444,8 @@
       <c r="AJ7" s="22">
         <v>43191</v>
       </c>
-      <c r="AK7" s="22">
-        <v>43191</v>
+      <c r="AK7" s="28" t="s">
+        <v>126</v>
       </c>
       <c r="AL7" s="22">
         <v>43191</v>
@@ -3555,7 +3555,6 @@
       <c r="AH8" s="28"/>
       <c r="AI8" s="28"/>
       <c r="AJ8" s="28"/>
-      <c r="AK8" s="28"/>
       <c r="AL8" s="28"/>
       <c r="AM8" s="28"/>
       <c r="AN8" s="28"/>
@@ -6163,7 +6162,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:IV10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -6274,7 +6275,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:IV100"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A42" workbookViewId="0">
+      <selection sqref="A1:D1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" customHeight="1"/>
   <cols>

--- a/spec/support/validRoSpreadsheet.xlsx
+++ b/spec/support/validRoSpreadsheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vhaisajoness/Documents/caseflow/spec/support/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{23C57C79-DF8D-614F-BC0D-F5BB7DCC5CD6}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{1BCC1B81-5A2E-A542-899B-025A1D6F8F69}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="26120" windowHeight="14120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="26120" windowHeight="14120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RO Non-Availability Dates" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="127">
   <si>
     <t>Example</t>
   </si>
@@ -2365,7 +2365,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IV50"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="V1" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="V1" workbookViewId="0">
       <selection activeCell="AK8" sqref="AK8"/>
     </sheetView>
   </sheetViews>
@@ -6162,8 +6162,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:IV10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -6240,7 +6240,9 @@
     </row>
     <row r="8" spans="1:5" ht="17" customHeight="1">
       <c r="A8" s="28"/>
-      <c r="B8" s="28"/>
+      <c r="B8" s="28" t="s">
+        <v>126</v>
+      </c>
       <c r="C8" s="28"/>
       <c r="D8" s="28"/>
       <c r="E8" s="28"/>

--- a/spec/support/validRoSpreadsheet.xlsx
+++ b/spec/support/validRoSpreadsheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10319"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vhaisajoness/Documents/caseflow/spec/support/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{406EE2D0-73BD-ED4B-B6DD-945FE20E4230}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{1BCC1B81-5A2E-A542-899B-025A1D6F8F69}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="22300" windowHeight="14120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="26120" windowHeight="14120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RO Non-Availability Dates" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="127">
   <si>
     <t>Example</t>
   </si>
@@ -2365,8 +2365,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IV50"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView showGridLines="0" topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AK8" sqref="AK8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" customHeight="1"/>
@@ -3444,8 +3444,8 @@
       <c r="AJ7" s="22">
         <v>43191</v>
       </c>
-      <c r="AK7" s="22">
-        <v>43191</v>
+      <c r="AK7" s="28" t="s">
+        <v>126</v>
       </c>
       <c r="AL7" s="22">
         <v>43191</v>
@@ -3555,7 +3555,6 @@
       <c r="AH8" s="28"/>
       <c r="AI8" s="28"/>
       <c r="AJ8" s="28"/>
-      <c r="AK8" s="28"/>
       <c r="AL8" s="28"/>
       <c r="AM8" s="28"/>
       <c r="AN8" s="28"/>
@@ -6163,7 +6162,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:IV10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -6239,7 +6240,9 @@
     </row>
     <row r="8" spans="1:5" ht="17" customHeight="1">
       <c r="A8" s="28"/>
-      <c r="B8" s="28"/>
+      <c r="B8" s="28" t="s">
+        <v>126</v>
+      </c>
       <c r="C8" s="28"/>
       <c r="D8" s="28"/>
       <c r="E8" s="28"/>
@@ -6274,7 +6277,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:IV100"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A42" workbookViewId="0">
+      <selection sqref="A1:D1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" customHeight="1"/>
   <cols>

--- a/spec/support/validRoSpreadsheet.xlsx
+++ b/spec/support/validRoSpreadsheet.xlsx
@@ -384,7 +384,7 @@
     <t>Board Non-Availability Dates and Holidays in Date Range</t>
   </si>
   <si>
-    <t>Allocation of Regional Office Video Hearings and Central Office Hearings</t>
+    <t>Allocation of Regional Office Video Hearings</t>
   </si>
   <si>
     <t>Number of Hearing Days Allocated in Date Range</t>
@@ -979,7 +979,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -1077,9 +1077,6 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -3569,7 +3566,7 @@
       <c r="AH8" s="32"/>
       <c r="AI8" s="32"/>
       <c r="AJ8" s="32"/>
-      <c r="AK8" s="33"/>
+      <c r="AK8" s="32"/>
       <c r="AL8" s="32"/>
       <c r="AM8" s="32"/>
       <c r="AN8" s="32"/>
@@ -3595,11 +3592,11 @@
     </row>
     <row r="9" ht="17" customHeight="1">
       <c r="A9" s="22"/>
-      <c r="B9" s="34"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="36">
+      <c r="B9" s="33"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="35">
         <v>43116</v>
       </c>
       <c r="G9" s="32"/>
@@ -3658,10 +3655,10 @@
     </row>
     <row r="10" ht="17" customHeight="1">
       <c r="A10" s="22"/>
-      <c r="B10" s="37"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
       <c r="F10" s="25">
         <v>43245</v>
       </c>
@@ -3721,2445 +3718,2445 @@
     </row>
     <row r="11" ht="17" customHeight="1">
       <c r="A11" s="22"/>
-      <c r="B11" s="39"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="40">
+      <c r="B11" s="38"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="39">
         <v>43205</v>
       </c>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="35"/>
-      <c r="L11" s="35"/>
-      <c r="M11" s="35"/>
-      <c r="N11" s="35"/>
-      <c r="O11" s="35"/>
-      <c r="P11" s="35"/>
-      <c r="Q11" s="35"/>
-      <c r="R11" s="35"/>
-      <c r="S11" s="35"/>
-      <c r="T11" s="35"/>
-      <c r="U11" s="35"/>
-      <c r="V11" s="35"/>
-      <c r="W11" s="35"/>
-      <c r="X11" s="35"/>
-      <c r="Y11" s="35"/>
-      <c r="Z11" s="35"/>
-      <c r="AA11" s="35"/>
-      <c r="AB11" s="35"/>
-      <c r="AC11" s="35"/>
-      <c r="AD11" s="35"/>
-      <c r="AE11" s="35"/>
-      <c r="AF11" s="35"/>
-      <c r="AG11" s="35"/>
-      <c r="AH11" s="35"/>
-      <c r="AI11" s="35"/>
-      <c r="AJ11" s="35"/>
-      <c r="AK11" s="35"/>
-      <c r="AL11" s="35"/>
-      <c r="AM11" s="35"/>
-      <c r="AN11" s="35"/>
-      <c r="AO11" s="35"/>
-      <c r="AP11" s="35"/>
-      <c r="AQ11" s="35"/>
-      <c r="AR11" s="35"/>
-      <c r="AS11" s="35"/>
-      <c r="AT11" s="35"/>
-      <c r="AU11" s="35"/>
-      <c r="AV11" s="35"/>
-      <c r="AW11" s="35"/>
-      <c r="AX11" s="35"/>
-      <c r="AY11" s="35"/>
-      <c r="AZ11" s="35"/>
-      <c r="BA11" s="35"/>
-      <c r="BB11" s="35"/>
-      <c r="BC11" s="35"/>
-      <c r="BD11" s="35"/>
-      <c r="BE11" s="35"/>
-      <c r="BF11" s="35"/>
-      <c r="BG11" s="41"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="34"/>
+      <c r="L11" s="34"/>
+      <c r="M11" s="34"/>
+      <c r="N11" s="34"/>
+      <c r="O11" s="34"/>
+      <c r="P11" s="34"/>
+      <c r="Q11" s="34"/>
+      <c r="R11" s="34"/>
+      <c r="S11" s="34"/>
+      <c r="T11" s="34"/>
+      <c r="U11" s="34"/>
+      <c r="V11" s="34"/>
+      <c r="W11" s="34"/>
+      <c r="X11" s="34"/>
+      <c r="Y11" s="34"/>
+      <c r="Z11" s="34"/>
+      <c r="AA11" s="34"/>
+      <c r="AB11" s="34"/>
+      <c r="AC11" s="34"/>
+      <c r="AD11" s="34"/>
+      <c r="AE11" s="34"/>
+      <c r="AF11" s="34"/>
+      <c r="AG11" s="34"/>
+      <c r="AH11" s="34"/>
+      <c r="AI11" s="34"/>
+      <c r="AJ11" s="34"/>
+      <c r="AK11" s="34"/>
+      <c r="AL11" s="34"/>
+      <c r="AM11" s="34"/>
+      <c r="AN11" s="34"/>
+      <c r="AO11" s="34"/>
+      <c r="AP11" s="34"/>
+      <c r="AQ11" s="34"/>
+      <c r="AR11" s="34"/>
+      <c r="AS11" s="34"/>
+      <c r="AT11" s="34"/>
+      <c r="AU11" s="34"/>
+      <c r="AV11" s="34"/>
+      <c r="AW11" s="34"/>
+      <c r="AX11" s="34"/>
+      <c r="AY11" s="34"/>
+      <c r="AZ11" s="34"/>
+      <c r="BA11" s="34"/>
+      <c r="BB11" s="34"/>
+      <c r="BC11" s="34"/>
+      <c r="BD11" s="34"/>
+      <c r="BE11" s="34"/>
+      <c r="BF11" s="34"/>
+      <c r="BG11" s="40"/>
     </row>
     <row r="12" ht="17" customHeight="1">
       <c r="A12" s="22"/>
-      <c r="B12" s="37"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
       <c r="F12" s="31"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="38"/>
-      <c r="I12" s="38"/>
-      <c r="J12" s="38"/>
-      <c r="K12" s="38"/>
-      <c r="L12" s="38"/>
-      <c r="M12" s="38"/>
-      <c r="N12" s="38"/>
-      <c r="O12" s="38"/>
-      <c r="P12" s="38"/>
-      <c r="Q12" s="38"/>
-      <c r="R12" s="38"/>
-      <c r="S12" s="38"/>
-      <c r="T12" s="38"/>
-      <c r="U12" s="38"/>
-      <c r="V12" s="38"/>
-      <c r="W12" s="38"/>
-      <c r="X12" s="38"/>
-      <c r="Y12" s="38"/>
-      <c r="Z12" s="38"/>
-      <c r="AA12" s="38"/>
-      <c r="AB12" s="38"/>
-      <c r="AC12" s="38"/>
-      <c r="AD12" s="38"/>
-      <c r="AE12" s="38"/>
-      <c r="AF12" s="38"/>
-      <c r="AG12" s="38"/>
-      <c r="AH12" s="38"/>
-      <c r="AI12" s="38"/>
-      <c r="AJ12" s="38"/>
-      <c r="AK12" s="38"/>
-      <c r="AL12" s="38"/>
-      <c r="AM12" s="38"/>
-      <c r="AN12" s="38"/>
-      <c r="AO12" s="38"/>
-      <c r="AP12" s="38"/>
-      <c r="AQ12" s="38"/>
-      <c r="AR12" s="38"/>
-      <c r="AS12" s="38"/>
-      <c r="AT12" s="38"/>
-      <c r="AU12" s="38"/>
-      <c r="AV12" s="38"/>
-      <c r="AW12" s="38"/>
-      <c r="AX12" s="38"/>
-      <c r="AY12" s="38"/>
-      <c r="AZ12" s="38"/>
-      <c r="BA12" s="38"/>
-      <c r="BB12" s="38"/>
-      <c r="BC12" s="38"/>
-      <c r="BD12" s="38"/>
-      <c r="BE12" s="38"/>
-      <c r="BF12" s="38"/>
-      <c r="BG12" s="38"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="37"/>
+      <c r="L12" s="37"/>
+      <c r="M12" s="37"/>
+      <c r="N12" s="37"/>
+      <c r="O12" s="37"/>
+      <c r="P12" s="37"/>
+      <c r="Q12" s="37"/>
+      <c r="R12" s="37"/>
+      <c r="S12" s="37"/>
+      <c r="T12" s="37"/>
+      <c r="U12" s="37"/>
+      <c r="V12" s="37"/>
+      <c r="W12" s="37"/>
+      <c r="X12" s="37"/>
+      <c r="Y12" s="37"/>
+      <c r="Z12" s="37"/>
+      <c r="AA12" s="37"/>
+      <c r="AB12" s="37"/>
+      <c r="AC12" s="37"/>
+      <c r="AD12" s="37"/>
+      <c r="AE12" s="37"/>
+      <c r="AF12" s="37"/>
+      <c r="AG12" s="37"/>
+      <c r="AH12" s="37"/>
+      <c r="AI12" s="37"/>
+      <c r="AJ12" s="37"/>
+      <c r="AK12" s="37"/>
+      <c r="AL12" s="37"/>
+      <c r="AM12" s="37"/>
+      <c r="AN12" s="37"/>
+      <c r="AO12" s="37"/>
+      <c r="AP12" s="37"/>
+      <c r="AQ12" s="37"/>
+      <c r="AR12" s="37"/>
+      <c r="AS12" s="37"/>
+      <c r="AT12" s="37"/>
+      <c r="AU12" s="37"/>
+      <c r="AV12" s="37"/>
+      <c r="AW12" s="37"/>
+      <c r="AX12" s="37"/>
+      <c r="AY12" s="37"/>
+      <c r="AZ12" s="37"/>
+      <c r="BA12" s="37"/>
+      <c r="BB12" s="37"/>
+      <c r="BC12" s="37"/>
+      <c r="BD12" s="37"/>
+      <c r="BE12" s="37"/>
+      <c r="BF12" s="37"/>
+      <c r="BG12" s="37"/>
     </row>
     <row r="13" ht="17" customHeight="1">
       <c r="A13" s="22"/>
-      <c r="B13" s="39"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="35"/>
-      <c r="J13" s="35"/>
-      <c r="K13" s="35"/>
-      <c r="L13" s="35"/>
-      <c r="M13" s="35"/>
-      <c r="N13" s="35"/>
-      <c r="O13" s="35"/>
-      <c r="P13" s="35"/>
-      <c r="Q13" s="35"/>
-      <c r="R13" s="35"/>
-      <c r="S13" s="35"/>
-      <c r="T13" s="35"/>
-      <c r="U13" s="35"/>
-      <c r="V13" s="35"/>
-      <c r="W13" s="35"/>
-      <c r="X13" s="35"/>
-      <c r="Y13" s="35"/>
-      <c r="Z13" s="35"/>
-      <c r="AA13" s="35"/>
-      <c r="AB13" s="35"/>
-      <c r="AC13" s="35"/>
-      <c r="AD13" s="35"/>
-      <c r="AE13" s="35"/>
-      <c r="AF13" s="35"/>
-      <c r="AG13" s="35"/>
-      <c r="AH13" s="35"/>
-      <c r="AI13" s="35"/>
-      <c r="AJ13" s="35"/>
-      <c r="AK13" s="35"/>
-      <c r="AL13" s="35"/>
-      <c r="AM13" s="35"/>
-      <c r="AN13" s="35"/>
-      <c r="AO13" s="35"/>
-      <c r="AP13" s="35"/>
-      <c r="AQ13" s="35"/>
-      <c r="AR13" s="35"/>
-      <c r="AS13" s="35"/>
-      <c r="AT13" s="35"/>
-      <c r="AU13" s="35"/>
-      <c r="AV13" s="35"/>
-      <c r="AW13" s="35"/>
-      <c r="AX13" s="35"/>
-      <c r="AY13" s="35"/>
-      <c r="AZ13" s="35"/>
-      <c r="BA13" s="35"/>
-      <c r="BB13" s="35"/>
-      <c r="BC13" s="35"/>
-      <c r="BD13" s="35"/>
-      <c r="BE13" s="35"/>
-      <c r="BF13" s="35"/>
-      <c r="BG13" s="41"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="34"/>
+      <c r="K13" s="34"/>
+      <c r="L13" s="34"/>
+      <c r="M13" s="34"/>
+      <c r="N13" s="34"/>
+      <c r="O13" s="34"/>
+      <c r="P13" s="34"/>
+      <c r="Q13" s="34"/>
+      <c r="R13" s="34"/>
+      <c r="S13" s="34"/>
+      <c r="T13" s="34"/>
+      <c r="U13" s="34"/>
+      <c r="V13" s="34"/>
+      <c r="W13" s="34"/>
+      <c r="X13" s="34"/>
+      <c r="Y13" s="34"/>
+      <c r="Z13" s="34"/>
+      <c r="AA13" s="34"/>
+      <c r="AB13" s="34"/>
+      <c r="AC13" s="34"/>
+      <c r="AD13" s="34"/>
+      <c r="AE13" s="34"/>
+      <c r="AF13" s="34"/>
+      <c r="AG13" s="34"/>
+      <c r="AH13" s="34"/>
+      <c r="AI13" s="34"/>
+      <c r="AJ13" s="34"/>
+      <c r="AK13" s="34"/>
+      <c r="AL13" s="34"/>
+      <c r="AM13" s="34"/>
+      <c r="AN13" s="34"/>
+      <c r="AO13" s="34"/>
+      <c r="AP13" s="34"/>
+      <c r="AQ13" s="34"/>
+      <c r="AR13" s="34"/>
+      <c r="AS13" s="34"/>
+      <c r="AT13" s="34"/>
+      <c r="AU13" s="34"/>
+      <c r="AV13" s="34"/>
+      <c r="AW13" s="34"/>
+      <c r="AX13" s="34"/>
+      <c r="AY13" s="34"/>
+      <c r="AZ13" s="34"/>
+      <c r="BA13" s="34"/>
+      <c r="BB13" s="34"/>
+      <c r="BC13" s="34"/>
+      <c r="BD13" s="34"/>
+      <c r="BE13" s="34"/>
+      <c r="BF13" s="34"/>
+      <c r="BG13" s="40"/>
     </row>
     <row r="14" ht="17" customHeight="1">
       <c r="A14" s="22"/>
-      <c r="B14" s="37"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="38"/>
-      <c r="I14" s="38"/>
-      <c r="J14" s="38"/>
-      <c r="K14" s="38"/>
-      <c r="L14" s="38"/>
-      <c r="M14" s="38"/>
-      <c r="N14" s="38"/>
-      <c r="O14" s="38"/>
-      <c r="P14" s="38"/>
-      <c r="Q14" s="38"/>
-      <c r="R14" s="38"/>
-      <c r="S14" s="38"/>
-      <c r="T14" s="38"/>
-      <c r="U14" s="38"/>
-      <c r="V14" s="38"/>
-      <c r="W14" s="38"/>
-      <c r="X14" s="38"/>
-      <c r="Y14" s="38"/>
-      <c r="Z14" s="38"/>
-      <c r="AA14" s="38"/>
-      <c r="AB14" s="38"/>
-      <c r="AC14" s="38"/>
-      <c r="AD14" s="38"/>
-      <c r="AE14" s="38"/>
-      <c r="AF14" s="38"/>
-      <c r="AG14" s="38"/>
-      <c r="AH14" s="38"/>
-      <c r="AI14" s="38"/>
-      <c r="AJ14" s="38"/>
-      <c r="AK14" s="38"/>
-      <c r="AL14" s="38"/>
-      <c r="AM14" s="38"/>
-      <c r="AN14" s="38"/>
-      <c r="AO14" s="38"/>
-      <c r="AP14" s="38"/>
-      <c r="AQ14" s="38"/>
-      <c r="AR14" s="38"/>
-      <c r="AS14" s="38"/>
-      <c r="AT14" s="38"/>
-      <c r="AU14" s="38"/>
-      <c r="AV14" s="38"/>
-      <c r="AW14" s="38"/>
-      <c r="AX14" s="38"/>
-      <c r="AY14" s="38"/>
-      <c r="AZ14" s="38"/>
-      <c r="BA14" s="38"/>
-      <c r="BB14" s="38"/>
-      <c r="BC14" s="38"/>
-      <c r="BD14" s="38"/>
-      <c r="BE14" s="38"/>
-      <c r="BF14" s="38"/>
-      <c r="BG14" s="38"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="37"/>
+      <c r="J14" s="37"/>
+      <c r="K14" s="37"/>
+      <c r="L14" s="37"/>
+      <c r="M14" s="37"/>
+      <c r="N14" s="37"/>
+      <c r="O14" s="37"/>
+      <c r="P14" s="37"/>
+      <c r="Q14" s="37"/>
+      <c r="R14" s="37"/>
+      <c r="S14" s="37"/>
+      <c r="T14" s="37"/>
+      <c r="U14" s="37"/>
+      <c r="V14" s="37"/>
+      <c r="W14" s="37"/>
+      <c r="X14" s="37"/>
+      <c r="Y14" s="37"/>
+      <c r="Z14" s="37"/>
+      <c r="AA14" s="37"/>
+      <c r="AB14" s="37"/>
+      <c r="AC14" s="37"/>
+      <c r="AD14" s="37"/>
+      <c r="AE14" s="37"/>
+      <c r="AF14" s="37"/>
+      <c r="AG14" s="37"/>
+      <c r="AH14" s="37"/>
+      <c r="AI14" s="37"/>
+      <c r="AJ14" s="37"/>
+      <c r="AK14" s="37"/>
+      <c r="AL14" s="37"/>
+      <c r="AM14" s="37"/>
+      <c r="AN14" s="37"/>
+      <c r="AO14" s="37"/>
+      <c r="AP14" s="37"/>
+      <c r="AQ14" s="37"/>
+      <c r="AR14" s="37"/>
+      <c r="AS14" s="37"/>
+      <c r="AT14" s="37"/>
+      <c r="AU14" s="37"/>
+      <c r="AV14" s="37"/>
+      <c r="AW14" s="37"/>
+      <c r="AX14" s="37"/>
+      <c r="AY14" s="37"/>
+      <c r="AZ14" s="37"/>
+      <c r="BA14" s="37"/>
+      <c r="BB14" s="37"/>
+      <c r="BC14" s="37"/>
+      <c r="BD14" s="37"/>
+      <c r="BE14" s="37"/>
+      <c r="BF14" s="37"/>
+      <c r="BG14" s="37"/>
     </row>
     <row r="15" ht="17" customHeight="1">
       <c r="A15" s="22"/>
-      <c r="B15" s="39"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="35"/>
-      <c r="J15" s="35"/>
-      <c r="K15" s="35"/>
-      <c r="L15" s="35"/>
-      <c r="M15" s="35"/>
-      <c r="N15" s="35"/>
-      <c r="O15" s="35"/>
-      <c r="P15" s="35"/>
-      <c r="Q15" s="35"/>
-      <c r="R15" s="35"/>
-      <c r="S15" s="35"/>
-      <c r="T15" s="35"/>
-      <c r="U15" s="35"/>
-      <c r="V15" s="35"/>
-      <c r="W15" s="35"/>
-      <c r="X15" s="35"/>
-      <c r="Y15" s="35"/>
-      <c r="Z15" s="35"/>
-      <c r="AA15" s="35"/>
-      <c r="AB15" s="35"/>
-      <c r="AC15" s="35"/>
-      <c r="AD15" s="35"/>
-      <c r="AE15" s="35"/>
-      <c r="AF15" s="35"/>
-      <c r="AG15" s="35"/>
-      <c r="AH15" s="35"/>
-      <c r="AI15" s="35"/>
-      <c r="AJ15" s="35"/>
-      <c r="AK15" s="35"/>
-      <c r="AL15" s="35"/>
-      <c r="AM15" s="35"/>
-      <c r="AN15" s="35"/>
-      <c r="AO15" s="35"/>
-      <c r="AP15" s="35"/>
-      <c r="AQ15" s="35"/>
-      <c r="AR15" s="35"/>
-      <c r="AS15" s="35"/>
-      <c r="AT15" s="35"/>
-      <c r="AU15" s="35"/>
-      <c r="AV15" s="35"/>
-      <c r="AW15" s="35"/>
-      <c r="AX15" s="35"/>
-      <c r="AY15" s="35"/>
-      <c r="AZ15" s="35"/>
-      <c r="BA15" s="35"/>
-      <c r="BB15" s="35"/>
-      <c r="BC15" s="35"/>
-      <c r="BD15" s="35"/>
-      <c r="BE15" s="35"/>
-      <c r="BF15" s="35"/>
-      <c r="BG15" s="41"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="34"/>
+      <c r="K15" s="34"/>
+      <c r="L15" s="34"/>
+      <c r="M15" s="34"/>
+      <c r="N15" s="34"/>
+      <c r="O15" s="34"/>
+      <c r="P15" s="34"/>
+      <c r="Q15" s="34"/>
+      <c r="R15" s="34"/>
+      <c r="S15" s="34"/>
+      <c r="T15" s="34"/>
+      <c r="U15" s="34"/>
+      <c r="V15" s="34"/>
+      <c r="W15" s="34"/>
+      <c r="X15" s="34"/>
+      <c r="Y15" s="34"/>
+      <c r="Z15" s="34"/>
+      <c r="AA15" s="34"/>
+      <c r="AB15" s="34"/>
+      <c r="AC15" s="34"/>
+      <c r="AD15" s="34"/>
+      <c r="AE15" s="34"/>
+      <c r="AF15" s="34"/>
+      <c r="AG15" s="34"/>
+      <c r="AH15" s="34"/>
+      <c r="AI15" s="34"/>
+      <c r="AJ15" s="34"/>
+      <c r="AK15" s="34"/>
+      <c r="AL15" s="34"/>
+      <c r="AM15" s="34"/>
+      <c r="AN15" s="34"/>
+      <c r="AO15" s="34"/>
+      <c r="AP15" s="34"/>
+      <c r="AQ15" s="34"/>
+      <c r="AR15" s="34"/>
+      <c r="AS15" s="34"/>
+      <c r="AT15" s="34"/>
+      <c r="AU15" s="34"/>
+      <c r="AV15" s="34"/>
+      <c r="AW15" s="34"/>
+      <c r="AX15" s="34"/>
+      <c r="AY15" s="34"/>
+      <c r="AZ15" s="34"/>
+      <c r="BA15" s="34"/>
+      <c r="BB15" s="34"/>
+      <c r="BC15" s="34"/>
+      <c r="BD15" s="34"/>
+      <c r="BE15" s="34"/>
+      <c r="BF15" s="34"/>
+      <c r="BG15" s="40"/>
     </row>
     <row r="16" ht="17" customHeight="1">
       <c r="A16" s="22"/>
-      <c r="B16" s="37"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="38"/>
-      <c r="J16" s="38"/>
-      <c r="K16" s="38"/>
-      <c r="L16" s="38"/>
-      <c r="M16" s="38"/>
-      <c r="N16" s="38"/>
-      <c r="O16" s="38"/>
-      <c r="P16" s="38"/>
-      <c r="Q16" s="38"/>
-      <c r="R16" s="38"/>
-      <c r="S16" s="38"/>
-      <c r="T16" s="38"/>
-      <c r="U16" s="38"/>
-      <c r="V16" s="38"/>
-      <c r="W16" s="38"/>
-      <c r="X16" s="38"/>
-      <c r="Y16" s="38"/>
-      <c r="Z16" s="38"/>
-      <c r="AA16" s="38"/>
-      <c r="AB16" s="38"/>
-      <c r="AC16" s="38"/>
-      <c r="AD16" s="38"/>
-      <c r="AE16" s="38"/>
-      <c r="AF16" s="38"/>
-      <c r="AG16" s="38"/>
-      <c r="AH16" s="38"/>
-      <c r="AI16" s="38"/>
-      <c r="AJ16" s="38"/>
-      <c r="AK16" s="38"/>
-      <c r="AL16" s="38"/>
-      <c r="AM16" s="38"/>
-      <c r="AN16" s="38"/>
-      <c r="AO16" s="38"/>
-      <c r="AP16" s="38"/>
-      <c r="AQ16" s="38"/>
-      <c r="AR16" s="38"/>
-      <c r="AS16" s="38"/>
-      <c r="AT16" s="38"/>
-      <c r="AU16" s="38"/>
-      <c r="AV16" s="38"/>
-      <c r="AW16" s="38"/>
-      <c r="AX16" s="38"/>
-      <c r="AY16" s="38"/>
-      <c r="AZ16" s="38"/>
-      <c r="BA16" s="38"/>
-      <c r="BB16" s="38"/>
-      <c r="BC16" s="38"/>
-      <c r="BD16" s="38"/>
-      <c r="BE16" s="38"/>
-      <c r="BF16" s="38"/>
-      <c r="BG16" s="38"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="37"/>
+      <c r="K16" s="37"/>
+      <c r="L16" s="37"/>
+      <c r="M16" s="37"/>
+      <c r="N16" s="37"/>
+      <c r="O16" s="37"/>
+      <c r="P16" s="37"/>
+      <c r="Q16" s="37"/>
+      <c r="R16" s="37"/>
+      <c r="S16" s="37"/>
+      <c r="T16" s="37"/>
+      <c r="U16" s="37"/>
+      <c r="V16" s="37"/>
+      <c r="W16" s="37"/>
+      <c r="X16" s="37"/>
+      <c r="Y16" s="37"/>
+      <c r="Z16" s="37"/>
+      <c r="AA16" s="37"/>
+      <c r="AB16" s="37"/>
+      <c r="AC16" s="37"/>
+      <c r="AD16" s="37"/>
+      <c r="AE16" s="37"/>
+      <c r="AF16" s="37"/>
+      <c r="AG16" s="37"/>
+      <c r="AH16" s="37"/>
+      <c r="AI16" s="37"/>
+      <c r="AJ16" s="37"/>
+      <c r="AK16" s="37"/>
+      <c r="AL16" s="37"/>
+      <c r="AM16" s="37"/>
+      <c r="AN16" s="37"/>
+      <c r="AO16" s="37"/>
+      <c r="AP16" s="37"/>
+      <c r="AQ16" s="37"/>
+      <c r="AR16" s="37"/>
+      <c r="AS16" s="37"/>
+      <c r="AT16" s="37"/>
+      <c r="AU16" s="37"/>
+      <c r="AV16" s="37"/>
+      <c r="AW16" s="37"/>
+      <c r="AX16" s="37"/>
+      <c r="AY16" s="37"/>
+      <c r="AZ16" s="37"/>
+      <c r="BA16" s="37"/>
+      <c r="BB16" s="37"/>
+      <c r="BC16" s="37"/>
+      <c r="BD16" s="37"/>
+      <c r="BE16" s="37"/>
+      <c r="BF16" s="37"/>
+      <c r="BG16" s="37"/>
     </row>
     <row r="17" ht="17" customHeight="1">
       <c r="A17" s="22"/>
-      <c r="B17" s="39"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="35"/>
-      <c r="K17" s="35"/>
-      <c r="L17" s="35"/>
-      <c r="M17" s="35"/>
-      <c r="N17" s="35"/>
-      <c r="O17" s="35"/>
-      <c r="P17" s="35"/>
-      <c r="Q17" s="35"/>
-      <c r="R17" s="35"/>
-      <c r="S17" s="35"/>
-      <c r="T17" s="35"/>
-      <c r="U17" s="35"/>
-      <c r="V17" s="35"/>
-      <c r="W17" s="35"/>
-      <c r="X17" s="35"/>
-      <c r="Y17" s="35"/>
-      <c r="Z17" s="35"/>
-      <c r="AA17" s="35"/>
-      <c r="AB17" s="35"/>
-      <c r="AC17" s="35"/>
-      <c r="AD17" s="35"/>
-      <c r="AE17" s="35"/>
-      <c r="AF17" s="35"/>
-      <c r="AG17" s="35"/>
-      <c r="AH17" s="35"/>
-      <c r="AI17" s="35"/>
-      <c r="AJ17" s="35"/>
-      <c r="AK17" s="35"/>
-      <c r="AL17" s="35"/>
-      <c r="AM17" s="35"/>
-      <c r="AN17" s="35"/>
-      <c r="AO17" s="35"/>
-      <c r="AP17" s="35"/>
-      <c r="AQ17" s="35"/>
-      <c r="AR17" s="35"/>
-      <c r="AS17" s="35"/>
-      <c r="AT17" s="35"/>
-      <c r="AU17" s="35"/>
-      <c r="AV17" s="35"/>
-      <c r="AW17" s="35"/>
-      <c r="AX17" s="35"/>
-      <c r="AY17" s="35"/>
-      <c r="AZ17" s="35"/>
-      <c r="BA17" s="35"/>
-      <c r="BB17" s="35"/>
-      <c r="BC17" s="35"/>
-      <c r="BD17" s="35"/>
-      <c r="BE17" s="35"/>
-      <c r="BF17" s="35"/>
-      <c r="BG17" s="41"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="34"/>
+      <c r="L17" s="34"/>
+      <c r="M17" s="34"/>
+      <c r="N17" s="34"/>
+      <c r="O17" s="34"/>
+      <c r="P17" s="34"/>
+      <c r="Q17" s="34"/>
+      <c r="R17" s="34"/>
+      <c r="S17" s="34"/>
+      <c r="T17" s="34"/>
+      <c r="U17" s="34"/>
+      <c r="V17" s="34"/>
+      <c r="W17" s="34"/>
+      <c r="X17" s="34"/>
+      <c r="Y17" s="34"/>
+      <c r="Z17" s="34"/>
+      <c r="AA17" s="34"/>
+      <c r="AB17" s="34"/>
+      <c r="AC17" s="34"/>
+      <c r="AD17" s="34"/>
+      <c r="AE17" s="34"/>
+      <c r="AF17" s="34"/>
+      <c r="AG17" s="34"/>
+      <c r="AH17" s="34"/>
+      <c r="AI17" s="34"/>
+      <c r="AJ17" s="34"/>
+      <c r="AK17" s="34"/>
+      <c r="AL17" s="34"/>
+      <c r="AM17" s="34"/>
+      <c r="AN17" s="34"/>
+      <c r="AO17" s="34"/>
+      <c r="AP17" s="34"/>
+      <c r="AQ17" s="34"/>
+      <c r="AR17" s="34"/>
+      <c r="AS17" s="34"/>
+      <c r="AT17" s="34"/>
+      <c r="AU17" s="34"/>
+      <c r="AV17" s="34"/>
+      <c r="AW17" s="34"/>
+      <c r="AX17" s="34"/>
+      <c r="AY17" s="34"/>
+      <c r="AZ17" s="34"/>
+      <c r="BA17" s="34"/>
+      <c r="BB17" s="34"/>
+      <c r="BC17" s="34"/>
+      <c r="BD17" s="34"/>
+      <c r="BE17" s="34"/>
+      <c r="BF17" s="34"/>
+      <c r="BG17" s="40"/>
     </row>
     <row r="18" ht="17" customHeight="1">
       <c r="A18" s="22"/>
-      <c r="B18" s="37"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="38"/>
-      <c r="J18" s="38"/>
-      <c r="K18" s="38"/>
-      <c r="L18" s="38"/>
-      <c r="M18" s="38"/>
-      <c r="N18" s="38"/>
-      <c r="O18" s="38"/>
-      <c r="P18" s="38"/>
-      <c r="Q18" s="38"/>
-      <c r="R18" s="38"/>
-      <c r="S18" s="38"/>
-      <c r="T18" s="38"/>
-      <c r="U18" s="38"/>
-      <c r="V18" s="38"/>
-      <c r="W18" s="38"/>
-      <c r="X18" s="38"/>
-      <c r="Y18" s="38"/>
-      <c r="Z18" s="38"/>
-      <c r="AA18" s="38"/>
-      <c r="AB18" s="38"/>
-      <c r="AC18" s="38"/>
-      <c r="AD18" s="38"/>
-      <c r="AE18" s="38"/>
-      <c r="AF18" s="38"/>
-      <c r="AG18" s="38"/>
-      <c r="AH18" s="38"/>
-      <c r="AI18" s="38"/>
-      <c r="AJ18" s="38"/>
-      <c r="AK18" s="38"/>
-      <c r="AL18" s="38"/>
-      <c r="AM18" s="38"/>
-      <c r="AN18" s="38"/>
-      <c r="AO18" s="38"/>
-      <c r="AP18" s="38"/>
-      <c r="AQ18" s="38"/>
-      <c r="AR18" s="38"/>
-      <c r="AS18" s="38"/>
-      <c r="AT18" s="38"/>
-      <c r="AU18" s="38"/>
-      <c r="AV18" s="38"/>
-      <c r="AW18" s="38"/>
-      <c r="AX18" s="38"/>
-      <c r="AY18" s="38"/>
-      <c r="AZ18" s="38"/>
-      <c r="BA18" s="38"/>
-      <c r="BB18" s="38"/>
-      <c r="BC18" s="38"/>
-      <c r="BD18" s="38"/>
-      <c r="BE18" s="38"/>
-      <c r="BF18" s="38"/>
-      <c r="BG18" s="38"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="37"/>
+      <c r="L18" s="37"/>
+      <c r="M18" s="37"/>
+      <c r="N18" s="37"/>
+      <c r="O18" s="37"/>
+      <c r="P18" s="37"/>
+      <c r="Q18" s="37"/>
+      <c r="R18" s="37"/>
+      <c r="S18" s="37"/>
+      <c r="T18" s="37"/>
+      <c r="U18" s="37"/>
+      <c r="V18" s="37"/>
+      <c r="W18" s="37"/>
+      <c r="X18" s="37"/>
+      <c r="Y18" s="37"/>
+      <c r="Z18" s="37"/>
+      <c r="AA18" s="37"/>
+      <c r="AB18" s="37"/>
+      <c r="AC18" s="37"/>
+      <c r="AD18" s="37"/>
+      <c r="AE18" s="37"/>
+      <c r="AF18" s="37"/>
+      <c r="AG18" s="37"/>
+      <c r="AH18" s="37"/>
+      <c r="AI18" s="37"/>
+      <c r="AJ18" s="37"/>
+      <c r="AK18" s="37"/>
+      <c r="AL18" s="37"/>
+      <c r="AM18" s="37"/>
+      <c r="AN18" s="37"/>
+      <c r="AO18" s="37"/>
+      <c r="AP18" s="37"/>
+      <c r="AQ18" s="37"/>
+      <c r="AR18" s="37"/>
+      <c r="AS18" s="37"/>
+      <c r="AT18" s="37"/>
+      <c r="AU18" s="37"/>
+      <c r="AV18" s="37"/>
+      <c r="AW18" s="37"/>
+      <c r="AX18" s="37"/>
+      <c r="AY18" s="37"/>
+      <c r="AZ18" s="37"/>
+      <c r="BA18" s="37"/>
+      <c r="BB18" s="37"/>
+      <c r="BC18" s="37"/>
+      <c r="BD18" s="37"/>
+      <c r="BE18" s="37"/>
+      <c r="BF18" s="37"/>
+      <c r="BG18" s="37"/>
     </row>
     <row r="19" ht="17" customHeight="1">
       <c r="A19" s="22"/>
-      <c r="B19" s="39"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="35"/>
-      <c r="I19" s="35"/>
-      <c r="J19" s="35"/>
-      <c r="K19" s="35"/>
-      <c r="L19" s="35"/>
-      <c r="M19" s="35"/>
-      <c r="N19" s="35"/>
-      <c r="O19" s="35"/>
-      <c r="P19" s="35"/>
-      <c r="Q19" s="35"/>
-      <c r="R19" s="35"/>
-      <c r="S19" s="35"/>
-      <c r="T19" s="35"/>
-      <c r="U19" s="35"/>
-      <c r="V19" s="35"/>
-      <c r="W19" s="35"/>
-      <c r="X19" s="35"/>
-      <c r="Y19" s="35"/>
-      <c r="Z19" s="35"/>
-      <c r="AA19" s="35"/>
-      <c r="AB19" s="35"/>
-      <c r="AC19" s="35"/>
-      <c r="AD19" s="35"/>
-      <c r="AE19" s="35"/>
-      <c r="AF19" s="35"/>
-      <c r="AG19" s="35"/>
-      <c r="AH19" s="35"/>
-      <c r="AI19" s="35"/>
-      <c r="AJ19" s="35"/>
-      <c r="AK19" s="35"/>
-      <c r="AL19" s="35"/>
-      <c r="AM19" s="35"/>
-      <c r="AN19" s="35"/>
-      <c r="AO19" s="35"/>
-      <c r="AP19" s="35"/>
-      <c r="AQ19" s="35"/>
-      <c r="AR19" s="35"/>
-      <c r="AS19" s="35"/>
-      <c r="AT19" s="35"/>
-      <c r="AU19" s="35"/>
-      <c r="AV19" s="35"/>
-      <c r="AW19" s="35"/>
-      <c r="AX19" s="35"/>
-      <c r="AY19" s="35"/>
-      <c r="AZ19" s="35"/>
-      <c r="BA19" s="35"/>
-      <c r="BB19" s="35"/>
-      <c r="BC19" s="35"/>
-      <c r="BD19" s="35"/>
-      <c r="BE19" s="35"/>
-      <c r="BF19" s="35"/>
-      <c r="BG19" s="41"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="34"/>
+      <c r="K19" s="34"/>
+      <c r="L19" s="34"/>
+      <c r="M19" s="34"/>
+      <c r="N19" s="34"/>
+      <c r="O19" s="34"/>
+      <c r="P19" s="34"/>
+      <c r="Q19" s="34"/>
+      <c r="R19" s="34"/>
+      <c r="S19" s="34"/>
+      <c r="T19" s="34"/>
+      <c r="U19" s="34"/>
+      <c r="V19" s="34"/>
+      <c r="W19" s="34"/>
+      <c r="X19" s="34"/>
+      <c r="Y19" s="34"/>
+      <c r="Z19" s="34"/>
+      <c r="AA19" s="34"/>
+      <c r="AB19" s="34"/>
+      <c r="AC19" s="34"/>
+      <c r="AD19" s="34"/>
+      <c r="AE19" s="34"/>
+      <c r="AF19" s="34"/>
+      <c r="AG19" s="34"/>
+      <c r="AH19" s="34"/>
+      <c r="AI19" s="34"/>
+      <c r="AJ19" s="34"/>
+      <c r="AK19" s="34"/>
+      <c r="AL19" s="34"/>
+      <c r="AM19" s="34"/>
+      <c r="AN19" s="34"/>
+      <c r="AO19" s="34"/>
+      <c r="AP19" s="34"/>
+      <c r="AQ19" s="34"/>
+      <c r="AR19" s="34"/>
+      <c r="AS19" s="34"/>
+      <c r="AT19" s="34"/>
+      <c r="AU19" s="34"/>
+      <c r="AV19" s="34"/>
+      <c r="AW19" s="34"/>
+      <c r="AX19" s="34"/>
+      <c r="AY19" s="34"/>
+      <c r="AZ19" s="34"/>
+      <c r="BA19" s="34"/>
+      <c r="BB19" s="34"/>
+      <c r="BC19" s="34"/>
+      <c r="BD19" s="34"/>
+      <c r="BE19" s="34"/>
+      <c r="BF19" s="34"/>
+      <c r="BG19" s="40"/>
     </row>
     <row r="20" ht="17" customHeight="1">
       <c r="A20" s="22"/>
-      <c r="B20" s="37"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="38"/>
-      <c r="I20" s="38"/>
-      <c r="J20" s="38"/>
-      <c r="K20" s="38"/>
-      <c r="L20" s="38"/>
-      <c r="M20" s="38"/>
-      <c r="N20" s="38"/>
-      <c r="O20" s="38"/>
-      <c r="P20" s="38"/>
-      <c r="Q20" s="38"/>
-      <c r="R20" s="38"/>
-      <c r="S20" s="38"/>
-      <c r="T20" s="38"/>
-      <c r="U20" s="38"/>
-      <c r="V20" s="38"/>
-      <c r="W20" s="38"/>
-      <c r="X20" s="38"/>
-      <c r="Y20" s="38"/>
-      <c r="Z20" s="38"/>
-      <c r="AA20" s="38"/>
-      <c r="AB20" s="38"/>
-      <c r="AC20" s="38"/>
-      <c r="AD20" s="38"/>
-      <c r="AE20" s="38"/>
-      <c r="AF20" s="38"/>
-      <c r="AG20" s="38"/>
-      <c r="AH20" s="38"/>
-      <c r="AI20" s="38"/>
-      <c r="AJ20" s="38"/>
-      <c r="AK20" s="38"/>
-      <c r="AL20" s="38"/>
-      <c r="AM20" s="38"/>
-      <c r="AN20" s="38"/>
-      <c r="AO20" s="38"/>
-      <c r="AP20" s="38"/>
-      <c r="AQ20" s="38"/>
-      <c r="AR20" s="38"/>
-      <c r="AS20" s="38"/>
-      <c r="AT20" s="38"/>
-      <c r="AU20" s="38"/>
-      <c r="AV20" s="38"/>
-      <c r="AW20" s="38"/>
-      <c r="AX20" s="38"/>
-      <c r="AY20" s="38"/>
-      <c r="AZ20" s="38"/>
-      <c r="BA20" s="38"/>
-      <c r="BB20" s="38"/>
-      <c r="BC20" s="38"/>
-      <c r="BD20" s="38"/>
-      <c r="BE20" s="38"/>
-      <c r="BF20" s="38"/>
-      <c r="BG20" s="38"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="37"/>
+      <c r="K20" s="37"/>
+      <c r="L20" s="37"/>
+      <c r="M20" s="37"/>
+      <c r="N20" s="37"/>
+      <c r="O20" s="37"/>
+      <c r="P20" s="37"/>
+      <c r="Q20" s="37"/>
+      <c r="R20" s="37"/>
+      <c r="S20" s="37"/>
+      <c r="T20" s="37"/>
+      <c r="U20" s="37"/>
+      <c r="V20" s="37"/>
+      <c r="W20" s="37"/>
+      <c r="X20" s="37"/>
+      <c r="Y20" s="37"/>
+      <c r="Z20" s="37"/>
+      <c r="AA20" s="37"/>
+      <c r="AB20" s="37"/>
+      <c r="AC20" s="37"/>
+      <c r="AD20" s="37"/>
+      <c r="AE20" s="37"/>
+      <c r="AF20" s="37"/>
+      <c r="AG20" s="37"/>
+      <c r="AH20" s="37"/>
+      <c r="AI20" s="37"/>
+      <c r="AJ20" s="37"/>
+      <c r="AK20" s="37"/>
+      <c r="AL20" s="37"/>
+      <c r="AM20" s="37"/>
+      <c r="AN20" s="37"/>
+      <c r="AO20" s="37"/>
+      <c r="AP20" s="37"/>
+      <c r="AQ20" s="37"/>
+      <c r="AR20" s="37"/>
+      <c r="AS20" s="37"/>
+      <c r="AT20" s="37"/>
+      <c r="AU20" s="37"/>
+      <c r="AV20" s="37"/>
+      <c r="AW20" s="37"/>
+      <c r="AX20" s="37"/>
+      <c r="AY20" s="37"/>
+      <c r="AZ20" s="37"/>
+      <c r="BA20" s="37"/>
+      <c r="BB20" s="37"/>
+      <c r="BC20" s="37"/>
+      <c r="BD20" s="37"/>
+      <c r="BE20" s="37"/>
+      <c r="BF20" s="37"/>
+      <c r="BG20" s="37"/>
     </row>
     <row r="21" ht="17" customHeight="1">
       <c r="A21" s="22"/>
-      <c r="B21" s="39"/>
-      <c r="C21" s="35"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="35"/>
-      <c r="H21" s="35"/>
-      <c r="I21" s="35"/>
-      <c r="J21" s="35"/>
-      <c r="K21" s="35"/>
-      <c r="L21" s="35"/>
-      <c r="M21" s="35"/>
-      <c r="N21" s="35"/>
-      <c r="O21" s="35"/>
-      <c r="P21" s="35"/>
-      <c r="Q21" s="35"/>
-      <c r="R21" s="35"/>
-      <c r="S21" s="35"/>
-      <c r="T21" s="35"/>
-      <c r="U21" s="35"/>
-      <c r="V21" s="35"/>
-      <c r="W21" s="35"/>
-      <c r="X21" s="35"/>
-      <c r="Y21" s="35"/>
-      <c r="Z21" s="35"/>
-      <c r="AA21" s="35"/>
-      <c r="AB21" s="35"/>
-      <c r="AC21" s="35"/>
-      <c r="AD21" s="35"/>
-      <c r="AE21" s="35"/>
-      <c r="AF21" s="35"/>
-      <c r="AG21" s="35"/>
-      <c r="AH21" s="35"/>
-      <c r="AI21" s="35"/>
-      <c r="AJ21" s="35"/>
-      <c r="AK21" s="35"/>
-      <c r="AL21" s="35"/>
-      <c r="AM21" s="35"/>
-      <c r="AN21" s="35"/>
-      <c r="AO21" s="35"/>
-      <c r="AP21" s="35"/>
-      <c r="AQ21" s="35"/>
-      <c r="AR21" s="35"/>
-      <c r="AS21" s="35"/>
-      <c r="AT21" s="35"/>
-      <c r="AU21" s="35"/>
-      <c r="AV21" s="35"/>
-      <c r="AW21" s="35"/>
-      <c r="AX21" s="35"/>
-      <c r="AY21" s="35"/>
-      <c r="AZ21" s="35"/>
-      <c r="BA21" s="35"/>
-      <c r="BB21" s="35"/>
-      <c r="BC21" s="35"/>
-      <c r="BD21" s="35"/>
-      <c r="BE21" s="35"/>
-      <c r="BF21" s="35"/>
-      <c r="BG21" s="41"/>
+      <c r="B21" s="38"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="34"/>
+      <c r="J21" s="34"/>
+      <c r="K21" s="34"/>
+      <c r="L21" s="34"/>
+      <c r="M21" s="34"/>
+      <c r="N21" s="34"/>
+      <c r="O21" s="34"/>
+      <c r="P21" s="34"/>
+      <c r="Q21" s="34"/>
+      <c r="R21" s="34"/>
+      <c r="S21" s="34"/>
+      <c r="T21" s="34"/>
+      <c r="U21" s="34"/>
+      <c r="V21" s="34"/>
+      <c r="W21" s="34"/>
+      <c r="X21" s="34"/>
+      <c r="Y21" s="34"/>
+      <c r="Z21" s="34"/>
+      <c r="AA21" s="34"/>
+      <c r="AB21" s="34"/>
+      <c r="AC21" s="34"/>
+      <c r="AD21" s="34"/>
+      <c r="AE21" s="34"/>
+      <c r="AF21" s="34"/>
+      <c r="AG21" s="34"/>
+      <c r="AH21" s="34"/>
+      <c r="AI21" s="34"/>
+      <c r="AJ21" s="34"/>
+      <c r="AK21" s="34"/>
+      <c r="AL21" s="34"/>
+      <c r="AM21" s="34"/>
+      <c r="AN21" s="34"/>
+      <c r="AO21" s="34"/>
+      <c r="AP21" s="34"/>
+      <c r="AQ21" s="34"/>
+      <c r="AR21" s="34"/>
+      <c r="AS21" s="34"/>
+      <c r="AT21" s="34"/>
+      <c r="AU21" s="34"/>
+      <c r="AV21" s="34"/>
+      <c r="AW21" s="34"/>
+      <c r="AX21" s="34"/>
+      <c r="AY21" s="34"/>
+      <c r="AZ21" s="34"/>
+      <c r="BA21" s="34"/>
+      <c r="BB21" s="34"/>
+      <c r="BC21" s="34"/>
+      <c r="BD21" s="34"/>
+      <c r="BE21" s="34"/>
+      <c r="BF21" s="34"/>
+      <c r="BG21" s="40"/>
     </row>
     <row r="22" ht="17" customHeight="1">
       <c r="A22" s="22"/>
-      <c r="B22" s="37"/>
-      <c r="C22" s="38"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="38"/>
-      <c r="H22" s="38"/>
-      <c r="I22" s="38"/>
-      <c r="J22" s="38"/>
-      <c r="K22" s="38"/>
-      <c r="L22" s="38"/>
-      <c r="M22" s="38"/>
-      <c r="N22" s="38"/>
-      <c r="O22" s="38"/>
-      <c r="P22" s="38"/>
-      <c r="Q22" s="38"/>
-      <c r="R22" s="38"/>
-      <c r="S22" s="38"/>
-      <c r="T22" s="38"/>
-      <c r="U22" s="38"/>
-      <c r="V22" s="38"/>
-      <c r="W22" s="38"/>
-      <c r="X22" s="38"/>
-      <c r="Y22" s="38"/>
-      <c r="Z22" s="38"/>
-      <c r="AA22" s="38"/>
-      <c r="AB22" s="38"/>
-      <c r="AC22" s="38"/>
-      <c r="AD22" s="38"/>
-      <c r="AE22" s="38"/>
-      <c r="AF22" s="38"/>
-      <c r="AG22" s="38"/>
-      <c r="AH22" s="38"/>
-      <c r="AI22" s="38"/>
-      <c r="AJ22" s="38"/>
-      <c r="AK22" s="38"/>
-      <c r="AL22" s="38"/>
-      <c r="AM22" s="38"/>
-      <c r="AN22" s="38"/>
-      <c r="AO22" s="38"/>
-      <c r="AP22" s="38"/>
-      <c r="AQ22" s="38"/>
-      <c r="AR22" s="38"/>
-      <c r="AS22" s="38"/>
-      <c r="AT22" s="38"/>
-      <c r="AU22" s="38"/>
-      <c r="AV22" s="38"/>
-      <c r="AW22" s="38"/>
-      <c r="AX22" s="38"/>
-      <c r="AY22" s="38"/>
-      <c r="AZ22" s="38"/>
-      <c r="BA22" s="38"/>
-      <c r="BB22" s="38"/>
-      <c r="BC22" s="38"/>
-      <c r="BD22" s="38"/>
-      <c r="BE22" s="38"/>
-      <c r="BF22" s="38"/>
-      <c r="BG22" s="38"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="37"/>
+      <c r="K22" s="37"/>
+      <c r="L22" s="37"/>
+      <c r="M22" s="37"/>
+      <c r="N22" s="37"/>
+      <c r="O22" s="37"/>
+      <c r="P22" s="37"/>
+      <c r="Q22" s="37"/>
+      <c r="R22" s="37"/>
+      <c r="S22" s="37"/>
+      <c r="T22" s="37"/>
+      <c r="U22" s="37"/>
+      <c r="V22" s="37"/>
+      <c r="W22" s="37"/>
+      <c r="X22" s="37"/>
+      <c r="Y22" s="37"/>
+      <c r="Z22" s="37"/>
+      <c r="AA22" s="37"/>
+      <c r="AB22" s="37"/>
+      <c r="AC22" s="37"/>
+      <c r="AD22" s="37"/>
+      <c r="AE22" s="37"/>
+      <c r="AF22" s="37"/>
+      <c r="AG22" s="37"/>
+      <c r="AH22" s="37"/>
+      <c r="AI22" s="37"/>
+      <c r="AJ22" s="37"/>
+      <c r="AK22" s="37"/>
+      <c r="AL22" s="37"/>
+      <c r="AM22" s="37"/>
+      <c r="AN22" s="37"/>
+      <c r="AO22" s="37"/>
+      <c r="AP22" s="37"/>
+      <c r="AQ22" s="37"/>
+      <c r="AR22" s="37"/>
+      <c r="AS22" s="37"/>
+      <c r="AT22" s="37"/>
+      <c r="AU22" s="37"/>
+      <c r="AV22" s="37"/>
+      <c r="AW22" s="37"/>
+      <c r="AX22" s="37"/>
+      <c r="AY22" s="37"/>
+      <c r="AZ22" s="37"/>
+      <c r="BA22" s="37"/>
+      <c r="BB22" s="37"/>
+      <c r="BC22" s="37"/>
+      <c r="BD22" s="37"/>
+      <c r="BE22" s="37"/>
+      <c r="BF22" s="37"/>
+      <c r="BG22" s="37"/>
     </row>
     <row r="23" ht="17" customHeight="1">
       <c r="A23" s="22"/>
-      <c r="B23" s="39"/>
-      <c r="C23" s="35"/>
-      <c r="D23" s="35"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="35"/>
-      <c r="I23" s="35"/>
-      <c r="J23" s="35"/>
-      <c r="K23" s="35"/>
-      <c r="L23" s="35"/>
-      <c r="M23" s="35"/>
-      <c r="N23" s="35"/>
-      <c r="O23" s="35"/>
-      <c r="P23" s="35"/>
-      <c r="Q23" s="35"/>
-      <c r="R23" s="35"/>
-      <c r="S23" s="35"/>
-      <c r="T23" s="35"/>
-      <c r="U23" s="35"/>
-      <c r="V23" s="35"/>
-      <c r="W23" s="35"/>
-      <c r="X23" s="35"/>
-      <c r="Y23" s="35"/>
-      <c r="Z23" s="35"/>
-      <c r="AA23" s="35"/>
-      <c r="AB23" s="35"/>
-      <c r="AC23" s="35"/>
-      <c r="AD23" s="35"/>
-      <c r="AE23" s="35"/>
-      <c r="AF23" s="35"/>
-      <c r="AG23" s="35"/>
-      <c r="AH23" s="35"/>
-      <c r="AI23" s="35"/>
-      <c r="AJ23" s="35"/>
-      <c r="AK23" s="35"/>
-      <c r="AL23" s="35"/>
-      <c r="AM23" s="35"/>
-      <c r="AN23" s="35"/>
-      <c r="AO23" s="35"/>
-      <c r="AP23" s="35"/>
-      <c r="AQ23" s="35"/>
-      <c r="AR23" s="35"/>
-      <c r="AS23" s="35"/>
-      <c r="AT23" s="35"/>
-      <c r="AU23" s="35"/>
-      <c r="AV23" s="35"/>
-      <c r="AW23" s="35"/>
-      <c r="AX23" s="35"/>
-      <c r="AY23" s="35"/>
-      <c r="AZ23" s="35"/>
-      <c r="BA23" s="35"/>
-      <c r="BB23" s="35"/>
-      <c r="BC23" s="35"/>
-      <c r="BD23" s="35"/>
-      <c r="BE23" s="35"/>
-      <c r="BF23" s="35"/>
-      <c r="BG23" s="41"/>
+      <c r="B23" s="38"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="34"/>
+      <c r="K23" s="34"/>
+      <c r="L23" s="34"/>
+      <c r="M23" s="34"/>
+      <c r="N23" s="34"/>
+      <c r="O23" s="34"/>
+      <c r="P23" s="34"/>
+      <c r="Q23" s="34"/>
+      <c r="R23" s="34"/>
+      <c r="S23" s="34"/>
+      <c r="T23" s="34"/>
+      <c r="U23" s="34"/>
+      <c r="V23" s="34"/>
+      <c r="W23" s="34"/>
+      <c r="X23" s="34"/>
+      <c r="Y23" s="34"/>
+      <c r="Z23" s="34"/>
+      <c r="AA23" s="34"/>
+      <c r="AB23" s="34"/>
+      <c r="AC23" s="34"/>
+      <c r="AD23" s="34"/>
+      <c r="AE23" s="34"/>
+      <c r="AF23" s="34"/>
+      <c r="AG23" s="34"/>
+      <c r="AH23" s="34"/>
+      <c r="AI23" s="34"/>
+      <c r="AJ23" s="34"/>
+      <c r="AK23" s="34"/>
+      <c r="AL23" s="34"/>
+      <c r="AM23" s="34"/>
+      <c r="AN23" s="34"/>
+      <c r="AO23" s="34"/>
+      <c r="AP23" s="34"/>
+      <c r="AQ23" s="34"/>
+      <c r="AR23" s="34"/>
+      <c r="AS23" s="34"/>
+      <c r="AT23" s="34"/>
+      <c r="AU23" s="34"/>
+      <c r="AV23" s="34"/>
+      <c r="AW23" s="34"/>
+      <c r="AX23" s="34"/>
+      <c r="AY23" s="34"/>
+      <c r="AZ23" s="34"/>
+      <c r="BA23" s="34"/>
+      <c r="BB23" s="34"/>
+      <c r="BC23" s="34"/>
+      <c r="BD23" s="34"/>
+      <c r="BE23" s="34"/>
+      <c r="BF23" s="34"/>
+      <c r="BG23" s="40"/>
     </row>
     <row r="24" ht="17" customHeight="1">
       <c r="A24" s="22"/>
-      <c r="B24" s="37"/>
-      <c r="C24" s="38"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="38"/>
-      <c r="H24" s="38"/>
-      <c r="I24" s="38"/>
-      <c r="J24" s="38"/>
-      <c r="K24" s="38"/>
-      <c r="L24" s="38"/>
-      <c r="M24" s="38"/>
-      <c r="N24" s="38"/>
-      <c r="O24" s="38"/>
-      <c r="P24" s="38"/>
-      <c r="Q24" s="38"/>
-      <c r="R24" s="38"/>
-      <c r="S24" s="38"/>
-      <c r="T24" s="38"/>
-      <c r="U24" s="38"/>
-      <c r="V24" s="38"/>
-      <c r="W24" s="38"/>
-      <c r="X24" s="38"/>
-      <c r="Y24" s="38"/>
-      <c r="Z24" s="38"/>
-      <c r="AA24" s="38"/>
-      <c r="AB24" s="38"/>
-      <c r="AC24" s="38"/>
-      <c r="AD24" s="38"/>
-      <c r="AE24" s="38"/>
-      <c r="AF24" s="38"/>
-      <c r="AG24" s="38"/>
-      <c r="AH24" s="38"/>
-      <c r="AI24" s="38"/>
-      <c r="AJ24" s="38"/>
-      <c r="AK24" s="38"/>
-      <c r="AL24" s="38"/>
-      <c r="AM24" s="38"/>
-      <c r="AN24" s="38"/>
-      <c r="AO24" s="38"/>
-      <c r="AP24" s="38"/>
-      <c r="AQ24" s="38"/>
-      <c r="AR24" s="38"/>
-      <c r="AS24" s="38"/>
-      <c r="AT24" s="38"/>
-      <c r="AU24" s="38"/>
-      <c r="AV24" s="38"/>
-      <c r="AW24" s="38"/>
-      <c r="AX24" s="38"/>
-      <c r="AY24" s="38"/>
-      <c r="AZ24" s="38"/>
-      <c r="BA24" s="38"/>
-      <c r="BB24" s="38"/>
-      <c r="BC24" s="38"/>
-      <c r="BD24" s="38"/>
-      <c r="BE24" s="38"/>
-      <c r="BF24" s="38"/>
-      <c r="BG24" s="38"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="37"/>
+      <c r="I24" s="37"/>
+      <c r="J24" s="37"/>
+      <c r="K24" s="37"/>
+      <c r="L24" s="37"/>
+      <c r="M24" s="37"/>
+      <c r="N24" s="37"/>
+      <c r="O24" s="37"/>
+      <c r="P24" s="37"/>
+      <c r="Q24" s="37"/>
+      <c r="R24" s="37"/>
+      <c r="S24" s="37"/>
+      <c r="T24" s="37"/>
+      <c r="U24" s="37"/>
+      <c r="V24" s="37"/>
+      <c r="W24" s="37"/>
+      <c r="X24" s="37"/>
+      <c r="Y24" s="37"/>
+      <c r="Z24" s="37"/>
+      <c r="AA24" s="37"/>
+      <c r="AB24" s="37"/>
+      <c r="AC24" s="37"/>
+      <c r="AD24" s="37"/>
+      <c r="AE24" s="37"/>
+      <c r="AF24" s="37"/>
+      <c r="AG24" s="37"/>
+      <c r="AH24" s="37"/>
+      <c r="AI24" s="37"/>
+      <c r="AJ24" s="37"/>
+      <c r="AK24" s="37"/>
+      <c r="AL24" s="37"/>
+      <c r="AM24" s="37"/>
+      <c r="AN24" s="37"/>
+      <c r="AO24" s="37"/>
+      <c r="AP24" s="37"/>
+      <c r="AQ24" s="37"/>
+      <c r="AR24" s="37"/>
+      <c r="AS24" s="37"/>
+      <c r="AT24" s="37"/>
+      <c r="AU24" s="37"/>
+      <c r="AV24" s="37"/>
+      <c r="AW24" s="37"/>
+      <c r="AX24" s="37"/>
+      <c r="AY24" s="37"/>
+      <c r="AZ24" s="37"/>
+      <c r="BA24" s="37"/>
+      <c r="BB24" s="37"/>
+      <c r="BC24" s="37"/>
+      <c r="BD24" s="37"/>
+      <c r="BE24" s="37"/>
+      <c r="BF24" s="37"/>
+      <c r="BG24" s="37"/>
     </row>
     <row r="25" ht="17" customHeight="1">
       <c r="A25" s="22"/>
-      <c r="B25" s="39"/>
-      <c r="C25" s="35"/>
-      <c r="D25" s="35"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="35"/>
-      <c r="I25" s="35"/>
-      <c r="J25" s="35"/>
-      <c r="K25" s="35"/>
-      <c r="L25" s="35"/>
-      <c r="M25" s="35"/>
-      <c r="N25" s="35"/>
-      <c r="O25" s="35"/>
-      <c r="P25" s="35"/>
-      <c r="Q25" s="35"/>
-      <c r="R25" s="35"/>
-      <c r="S25" s="35"/>
-      <c r="T25" s="35"/>
-      <c r="U25" s="35"/>
-      <c r="V25" s="35"/>
-      <c r="W25" s="35"/>
-      <c r="X25" s="35"/>
-      <c r="Y25" s="35"/>
-      <c r="Z25" s="35"/>
-      <c r="AA25" s="35"/>
-      <c r="AB25" s="35"/>
-      <c r="AC25" s="35"/>
-      <c r="AD25" s="35"/>
-      <c r="AE25" s="35"/>
-      <c r="AF25" s="35"/>
-      <c r="AG25" s="35"/>
-      <c r="AH25" s="35"/>
-      <c r="AI25" s="35"/>
-      <c r="AJ25" s="35"/>
-      <c r="AK25" s="35"/>
-      <c r="AL25" s="35"/>
-      <c r="AM25" s="35"/>
-      <c r="AN25" s="35"/>
-      <c r="AO25" s="35"/>
-      <c r="AP25" s="35"/>
-      <c r="AQ25" s="35"/>
-      <c r="AR25" s="35"/>
-      <c r="AS25" s="35"/>
-      <c r="AT25" s="35"/>
-      <c r="AU25" s="35"/>
-      <c r="AV25" s="35"/>
-      <c r="AW25" s="35"/>
-      <c r="AX25" s="35"/>
-      <c r="AY25" s="35"/>
-      <c r="AZ25" s="35"/>
-      <c r="BA25" s="35"/>
-      <c r="BB25" s="35"/>
-      <c r="BC25" s="35"/>
-      <c r="BD25" s="35"/>
-      <c r="BE25" s="35"/>
-      <c r="BF25" s="35"/>
-      <c r="BG25" s="41"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="34"/>
+      <c r="J25" s="34"/>
+      <c r="K25" s="34"/>
+      <c r="L25" s="34"/>
+      <c r="M25" s="34"/>
+      <c r="N25" s="34"/>
+      <c r="O25" s="34"/>
+      <c r="P25" s="34"/>
+      <c r="Q25" s="34"/>
+      <c r="R25" s="34"/>
+      <c r="S25" s="34"/>
+      <c r="T25" s="34"/>
+      <c r="U25" s="34"/>
+      <c r="V25" s="34"/>
+      <c r="W25" s="34"/>
+      <c r="X25" s="34"/>
+      <c r="Y25" s="34"/>
+      <c r="Z25" s="34"/>
+      <c r="AA25" s="34"/>
+      <c r="AB25" s="34"/>
+      <c r="AC25" s="34"/>
+      <c r="AD25" s="34"/>
+      <c r="AE25" s="34"/>
+      <c r="AF25" s="34"/>
+      <c r="AG25" s="34"/>
+      <c r="AH25" s="34"/>
+      <c r="AI25" s="34"/>
+      <c r="AJ25" s="34"/>
+      <c r="AK25" s="34"/>
+      <c r="AL25" s="34"/>
+      <c r="AM25" s="34"/>
+      <c r="AN25" s="34"/>
+      <c r="AO25" s="34"/>
+      <c r="AP25" s="34"/>
+      <c r="AQ25" s="34"/>
+      <c r="AR25" s="34"/>
+      <c r="AS25" s="34"/>
+      <c r="AT25" s="34"/>
+      <c r="AU25" s="34"/>
+      <c r="AV25" s="34"/>
+      <c r="AW25" s="34"/>
+      <c r="AX25" s="34"/>
+      <c r="AY25" s="34"/>
+      <c r="AZ25" s="34"/>
+      <c r="BA25" s="34"/>
+      <c r="BB25" s="34"/>
+      <c r="BC25" s="34"/>
+      <c r="BD25" s="34"/>
+      <c r="BE25" s="34"/>
+      <c r="BF25" s="34"/>
+      <c r="BG25" s="40"/>
     </row>
     <row r="26" ht="17" customHeight="1">
       <c r="A26" s="22"/>
-      <c r="B26" s="37"/>
-      <c r="C26" s="38"/>
-      <c r="D26" s="38"/>
-      <c r="E26" s="38"/>
-      <c r="F26" s="38"/>
-      <c r="G26" s="38"/>
-      <c r="H26" s="38"/>
-      <c r="I26" s="38"/>
-      <c r="J26" s="38"/>
-      <c r="K26" s="38"/>
-      <c r="L26" s="38"/>
-      <c r="M26" s="38"/>
-      <c r="N26" s="38"/>
-      <c r="O26" s="38"/>
-      <c r="P26" s="38"/>
-      <c r="Q26" s="38"/>
-      <c r="R26" s="38"/>
-      <c r="S26" s="38"/>
-      <c r="T26" s="38"/>
-      <c r="U26" s="38"/>
-      <c r="V26" s="38"/>
-      <c r="W26" s="38"/>
-      <c r="X26" s="38"/>
-      <c r="Y26" s="38"/>
-      <c r="Z26" s="38"/>
-      <c r="AA26" s="38"/>
-      <c r="AB26" s="38"/>
-      <c r="AC26" s="38"/>
-      <c r="AD26" s="38"/>
-      <c r="AE26" s="38"/>
-      <c r="AF26" s="38"/>
-      <c r="AG26" s="38"/>
-      <c r="AH26" s="38"/>
-      <c r="AI26" s="38"/>
-      <c r="AJ26" s="38"/>
-      <c r="AK26" s="38"/>
-      <c r="AL26" s="38"/>
-      <c r="AM26" s="38"/>
-      <c r="AN26" s="38"/>
-      <c r="AO26" s="38"/>
-      <c r="AP26" s="38"/>
-      <c r="AQ26" s="38"/>
-      <c r="AR26" s="38"/>
-      <c r="AS26" s="38"/>
-      <c r="AT26" s="38"/>
-      <c r="AU26" s="38"/>
-      <c r="AV26" s="38"/>
-      <c r="AW26" s="38"/>
-      <c r="AX26" s="38"/>
-      <c r="AY26" s="38"/>
-      <c r="AZ26" s="38"/>
-      <c r="BA26" s="38"/>
-      <c r="BB26" s="38"/>
-      <c r="BC26" s="38"/>
-      <c r="BD26" s="38"/>
-      <c r="BE26" s="38"/>
-      <c r="BF26" s="38"/>
-      <c r="BG26" s="38"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="37"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="37"/>
+      <c r="I26" s="37"/>
+      <c r="J26" s="37"/>
+      <c r="K26" s="37"/>
+      <c r="L26" s="37"/>
+      <c r="M26" s="37"/>
+      <c r="N26" s="37"/>
+      <c r="O26" s="37"/>
+      <c r="P26" s="37"/>
+      <c r="Q26" s="37"/>
+      <c r="R26" s="37"/>
+      <c r="S26" s="37"/>
+      <c r="T26" s="37"/>
+      <c r="U26" s="37"/>
+      <c r="V26" s="37"/>
+      <c r="W26" s="37"/>
+      <c r="X26" s="37"/>
+      <c r="Y26" s="37"/>
+      <c r="Z26" s="37"/>
+      <c r="AA26" s="37"/>
+      <c r="AB26" s="37"/>
+      <c r="AC26" s="37"/>
+      <c r="AD26" s="37"/>
+      <c r="AE26" s="37"/>
+      <c r="AF26" s="37"/>
+      <c r="AG26" s="37"/>
+      <c r="AH26" s="37"/>
+      <c r="AI26" s="37"/>
+      <c r="AJ26" s="37"/>
+      <c r="AK26" s="37"/>
+      <c r="AL26" s="37"/>
+      <c r="AM26" s="37"/>
+      <c r="AN26" s="37"/>
+      <c r="AO26" s="37"/>
+      <c r="AP26" s="37"/>
+      <c r="AQ26" s="37"/>
+      <c r="AR26" s="37"/>
+      <c r="AS26" s="37"/>
+      <c r="AT26" s="37"/>
+      <c r="AU26" s="37"/>
+      <c r="AV26" s="37"/>
+      <c r="AW26" s="37"/>
+      <c r="AX26" s="37"/>
+      <c r="AY26" s="37"/>
+      <c r="AZ26" s="37"/>
+      <c r="BA26" s="37"/>
+      <c r="BB26" s="37"/>
+      <c r="BC26" s="37"/>
+      <c r="BD26" s="37"/>
+      <c r="BE26" s="37"/>
+      <c r="BF26" s="37"/>
+      <c r="BG26" s="37"/>
     </row>
     <row r="27" ht="17" customHeight="1">
       <c r="A27" s="22"/>
-      <c r="B27" s="39"/>
-      <c r="C27" s="35"/>
-      <c r="D27" s="35"/>
-      <c r="E27" s="35"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="35"/>
-      <c r="H27" s="35"/>
-      <c r="I27" s="35"/>
-      <c r="J27" s="35"/>
-      <c r="K27" s="35"/>
-      <c r="L27" s="35"/>
-      <c r="M27" s="35"/>
-      <c r="N27" s="35"/>
-      <c r="O27" s="35"/>
-      <c r="P27" s="35"/>
-      <c r="Q27" s="35"/>
-      <c r="R27" s="35"/>
-      <c r="S27" s="35"/>
-      <c r="T27" s="35"/>
-      <c r="U27" s="35"/>
-      <c r="V27" s="35"/>
-      <c r="W27" s="35"/>
-      <c r="X27" s="35"/>
-      <c r="Y27" s="35"/>
-      <c r="Z27" s="35"/>
-      <c r="AA27" s="35"/>
-      <c r="AB27" s="35"/>
-      <c r="AC27" s="35"/>
-      <c r="AD27" s="35"/>
-      <c r="AE27" s="35"/>
-      <c r="AF27" s="35"/>
-      <c r="AG27" s="35"/>
-      <c r="AH27" s="35"/>
-      <c r="AI27" s="35"/>
-      <c r="AJ27" s="35"/>
-      <c r="AK27" s="35"/>
-      <c r="AL27" s="35"/>
-      <c r="AM27" s="35"/>
-      <c r="AN27" s="35"/>
-      <c r="AO27" s="35"/>
-      <c r="AP27" s="35"/>
-      <c r="AQ27" s="35"/>
-      <c r="AR27" s="35"/>
-      <c r="AS27" s="35"/>
-      <c r="AT27" s="35"/>
-      <c r="AU27" s="35"/>
-      <c r="AV27" s="35"/>
-      <c r="AW27" s="35"/>
-      <c r="AX27" s="35"/>
-      <c r="AY27" s="35"/>
-      <c r="AZ27" s="35"/>
-      <c r="BA27" s="35"/>
-      <c r="BB27" s="35"/>
-      <c r="BC27" s="35"/>
-      <c r="BD27" s="35"/>
-      <c r="BE27" s="35"/>
-      <c r="BF27" s="35"/>
-      <c r="BG27" s="41"/>
+      <c r="B27" s="38"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="34"/>
+      <c r="I27" s="34"/>
+      <c r="J27" s="34"/>
+      <c r="K27" s="34"/>
+      <c r="L27" s="34"/>
+      <c r="M27" s="34"/>
+      <c r="N27" s="34"/>
+      <c r="O27" s="34"/>
+      <c r="P27" s="34"/>
+      <c r="Q27" s="34"/>
+      <c r="R27" s="34"/>
+      <c r="S27" s="34"/>
+      <c r="T27" s="34"/>
+      <c r="U27" s="34"/>
+      <c r="V27" s="34"/>
+      <c r="W27" s="34"/>
+      <c r="X27" s="34"/>
+      <c r="Y27" s="34"/>
+      <c r="Z27" s="34"/>
+      <c r="AA27" s="34"/>
+      <c r="AB27" s="34"/>
+      <c r="AC27" s="34"/>
+      <c r="AD27" s="34"/>
+      <c r="AE27" s="34"/>
+      <c r="AF27" s="34"/>
+      <c r="AG27" s="34"/>
+      <c r="AH27" s="34"/>
+      <c r="AI27" s="34"/>
+      <c r="AJ27" s="34"/>
+      <c r="AK27" s="34"/>
+      <c r="AL27" s="34"/>
+      <c r="AM27" s="34"/>
+      <c r="AN27" s="34"/>
+      <c r="AO27" s="34"/>
+      <c r="AP27" s="34"/>
+      <c r="AQ27" s="34"/>
+      <c r="AR27" s="34"/>
+      <c r="AS27" s="34"/>
+      <c r="AT27" s="34"/>
+      <c r="AU27" s="34"/>
+      <c r="AV27" s="34"/>
+      <c r="AW27" s="34"/>
+      <c r="AX27" s="34"/>
+      <c r="AY27" s="34"/>
+      <c r="AZ27" s="34"/>
+      <c r="BA27" s="34"/>
+      <c r="BB27" s="34"/>
+      <c r="BC27" s="34"/>
+      <c r="BD27" s="34"/>
+      <c r="BE27" s="34"/>
+      <c r="BF27" s="34"/>
+      <c r="BG27" s="40"/>
     </row>
     <row r="28" ht="17" customHeight="1">
       <c r="A28" s="22"/>
-      <c r="B28" s="37"/>
-      <c r="C28" s="38"/>
-      <c r="D28" s="38"/>
-      <c r="E28" s="38"/>
-      <c r="F28" s="38"/>
-      <c r="G28" s="38"/>
-      <c r="H28" s="38"/>
-      <c r="I28" s="38"/>
-      <c r="J28" s="38"/>
-      <c r="K28" s="38"/>
-      <c r="L28" s="38"/>
-      <c r="M28" s="38"/>
-      <c r="N28" s="38"/>
-      <c r="O28" s="38"/>
-      <c r="P28" s="38"/>
-      <c r="Q28" s="38"/>
-      <c r="R28" s="38"/>
-      <c r="S28" s="38"/>
-      <c r="T28" s="38"/>
-      <c r="U28" s="38"/>
-      <c r="V28" s="38"/>
-      <c r="W28" s="38"/>
-      <c r="X28" s="38"/>
-      <c r="Y28" s="38"/>
-      <c r="Z28" s="38"/>
-      <c r="AA28" s="38"/>
-      <c r="AB28" s="38"/>
-      <c r="AC28" s="38"/>
-      <c r="AD28" s="38"/>
-      <c r="AE28" s="38"/>
-      <c r="AF28" s="38"/>
-      <c r="AG28" s="38"/>
-      <c r="AH28" s="38"/>
-      <c r="AI28" s="38"/>
-      <c r="AJ28" s="38"/>
-      <c r="AK28" s="38"/>
-      <c r="AL28" s="38"/>
-      <c r="AM28" s="38"/>
-      <c r="AN28" s="38"/>
-      <c r="AO28" s="38"/>
-      <c r="AP28" s="38"/>
-      <c r="AQ28" s="38"/>
-      <c r="AR28" s="38"/>
-      <c r="AS28" s="38"/>
-      <c r="AT28" s="38"/>
-      <c r="AU28" s="38"/>
-      <c r="AV28" s="38"/>
-      <c r="AW28" s="38"/>
-      <c r="AX28" s="38"/>
-      <c r="AY28" s="38"/>
-      <c r="AZ28" s="38"/>
-      <c r="BA28" s="38"/>
-      <c r="BB28" s="38"/>
-      <c r="BC28" s="38"/>
-      <c r="BD28" s="38"/>
-      <c r="BE28" s="38"/>
-      <c r="BF28" s="38"/>
-      <c r="BG28" s="38"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="37"/>
+      <c r="I28" s="37"/>
+      <c r="J28" s="37"/>
+      <c r="K28" s="37"/>
+      <c r="L28" s="37"/>
+      <c r="M28" s="37"/>
+      <c r="N28" s="37"/>
+      <c r="O28" s="37"/>
+      <c r="P28" s="37"/>
+      <c r="Q28" s="37"/>
+      <c r="R28" s="37"/>
+      <c r="S28" s="37"/>
+      <c r="T28" s="37"/>
+      <c r="U28" s="37"/>
+      <c r="V28" s="37"/>
+      <c r="W28" s="37"/>
+      <c r="X28" s="37"/>
+      <c r="Y28" s="37"/>
+      <c r="Z28" s="37"/>
+      <c r="AA28" s="37"/>
+      <c r="AB28" s="37"/>
+      <c r="AC28" s="37"/>
+      <c r="AD28" s="37"/>
+      <c r="AE28" s="37"/>
+      <c r="AF28" s="37"/>
+      <c r="AG28" s="37"/>
+      <c r="AH28" s="37"/>
+      <c r="AI28" s="37"/>
+      <c r="AJ28" s="37"/>
+      <c r="AK28" s="37"/>
+      <c r="AL28" s="37"/>
+      <c r="AM28" s="37"/>
+      <c r="AN28" s="37"/>
+      <c r="AO28" s="37"/>
+      <c r="AP28" s="37"/>
+      <c r="AQ28" s="37"/>
+      <c r="AR28" s="37"/>
+      <c r="AS28" s="37"/>
+      <c r="AT28" s="37"/>
+      <c r="AU28" s="37"/>
+      <c r="AV28" s="37"/>
+      <c r="AW28" s="37"/>
+      <c r="AX28" s="37"/>
+      <c r="AY28" s="37"/>
+      <c r="AZ28" s="37"/>
+      <c r="BA28" s="37"/>
+      <c r="BB28" s="37"/>
+      <c r="BC28" s="37"/>
+      <c r="BD28" s="37"/>
+      <c r="BE28" s="37"/>
+      <c r="BF28" s="37"/>
+      <c r="BG28" s="37"/>
     </row>
     <row r="29" ht="17" customHeight="1">
       <c r="A29" s="22"/>
-      <c r="B29" s="39"/>
-      <c r="C29" s="35"/>
-      <c r="D29" s="35"/>
-      <c r="E29" s="35"/>
-      <c r="F29" s="35"/>
-      <c r="G29" s="35"/>
-      <c r="H29" s="35"/>
-      <c r="I29" s="35"/>
-      <c r="J29" s="35"/>
-      <c r="K29" s="35"/>
-      <c r="L29" s="35"/>
-      <c r="M29" s="35"/>
-      <c r="N29" s="35"/>
-      <c r="O29" s="35"/>
-      <c r="P29" s="35"/>
-      <c r="Q29" s="35"/>
-      <c r="R29" s="35"/>
-      <c r="S29" s="35"/>
-      <c r="T29" s="35"/>
-      <c r="U29" s="35"/>
-      <c r="V29" s="35"/>
-      <c r="W29" s="35"/>
-      <c r="X29" s="35"/>
-      <c r="Y29" s="35"/>
-      <c r="Z29" s="35"/>
-      <c r="AA29" s="35"/>
-      <c r="AB29" s="35"/>
-      <c r="AC29" s="35"/>
-      <c r="AD29" s="35"/>
-      <c r="AE29" s="35"/>
-      <c r="AF29" s="35"/>
-      <c r="AG29" s="35"/>
-      <c r="AH29" s="35"/>
-      <c r="AI29" s="35"/>
-      <c r="AJ29" s="35"/>
-      <c r="AK29" s="35"/>
-      <c r="AL29" s="35"/>
-      <c r="AM29" s="35"/>
-      <c r="AN29" s="35"/>
-      <c r="AO29" s="35"/>
-      <c r="AP29" s="35"/>
-      <c r="AQ29" s="35"/>
-      <c r="AR29" s="35"/>
-      <c r="AS29" s="35"/>
-      <c r="AT29" s="35"/>
-      <c r="AU29" s="35"/>
-      <c r="AV29" s="35"/>
-      <c r="AW29" s="35"/>
-      <c r="AX29" s="35"/>
-      <c r="AY29" s="35"/>
-      <c r="AZ29" s="35"/>
-      <c r="BA29" s="35"/>
-      <c r="BB29" s="35"/>
-      <c r="BC29" s="35"/>
-      <c r="BD29" s="35"/>
-      <c r="BE29" s="35"/>
-      <c r="BF29" s="35"/>
-      <c r="BG29" s="41"/>
+      <c r="B29" s="38"/>
+      <c r="C29" s="34"/>
+      <c r="D29" s="34"/>
+      <c r="E29" s="34"/>
+      <c r="F29" s="34"/>
+      <c r="G29" s="34"/>
+      <c r="H29" s="34"/>
+      <c r="I29" s="34"/>
+      <c r="J29" s="34"/>
+      <c r="K29" s="34"/>
+      <c r="L29" s="34"/>
+      <c r="M29" s="34"/>
+      <c r="N29" s="34"/>
+      <c r="O29" s="34"/>
+      <c r="P29" s="34"/>
+      <c r="Q29" s="34"/>
+      <c r="R29" s="34"/>
+      <c r="S29" s="34"/>
+      <c r="T29" s="34"/>
+      <c r="U29" s="34"/>
+      <c r="V29" s="34"/>
+      <c r="W29" s="34"/>
+      <c r="X29" s="34"/>
+      <c r="Y29" s="34"/>
+      <c r="Z29" s="34"/>
+      <c r="AA29" s="34"/>
+      <c r="AB29" s="34"/>
+      <c r="AC29" s="34"/>
+      <c r="AD29" s="34"/>
+      <c r="AE29" s="34"/>
+      <c r="AF29" s="34"/>
+      <c r="AG29" s="34"/>
+      <c r="AH29" s="34"/>
+      <c r="AI29" s="34"/>
+      <c r="AJ29" s="34"/>
+      <c r="AK29" s="34"/>
+      <c r="AL29" s="34"/>
+      <c r="AM29" s="34"/>
+      <c r="AN29" s="34"/>
+      <c r="AO29" s="34"/>
+      <c r="AP29" s="34"/>
+      <c r="AQ29" s="34"/>
+      <c r="AR29" s="34"/>
+      <c r="AS29" s="34"/>
+      <c r="AT29" s="34"/>
+      <c r="AU29" s="34"/>
+      <c r="AV29" s="34"/>
+      <c r="AW29" s="34"/>
+      <c r="AX29" s="34"/>
+      <c r="AY29" s="34"/>
+      <c r="AZ29" s="34"/>
+      <c r="BA29" s="34"/>
+      <c r="BB29" s="34"/>
+      <c r="BC29" s="34"/>
+      <c r="BD29" s="34"/>
+      <c r="BE29" s="34"/>
+      <c r="BF29" s="34"/>
+      <c r="BG29" s="40"/>
     </row>
     <row r="30" ht="17" customHeight="1">
       <c r="A30" s="22"/>
-      <c r="B30" s="37"/>
-      <c r="C30" s="38"/>
-      <c r="D30" s="38"/>
-      <c r="E30" s="38"/>
-      <c r="F30" s="38"/>
-      <c r="G30" s="38"/>
-      <c r="H30" s="38"/>
-      <c r="I30" s="38"/>
-      <c r="J30" s="38"/>
-      <c r="K30" s="38"/>
-      <c r="L30" s="38"/>
-      <c r="M30" s="38"/>
-      <c r="N30" s="38"/>
-      <c r="O30" s="38"/>
-      <c r="P30" s="38"/>
-      <c r="Q30" s="38"/>
-      <c r="R30" s="38"/>
-      <c r="S30" s="38"/>
-      <c r="T30" s="38"/>
-      <c r="U30" s="38"/>
-      <c r="V30" s="38"/>
-      <c r="W30" s="38"/>
-      <c r="X30" s="38"/>
-      <c r="Y30" s="38"/>
-      <c r="Z30" s="38"/>
-      <c r="AA30" s="38"/>
-      <c r="AB30" s="38"/>
-      <c r="AC30" s="38"/>
-      <c r="AD30" s="38"/>
-      <c r="AE30" s="38"/>
-      <c r="AF30" s="38"/>
-      <c r="AG30" s="38"/>
-      <c r="AH30" s="38"/>
-      <c r="AI30" s="38"/>
-      <c r="AJ30" s="38"/>
-      <c r="AK30" s="38"/>
-      <c r="AL30" s="38"/>
-      <c r="AM30" s="38"/>
-      <c r="AN30" s="38"/>
-      <c r="AO30" s="38"/>
-      <c r="AP30" s="38"/>
-      <c r="AQ30" s="38"/>
-      <c r="AR30" s="38"/>
-      <c r="AS30" s="38"/>
-      <c r="AT30" s="38"/>
-      <c r="AU30" s="38"/>
-      <c r="AV30" s="38"/>
-      <c r="AW30" s="38"/>
-      <c r="AX30" s="38"/>
-      <c r="AY30" s="38"/>
-      <c r="AZ30" s="38"/>
-      <c r="BA30" s="38"/>
-      <c r="BB30" s="38"/>
-      <c r="BC30" s="38"/>
-      <c r="BD30" s="38"/>
-      <c r="BE30" s="38"/>
-      <c r="BF30" s="38"/>
-      <c r="BG30" s="38"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="37"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="37"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="37"/>
+      <c r="H30" s="37"/>
+      <c r="I30" s="37"/>
+      <c r="J30" s="37"/>
+      <c r="K30" s="37"/>
+      <c r="L30" s="37"/>
+      <c r="M30" s="37"/>
+      <c r="N30" s="37"/>
+      <c r="O30" s="37"/>
+      <c r="P30" s="37"/>
+      <c r="Q30" s="37"/>
+      <c r="R30" s="37"/>
+      <c r="S30" s="37"/>
+      <c r="T30" s="37"/>
+      <c r="U30" s="37"/>
+      <c r="V30" s="37"/>
+      <c r="W30" s="37"/>
+      <c r="X30" s="37"/>
+      <c r="Y30" s="37"/>
+      <c r="Z30" s="37"/>
+      <c r="AA30" s="37"/>
+      <c r="AB30" s="37"/>
+      <c r="AC30" s="37"/>
+      <c r="AD30" s="37"/>
+      <c r="AE30" s="37"/>
+      <c r="AF30" s="37"/>
+      <c r="AG30" s="37"/>
+      <c r="AH30" s="37"/>
+      <c r="AI30" s="37"/>
+      <c r="AJ30" s="37"/>
+      <c r="AK30" s="37"/>
+      <c r="AL30" s="37"/>
+      <c r="AM30" s="37"/>
+      <c r="AN30" s="37"/>
+      <c r="AO30" s="37"/>
+      <c r="AP30" s="37"/>
+      <c r="AQ30" s="37"/>
+      <c r="AR30" s="37"/>
+      <c r="AS30" s="37"/>
+      <c r="AT30" s="37"/>
+      <c r="AU30" s="37"/>
+      <c r="AV30" s="37"/>
+      <c r="AW30" s="37"/>
+      <c r="AX30" s="37"/>
+      <c r="AY30" s="37"/>
+      <c r="AZ30" s="37"/>
+      <c r="BA30" s="37"/>
+      <c r="BB30" s="37"/>
+      <c r="BC30" s="37"/>
+      <c r="BD30" s="37"/>
+      <c r="BE30" s="37"/>
+      <c r="BF30" s="37"/>
+      <c r="BG30" s="37"/>
     </row>
     <row r="31" ht="17" customHeight="1">
       <c r="A31" s="22"/>
-      <c r="B31" s="39"/>
-      <c r="C31" s="35"/>
-      <c r="D31" s="35"/>
-      <c r="E31" s="35"/>
-      <c r="F31" s="35"/>
-      <c r="G31" s="35"/>
-      <c r="H31" s="35"/>
-      <c r="I31" s="35"/>
-      <c r="J31" s="35"/>
-      <c r="K31" s="35"/>
-      <c r="L31" s="35"/>
-      <c r="M31" s="35"/>
-      <c r="N31" s="35"/>
-      <c r="O31" s="35"/>
-      <c r="P31" s="35"/>
-      <c r="Q31" s="35"/>
-      <c r="R31" s="35"/>
-      <c r="S31" s="35"/>
-      <c r="T31" s="35"/>
-      <c r="U31" s="35"/>
-      <c r="V31" s="35"/>
-      <c r="W31" s="35"/>
-      <c r="X31" s="35"/>
-      <c r="Y31" s="35"/>
-      <c r="Z31" s="35"/>
-      <c r="AA31" s="35"/>
-      <c r="AB31" s="35"/>
-      <c r="AC31" s="35"/>
-      <c r="AD31" s="35"/>
-      <c r="AE31" s="35"/>
-      <c r="AF31" s="35"/>
-      <c r="AG31" s="35"/>
-      <c r="AH31" s="35"/>
-      <c r="AI31" s="35"/>
-      <c r="AJ31" s="35"/>
-      <c r="AK31" s="35"/>
-      <c r="AL31" s="35"/>
-      <c r="AM31" s="35"/>
-      <c r="AN31" s="35"/>
-      <c r="AO31" s="35"/>
-      <c r="AP31" s="35"/>
-      <c r="AQ31" s="35"/>
-      <c r="AR31" s="35"/>
-      <c r="AS31" s="35"/>
-      <c r="AT31" s="35"/>
-      <c r="AU31" s="35"/>
-      <c r="AV31" s="35"/>
-      <c r="AW31" s="35"/>
-      <c r="AX31" s="35"/>
-      <c r="AY31" s="35"/>
-      <c r="AZ31" s="35"/>
-      <c r="BA31" s="35"/>
-      <c r="BB31" s="35"/>
-      <c r="BC31" s="35"/>
-      <c r="BD31" s="35"/>
-      <c r="BE31" s="35"/>
-      <c r="BF31" s="35"/>
-      <c r="BG31" s="41"/>
+      <c r="B31" s="38"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="34"/>
+      <c r="H31" s="34"/>
+      <c r="I31" s="34"/>
+      <c r="J31" s="34"/>
+      <c r="K31" s="34"/>
+      <c r="L31" s="34"/>
+      <c r="M31" s="34"/>
+      <c r="N31" s="34"/>
+      <c r="O31" s="34"/>
+      <c r="P31" s="34"/>
+      <c r="Q31" s="34"/>
+      <c r="R31" s="34"/>
+      <c r="S31" s="34"/>
+      <c r="T31" s="34"/>
+      <c r="U31" s="34"/>
+      <c r="V31" s="34"/>
+      <c r="W31" s="34"/>
+      <c r="X31" s="34"/>
+      <c r="Y31" s="34"/>
+      <c r="Z31" s="34"/>
+      <c r="AA31" s="34"/>
+      <c r="AB31" s="34"/>
+      <c r="AC31" s="34"/>
+      <c r="AD31" s="34"/>
+      <c r="AE31" s="34"/>
+      <c r="AF31" s="34"/>
+      <c r="AG31" s="34"/>
+      <c r="AH31" s="34"/>
+      <c r="AI31" s="34"/>
+      <c r="AJ31" s="34"/>
+      <c r="AK31" s="34"/>
+      <c r="AL31" s="34"/>
+      <c r="AM31" s="34"/>
+      <c r="AN31" s="34"/>
+      <c r="AO31" s="34"/>
+      <c r="AP31" s="34"/>
+      <c r="AQ31" s="34"/>
+      <c r="AR31" s="34"/>
+      <c r="AS31" s="34"/>
+      <c r="AT31" s="34"/>
+      <c r="AU31" s="34"/>
+      <c r="AV31" s="34"/>
+      <c r="AW31" s="34"/>
+      <c r="AX31" s="34"/>
+      <c r="AY31" s="34"/>
+      <c r="AZ31" s="34"/>
+      <c r="BA31" s="34"/>
+      <c r="BB31" s="34"/>
+      <c r="BC31" s="34"/>
+      <c r="BD31" s="34"/>
+      <c r="BE31" s="34"/>
+      <c r="BF31" s="34"/>
+      <c r="BG31" s="40"/>
     </row>
     <row r="32" ht="17" customHeight="1">
       <c r="A32" s="22"/>
-      <c r="B32" s="37"/>
-      <c r="C32" s="38"/>
-      <c r="D32" s="38"/>
-      <c r="E32" s="38"/>
-      <c r="F32" s="38"/>
-      <c r="G32" s="38"/>
-      <c r="H32" s="38"/>
-      <c r="I32" s="38"/>
-      <c r="J32" s="38"/>
-      <c r="K32" s="38"/>
-      <c r="L32" s="38"/>
-      <c r="M32" s="38"/>
-      <c r="N32" s="38"/>
-      <c r="O32" s="38"/>
-      <c r="P32" s="38"/>
-      <c r="Q32" s="38"/>
-      <c r="R32" s="38"/>
-      <c r="S32" s="38"/>
-      <c r="T32" s="38"/>
-      <c r="U32" s="38"/>
-      <c r="V32" s="38"/>
-      <c r="W32" s="38"/>
-      <c r="X32" s="38"/>
-      <c r="Y32" s="38"/>
-      <c r="Z32" s="38"/>
-      <c r="AA32" s="38"/>
-      <c r="AB32" s="38"/>
-      <c r="AC32" s="38"/>
-      <c r="AD32" s="38"/>
-      <c r="AE32" s="38"/>
-      <c r="AF32" s="38"/>
-      <c r="AG32" s="38"/>
-      <c r="AH32" s="38"/>
-      <c r="AI32" s="38"/>
-      <c r="AJ32" s="38"/>
-      <c r="AK32" s="38"/>
-      <c r="AL32" s="38"/>
-      <c r="AM32" s="38"/>
-      <c r="AN32" s="38"/>
-      <c r="AO32" s="38"/>
-      <c r="AP32" s="38"/>
-      <c r="AQ32" s="38"/>
-      <c r="AR32" s="38"/>
-      <c r="AS32" s="38"/>
-      <c r="AT32" s="38"/>
-      <c r="AU32" s="38"/>
-      <c r="AV32" s="38"/>
-      <c r="AW32" s="38"/>
-      <c r="AX32" s="38"/>
-      <c r="AY32" s="38"/>
-      <c r="AZ32" s="38"/>
-      <c r="BA32" s="38"/>
-      <c r="BB32" s="38"/>
-      <c r="BC32" s="38"/>
-      <c r="BD32" s="38"/>
-      <c r="BE32" s="38"/>
-      <c r="BF32" s="38"/>
-      <c r="BG32" s="38"/>
+      <c r="B32" s="36"/>
+      <c r="C32" s="37"/>
+      <c r="D32" s="37"/>
+      <c r="E32" s="37"/>
+      <c r="F32" s="37"/>
+      <c r="G32" s="37"/>
+      <c r="H32" s="37"/>
+      <c r="I32" s="37"/>
+      <c r="J32" s="37"/>
+      <c r="K32" s="37"/>
+      <c r="L32" s="37"/>
+      <c r="M32" s="37"/>
+      <c r="N32" s="37"/>
+      <c r="O32" s="37"/>
+      <c r="P32" s="37"/>
+      <c r="Q32" s="37"/>
+      <c r="R32" s="37"/>
+      <c r="S32" s="37"/>
+      <c r="T32" s="37"/>
+      <c r="U32" s="37"/>
+      <c r="V32" s="37"/>
+      <c r="W32" s="37"/>
+      <c r="X32" s="37"/>
+      <c r="Y32" s="37"/>
+      <c r="Z32" s="37"/>
+      <c r="AA32" s="37"/>
+      <c r="AB32" s="37"/>
+      <c r="AC32" s="37"/>
+      <c r="AD32" s="37"/>
+      <c r="AE32" s="37"/>
+      <c r="AF32" s="37"/>
+      <c r="AG32" s="37"/>
+      <c r="AH32" s="37"/>
+      <c r="AI32" s="37"/>
+      <c r="AJ32" s="37"/>
+      <c r="AK32" s="37"/>
+      <c r="AL32" s="37"/>
+      <c r="AM32" s="37"/>
+      <c r="AN32" s="37"/>
+      <c r="AO32" s="37"/>
+      <c r="AP32" s="37"/>
+      <c r="AQ32" s="37"/>
+      <c r="AR32" s="37"/>
+      <c r="AS32" s="37"/>
+      <c r="AT32" s="37"/>
+      <c r="AU32" s="37"/>
+      <c r="AV32" s="37"/>
+      <c r="AW32" s="37"/>
+      <c r="AX32" s="37"/>
+      <c r="AY32" s="37"/>
+      <c r="AZ32" s="37"/>
+      <c r="BA32" s="37"/>
+      <c r="BB32" s="37"/>
+      <c r="BC32" s="37"/>
+      <c r="BD32" s="37"/>
+      <c r="BE32" s="37"/>
+      <c r="BF32" s="37"/>
+      <c r="BG32" s="37"/>
     </row>
     <row r="33" ht="17" customHeight="1">
       <c r="A33" s="22"/>
-      <c r="B33" s="39"/>
-      <c r="C33" s="35"/>
-      <c r="D33" s="35"/>
-      <c r="E33" s="35"/>
-      <c r="F33" s="35"/>
-      <c r="G33" s="35"/>
-      <c r="H33" s="35"/>
-      <c r="I33" s="35"/>
-      <c r="J33" s="35"/>
-      <c r="K33" s="35"/>
-      <c r="L33" s="35"/>
-      <c r="M33" s="35"/>
-      <c r="N33" s="35"/>
-      <c r="O33" s="35"/>
-      <c r="P33" s="35"/>
-      <c r="Q33" s="35"/>
-      <c r="R33" s="35"/>
-      <c r="S33" s="35"/>
-      <c r="T33" s="35"/>
-      <c r="U33" s="35"/>
-      <c r="V33" s="35"/>
-      <c r="W33" s="35"/>
-      <c r="X33" s="35"/>
-      <c r="Y33" s="35"/>
-      <c r="Z33" s="35"/>
-      <c r="AA33" s="35"/>
-      <c r="AB33" s="35"/>
-      <c r="AC33" s="35"/>
-      <c r="AD33" s="35"/>
-      <c r="AE33" s="35"/>
-      <c r="AF33" s="35"/>
-      <c r="AG33" s="35"/>
-      <c r="AH33" s="35"/>
-      <c r="AI33" s="35"/>
-      <c r="AJ33" s="35"/>
-      <c r="AK33" s="35"/>
-      <c r="AL33" s="35"/>
-      <c r="AM33" s="35"/>
-      <c r="AN33" s="35"/>
-      <c r="AO33" s="35"/>
-      <c r="AP33" s="35"/>
-      <c r="AQ33" s="35"/>
-      <c r="AR33" s="35"/>
-      <c r="AS33" s="35"/>
-      <c r="AT33" s="35"/>
-      <c r="AU33" s="35"/>
-      <c r="AV33" s="35"/>
-      <c r="AW33" s="35"/>
-      <c r="AX33" s="35"/>
-      <c r="AY33" s="35"/>
-      <c r="AZ33" s="35"/>
-      <c r="BA33" s="35"/>
-      <c r="BB33" s="35"/>
-      <c r="BC33" s="35"/>
-      <c r="BD33" s="35"/>
-      <c r="BE33" s="35"/>
-      <c r="BF33" s="35"/>
-      <c r="BG33" s="41"/>
+      <c r="B33" s="38"/>
+      <c r="C33" s="34"/>
+      <c r="D33" s="34"/>
+      <c r="E33" s="34"/>
+      <c r="F33" s="34"/>
+      <c r="G33" s="34"/>
+      <c r="H33" s="34"/>
+      <c r="I33" s="34"/>
+      <c r="J33" s="34"/>
+      <c r="K33" s="34"/>
+      <c r="L33" s="34"/>
+      <c r="M33" s="34"/>
+      <c r="N33" s="34"/>
+      <c r="O33" s="34"/>
+      <c r="P33" s="34"/>
+      <c r="Q33" s="34"/>
+      <c r="R33" s="34"/>
+      <c r="S33" s="34"/>
+      <c r="T33" s="34"/>
+      <c r="U33" s="34"/>
+      <c r="V33" s="34"/>
+      <c r="W33" s="34"/>
+      <c r="X33" s="34"/>
+      <c r="Y33" s="34"/>
+      <c r="Z33" s="34"/>
+      <c r="AA33" s="34"/>
+      <c r="AB33" s="34"/>
+      <c r="AC33" s="34"/>
+      <c r="AD33" s="34"/>
+      <c r="AE33" s="34"/>
+      <c r="AF33" s="34"/>
+      <c r="AG33" s="34"/>
+      <c r="AH33" s="34"/>
+      <c r="AI33" s="34"/>
+      <c r="AJ33" s="34"/>
+      <c r="AK33" s="34"/>
+      <c r="AL33" s="34"/>
+      <c r="AM33" s="34"/>
+      <c r="AN33" s="34"/>
+      <c r="AO33" s="34"/>
+      <c r="AP33" s="34"/>
+      <c r="AQ33" s="34"/>
+      <c r="AR33" s="34"/>
+      <c r="AS33" s="34"/>
+      <c r="AT33" s="34"/>
+      <c r="AU33" s="34"/>
+      <c r="AV33" s="34"/>
+      <c r="AW33" s="34"/>
+      <c r="AX33" s="34"/>
+      <c r="AY33" s="34"/>
+      <c r="AZ33" s="34"/>
+      <c r="BA33" s="34"/>
+      <c r="BB33" s="34"/>
+      <c r="BC33" s="34"/>
+      <c r="BD33" s="34"/>
+      <c r="BE33" s="34"/>
+      <c r="BF33" s="34"/>
+      <c r="BG33" s="40"/>
     </row>
     <row r="34" ht="17" customHeight="1">
       <c r="A34" s="22"/>
-      <c r="B34" s="37"/>
-      <c r="C34" s="38"/>
-      <c r="D34" s="38"/>
-      <c r="E34" s="38"/>
-      <c r="F34" s="38"/>
-      <c r="G34" s="38"/>
-      <c r="H34" s="38"/>
-      <c r="I34" s="38"/>
-      <c r="J34" s="38"/>
-      <c r="K34" s="38"/>
-      <c r="L34" s="38"/>
-      <c r="M34" s="38"/>
-      <c r="N34" s="38"/>
-      <c r="O34" s="38"/>
-      <c r="P34" s="38"/>
-      <c r="Q34" s="38"/>
-      <c r="R34" s="38"/>
-      <c r="S34" s="38"/>
-      <c r="T34" s="38"/>
-      <c r="U34" s="38"/>
-      <c r="V34" s="38"/>
-      <c r="W34" s="38"/>
-      <c r="X34" s="38"/>
-      <c r="Y34" s="38"/>
-      <c r="Z34" s="38"/>
-      <c r="AA34" s="38"/>
-      <c r="AB34" s="38"/>
-      <c r="AC34" s="38"/>
-      <c r="AD34" s="38"/>
-      <c r="AE34" s="38"/>
-      <c r="AF34" s="38"/>
-      <c r="AG34" s="38"/>
-      <c r="AH34" s="38"/>
-      <c r="AI34" s="38"/>
-      <c r="AJ34" s="38"/>
-      <c r="AK34" s="38"/>
-      <c r="AL34" s="38"/>
-      <c r="AM34" s="38"/>
-      <c r="AN34" s="38"/>
-      <c r="AO34" s="38"/>
-      <c r="AP34" s="38"/>
-      <c r="AQ34" s="38"/>
-      <c r="AR34" s="38"/>
-      <c r="AS34" s="38"/>
-      <c r="AT34" s="38"/>
-      <c r="AU34" s="38"/>
-      <c r="AV34" s="38"/>
-      <c r="AW34" s="38"/>
-      <c r="AX34" s="38"/>
-      <c r="AY34" s="38"/>
-      <c r="AZ34" s="38"/>
-      <c r="BA34" s="38"/>
-      <c r="BB34" s="38"/>
-      <c r="BC34" s="38"/>
-      <c r="BD34" s="38"/>
-      <c r="BE34" s="38"/>
-      <c r="BF34" s="38"/>
-      <c r="BG34" s="38"/>
+      <c r="B34" s="36"/>
+      <c r="C34" s="37"/>
+      <c r="D34" s="37"/>
+      <c r="E34" s="37"/>
+      <c r="F34" s="37"/>
+      <c r="G34" s="37"/>
+      <c r="H34" s="37"/>
+      <c r="I34" s="37"/>
+      <c r="J34" s="37"/>
+      <c r="K34" s="37"/>
+      <c r="L34" s="37"/>
+      <c r="M34" s="37"/>
+      <c r="N34" s="37"/>
+      <c r="O34" s="37"/>
+      <c r="P34" s="37"/>
+      <c r="Q34" s="37"/>
+      <c r="R34" s="37"/>
+      <c r="S34" s="37"/>
+      <c r="T34" s="37"/>
+      <c r="U34" s="37"/>
+      <c r="V34" s="37"/>
+      <c r="W34" s="37"/>
+      <c r="X34" s="37"/>
+      <c r="Y34" s="37"/>
+      <c r="Z34" s="37"/>
+      <c r="AA34" s="37"/>
+      <c r="AB34" s="37"/>
+      <c r="AC34" s="37"/>
+      <c r="AD34" s="37"/>
+      <c r="AE34" s="37"/>
+      <c r="AF34" s="37"/>
+      <c r="AG34" s="37"/>
+      <c r="AH34" s="37"/>
+      <c r="AI34" s="37"/>
+      <c r="AJ34" s="37"/>
+      <c r="AK34" s="37"/>
+      <c r="AL34" s="37"/>
+      <c r="AM34" s="37"/>
+      <c r="AN34" s="37"/>
+      <c r="AO34" s="37"/>
+      <c r="AP34" s="37"/>
+      <c r="AQ34" s="37"/>
+      <c r="AR34" s="37"/>
+      <c r="AS34" s="37"/>
+      <c r="AT34" s="37"/>
+      <c r="AU34" s="37"/>
+      <c r="AV34" s="37"/>
+      <c r="AW34" s="37"/>
+      <c r="AX34" s="37"/>
+      <c r="AY34" s="37"/>
+      <c r="AZ34" s="37"/>
+      <c r="BA34" s="37"/>
+      <c r="BB34" s="37"/>
+      <c r="BC34" s="37"/>
+      <c r="BD34" s="37"/>
+      <c r="BE34" s="37"/>
+      <c r="BF34" s="37"/>
+      <c r="BG34" s="37"/>
     </row>
     <row r="35" ht="17" customHeight="1">
       <c r="A35" s="22"/>
-      <c r="B35" s="39"/>
-      <c r="C35" s="35"/>
-      <c r="D35" s="35"/>
-      <c r="E35" s="35"/>
-      <c r="F35" s="35"/>
-      <c r="G35" s="35"/>
-      <c r="H35" s="35"/>
-      <c r="I35" s="35"/>
-      <c r="J35" s="35"/>
-      <c r="K35" s="35"/>
-      <c r="L35" s="35"/>
-      <c r="M35" s="35"/>
-      <c r="N35" s="35"/>
-      <c r="O35" s="35"/>
-      <c r="P35" s="35"/>
-      <c r="Q35" s="35"/>
-      <c r="R35" s="35"/>
-      <c r="S35" s="35"/>
-      <c r="T35" s="35"/>
-      <c r="U35" s="35"/>
-      <c r="V35" s="35"/>
-      <c r="W35" s="35"/>
-      <c r="X35" s="35"/>
-      <c r="Y35" s="35"/>
-      <c r="Z35" s="35"/>
-      <c r="AA35" s="35"/>
-      <c r="AB35" s="35"/>
-      <c r="AC35" s="35"/>
-      <c r="AD35" s="35"/>
-      <c r="AE35" s="35"/>
-      <c r="AF35" s="35"/>
-      <c r="AG35" s="35"/>
-      <c r="AH35" s="35"/>
-      <c r="AI35" s="35"/>
-      <c r="AJ35" s="35"/>
-      <c r="AK35" s="35"/>
-      <c r="AL35" s="35"/>
-      <c r="AM35" s="35"/>
-      <c r="AN35" s="35"/>
-      <c r="AO35" s="35"/>
-      <c r="AP35" s="35"/>
-      <c r="AQ35" s="35"/>
-      <c r="AR35" s="35"/>
-      <c r="AS35" s="35"/>
-      <c r="AT35" s="35"/>
-      <c r="AU35" s="35"/>
-      <c r="AV35" s="35"/>
-      <c r="AW35" s="35"/>
-      <c r="AX35" s="35"/>
-      <c r="AY35" s="35"/>
-      <c r="AZ35" s="35"/>
-      <c r="BA35" s="35"/>
-      <c r="BB35" s="35"/>
-      <c r="BC35" s="35"/>
-      <c r="BD35" s="35"/>
-      <c r="BE35" s="35"/>
-      <c r="BF35" s="35"/>
-      <c r="BG35" s="41"/>
+      <c r="B35" s="38"/>
+      <c r="C35" s="34"/>
+      <c r="D35" s="34"/>
+      <c r="E35" s="34"/>
+      <c r="F35" s="34"/>
+      <c r="G35" s="34"/>
+      <c r="H35" s="34"/>
+      <c r="I35" s="34"/>
+      <c r="J35" s="34"/>
+      <c r="K35" s="34"/>
+      <c r="L35" s="34"/>
+      <c r="M35" s="34"/>
+      <c r="N35" s="34"/>
+      <c r="O35" s="34"/>
+      <c r="P35" s="34"/>
+      <c r="Q35" s="34"/>
+      <c r="R35" s="34"/>
+      <c r="S35" s="34"/>
+      <c r="T35" s="34"/>
+      <c r="U35" s="34"/>
+      <c r="V35" s="34"/>
+      <c r="W35" s="34"/>
+      <c r="X35" s="34"/>
+      <c r="Y35" s="34"/>
+      <c r="Z35" s="34"/>
+      <c r="AA35" s="34"/>
+      <c r="AB35" s="34"/>
+      <c r="AC35" s="34"/>
+      <c r="AD35" s="34"/>
+      <c r="AE35" s="34"/>
+      <c r="AF35" s="34"/>
+      <c r="AG35" s="34"/>
+      <c r="AH35" s="34"/>
+      <c r="AI35" s="34"/>
+      <c r="AJ35" s="34"/>
+      <c r="AK35" s="34"/>
+      <c r="AL35" s="34"/>
+      <c r="AM35" s="34"/>
+      <c r="AN35" s="34"/>
+      <c r="AO35" s="34"/>
+      <c r="AP35" s="34"/>
+      <c r="AQ35" s="34"/>
+      <c r="AR35" s="34"/>
+      <c r="AS35" s="34"/>
+      <c r="AT35" s="34"/>
+      <c r="AU35" s="34"/>
+      <c r="AV35" s="34"/>
+      <c r="AW35" s="34"/>
+      <c r="AX35" s="34"/>
+      <c r="AY35" s="34"/>
+      <c r="AZ35" s="34"/>
+      <c r="BA35" s="34"/>
+      <c r="BB35" s="34"/>
+      <c r="BC35" s="34"/>
+      <c r="BD35" s="34"/>
+      <c r="BE35" s="34"/>
+      <c r="BF35" s="34"/>
+      <c r="BG35" s="40"/>
     </row>
     <row r="36" ht="17" customHeight="1">
       <c r="A36" s="22"/>
-      <c r="B36" s="37"/>
-      <c r="C36" s="38"/>
-      <c r="D36" s="38"/>
-      <c r="E36" s="38"/>
-      <c r="F36" s="38"/>
-      <c r="G36" s="38"/>
-      <c r="H36" s="38"/>
-      <c r="I36" s="38"/>
-      <c r="J36" s="38"/>
-      <c r="K36" s="38"/>
-      <c r="L36" s="38"/>
-      <c r="M36" s="38"/>
-      <c r="N36" s="38"/>
-      <c r="O36" s="38"/>
-      <c r="P36" s="38"/>
-      <c r="Q36" s="38"/>
-      <c r="R36" s="38"/>
-      <c r="S36" s="38"/>
-      <c r="T36" s="38"/>
-      <c r="U36" s="38"/>
-      <c r="V36" s="38"/>
-      <c r="W36" s="38"/>
-      <c r="X36" s="38"/>
-      <c r="Y36" s="38"/>
-      <c r="Z36" s="38"/>
-      <c r="AA36" s="38"/>
-      <c r="AB36" s="38"/>
-      <c r="AC36" s="38"/>
-      <c r="AD36" s="38"/>
-      <c r="AE36" s="38"/>
-      <c r="AF36" s="38"/>
-      <c r="AG36" s="38"/>
-      <c r="AH36" s="38"/>
-      <c r="AI36" s="38"/>
-      <c r="AJ36" s="38"/>
-      <c r="AK36" s="38"/>
-      <c r="AL36" s="38"/>
-      <c r="AM36" s="38"/>
-      <c r="AN36" s="38"/>
-      <c r="AO36" s="38"/>
-      <c r="AP36" s="38"/>
-      <c r="AQ36" s="38"/>
-      <c r="AR36" s="38"/>
-      <c r="AS36" s="38"/>
-      <c r="AT36" s="38"/>
-      <c r="AU36" s="38"/>
-      <c r="AV36" s="38"/>
-      <c r="AW36" s="38"/>
-      <c r="AX36" s="38"/>
-      <c r="AY36" s="38"/>
-      <c r="AZ36" s="38"/>
-      <c r="BA36" s="38"/>
-      <c r="BB36" s="38"/>
-      <c r="BC36" s="38"/>
-      <c r="BD36" s="38"/>
-      <c r="BE36" s="38"/>
-      <c r="BF36" s="38"/>
-      <c r="BG36" s="38"/>
+      <c r="B36" s="36"/>
+      <c r="C36" s="37"/>
+      <c r="D36" s="37"/>
+      <c r="E36" s="37"/>
+      <c r="F36" s="37"/>
+      <c r="G36" s="37"/>
+      <c r="H36" s="37"/>
+      <c r="I36" s="37"/>
+      <c r="J36" s="37"/>
+      <c r="K36" s="37"/>
+      <c r="L36" s="37"/>
+      <c r="M36" s="37"/>
+      <c r="N36" s="37"/>
+      <c r="O36" s="37"/>
+      <c r="P36" s="37"/>
+      <c r="Q36" s="37"/>
+      <c r="R36" s="37"/>
+      <c r="S36" s="37"/>
+      <c r="T36" s="37"/>
+      <c r="U36" s="37"/>
+      <c r="V36" s="37"/>
+      <c r="W36" s="37"/>
+      <c r="X36" s="37"/>
+      <c r="Y36" s="37"/>
+      <c r="Z36" s="37"/>
+      <c r="AA36" s="37"/>
+      <c r="AB36" s="37"/>
+      <c r="AC36" s="37"/>
+      <c r="AD36" s="37"/>
+      <c r="AE36" s="37"/>
+      <c r="AF36" s="37"/>
+      <c r="AG36" s="37"/>
+      <c r="AH36" s="37"/>
+      <c r="AI36" s="37"/>
+      <c r="AJ36" s="37"/>
+      <c r="AK36" s="37"/>
+      <c r="AL36" s="37"/>
+      <c r="AM36" s="37"/>
+      <c r="AN36" s="37"/>
+      <c r="AO36" s="37"/>
+      <c r="AP36" s="37"/>
+      <c r="AQ36" s="37"/>
+      <c r="AR36" s="37"/>
+      <c r="AS36" s="37"/>
+      <c r="AT36" s="37"/>
+      <c r="AU36" s="37"/>
+      <c r="AV36" s="37"/>
+      <c r="AW36" s="37"/>
+      <c r="AX36" s="37"/>
+      <c r="AY36" s="37"/>
+      <c r="AZ36" s="37"/>
+      <c r="BA36" s="37"/>
+      <c r="BB36" s="37"/>
+      <c r="BC36" s="37"/>
+      <c r="BD36" s="37"/>
+      <c r="BE36" s="37"/>
+      <c r="BF36" s="37"/>
+      <c r="BG36" s="37"/>
     </row>
     <row r="37" ht="17" customHeight="1">
       <c r="A37" s="22"/>
-      <c r="B37" s="39"/>
-      <c r="C37" s="35"/>
-      <c r="D37" s="35"/>
-      <c r="E37" s="35"/>
-      <c r="F37" s="35"/>
-      <c r="G37" s="35"/>
-      <c r="H37" s="35"/>
-      <c r="I37" s="35"/>
-      <c r="J37" s="35"/>
-      <c r="K37" s="35"/>
-      <c r="L37" s="35"/>
-      <c r="M37" s="35"/>
-      <c r="N37" s="35"/>
-      <c r="O37" s="35"/>
-      <c r="P37" s="35"/>
-      <c r="Q37" s="35"/>
-      <c r="R37" s="35"/>
-      <c r="S37" s="35"/>
-      <c r="T37" s="35"/>
-      <c r="U37" s="35"/>
-      <c r="V37" s="35"/>
-      <c r="W37" s="35"/>
-      <c r="X37" s="35"/>
-      <c r="Y37" s="35"/>
-      <c r="Z37" s="35"/>
-      <c r="AA37" s="35"/>
-      <c r="AB37" s="35"/>
-      <c r="AC37" s="35"/>
-      <c r="AD37" s="35"/>
-      <c r="AE37" s="35"/>
-      <c r="AF37" s="35"/>
-      <c r="AG37" s="35"/>
-      <c r="AH37" s="35"/>
-      <c r="AI37" s="35"/>
-      <c r="AJ37" s="35"/>
-      <c r="AK37" s="35"/>
-      <c r="AL37" s="35"/>
-      <c r="AM37" s="35"/>
-      <c r="AN37" s="35"/>
-      <c r="AO37" s="35"/>
-      <c r="AP37" s="35"/>
-      <c r="AQ37" s="35"/>
-      <c r="AR37" s="35"/>
-      <c r="AS37" s="35"/>
-      <c r="AT37" s="35"/>
-      <c r="AU37" s="35"/>
-      <c r="AV37" s="35"/>
-      <c r="AW37" s="35"/>
-      <c r="AX37" s="35"/>
-      <c r="AY37" s="35"/>
-      <c r="AZ37" s="35"/>
-      <c r="BA37" s="35"/>
-      <c r="BB37" s="35"/>
-      <c r="BC37" s="35"/>
-      <c r="BD37" s="35"/>
-      <c r="BE37" s="35"/>
-      <c r="BF37" s="35"/>
-      <c r="BG37" s="41"/>
+      <c r="B37" s="38"/>
+      <c r="C37" s="34"/>
+      <c r="D37" s="34"/>
+      <c r="E37" s="34"/>
+      <c r="F37" s="34"/>
+      <c r="G37" s="34"/>
+      <c r="H37" s="34"/>
+      <c r="I37" s="34"/>
+      <c r="J37" s="34"/>
+      <c r="K37" s="34"/>
+      <c r="L37" s="34"/>
+      <c r="M37" s="34"/>
+      <c r="N37" s="34"/>
+      <c r="O37" s="34"/>
+      <c r="P37" s="34"/>
+      <c r="Q37" s="34"/>
+      <c r="R37" s="34"/>
+      <c r="S37" s="34"/>
+      <c r="T37" s="34"/>
+      <c r="U37" s="34"/>
+      <c r="V37" s="34"/>
+      <c r="W37" s="34"/>
+      <c r="X37" s="34"/>
+      <c r="Y37" s="34"/>
+      <c r="Z37" s="34"/>
+      <c r="AA37" s="34"/>
+      <c r="AB37" s="34"/>
+      <c r="AC37" s="34"/>
+      <c r="AD37" s="34"/>
+      <c r="AE37" s="34"/>
+      <c r="AF37" s="34"/>
+      <c r="AG37" s="34"/>
+      <c r="AH37" s="34"/>
+      <c r="AI37" s="34"/>
+      <c r="AJ37" s="34"/>
+      <c r="AK37" s="34"/>
+      <c r="AL37" s="34"/>
+      <c r="AM37" s="34"/>
+      <c r="AN37" s="34"/>
+      <c r="AO37" s="34"/>
+      <c r="AP37" s="34"/>
+      <c r="AQ37" s="34"/>
+      <c r="AR37" s="34"/>
+      <c r="AS37" s="34"/>
+      <c r="AT37" s="34"/>
+      <c r="AU37" s="34"/>
+      <c r="AV37" s="34"/>
+      <c r="AW37" s="34"/>
+      <c r="AX37" s="34"/>
+      <c r="AY37" s="34"/>
+      <c r="AZ37" s="34"/>
+      <c r="BA37" s="34"/>
+      <c r="BB37" s="34"/>
+      <c r="BC37" s="34"/>
+      <c r="BD37" s="34"/>
+      <c r="BE37" s="34"/>
+      <c r="BF37" s="34"/>
+      <c r="BG37" s="40"/>
     </row>
     <row r="38" ht="17" customHeight="1">
       <c r="A38" s="22"/>
-      <c r="B38" s="37"/>
-      <c r="C38" s="38"/>
-      <c r="D38" s="38"/>
-      <c r="E38" s="38"/>
-      <c r="F38" s="38"/>
-      <c r="G38" s="38"/>
-      <c r="H38" s="38"/>
-      <c r="I38" s="38"/>
-      <c r="J38" s="38"/>
-      <c r="K38" s="38"/>
-      <c r="L38" s="38"/>
-      <c r="M38" s="38"/>
-      <c r="N38" s="38"/>
-      <c r="O38" s="38"/>
-      <c r="P38" s="38"/>
-      <c r="Q38" s="38"/>
-      <c r="R38" s="38"/>
-      <c r="S38" s="38"/>
-      <c r="T38" s="38"/>
-      <c r="U38" s="38"/>
-      <c r="V38" s="38"/>
-      <c r="W38" s="38"/>
-      <c r="X38" s="38"/>
-      <c r="Y38" s="38"/>
-      <c r="Z38" s="38"/>
-      <c r="AA38" s="38"/>
-      <c r="AB38" s="38"/>
-      <c r="AC38" s="38"/>
-      <c r="AD38" s="38"/>
-      <c r="AE38" s="38"/>
-      <c r="AF38" s="38"/>
-      <c r="AG38" s="38"/>
-      <c r="AH38" s="38"/>
-      <c r="AI38" s="38"/>
-      <c r="AJ38" s="38"/>
-      <c r="AK38" s="38"/>
-      <c r="AL38" s="38"/>
-      <c r="AM38" s="38"/>
-      <c r="AN38" s="38"/>
-      <c r="AO38" s="38"/>
-      <c r="AP38" s="38"/>
-      <c r="AQ38" s="38"/>
-      <c r="AR38" s="38"/>
-      <c r="AS38" s="38"/>
-      <c r="AT38" s="38"/>
-      <c r="AU38" s="38"/>
-      <c r="AV38" s="38"/>
-      <c r="AW38" s="38"/>
-      <c r="AX38" s="38"/>
-      <c r="AY38" s="38"/>
-      <c r="AZ38" s="38"/>
-      <c r="BA38" s="38"/>
-      <c r="BB38" s="38"/>
-      <c r="BC38" s="38"/>
-      <c r="BD38" s="38"/>
-      <c r="BE38" s="38"/>
-      <c r="BF38" s="38"/>
-      <c r="BG38" s="38"/>
+      <c r="B38" s="36"/>
+      <c r="C38" s="37"/>
+      <c r="D38" s="37"/>
+      <c r="E38" s="37"/>
+      <c r="F38" s="37"/>
+      <c r="G38" s="37"/>
+      <c r="H38" s="37"/>
+      <c r="I38" s="37"/>
+      <c r="J38" s="37"/>
+      <c r="K38" s="37"/>
+      <c r="L38" s="37"/>
+      <c r="M38" s="37"/>
+      <c r="N38" s="37"/>
+      <c r="O38" s="37"/>
+      <c r="P38" s="37"/>
+      <c r="Q38" s="37"/>
+      <c r="R38" s="37"/>
+      <c r="S38" s="37"/>
+      <c r="T38" s="37"/>
+      <c r="U38" s="37"/>
+      <c r="V38" s="37"/>
+      <c r="W38" s="37"/>
+      <c r="X38" s="37"/>
+      <c r="Y38" s="37"/>
+      <c r="Z38" s="37"/>
+      <c r="AA38" s="37"/>
+      <c r="AB38" s="37"/>
+      <c r="AC38" s="37"/>
+      <c r="AD38" s="37"/>
+      <c r="AE38" s="37"/>
+      <c r="AF38" s="37"/>
+      <c r="AG38" s="37"/>
+      <c r="AH38" s="37"/>
+      <c r="AI38" s="37"/>
+      <c r="AJ38" s="37"/>
+      <c r="AK38" s="37"/>
+      <c r="AL38" s="37"/>
+      <c r="AM38" s="37"/>
+      <c r="AN38" s="37"/>
+      <c r="AO38" s="37"/>
+      <c r="AP38" s="37"/>
+      <c r="AQ38" s="37"/>
+      <c r="AR38" s="37"/>
+      <c r="AS38" s="37"/>
+      <c r="AT38" s="37"/>
+      <c r="AU38" s="37"/>
+      <c r="AV38" s="37"/>
+      <c r="AW38" s="37"/>
+      <c r="AX38" s="37"/>
+      <c r="AY38" s="37"/>
+      <c r="AZ38" s="37"/>
+      <c r="BA38" s="37"/>
+      <c r="BB38" s="37"/>
+      <c r="BC38" s="37"/>
+      <c r="BD38" s="37"/>
+      <c r="BE38" s="37"/>
+      <c r="BF38" s="37"/>
+      <c r="BG38" s="37"/>
     </row>
     <row r="39" ht="17" customHeight="1">
       <c r="A39" s="22"/>
-      <c r="B39" s="39"/>
-      <c r="C39" s="35"/>
-      <c r="D39" s="35"/>
-      <c r="E39" s="35"/>
-      <c r="F39" s="35"/>
-      <c r="G39" s="35"/>
-      <c r="H39" s="35"/>
-      <c r="I39" s="35"/>
-      <c r="J39" s="35"/>
-      <c r="K39" s="35"/>
-      <c r="L39" s="35"/>
-      <c r="M39" s="35"/>
-      <c r="N39" s="35"/>
-      <c r="O39" s="35"/>
-      <c r="P39" s="35"/>
-      <c r="Q39" s="35"/>
-      <c r="R39" s="35"/>
-      <c r="S39" s="35"/>
-      <c r="T39" s="35"/>
-      <c r="U39" s="35"/>
-      <c r="V39" s="35"/>
-      <c r="W39" s="35"/>
-      <c r="X39" s="35"/>
-      <c r="Y39" s="35"/>
-      <c r="Z39" s="35"/>
-      <c r="AA39" s="35"/>
-      <c r="AB39" s="35"/>
-      <c r="AC39" s="35"/>
-      <c r="AD39" s="35"/>
-      <c r="AE39" s="35"/>
-      <c r="AF39" s="35"/>
-      <c r="AG39" s="35"/>
-      <c r="AH39" s="35"/>
-      <c r="AI39" s="35"/>
-      <c r="AJ39" s="35"/>
-      <c r="AK39" s="35"/>
-      <c r="AL39" s="35"/>
-      <c r="AM39" s="35"/>
-      <c r="AN39" s="35"/>
-      <c r="AO39" s="35"/>
-      <c r="AP39" s="35"/>
-      <c r="AQ39" s="35"/>
-      <c r="AR39" s="35"/>
-      <c r="AS39" s="35"/>
-      <c r="AT39" s="35"/>
-      <c r="AU39" s="35"/>
-      <c r="AV39" s="35"/>
-      <c r="AW39" s="35"/>
-      <c r="AX39" s="35"/>
-      <c r="AY39" s="35"/>
-      <c r="AZ39" s="35"/>
-      <c r="BA39" s="35"/>
-      <c r="BB39" s="35"/>
-      <c r="BC39" s="35"/>
-      <c r="BD39" s="35"/>
-      <c r="BE39" s="35"/>
-      <c r="BF39" s="35"/>
-      <c r="BG39" s="41"/>
+      <c r="B39" s="38"/>
+      <c r="C39" s="34"/>
+      <c r="D39" s="34"/>
+      <c r="E39" s="34"/>
+      <c r="F39" s="34"/>
+      <c r="G39" s="34"/>
+      <c r="H39" s="34"/>
+      <c r="I39" s="34"/>
+      <c r="J39" s="34"/>
+      <c r="K39" s="34"/>
+      <c r="L39" s="34"/>
+      <c r="M39" s="34"/>
+      <c r="N39" s="34"/>
+      <c r="O39" s="34"/>
+      <c r="P39" s="34"/>
+      <c r="Q39" s="34"/>
+      <c r="R39" s="34"/>
+      <c r="S39" s="34"/>
+      <c r="T39" s="34"/>
+      <c r="U39" s="34"/>
+      <c r="V39" s="34"/>
+      <c r="W39" s="34"/>
+      <c r="X39" s="34"/>
+      <c r="Y39" s="34"/>
+      <c r="Z39" s="34"/>
+      <c r="AA39" s="34"/>
+      <c r="AB39" s="34"/>
+      <c r="AC39" s="34"/>
+      <c r="AD39" s="34"/>
+      <c r="AE39" s="34"/>
+      <c r="AF39" s="34"/>
+      <c r="AG39" s="34"/>
+      <c r="AH39" s="34"/>
+      <c r="AI39" s="34"/>
+      <c r="AJ39" s="34"/>
+      <c r="AK39" s="34"/>
+      <c r="AL39" s="34"/>
+      <c r="AM39" s="34"/>
+      <c r="AN39" s="34"/>
+      <c r="AO39" s="34"/>
+      <c r="AP39" s="34"/>
+      <c r="AQ39" s="34"/>
+      <c r="AR39" s="34"/>
+      <c r="AS39" s="34"/>
+      <c r="AT39" s="34"/>
+      <c r="AU39" s="34"/>
+      <c r="AV39" s="34"/>
+      <c r="AW39" s="34"/>
+      <c r="AX39" s="34"/>
+      <c r="AY39" s="34"/>
+      <c r="AZ39" s="34"/>
+      <c r="BA39" s="34"/>
+      <c r="BB39" s="34"/>
+      <c r="BC39" s="34"/>
+      <c r="BD39" s="34"/>
+      <c r="BE39" s="34"/>
+      <c r="BF39" s="34"/>
+      <c r="BG39" s="40"/>
     </row>
     <row r="40" ht="17" customHeight="1">
       <c r="A40" s="22"/>
-      <c r="B40" s="37"/>
-      <c r="C40" s="38"/>
-      <c r="D40" s="38"/>
-      <c r="E40" s="38"/>
-      <c r="F40" s="38"/>
-      <c r="G40" s="38"/>
-      <c r="H40" s="38"/>
-      <c r="I40" s="38"/>
-      <c r="J40" s="38"/>
-      <c r="K40" s="38"/>
-      <c r="L40" s="38"/>
-      <c r="M40" s="38"/>
-      <c r="N40" s="38"/>
-      <c r="O40" s="38"/>
-      <c r="P40" s="38"/>
-      <c r="Q40" s="38"/>
-      <c r="R40" s="38"/>
-      <c r="S40" s="38"/>
-      <c r="T40" s="38"/>
-      <c r="U40" s="38"/>
-      <c r="V40" s="38"/>
-      <c r="W40" s="38"/>
-      <c r="X40" s="38"/>
-      <c r="Y40" s="38"/>
-      <c r="Z40" s="38"/>
-      <c r="AA40" s="38"/>
-      <c r="AB40" s="38"/>
-      <c r="AC40" s="38"/>
-      <c r="AD40" s="38"/>
-      <c r="AE40" s="38"/>
-      <c r="AF40" s="38"/>
-      <c r="AG40" s="38"/>
-      <c r="AH40" s="38"/>
-      <c r="AI40" s="38"/>
-      <c r="AJ40" s="38"/>
-      <c r="AK40" s="38"/>
-      <c r="AL40" s="38"/>
-      <c r="AM40" s="38"/>
-      <c r="AN40" s="38"/>
-      <c r="AO40" s="38"/>
-      <c r="AP40" s="38"/>
-      <c r="AQ40" s="38"/>
-      <c r="AR40" s="38"/>
-      <c r="AS40" s="38"/>
-      <c r="AT40" s="38"/>
-      <c r="AU40" s="38"/>
-      <c r="AV40" s="38"/>
-      <c r="AW40" s="38"/>
-      <c r="AX40" s="38"/>
-      <c r="AY40" s="38"/>
-      <c r="AZ40" s="38"/>
-      <c r="BA40" s="38"/>
-      <c r="BB40" s="38"/>
-      <c r="BC40" s="38"/>
-      <c r="BD40" s="38"/>
-      <c r="BE40" s="38"/>
-      <c r="BF40" s="38"/>
-      <c r="BG40" s="38"/>
+      <c r="B40" s="36"/>
+      <c r="C40" s="37"/>
+      <c r="D40" s="37"/>
+      <c r="E40" s="37"/>
+      <c r="F40" s="37"/>
+      <c r="G40" s="37"/>
+      <c r="H40" s="37"/>
+      <c r="I40" s="37"/>
+      <c r="J40" s="37"/>
+      <c r="K40" s="37"/>
+      <c r="L40" s="37"/>
+      <c r="M40" s="37"/>
+      <c r="N40" s="37"/>
+      <c r="O40" s="37"/>
+      <c r="P40" s="37"/>
+      <c r="Q40" s="37"/>
+      <c r="R40" s="37"/>
+      <c r="S40" s="37"/>
+      <c r="T40" s="37"/>
+      <c r="U40" s="37"/>
+      <c r="V40" s="37"/>
+      <c r="W40" s="37"/>
+      <c r="X40" s="37"/>
+      <c r="Y40" s="37"/>
+      <c r="Z40" s="37"/>
+      <c r="AA40" s="37"/>
+      <c r="AB40" s="37"/>
+      <c r="AC40" s="37"/>
+      <c r="AD40" s="37"/>
+      <c r="AE40" s="37"/>
+      <c r="AF40" s="37"/>
+      <c r="AG40" s="37"/>
+      <c r="AH40" s="37"/>
+      <c r="AI40" s="37"/>
+      <c r="AJ40" s="37"/>
+      <c r="AK40" s="37"/>
+      <c r="AL40" s="37"/>
+      <c r="AM40" s="37"/>
+      <c r="AN40" s="37"/>
+      <c r="AO40" s="37"/>
+      <c r="AP40" s="37"/>
+      <c r="AQ40" s="37"/>
+      <c r="AR40" s="37"/>
+      <c r="AS40" s="37"/>
+      <c r="AT40" s="37"/>
+      <c r="AU40" s="37"/>
+      <c r="AV40" s="37"/>
+      <c r="AW40" s="37"/>
+      <c r="AX40" s="37"/>
+      <c r="AY40" s="37"/>
+      <c r="AZ40" s="37"/>
+      <c r="BA40" s="37"/>
+      <c r="BB40" s="37"/>
+      <c r="BC40" s="37"/>
+      <c r="BD40" s="37"/>
+      <c r="BE40" s="37"/>
+      <c r="BF40" s="37"/>
+      <c r="BG40" s="37"/>
     </row>
     <row r="41" ht="17" customHeight="1">
       <c r="A41" s="22"/>
-      <c r="B41" s="39"/>
-      <c r="C41" s="35"/>
-      <c r="D41" s="35"/>
-      <c r="E41" s="35"/>
-      <c r="F41" s="35"/>
-      <c r="G41" s="35"/>
-      <c r="H41" s="35"/>
-      <c r="I41" s="35"/>
-      <c r="J41" s="35"/>
-      <c r="K41" s="35"/>
-      <c r="L41" s="35"/>
-      <c r="M41" s="35"/>
-      <c r="N41" s="35"/>
-      <c r="O41" s="35"/>
-      <c r="P41" s="35"/>
-      <c r="Q41" s="35"/>
-      <c r="R41" s="35"/>
-      <c r="S41" s="35"/>
-      <c r="T41" s="35"/>
-      <c r="U41" s="35"/>
-      <c r="V41" s="35"/>
-      <c r="W41" s="35"/>
-      <c r="X41" s="35"/>
-      <c r="Y41" s="35"/>
-      <c r="Z41" s="35"/>
-      <c r="AA41" s="35"/>
-      <c r="AB41" s="35"/>
-      <c r="AC41" s="35"/>
-      <c r="AD41" s="35"/>
-      <c r="AE41" s="35"/>
-      <c r="AF41" s="35"/>
-      <c r="AG41" s="35"/>
-      <c r="AH41" s="35"/>
-      <c r="AI41" s="35"/>
-      <c r="AJ41" s="35"/>
-      <c r="AK41" s="35"/>
-      <c r="AL41" s="35"/>
-      <c r="AM41" s="35"/>
-      <c r="AN41" s="35"/>
-      <c r="AO41" s="35"/>
-      <c r="AP41" s="35"/>
-      <c r="AQ41" s="35"/>
-      <c r="AR41" s="35"/>
-      <c r="AS41" s="35"/>
-      <c r="AT41" s="35"/>
-      <c r="AU41" s="35"/>
-      <c r="AV41" s="35"/>
-      <c r="AW41" s="35"/>
-      <c r="AX41" s="35"/>
-      <c r="AY41" s="35"/>
-      <c r="AZ41" s="35"/>
-      <c r="BA41" s="35"/>
-      <c r="BB41" s="35"/>
-      <c r="BC41" s="35"/>
-      <c r="BD41" s="35"/>
-      <c r="BE41" s="35"/>
-      <c r="BF41" s="35"/>
-      <c r="BG41" s="41"/>
+      <c r="B41" s="38"/>
+      <c r="C41" s="34"/>
+      <c r="D41" s="34"/>
+      <c r="E41" s="34"/>
+      <c r="F41" s="34"/>
+      <c r="G41" s="34"/>
+      <c r="H41" s="34"/>
+      <c r="I41" s="34"/>
+      <c r="J41" s="34"/>
+      <c r="K41" s="34"/>
+      <c r="L41" s="34"/>
+      <c r="M41" s="34"/>
+      <c r="N41" s="34"/>
+      <c r="O41" s="34"/>
+      <c r="P41" s="34"/>
+      <c r="Q41" s="34"/>
+      <c r="R41" s="34"/>
+      <c r="S41" s="34"/>
+      <c r="T41" s="34"/>
+      <c r="U41" s="34"/>
+      <c r="V41" s="34"/>
+      <c r="W41" s="34"/>
+      <c r="X41" s="34"/>
+      <c r="Y41" s="34"/>
+      <c r="Z41" s="34"/>
+      <c r="AA41" s="34"/>
+      <c r="AB41" s="34"/>
+      <c r="AC41" s="34"/>
+      <c r="AD41" s="34"/>
+      <c r="AE41" s="34"/>
+      <c r="AF41" s="34"/>
+      <c r="AG41" s="34"/>
+      <c r="AH41" s="34"/>
+      <c r="AI41" s="34"/>
+      <c r="AJ41" s="34"/>
+      <c r="AK41" s="34"/>
+      <c r="AL41" s="34"/>
+      <c r="AM41" s="34"/>
+      <c r="AN41" s="34"/>
+      <c r="AO41" s="34"/>
+      <c r="AP41" s="34"/>
+      <c r="AQ41" s="34"/>
+      <c r="AR41" s="34"/>
+      <c r="AS41" s="34"/>
+      <c r="AT41" s="34"/>
+      <c r="AU41" s="34"/>
+      <c r="AV41" s="34"/>
+      <c r="AW41" s="34"/>
+      <c r="AX41" s="34"/>
+      <c r="AY41" s="34"/>
+      <c r="AZ41" s="34"/>
+      <c r="BA41" s="34"/>
+      <c r="BB41" s="34"/>
+      <c r="BC41" s="34"/>
+      <c r="BD41" s="34"/>
+      <c r="BE41" s="34"/>
+      <c r="BF41" s="34"/>
+      <c r="BG41" s="40"/>
     </row>
     <row r="42" ht="17" customHeight="1">
       <c r="A42" s="22"/>
-      <c r="B42" s="37"/>
-      <c r="C42" s="38"/>
-      <c r="D42" s="38"/>
-      <c r="E42" s="38"/>
-      <c r="F42" s="38"/>
-      <c r="G42" s="38"/>
-      <c r="H42" s="38"/>
-      <c r="I42" s="38"/>
-      <c r="J42" s="38"/>
-      <c r="K42" s="38"/>
-      <c r="L42" s="38"/>
-      <c r="M42" s="38"/>
-      <c r="N42" s="38"/>
-      <c r="O42" s="38"/>
-      <c r="P42" s="38"/>
-      <c r="Q42" s="38"/>
-      <c r="R42" s="38"/>
-      <c r="S42" s="38"/>
-      <c r="T42" s="38"/>
-      <c r="U42" s="38"/>
-      <c r="V42" s="38"/>
-      <c r="W42" s="38"/>
-      <c r="X42" s="38"/>
-      <c r="Y42" s="38"/>
-      <c r="Z42" s="38"/>
-      <c r="AA42" s="38"/>
-      <c r="AB42" s="38"/>
-      <c r="AC42" s="38"/>
-      <c r="AD42" s="38"/>
-      <c r="AE42" s="38"/>
-      <c r="AF42" s="38"/>
-      <c r="AG42" s="38"/>
-      <c r="AH42" s="38"/>
-      <c r="AI42" s="38"/>
-      <c r="AJ42" s="38"/>
-      <c r="AK42" s="38"/>
-      <c r="AL42" s="38"/>
-      <c r="AM42" s="38"/>
-      <c r="AN42" s="38"/>
-      <c r="AO42" s="38"/>
-      <c r="AP42" s="38"/>
-      <c r="AQ42" s="38"/>
-      <c r="AR42" s="38"/>
-      <c r="AS42" s="38"/>
-      <c r="AT42" s="38"/>
-      <c r="AU42" s="38"/>
-      <c r="AV42" s="38"/>
-      <c r="AW42" s="38"/>
-      <c r="AX42" s="38"/>
-      <c r="AY42" s="38"/>
-      <c r="AZ42" s="38"/>
-      <c r="BA42" s="38"/>
-      <c r="BB42" s="38"/>
-      <c r="BC42" s="38"/>
-      <c r="BD42" s="38"/>
-      <c r="BE42" s="38"/>
-      <c r="BF42" s="38"/>
-      <c r="BG42" s="38"/>
+      <c r="B42" s="36"/>
+      <c r="C42" s="37"/>
+      <c r="D42" s="37"/>
+      <c r="E42" s="37"/>
+      <c r="F42" s="37"/>
+      <c r="G42" s="37"/>
+      <c r="H42" s="37"/>
+      <c r="I42" s="37"/>
+      <c r="J42" s="37"/>
+      <c r="K42" s="37"/>
+      <c r="L42" s="37"/>
+      <c r="M42" s="37"/>
+      <c r="N42" s="37"/>
+      <c r="O42" s="37"/>
+      <c r="P42" s="37"/>
+      <c r="Q42" s="37"/>
+      <c r="R42" s="37"/>
+      <c r="S42" s="37"/>
+      <c r="T42" s="37"/>
+      <c r="U42" s="37"/>
+      <c r="V42" s="37"/>
+      <c r="W42" s="37"/>
+      <c r="X42" s="37"/>
+      <c r="Y42" s="37"/>
+      <c r="Z42" s="37"/>
+      <c r="AA42" s="37"/>
+      <c r="AB42" s="37"/>
+      <c r="AC42" s="37"/>
+      <c r="AD42" s="37"/>
+      <c r="AE42" s="37"/>
+      <c r="AF42" s="37"/>
+      <c r="AG42" s="37"/>
+      <c r="AH42" s="37"/>
+      <c r="AI42" s="37"/>
+      <c r="AJ42" s="37"/>
+      <c r="AK42" s="37"/>
+      <c r="AL42" s="37"/>
+      <c r="AM42" s="37"/>
+      <c r="AN42" s="37"/>
+      <c r="AO42" s="37"/>
+      <c r="AP42" s="37"/>
+      <c r="AQ42" s="37"/>
+      <c r="AR42" s="37"/>
+      <c r="AS42" s="37"/>
+      <c r="AT42" s="37"/>
+      <c r="AU42" s="37"/>
+      <c r="AV42" s="37"/>
+      <c r="AW42" s="37"/>
+      <c r="AX42" s="37"/>
+      <c r="AY42" s="37"/>
+      <c r="AZ42" s="37"/>
+      <c r="BA42" s="37"/>
+      <c r="BB42" s="37"/>
+      <c r="BC42" s="37"/>
+      <c r="BD42" s="37"/>
+      <c r="BE42" s="37"/>
+      <c r="BF42" s="37"/>
+      <c r="BG42" s="37"/>
     </row>
     <row r="43" ht="17" customHeight="1">
       <c r="A43" s="22"/>
-      <c r="B43" s="39"/>
-      <c r="C43" s="35"/>
-      <c r="D43" s="35"/>
-      <c r="E43" s="35"/>
-      <c r="F43" s="35"/>
-      <c r="G43" s="35"/>
-      <c r="H43" s="35"/>
-      <c r="I43" s="35"/>
-      <c r="J43" s="35"/>
-      <c r="K43" s="35"/>
-      <c r="L43" s="35"/>
-      <c r="M43" s="35"/>
-      <c r="N43" s="35"/>
-      <c r="O43" s="35"/>
-      <c r="P43" s="35"/>
-      <c r="Q43" s="35"/>
-      <c r="R43" s="35"/>
-      <c r="S43" s="35"/>
-      <c r="T43" s="35"/>
-      <c r="U43" s="35"/>
-      <c r="V43" s="35"/>
-      <c r="W43" s="35"/>
-      <c r="X43" s="35"/>
-      <c r="Y43" s="35"/>
-      <c r="Z43" s="35"/>
-      <c r="AA43" s="35"/>
-      <c r="AB43" s="35"/>
-      <c r="AC43" s="35"/>
-      <c r="AD43" s="35"/>
-      <c r="AE43" s="35"/>
-      <c r="AF43" s="35"/>
-      <c r="AG43" s="35"/>
-      <c r="AH43" s="35"/>
-      <c r="AI43" s="35"/>
-      <c r="AJ43" s="35"/>
-      <c r="AK43" s="35"/>
-      <c r="AL43" s="35"/>
-      <c r="AM43" s="35"/>
-      <c r="AN43" s="35"/>
-      <c r="AO43" s="35"/>
-      <c r="AP43" s="35"/>
-      <c r="AQ43" s="35"/>
-      <c r="AR43" s="35"/>
-      <c r="AS43" s="35"/>
-      <c r="AT43" s="35"/>
-      <c r="AU43" s="35"/>
-      <c r="AV43" s="35"/>
-      <c r="AW43" s="35"/>
-      <c r="AX43" s="35"/>
-      <c r="AY43" s="35"/>
-      <c r="AZ43" s="35"/>
-      <c r="BA43" s="35"/>
-      <c r="BB43" s="35"/>
-      <c r="BC43" s="35"/>
-      <c r="BD43" s="35"/>
-      <c r="BE43" s="35"/>
-      <c r="BF43" s="35"/>
-      <c r="BG43" s="41"/>
+      <c r="B43" s="38"/>
+      <c r="C43" s="34"/>
+      <c r="D43" s="34"/>
+      <c r="E43" s="34"/>
+      <c r="F43" s="34"/>
+      <c r="G43" s="34"/>
+      <c r="H43" s="34"/>
+      <c r="I43" s="34"/>
+      <c r="J43" s="34"/>
+      <c r="K43" s="34"/>
+      <c r="L43" s="34"/>
+      <c r="M43" s="34"/>
+      <c r="N43" s="34"/>
+      <c r="O43" s="34"/>
+      <c r="P43" s="34"/>
+      <c r="Q43" s="34"/>
+      <c r="R43" s="34"/>
+      <c r="S43" s="34"/>
+      <c r="T43" s="34"/>
+      <c r="U43" s="34"/>
+      <c r="V43" s="34"/>
+      <c r="W43" s="34"/>
+      <c r="X43" s="34"/>
+      <c r="Y43" s="34"/>
+      <c r="Z43" s="34"/>
+      <c r="AA43" s="34"/>
+      <c r="AB43" s="34"/>
+      <c r="AC43" s="34"/>
+      <c r="AD43" s="34"/>
+      <c r="AE43" s="34"/>
+      <c r="AF43" s="34"/>
+      <c r="AG43" s="34"/>
+      <c r="AH43" s="34"/>
+      <c r="AI43" s="34"/>
+      <c r="AJ43" s="34"/>
+      <c r="AK43" s="34"/>
+      <c r="AL43" s="34"/>
+      <c r="AM43" s="34"/>
+      <c r="AN43" s="34"/>
+      <c r="AO43" s="34"/>
+      <c r="AP43" s="34"/>
+      <c r="AQ43" s="34"/>
+      <c r="AR43" s="34"/>
+      <c r="AS43" s="34"/>
+      <c r="AT43" s="34"/>
+      <c r="AU43" s="34"/>
+      <c r="AV43" s="34"/>
+      <c r="AW43" s="34"/>
+      <c r="AX43" s="34"/>
+      <c r="AY43" s="34"/>
+      <c r="AZ43" s="34"/>
+      <c r="BA43" s="34"/>
+      <c r="BB43" s="34"/>
+      <c r="BC43" s="34"/>
+      <c r="BD43" s="34"/>
+      <c r="BE43" s="34"/>
+      <c r="BF43" s="34"/>
+      <c r="BG43" s="40"/>
     </row>
     <row r="44" ht="17" customHeight="1">
       <c r="A44" s="22"/>
-      <c r="B44" s="37"/>
-      <c r="C44" s="38"/>
-      <c r="D44" s="38"/>
-      <c r="E44" s="38"/>
-      <c r="F44" s="38"/>
-      <c r="G44" s="38"/>
-      <c r="H44" s="38"/>
-      <c r="I44" s="38"/>
-      <c r="J44" s="38"/>
-      <c r="K44" s="38"/>
-      <c r="L44" s="38"/>
-      <c r="M44" s="38"/>
-      <c r="N44" s="38"/>
-      <c r="O44" s="38"/>
-      <c r="P44" s="38"/>
-      <c r="Q44" s="38"/>
-      <c r="R44" s="38"/>
-      <c r="S44" s="38"/>
-      <c r="T44" s="38"/>
-      <c r="U44" s="38"/>
-      <c r="V44" s="38"/>
-      <c r="W44" s="38"/>
-      <c r="X44" s="38"/>
-      <c r="Y44" s="38"/>
-      <c r="Z44" s="38"/>
-      <c r="AA44" s="38"/>
-      <c r="AB44" s="38"/>
-      <c r="AC44" s="38"/>
-      <c r="AD44" s="38"/>
-      <c r="AE44" s="38"/>
-      <c r="AF44" s="38"/>
-      <c r="AG44" s="38"/>
-      <c r="AH44" s="38"/>
-      <c r="AI44" s="38"/>
-      <c r="AJ44" s="38"/>
-      <c r="AK44" s="38"/>
-      <c r="AL44" s="38"/>
-      <c r="AM44" s="38"/>
-      <c r="AN44" s="38"/>
-      <c r="AO44" s="38"/>
-      <c r="AP44" s="38"/>
-      <c r="AQ44" s="38"/>
-      <c r="AR44" s="38"/>
-      <c r="AS44" s="38"/>
-      <c r="AT44" s="38"/>
-      <c r="AU44" s="38"/>
-      <c r="AV44" s="38"/>
-      <c r="AW44" s="38"/>
-      <c r="AX44" s="38"/>
-      <c r="AY44" s="38"/>
-      <c r="AZ44" s="38"/>
-      <c r="BA44" s="38"/>
-      <c r="BB44" s="38"/>
-      <c r="BC44" s="38"/>
-      <c r="BD44" s="38"/>
-      <c r="BE44" s="38"/>
-      <c r="BF44" s="38"/>
-      <c r="BG44" s="38"/>
+      <c r="B44" s="36"/>
+      <c r="C44" s="37"/>
+      <c r="D44" s="37"/>
+      <c r="E44" s="37"/>
+      <c r="F44" s="37"/>
+      <c r="G44" s="37"/>
+      <c r="H44" s="37"/>
+      <c r="I44" s="37"/>
+      <c r="J44" s="37"/>
+      <c r="K44" s="37"/>
+      <c r="L44" s="37"/>
+      <c r="M44" s="37"/>
+      <c r="N44" s="37"/>
+      <c r="O44" s="37"/>
+      <c r="P44" s="37"/>
+      <c r="Q44" s="37"/>
+      <c r="R44" s="37"/>
+      <c r="S44" s="37"/>
+      <c r="T44" s="37"/>
+      <c r="U44" s="37"/>
+      <c r="V44" s="37"/>
+      <c r="W44" s="37"/>
+      <c r="X44" s="37"/>
+      <c r="Y44" s="37"/>
+      <c r="Z44" s="37"/>
+      <c r="AA44" s="37"/>
+      <c r="AB44" s="37"/>
+      <c r="AC44" s="37"/>
+      <c r="AD44" s="37"/>
+      <c r="AE44" s="37"/>
+      <c r="AF44" s="37"/>
+      <c r="AG44" s="37"/>
+      <c r="AH44" s="37"/>
+      <c r="AI44" s="37"/>
+      <c r="AJ44" s="37"/>
+      <c r="AK44" s="37"/>
+      <c r="AL44" s="37"/>
+      <c r="AM44" s="37"/>
+      <c r="AN44" s="37"/>
+      <c r="AO44" s="37"/>
+      <c r="AP44" s="37"/>
+      <c r="AQ44" s="37"/>
+      <c r="AR44" s="37"/>
+      <c r="AS44" s="37"/>
+      <c r="AT44" s="37"/>
+      <c r="AU44" s="37"/>
+      <c r="AV44" s="37"/>
+      <c r="AW44" s="37"/>
+      <c r="AX44" s="37"/>
+      <c r="AY44" s="37"/>
+      <c r="AZ44" s="37"/>
+      <c r="BA44" s="37"/>
+      <c r="BB44" s="37"/>
+      <c r="BC44" s="37"/>
+      <c r="BD44" s="37"/>
+      <c r="BE44" s="37"/>
+      <c r="BF44" s="37"/>
+      <c r="BG44" s="37"/>
     </row>
     <row r="45" ht="17" customHeight="1">
       <c r="A45" s="22"/>
-      <c r="B45" s="39"/>
-      <c r="C45" s="35"/>
-      <c r="D45" s="35"/>
-      <c r="E45" s="35"/>
-      <c r="F45" s="35"/>
-      <c r="G45" s="35"/>
-      <c r="H45" s="35"/>
-      <c r="I45" s="35"/>
-      <c r="J45" s="35"/>
-      <c r="K45" s="35"/>
-      <c r="L45" s="35"/>
-      <c r="M45" s="35"/>
-      <c r="N45" s="35"/>
-      <c r="O45" s="35"/>
-      <c r="P45" s="35"/>
-      <c r="Q45" s="35"/>
-      <c r="R45" s="35"/>
-      <c r="S45" s="35"/>
-      <c r="T45" s="35"/>
-      <c r="U45" s="35"/>
-      <c r="V45" s="35"/>
-      <c r="W45" s="35"/>
-      <c r="X45" s="35"/>
-      <c r="Y45" s="35"/>
-      <c r="Z45" s="35"/>
-      <c r="AA45" s="35"/>
-      <c r="AB45" s="35"/>
-      <c r="AC45" s="35"/>
-      <c r="AD45" s="35"/>
-      <c r="AE45" s="35"/>
-      <c r="AF45" s="35"/>
-      <c r="AG45" s="35"/>
-      <c r="AH45" s="35"/>
-      <c r="AI45" s="35"/>
-      <c r="AJ45" s="35"/>
-      <c r="AK45" s="35"/>
-      <c r="AL45" s="35"/>
-      <c r="AM45" s="35"/>
-      <c r="AN45" s="35"/>
-      <c r="AO45" s="35"/>
-      <c r="AP45" s="35"/>
-      <c r="AQ45" s="35"/>
-      <c r="AR45" s="35"/>
-      <c r="AS45" s="35"/>
-      <c r="AT45" s="35"/>
-      <c r="AU45" s="35"/>
-      <c r="AV45" s="35"/>
-      <c r="AW45" s="35"/>
-      <c r="AX45" s="35"/>
-      <c r="AY45" s="35"/>
-      <c r="AZ45" s="35"/>
-      <c r="BA45" s="35"/>
-      <c r="BB45" s="35"/>
-      <c r="BC45" s="35"/>
-      <c r="BD45" s="35"/>
-      <c r="BE45" s="35"/>
-      <c r="BF45" s="35"/>
-      <c r="BG45" s="41"/>
+      <c r="B45" s="38"/>
+      <c r="C45" s="34"/>
+      <c r="D45" s="34"/>
+      <c r="E45" s="34"/>
+      <c r="F45" s="34"/>
+      <c r="G45" s="34"/>
+      <c r="H45" s="34"/>
+      <c r="I45" s="34"/>
+      <c r="J45" s="34"/>
+      <c r="K45" s="34"/>
+      <c r="L45" s="34"/>
+      <c r="M45" s="34"/>
+      <c r="N45" s="34"/>
+      <c r="O45" s="34"/>
+      <c r="P45" s="34"/>
+      <c r="Q45" s="34"/>
+      <c r="R45" s="34"/>
+      <c r="S45" s="34"/>
+      <c r="T45" s="34"/>
+      <c r="U45" s="34"/>
+      <c r="V45" s="34"/>
+      <c r="W45" s="34"/>
+      <c r="X45" s="34"/>
+      <c r="Y45" s="34"/>
+      <c r="Z45" s="34"/>
+      <c r="AA45" s="34"/>
+      <c r="AB45" s="34"/>
+      <c r="AC45" s="34"/>
+      <c r="AD45" s="34"/>
+      <c r="AE45" s="34"/>
+      <c r="AF45" s="34"/>
+      <c r="AG45" s="34"/>
+      <c r="AH45" s="34"/>
+      <c r="AI45" s="34"/>
+      <c r="AJ45" s="34"/>
+      <c r="AK45" s="34"/>
+      <c r="AL45" s="34"/>
+      <c r="AM45" s="34"/>
+      <c r="AN45" s="34"/>
+      <c r="AO45" s="34"/>
+      <c r="AP45" s="34"/>
+      <c r="AQ45" s="34"/>
+      <c r="AR45" s="34"/>
+      <c r="AS45" s="34"/>
+      <c r="AT45" s="34"/>
+      <c r="AU45" s="34"/>
+      <c r="AV45" s="34"/>
+      <c r="AW45" s="34"/>
+      <c r="AX45" s="34"/>
+      <c r="AY45" s="34"/>
+      <c r="AZ45" s="34"/>
+      <c r="BA45" s="34"/>
+      <c r="BB45" s="34"/>
+      <c r="BC45" s="34"/>
+      <c r="BD45" s="34"/>
+      <c r="BE45" s="34"/>
+      <c r="BF45" s="34"/>
+      <c r="BG45" s="40"/>
     </row>
     <row r="46" ht="17" customHeight="1">
       <c r="A46" s="22"/>
-      <c r="B46" s="37"/>
-      <c r="C46" s="38"/>
-      <c r="D46" s="38"/>
-      <c r="E46" s="38"/>
-      <c r="F46" s="38"/>
-      <c r="G46" s="38"/>
-      <c r="H46" s="38"/>
-      <c r="I46" s="38"/>
-      <c r="J46" s="38"/>
-      <c r="K46" s="38"/>
-      <c r="L46" s="38"/>
-      <c r="M46" s="38"/>
-      <c r="N46" s="38"/>
-      <c r="O46" s="38"/>
-      <c r="P46" s="38"/>
-      <c r="Q46" s="38"/>
-      <c r="R46" s="38"/>
-      <c r="S46" s="38"/>
-      <c r="T46" s="38"/>
-      <c r="U46" s="38"/>
-      <c r="V46" s="38"/>
-      <c r="W46" s="38"/>
-      <c r="X46" s="38"/>
-      <c r="Y46" s="38"/>
-      <c r="Z46" s="38"/>
-      <c r="AA46" s="38"/>
-      <c r="AB46" s="38"/>
-      <c r="AC46" s="38"/>
-      <c r="AD46" s="38"/>
-      <c r="AE46" s="38"/>
-      <c r="AF46" s="38"/>
-      <c r="AG46" s="38"/>
-      <c r="AH46" s="38"/>
-      <c r="AI46" s="38"/>
-      <c r="AJ46" s="38"/>
-      <c r="AK46" s="38"/>
-      <c r="AL46" s="38"/>
-      <c r="AM46" s="38"/>
-      <c r="AN46" s="38"/>
-      <c r="AO46" s="38"/>
-      <c r="AP46" s="38"/>
-      <c r="AQ46" s="38"/>
-      <c r="AR46" s="38"/>
-      <c r="AS46" s="38"/>
-      <c r="AT46" s="38"/>
-      <c r="AU46" s="38"/>
-      <c r="AV46" s="38"/>
-      <c r="AW46" s="38"/>
-      <c r="AX46" s="38"/>
-      <c r="AY46" s="38"/>
-      <c r="AZ46" s="38"/>
-      <c r="BA46" s="38"/>
-      <c r="BB46" s="38"/>
-      <c r="BC46" s="38"/>
-      <c r="BD46" s="38"/>
-      <c r="BE46" s="38"/>
-      <c r="BF46" s="38"/>
-      <c r="BG46" s="38"/>
+      <c r="B46" s="36"/>
+      <c r="C46" s="37"/>
+      <c r="D46" s="37"/>
+      <c r="E46" s="37"/>
+      <c r="F46" s="37"/>
+      <c r="G46" s="37"/>
+      <c r="H46" s="37"/>
+      <c r="I46" s="37"/>
+      <c r="J46" s="37"/>
+      <c r="K46" s="37"/>
+      <c r="L46" s="37"/>
+      <c r="M46" s="37"/>
+      <c r="N46" s="37"/>
+      <c r="O46" s="37"/>
+      <c r="P46" s="37"/>
+      <c r="Q46" s="37"/>
+      <c r="R46" s="37"/>
+      <c r="S46" s="37"/>
+      <c r="T46" s="37"/>
+      <c r="U46" s="37"/>
+      <c r="V46" s="37"/>
+      <c r="W46" s="37"/>
+      <c r="X46" s="37"/>
+      <c r="Y46" s="37"/>
+      <c r="Z46" s="37"/>
+      <c r="AA46" s="37"/>
+      <c r="AB46" s="37"/>
+      <c r="AC46" s="37"/>
+      <c r="AD46" s="37"/>
+      <c r="AE46" s="37"/>
+      <c r="AF46" s="37"/>
+      <c r="AG46" s="37"/>
+      <c r="AH46" s="37"/>
+      <c r="AI46" s="37"/>
+      <c r="AJ46" s="37"/>
+      <c r="AK46" s="37"/>
+      <c r="AL46" s="37"/>
+      <c r="AM46" s="37"/>
+      <c r="AN46" s="37"/>
+      <c r="AO46" s="37"/>
+      <c r="AP46" s="37"/>
+      <c r="AQ46" s="37"/>
+      <c r="AR46" s="37"/>
+      <c r="AS46" s="37"/>
+      <c r="AT46" s="37"/>
+      <c r="AU46" s="37"/>
+      <c r="AV46" s="37"/>
+      <c r="AW46" s="37"/>
+      <c r="AX46" s="37"/>
+      <c r="AY46" s="37"/>
+      <c r="AZ46" s="37"/>
+      <c r="BA46" s="37"/>
+      <c r="BB46" s="37"/>
+      <c r="BC46" s="37"/>
+      <c r="BD46" s="37"/>
+      <c r="BE46" s="37"/>
+      <c r="BF46" s="37"/>
+      <c r="BG46" s="37"/>
     </row>
     <row r="47" ht="17" customHeight="1">
       <c r="A47" s="22"/>
-      <c r="B47" s="39"/>
-      <c r="C47" s="35"/>
-      <c r="D47" s="35"/>
-      <c r="E47" s="35"/>
-      <c r="F47" s="35"/>
-      <c r="G47" s="35"/>
-      <c r="H47" s="35"/>
-      <c r="I47" s="35"/>
-      <c r="J47" s="35"/>
-      <c r="K47" s="35"/>
-      <c r="L47" s="35"/>
-      <c r="M47" s="35"/>
-      <c r="N47" s="35"/>
-      <c r="O47" s="35"/>
-      <c r="P47" s="35"/>
-      <c r="Q47" s="35"/>
-      <c r="R47" s="35"/>
-      <c r="S47" s="35"/>
-      <c r="T47" s="35"/>
-      <c r="U47" s="35"/>
-      <c r="V47" s="35"/>
-      <c r="W47" s="35"/>
-      <c r="X47" s="35"/>
-      <c r="Y47" s="35"/>
-      <c r="Z47" s="35"/>
-      <c r="AA47" s="35"/>
-      <c r="AB47" s="35"/>
-      <c r="AC47" s="35"/>
-      <c r="AD47" s="35"/>
-      <c r="AE47" s="35"/>
-      <c r="AF47" s="35"/>
-      <c r="AG47" s="35"/>
-      <c r="AH47" s="35"/>
-      <c r="AI47" s="35"/>
-      <c r="AJ47" s="35"/>
-      <c r="AK47" s="35"/>
-      <c r="AL47" s="35"/>
-      <c r="AM47" s="35"/>
-      <c r="AN47" s="35"/>
-      <c r="AO47" s="35"/>
-      <c r="AP47" s="35"/>
-      <c r="AQ47" s="35"/>
-      <c r="AR47" s="35"/>
-      <c r="AS47" s="35"/>
-      <c r="AT47" s="35"/>
-      <c r="AU47" s="35"/>
-      <c r="AV47" s="35"/>
-      <c r="AW47" s="35"/>
-      <c r="AX47" s="35"/>
-      <c r="AY47" s="35"/>
-      <c r="AZ47" s="35"/>
-      <c r="BA47" s="35"/>
-      <c r="BB47" s="35"/>
-      <c r="BC47" s="35"/>
-      <c r="BD47" s="35"/>
-      <c r="BE47" s="35"/>
-      <c r="BF47" s="35"/>
-      <c r="BG47" s="41"/>
+      <c r="B47" s="38"/>
+      <c r="C47" s="34"/>
+      <c r="D47" s="34"/>
+      <c r="E47" s="34"/>
+      <c r="F47" s="34"/>
+      <c r="G47" s="34"/>
+      <c r="H47" s="34"/>
+      <c r="I47" s="34"/>
+      <c r="J47" s="34"/>
+      <c r="K47" s="34"/>
+      <c r="L47" s="34"/>
+      <c r="M47" s="34"/>
+      <c r="N47" s="34"/>
+      <c r="O47" s="34"/>
+      <c r="P47" s="34"/>
+      <c r="Q47" s="34"/>
+      <c r="R47" s="34"/>
+      <c r="S47" s="34"/>
+      <c r="T47" s="34"/>
+      <c r="U47" s="34"/>
+      <c r="V47" s="34"/>
+      <c r="W47" s="34"/>
+      <c r="X47" s="34"/>
+      <c r="Y47" s="34"/>
+      <c r="Z47" s="34"/>
+      <c r="AA47" s="34"/>
+      <c r="AB47" s="34"/>
+      <c r="AC47" s="34"/>
+      <c r="AD47" s="34"/>
+      <c r="AE47" s="34"/>
+      <c r="AF47" s="34"/>
+      <c r="AG47" s="34"/>
+      <c r="AH47" s="34"/>
+      <c r="AI47" s="34"/>
+      <c r="AJ47" s="34"/>
+      <c r="AK47" s="34"/>
+      <c r="AL47" s="34"/>
+      <c r="AM47" s="34"/>
+      <c r="AN47" s="34"/>
+      <c r="AO47" s="34"/>
+      <c r="AP47" s="34"/>
+      <c r="AQ47" s="34"/>
+      <c r="AR47" s="34"/>
+      <c r="AS47" s="34"/>
+      <c r="AT47" s="34"/>
+      <c r="AU47" s="34"/>
+      <c r="AV47" s="34"/>
+      <c r="AW47" s="34"/>
+      <c r="AX47" s="34"/>
+      <c r="AY47" s="34"/>
+      <c r="AZ47" s="34"/>
+      <c r="BA47" s="34"/>
+      <c r="BB47" s="34"/>
+      <c r="BC47" s="34"/>
+      <c r="BD47" s="34"/>
+      <c r="BE47" s="34"/>
+      <c r="BF47" s="34"/>
+      <c r="BG47" s="40"/>
     </row>
     <row r="48" ht="17" customHeight="1">
       <c r="A48" s="22"/>
-      <c r="B48" s="37"/>
-      <c r="C48" s="38"/>
-      <c r="D48" s="38"/>
-      <c r="E48" s="38"/>
-      <c r="F48" s="38"/>
-      <c r="G48" s="38"/>
-      <c r="H48" s="38"/>
-      <c r="I48" s="38"/>
-      <c r="J48" s="38"/>
-      <c r="K48" s="38"/>
-      <c r="L48" s="38"/>
-      <c r="M48" s="38"/>
-      <c r="N48" s="38"/>
-      <c r="O48" s="38"/>
-      <c r="P48" s="38"/>
-      <c r="Q48" s="38"/>
-      <c r="R48" s="38"/>
-      <c r="S48" s="38"/>
-      <c r="T48" s="38"/>
-      <c r="U48" s="38"/>
-      <c r="V48" s="38"/>
-      <c r="W48" s="38"/>
-      <c r="X48" s="38"/>
-      <c r="Y48" s="38"/>
-      <c r="Z48" s="38"/>
-      <c r="AA48" s="38"/>
-      <c r="AB48" s="38"/>
-      <c r="AC48" s="38"/>
-      <c r="AD48" s="38"/>
-      <c r="AE48" s="38"/>
-      <c r="AF48" s="38"/>
-      <c r="AG48" s="38"/>
-      <c r="AH48" s="38"/>
-      <c r="AI48" s="38"/>
-      <c r="AJ48" s="38"/>
-      <c r="AK48" s="38"/>
-      <c r="AL48" s="38"/>
-      <c r="AM48" s="38"/>
-      <c r="AN48" s="38"/>
-      <c r="AO48" s="38"/>
-      <c r="AP48" s="38"/>
-      <c r="AQ48" s="38"/>
-      <c r="AR48" s="38"/>
-      <c r="AS48" s="38"/>
-      <c r="AT48" s="38"/>
-      <c r="AU48" s="38"/>
-      <c r="AV48" s="38"/>
-      <c r="AW48" s="38"/>
-      <c r="AX48" s="38"/>
-      <c r="AY48" s="38"/>
-      <c r="AZ48" s="38"/>
-      <c r="BA48" s="38"/>
-      <c r="BB48" s="38"/>
-      <c r="BC48" s="38"/>
-      <c r="BD48" s="38"/>
-      <c r="BE48" s="38"/>
-      <c r="BF48" s="38"/>
-      <c r="BG48" s="38"/>
+      <c r="B48" s="36"/>
+      <c r="C48" s="37"/>
+      <c r="D48" s="37"/>
+      <c r="E48" s="37"/>
+      <c r="F48" s="37"/>
+      <c r="G48" s="37"/>
+      <c r="H48" s="37"/>
+      <c r="I48" s="37"/>
+      <c r="J48" s="37"/>
+      <c r="K48" s="37"/>
+      <c r="L48" s="37"/>
+      <c r="M48" s="37"/>
+      <c r="N48" s="37"/>
+      <c r="O48" s="37"/>
+      <c r="P48" s="37"/>
+      <c r="Q48" s="37"/>
+      <c r="R48" s="37"/>
+      <c r="S48" s="37"/>
+      <c r="T48" s="37"/>
+      <c r="U48" s="37"/>
+      <c r="V48" s="37"/>
+      <c r="W48" s="37"/>
+      <c r="X48" s="37"/>
+      <c r="Y48" s="37"/>
+      <c r="Z48" s="37"/>
+      <c r="AA48" s="37"/>
+      <c r="AB48" s="37"/>
+      <c r="AC48" s="37"/>
+      <c r="AD48" s="37"/>
+      <c r="AE48" s="37"/>
+      <c r="AF48" s="37"/>
+      <c r="AG48" s="37"/>
+      <c r="AH48" s="37"/>
+      <c r="AI48" s="37"/>
+      <c r="AJ48" s="37"/>
+      <c r="AK48" s="37"/>
+      <c r="AL48" s="37"/>
+      <c r="AM48" s="37"/>
+      <c r="AN48" s="37"/>
+      <c r="AO48" s="37"/>
+      <c r="AP48" s="37"/>
+      <c r="AQ48" s="37"/>
+      <c r="AR48" s="37"/>
+      <c r="AS48" s="37"/>
+      <c r="AT48" s="37"/>
+      <c r="AU48" s="37"/>
+      <c r="AV48" s="37"/>
+      <c r="AW48" s="37"/>
+      <c r="AX48" s="37"/>
+      <c r="AY48" s="37"/>
+      <c r="AZ48" s="37"/>
+      <c r="BA48" s="37"/>
+      <c r="BB48" s="37"/>
+      <c r="BC48" s="37"/>
+      <c r="BD48" s="37"/>
+      <c r="BE48" s="37"/>
+      <c r="BF48" s="37"/>
+      <c r="BG48" s="37"/>
     </row>
     <row r="49" ht="17" customHeight="1">
       <c r="A49" s="22"/>
-      <c r="B49" s="39"/>
-      <c r="C49" s="35"/>
-      <c r="D49" s="35"/>
-      <c r="E49" s="35"/>
-      <c r="F49" s="35"/>
-      <c r="G49" s="35"/>
-      <c r="H49" s="35"/>
-      <c r="I49" s="35"/>
-      <c r="J49" s="35"/>
-      <c r="K49" s="35"/>
-      <c r="L49" s="35"/>
-      <c r="M49" s="35"/>
-      <c r="N49" s="35"/>
-      <c r="O49" s="35"/>
-      <c r="P49" s="35"/>
-      <c r="Q49" s="35"/>
-      <c r="R49" s="35"/>
-      <c r="S49" s="35"/>
-      <c r="T49" s="35"/>
-      <c r="U49" s="35"/>
-      <c r="V49" s="35"/>
-      <c r="W49" s="35"/>
-      <c r="X49" s="35"/>
-      <c r="Y49" s="35"/>
-      <c r="Z49" s="35"/>
-      <c r="AA49" s="35"/>
-      <c r="AB49" s="35"/>
-      <c r="AC49" s="35"/>
-      <c r="AD49" s="35"/>
-      <c r="AE49" s="35"/>
-      <c r="AF49" s="35"/>
-      <c r="AG49" s="35"/>
-      <c r="AH49" s="35"/>
-      <c r="AI49" s="35"/>
-      <c r="AJ49" s="35"/>
-      <c r="AK49" s="35"/>
-      <c r="AL49" s="35"/>
-      <c r="AM49" s="35"/>
-      <c r="AN49" s="35"/>
-      <c r="AO49" s="35"/>
-      <c r="AP49" s="35"/>
-      <c r="AQ49" s="35"/>
-      <c r="AR49" s="35"/>
-      <c r="AS49" s="35"/>
-      <c r="AT49" s="35"/>
-      <c r="AU49" s="35"/>
-      <c r="AV49" s="35"/>
-      <c r="AW49" s="35"/>
-      <c r="AX49" s="35"/>
-      <c r="AY49" s="35"/>
-      <c r="AZ49" s="35"/>
-      <c r="BA49" s="35"/>
-      <c r="BB49" s="35"/>
-      <c r="BC49" s="35"/>
-      <c r="BD49" s="35"/>
-      <c r="BE49" s="35"/>
-      <c r="BF49" s="35"/>
-      <c r="BG49" s="41"/>
+      <c r="B49" s="38"/>
+      <c r="C49" s="34"/>
+      <c r="D49" s="34"/>
+      <c r="E49" s="34"/>
+      <c r="F49" s="34"/>
+      <c r="G49" s="34"/>
+      <c r="H49" s="34"/>
+      <c r="I49" s="34"/>
+      <c r="J49" s="34"/>
+      <c r="K49" s="34"/>
+      <c r="L49" s="34"/>
+      <c r="M49" s="34"/>
+      <c r="N49" s="34"/>
+      <c r="O49" s="34"/>
+      <c r="P49" s="34"/>
+      <c r="Q49" s="34"/>
+      <c r="R49" s="34"/>
+      <c r="S49" s="34"/>
+      <c r="T49" s="34"/>
+      <c r="U49" s="34"/>
+      <c r="V49" s="34"/>
+      <c r="W49" s="34"/>
+      <c r="X49" s="34"/>
+      <c r="Y49" s="34"/>
+      <c r="Z49" s="34"/>
+      <c r="AA49" s="34"/>
+      <c r="AB49" s="34"/>
+      <c r="AC49" s="34"/>
+      <c r="AD49" s="34"/>
+      <c r="AE49" s="34"/>
+      <c r="AF49" s="34"/>
+      <c r="AG49" s="34"/>
+      <c r="AH49" s="34"/>
+      <c r="AI49" s="34"/>
+      <c r="AJ49" s="34"/>
+      <c r="AK49" s="34"/>
+      <c r="AL49" s="34"/>
+      <c r="AM49" s="34"/>
+      <c r="AN49" s="34"/>
+      <c r="AO49" s="34"/>
+      <c r="AP49" s="34"/>
+      <c r="AQ49" s="34"/>
+      <c r="AR49" s="34"/>
+      <c r="AS49" s="34"/>
+      <c r="AT49" s="34"/>
+      <c r="AU49" s="34"/>
+      <c r="AV49" s="34"/>
+      <c r="AW49" s="34"/>
+      <c r="AX49" s="34"/>
+      <c r="AY49" s="34"/>
+      <c r="AZ49" s="34"/>
+      <c r="BA49" s="34"/>
+      <c r="BB49" s="34"/>
+      <c r="BC49" s="34"/>
+      <c r="BD49" s="34"/>
+      <c r="BE49" s="34"/>
+      <c r="BF49" s="34"/>
+      <c r="BG49" s="40"/>
     </row>
     <row r="50" ht="17" customHeight="1">
-      <c r="A50" s="42"/>
-      <c r="B50" s="43"/>
-      <c r="C50" s="44"/>
-      <c r="D50" s="44"/>
-      <c r="E50" s="44"/>
-      <c r="F50" s="44"/>
-      <c r="G50" s="44"/>
-      <c r="H50" s="44"/>
-      <c r="I50" s="44"/>
-      <c r="J50" s="44"/>
-      <c r="K50" s="44"/>
-      <c r="L50" s="44"/>
-      <c r="M50" s="44"/>
-      <c r="N50" s="44"/>
-      <c r="O50" s="44"/>
-      <c r="P50" s="44"/>
-      <c r="Q50" s="44"/>
-      <c r="R50" s="44"/>
-      <c r="S50" s="44"/>
-      <c r="T50" s="44"/>
-      <c r="U50" s="44"/>
-      <c r="V50" s="44"/>
-      <c r="W50" s="44"/>
-      <c r="X50" s="44"/>
-      <c r="Y50" s="44"/>
-      <c r="Z50" s="44"/>
-      <c r="AA50" s="44"/>
-      <c r="AB50" s="44"/>
-      <c r="AC50" s="44"/>
-      <c r="AD50" s="44"/>
-      <c r="AE50" s="44"/>
-      <c r="AF50" s="44"/>
-      <c r="AG50" s="44"/>
-      <c r="AH50" s="44"/>
-      <c r="AI50" s="44"/>
-      <c r="AJ50" s="44"/>
-      <c r="AK50" s="44"/>
-      <c r="AL50" s="44"/>
-      <c r="AM50" s="44"/>
-      <c r="AN50" s="44"/>
-      <c r="AO50" s="44"/>
-      <c r="AP50" s="44"/>
-      <c r="AQ50" s="44"/>
-      <c r="AR50" s="44"/>
-      <c r="AS50" s="44"/>
-      <c r="AT50" s="44"/>
-      <c r="AU50" s="44"/>
-      <c r="AV50" s="44"/>
-      <c r="AW50" s="44"/>
-      <c r="AX50" s="44"/>
-      <c r="AY50" s="44"/>
-      <c r="AZ50" s="44"/>
-      <c r="BA50" s="44"/>
-      <c r="BB50" s="44"/>
-      <c r="BC50" s="44"/>
-      <c r="BD50" s="44"/>
-      <c r="BE50" s="44"/>
-      <c r="BF50" s="44"/>
-      <c r="BG50" s="44"/>
+      <c r="A50" s="41"/>
+      <c r="B50" s="42"/>
+      <c r="C50" s="43"/>
+      <c r="D50" s="43"/>
+      <c r="E50" s="43"/>
+      <c r="F50" s="43"/>
+      <c r="G50" s="43"/>
+      <c r="H50" s="43"/>
+      <c r="I50" s="43"/>
+      <c r="J50" s="43"/>
+      <c r="K50" s="43"/>
+      <c r="L50" s="43"/>
+      <c r="M50" s="43"/>
+      <c r="N50" s="43"/>
+      <c r="O50" s="43"/>
+      <c r="P50" s="43"/>
+      <c r="Q50" s="43"/>
+      <c r="R50" s="43"/>
+      <c r="S50" s="43"/>
+      <c r="T50" s="43"/>
+      <c r="U50" s="43"/>
+      <c r="V50" s="43"/>
+      <c r="W50" s="43"/>
+      <c r="X50" s="43"/>
+      <c r="Y50" s="43"/>
+      <c r="Z50" s="43"/>
+      <c r="AA50" s="43"/>
+      <c r="AB50" s="43"/>
+      <c r="AC50" s="43"/>
+      <c r="AD50" s="43"/>
+      <c r="AE50" s="43"/>
+      <c r="AF50" s="43"/>
+      <c r="AG50" s="43"/>
+      <c r="AH50" s="43"/>
+      <c r="AI50" s="43"/>
+      <c r="AJ50" s="43"/>
+      <c r="AK50" s="43"/>
+      <c r="AL50" s="43"/>
+      <c r="AM50" s="43"/>
+      <c r="AN50" s="43"/>
+      <c r="AO50" s="43"/>
+      <c r="AP50" s="43"/>
+      <c r="AQ50" s="43"/>
+      <c r="AR50" s="43"/>
+      <c r="AS50" s="43"/>
+      <c r="AT50" s="43"/>
+      <c r="AU50" s="43"/>
+      <c r="AV50" s="43"/>
+      <c r="AW50" s="43"/>
+      <c r="AX50" s="43"/>
+      <c r="AY50" s="43"/>
+      <c r="AZ50" s="43"/>
+      <c r="BA50" s="43"/>
+      <c r="BB50" s="43"/>
+      <c r="BC50" s="43"/>
+      <c r="BD50" s="43"/>
+      <c r="BE50" s="43"/>
+      <c r="BF50" s="43"/>
+      <c r="BG50" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6181,45 +6178,45 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.71429" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="8.73438" style="45" customWidth="1"/>
-    <col min="2" max="2" width="48" style="45" customWidth="1"/>
-    <col min="3" max="3" width="8.73438" style="45" customWidth="1"/>
-    <col min="4" max="4" width="8.73438" style="45" customWidth="1"/>
-    <col min="5" max="5" width="8.73438" style="45" customWidth="1"/>
-    <col min="6" max="256" width="8.73438" style="45" customWidth="1"/>
+    <col min="1" max="1" width="8.73438" style="44" customWidth="1"/>
+    <col min="2" max="2" width="48" style="44" customWidth="1"/>
+    <col min="3" max="3" width="8.73438" style="44" customWidth="1"/>
+    <col min="4" max="4" width="8.73438" style="44" customWidth="1"/>
+    <col min="5" max="5" width="8.73438" style="44" customWidth="1"/>
+    <col min="6" max="256" width="8.73438" style="44" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="43.5" customHeight="1">
-      <c r="A1" t="s" s="46">
+      <c r="A1" t="s" s="45">
         <v>122</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="48"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="47"/>
       <c r="D1" s="32"/>
       <c r="E1" s="32"/>
     </row>
     <row r="2" ht="43.5" customHeight="1">
-      <c r="A2" s="49"/>
-      <c r="B2" t="s" s="50">
+      <c r="A2" s="48"/>
+      <c r="B2" t="s" s="49">
         <v>120</v>
       </c>
-      <c r="C2" s="48"/>
+      <c r="C2" s="47"/>
       <c r="D2" s="32"/>
       <c r="E2" s="32"/>
     </row>
     <row r="3" ht="36.75" customHeight="1">
-      <c r="A3" t="s" s="51">
+      <c r="A3" t="s" s="50">
         <v>0</v>
       </c>
-      <c r="B3" s="52">
+      <c r="B3" s="51">
         <v>43404</v>
       </c>
-      <c r="C3" s="48"/>
+      <c r="C3" s="47"/>
       <c r="D3" s="32"/>
       <c r="E3" s="32"/>
     </row>
     <row r="4" ht="17" customHeight="1">
-      <c r="A4" s="53"/>
+      <c r="A4" s="52"/>
       <c r="B4" s="21">
         <v>43114</v>
       </c>
@@ -6297,53 +6294,53 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="10" style="54" customWidth="1"/>
-    <col min="2" max="2" width="23.5781" style="54" customWidth="1"/>
-    <col min="3" max="3" width="11" style="54" customWidth="1"/>
-    <col min="4" max="4" width="22.5781" style="54" customWidth="1"/>
-    <col min="5" max="5" width="10.8672" style="54" customWidth="1"/>
-    <col min="6" max="6" width="11" style="54" customWidth="1"/>
-    <col min="7" max="7" width="11" style="54" customWidth="1"/>
-    <col min="8" max="8" width="11" style="54" customWidth="1"/>
-    <col min="9" max="9" width="11" style="54" customWidth="1"/>
-    <col min="10" max="10" width="11" style="54" customWidth="1"/>
-    <col min="11" max="11" width="11" style="54" customWidth="1"/>
-    <col min="12" max="12" width="11" style="54" customWidth="1"/>
-    <col min="13" max="13" width="11" style="54" customWidth="1"/>
-    <col min="14" max="14" width="11" style="54" customWidth="1"/>
-    <col min="15" max="256" width="11" style="54" customWidth="1"/>
+    <col min="1" max="1" width="10" style="53" customWidth="1"/>
+    <col min="2" max="2" width="23.5781" style="53" customWidth="1"/>
+    <col min="3" max="3" width="11" style="53" customWidth="1"/>
+    <col min="4" max="4" width="22.5781" style="53" customWidth="1"/>
+    <col min="5" max="5" width="10.8672" style="53" customWidth="1"/>
+    <col min="6" max="6" width="11" style="53" customWidth="1"/>
+    <col min="7" max="7" width="11" style="53" customWidth="1"/>
+    <col min="8" max="8" width="11" style="53" customWidth="1"/>
+    <col min="9" max="9" width="11" style="53" customWidth="1"/>
+    <col min="10" max="10" width="11" style="53" customWidth="1"/>
+    <col min="11" max="11" width="11" style="53" customWidth="1"/>
+    <col min="12" max="12" width="11" style="53" customWidth="1"/>
+    <col min="13" max="13" width="11" style="53" customWidth="1"/>
+    <col min="14" max="14" width="11" style="53" customWidth="1"/>
+    <col min="15" max="256" width="11" style="53" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="60" customHeight="1">
-      <c r="A1" t="s" s="55">
+      <c r="A1" t="s" s="54">
         <v>123</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="58"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="57"/>
     </row>
     <row r="2" ht="47" customHeight="1">
-      <c r="A2" s="59"/>
-      <c r="B2" t="s" s="60">
+      <c r="A2" s="58"/>
+      <c r="B2" t="s" s="59">
         <v>61</v>
       </c>
-      <c r="C2" t="s" s="61">
+      <c r="C2" t="s" s="60">
         <v>2</v>
       </c>
-      <c r="D2" t="s" s="62">
+      <c r="D2" t="s" s="61">
         <v>124</v>
       </c>
-      <c r="E2" s="48"/>
+      <c r="E2" s="47"/>
       <c r="F2" s="32"/>
       <c r="G2" s="32"/>
       <c r="H2" s="32"/>
@@ -6355,19 +6352,19 @@
       <c r="N2" s="32"/>
     </row>
     <row r="3" ht="39" customHeight="1">
-      <c r="A3" t="s" s="63">
+      <c r="A3" t="s" s="62">
         <v>0</v>
       </c>
-      <c r="B3" t="s" s="64">
+      <c r="B3" t="s" s="63">
         <v>62</v>
       </c>
-      <c r="C3" t="s" s="65">
+      <c r="C3" t="s" s="64">
         <v>3</v>
       </c>
-      <c r="D3" s="66">
+      <c r="D3" s="65">
         <v>10</v>
       </c>
-      <c r="E3" s="48"/>
+      <c r="E3" s="47"/>
       <c r="F3" s="32"/>
       <c r="G3" s="32"/>
       <c r="H3" s="32"/>
@@ -6379,17 +6376,17 @@
       <c r="N3" s="32"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="67"/>
-      <c r="B4" t="s" s="68">
+      <c r="A4" s="66"/>
+      <c r="B4" t="s" s="67">
         <v>63</v>
       </c>
-      <c r="C4" t="s" s="69">
+      <c r="C4" t="s" s="68">
         <v>4</v>
       </c>
-      <c r="D4" s="70">
+      <c r="D4" s="69">
         <v>4</v>
       </c>
-      <c r="E4" s="48"/>
+      <c r="E4" s="47"/>
       <c r="F4" s="32"/>
       <c r="G4" s="32"/>
       <c r="H4" s="32"/>
@@ -6401,17 +6398,17 @@
       <c r="N4" s="32"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="71"/>
-      <c r="B5" t="s" s="68">
+      <c r="A5" s="70"/>
+      <c r="B5" t="s" s="67">
         <v>64</v>
       </c>
-      <c r="C5" t="s" s="69">
+      <c r="C5" t="s" s="68">
         <v>5</v>
       </c>
-      <c r="D5" s="70">
+      <c r="D5" s="69">
         <v>10</v>
       </c>
-      <c r="E5" s="48"/>
+      <c r="E5" s="47"/>
       <c r="F5" s="32"/>
       <c r="G5" s="32"/>
       <c r="H5" s="32"/>
@@ -6423,17 +6420,17 @@
       <c r="N5" s="32"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="72"/>
-      <c r="B6" t="s" s="68">
+      <c r="A6" s="71"/>
+      <c r="B6" t="s" s="67">
         <v>65</v>
       </c>
-      <c r="C6" t="s" s="69">
+      <c r="C6" t="s" s="68">
         <v>6</v>
       </c>
-      <c r="D6" s="70">
+      <c r="D6" s="69">
         <v>11</v>
       </c>
-      <c r="E6" s="48"/>
+      <c r="E6" s="47"/>
       <c r="F6" s="32"/>
       <c r="G6" s="32"/>
       <c r="H6" s="32"/>
@@ -6445,17 +6442,17 @@
       <c r="N6" s="32"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="72"/>
-      <c r="B7" t="s" s="68">
+      <c r="A7" s="71"/>
+      <c r="B7" t="s" s="67">
         <v>66</v>
       </c>
-      <c r="C7" t="s" s="69">
+      <c r="C7" t="s" s="68">
         <v>7</v>
       </c>
-      <c r="D7" s="70">
+      <c r="D7" s="69">
         <v>7</v>
       </c>
-      <c r="E7" s="48"/>
+      <c r="E7" s="47"/>
       <c r="F7" s="32"/>
       <c r="G7" s="32"/>
       <c r="H7" s="32"/>
@@ -6467,17 +6464,17 @@
       <c r="N7" s="32"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="73"/>
-      <c r="B8" t="s" s="68">
+      <c r="A8" s="72"/>
+      <c r="B8" t="s" s="67">
         <v>67</v>
       </c>
-      <c r="C8" t="s" s="69">
+      <c r="C8" t="s" s="68">
         <v>8</v>
       </c>
-      <c r="D8" s="70">
+      <c r="D8" s="69">
         <v>4</v>
       </c>
-      <c r="E8" s="48"/>
+      <c r="E8" s="47"/>
       <c r="F8" s="32"/>
       <c r="G8" s="32"/>
       <c r="H8" s="32"/>
@@ -6489,17 +6486,17 @@
       <c r="N8" s="32"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="73"/>
-      <c r="B9" t="s" s="68">
+      <c r="A9" s="72"/>
+      <c r="B9" t="s" s="67">
         <v>68</v>
       </c>
-      <c r="C9" t="s" s="69">
+      <c r="C9" t="s" s="68">
         <v>9</v>
       </c>
-      <c r="D9" s="70">
+      <c r="D9" s="69">
         <v>6</v>
       </c>
-      <c r="E9" s="48"/>
+      <c r="E9" s="47"/>
       <c r="F9" s="32"/>
       <c r="G9" s="32"/>
       <c r="H9" s="32"/>
@@ -6511,17 +6508,17 @@
       <c r="N9" s="32"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="73"/>
-      <c r="B10" t="s" s="68">
+      <c r="A10" s="72"/>
+      <c r="B10" t="s" s="67">
         <v>69</v>
       </c>
-      <c r="C10" t="s" s="69">
+      <c r="C10" t="s" s="68">
         <v>10</v>
       </c>
-      <c r="D10" s="70">
+      <c r="D10" s="69">
         <v>3</v>
       </c>
-      <c r="E10" s="48"/>
+      <c r="E10" s="47"/>
       <c r="F10" s="32"/>
       <c r="G10" s="32"/>
       <c r="H10" s="32"/>
@@ -6533,17 +6530,17 @@
       <c r="N10" s="32"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="73"/>
-      <c r="B11" t="s" s="68">
+      <c r="A11" s="72"/>
+      <c r="B11" t="s" s="67">
         <v>70</v>
       </c>
-      <c r="C11" t="s" s="69">
+      <c r="C11" t="s" s="68">
         <v>11</v>
       </c>
-      <c r="D11" s="70">
+      <c r="D11" s="69">
         <v>1</v>
       </c>
-      <c r="E11" s="48"/>
+      <c r="E11" s="47"/>
       <c r="F11" s="32"/>
       <c r="G11" s="32"/>
       <c r="H11" s="32"/>
@@ -6555,17 +6552,17 @@
       <c r="N11" s="32"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="73"/>
-      <c r="B12" t="s" s="68">
+      <c r="A12" s="72"/>
+      <c r="B12" t="s" s="67">
         <v>71</v>
       </c>
-      <c r="C12" t="s" s="69">
+      <c r="C12" t="s" s="68">
         <v>12</v>
       </c>
-      <c r="D12" s="70">
+      <c r="D12" s="69">
         <v>6</v>
       </c>
-      <c r="E12" s="48"/>
+      <c r="E12" s="47"/>
       <c r="F12" s="32"/>
       <c r="G12" s="32"/>
       <c r="H12" s="32"/>
@@ -6577,17 +6574,17 @@
       <c r="N12" s="32"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="73"/>
-      <c r="B13" t="s" s="68">
+      <c r="A13" s="72"/>
+      <c r="B13" t="s" s="67">
         <v>72</v>
       </c>
-      <c r="C13" t="s" s="69">
+      <c r="C13" t="s" s="68">
         <v>13</v>
       </c>
-      <c r="D13" s="70">
+      <c r="D13" s="69">
         <v>8</v>
       </c>
-      <c r="E13" s="48"/>
+      <c r="E13" s="47"/>
       <c r="F13" s="32"/>
       <c r="G13" s="32"/>
       <c r="H13" s="32"/>
@@ -6599,17 +6596,17 @@
       <c r="N13" s="32"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="73"/>
-      <c r="B14" t="s" s="68">
+      <c r="A14" s="72"/>
+      <c r="B14" t="s" s="67">
         <v>73</v>
       </c>
-      <c r="C14" t="s" s="69">
+      <c r="C14" t="s" s="68">
         <v>14</v>
       </c>
-      <c r="D14" s="70">
+      <c r="D14" s="69">
         <v>9</v>
       </c>
-      <c r="E14" s="48"/>
+      <c r="E14" s="47"/>
       <c r="F14" s="32"/>
       <c r="G14" s="32"/>
       <c r="H14" s="32"/>
@@ -6621,17 +6618,17 @@
       <c r="N14" s="32"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="73"/>
-      <c r="B15" t="s" s="68">
+      <c r="A15" s="72"/>
+      <c r="B15" t="s" s="67">
         <v>74</v>
       </c>
-      <c r="C15" t="s" s="69">
+      <c r="C15" t="s" s="68">
         <v>15</v>
       </c>
-      <c r="D15" s="70">
+      <c r="D15" s="69">
         <v>5</v>
       </c>
-      <c r="E15" s="48"/>
+      <c r="E15" s="47"/>
       <c r="F15" s="32"/>
       <c r="G15" s="32"/>
       <c r="H15" s="32"/>
@@ -6643,17 +6640,17 @@
       <c r="N15" s="32"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="73"/>
-      <c r="B16" t="s" s="68">
+      <c r="A16" s="72"/>
+      <c r="B16" t="s" s="67">
         <v>75</v>
       </c>
-      <c r="C16" t="s" s="69">
+      <c r="C16" t="s" s="68">
         <v>16</v>
       </c>
-      <c r="D16" s="70">
+      <c r="D16" s="69">
         <v>4</v>
       </c>
-      <c r="E16" s="48"/>
+      <c r="E16" s="47"/>
       <c r="F16" s="32"/>
       <c r="G16" s="32"/>
       <c r="H16" s="32"/>
@@ -6665,17 +6662,17 @@
       <c r="N16" s="32"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="73"/>
-      <c r="B17" t="s" s="68">
+      <c r="A17" s="72"/>
+      <c r="B17" t="s" s="67">
         <v>76</v>
       </c>
-      <c r="C17" t="s" s="69">
+      <c r="C17" t="s" s="68">
         <v>17</v>
       </c>
-      <c r="D17" s="70">
+      <c r="D17" s="69">
         <v>2</v>
       </c>
-      <c r="E17" s="48"/>
+      <c r="E17" s="47"/>
       <c r="F17" s="32"/>
       <c r="G17" s="32"/>
       <c r="H17" s="32"/>
@@ -6687,17 +6684,17 @@
       <c r="N17" s="32"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="73"/>
-      <c r="B18" t="s" s="68">
+      <c r="A18" s="72"/>
+      <c r="B18" t="s" s="67">
         <v>77</v>
       </c>
-      <c r="C18" t="s" s="69">
+      <c r="C18" t="s" s="68">
         <v>18</v>
       </c>
-      <c r="D18" s="70">
+      <c r="D18" s="69">
         <v>5</v>
       </c>
-      <c r="E18" s="48"/>
+      <c r="E18" s="47"/>
       <c r="F18" s="32"/>
       <c r="G18" s="32"/>
       <c r="H18" s="32"/>
@@ -6709,17 +6706,17 @@
       <c r="N18" s="32"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="73"/>
-      <c r="B19" t="s" s="68">
+      <c r="A19" s="72"/>
+      <c r="B19" t="s" s="67">
         <v>78</v>
       </c>
-      <c r="C19" t="s" s="69">
+      <c r="C19" t="s" s="68">
         <v>19</v>
       </c>
-      <c r="D19" s="70">
+      <c r="D19" s="69">
         <v>7</v>
       </c>
-      <c r="E19" s="48"/>
+      <c r="E19" s="47"/>
       <c r="F19" s="32"/>
       <c r="G19" s="32"/>
       <c r="H19" s="32"/>
@@ -6731,17 +6728,17 @@
       <c r="N19" s="32"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="73"/>
-      <c r="B20" t="s" s="68">
+      <c r="A20" s="72"/>
+      <c r="B20" t="s" s="67">
         <v>79</v>
       </c>
-      <c r="C20" t="s" s="69">
+      <c r="C20" t="s" s="68">
         <v>20</v>
       </c>
-      <c r="D20" s="70">
+      <c r="D20" s="69">
         <v>15</v>
       </c>
-      <c r="E20" s="48"/>
+      <c r="E20" s="47"/>
       <c r="F20" s="32"/>
       <c r="G20" s="32"/>
       <c r="H20" s="32"/>
@@ -6753,17 +6750,17 @@
       <c r="N20" s="32"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="73"/>
-      <c r="B21" t="s" s="68">
+      <c r="A21" s="72"/>
+      <c r="B21" t="s" s="67">
         <v>80</v>
       </c>
-      <c r="C21" t="s" s="69">
+      <c r="C21" t="s" s="68">
         <v>21</v>
       </c>
-      <c r="D21" s="70">
+      <c r="D21" s="69">
         <v>3</v>
       </c>
-      <c r="E21" s="48"/>
+      <c r="E21" s="47"/>
       <c r="F21" s="32"/>
       <c r="G21" s="32"/>
       <c r="H21" s="32"/>
@@ -6775,17 +6772,17 @@
       <c r="N21" s="32"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="73"/>
-      <c r="B22" t="s" s="68">
+      <c r="A22" s="72"/>
+      <c r="B22" t="s" s="67">
         <v>81</v>
       </c>
-      <c r="C22" t="s" s="69">
+      <c r="C22" t="s" s="68">
         <v>22</v>
       </c>
-      <c r="D22" s="70">
+      <c r="D22" s="69">
         <v>7</v>
       </c>
-      <c r="E22" s="48"/>
+      <c r="E22" s="47"/>
       <c r="F22" s="32"/>
       <c r="G22" s="32"/>
       <c r="H22" s="32"/>
@@ -6797,17 +6794,17 @@
       <c r="N22" s="32"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="73"/>
-      <c r="B23" t="s" s="68">
+      <c r="A23" s="72"/>
+      <c r="B23" t="s" s="67">
         <v>82</v>
       </c>
-      <c r="C23" t="s" s="69">
+      <c r="C23" t="s" s="68">
         <v>23</v>
       </c>
-      <c r="D23" s="70">
+      <c r="D23" s="69">
         <v>0</v>
       </c>
-      <c r="E23" s="48"/>
+      <c r="E23" s="47"/>
       <c r="F23" s="32"/>
       <c r="G23" s="32"/>
       <c r="H23" s="32"/>
@@ -6819,17 +6816,17 @@
       <c r="N23" s="32"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="73"/>
-      <c r="B24" t="s" s="68">
+      <c r="A24" s="72"/>
+      <c r="B24" t="s" s="67">
         <v>83</v>
       </c>
-      <c r="C24" t="s" s="69">
+      <c r="C24" t="s" s="68">
         <v>24</v>
       </c>
-      <c r="D24" s="70">
+      <c r="D24" s="69">
         <v>3</v>
       </c>
-      <c r="E24" s="48"/>
+      <c r="E24" s="47"/>
       <c r="F24" s="32"/>
       <c r="G24" s="32"/>
       <c r="H24" s="32"/>
@@ -6841,17 +6838,17 @@
       <c r="N24" s="32"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="73"/>
-      <c r="B25" t="s" s="68">
+      <c r="A25" s="72"/>
+      <c r="B25" t="s" s="67">
         <v>84</v>
       </c>
-      <c r="C25" t="s" s="69">
+      <c r="C25" t="s" s="68">
         <v>25</v>
       </c>
-      <c r="D25" s="70">
+      <c r="D25" s="69">
         <v>7</v>
       </c>
-      <c r="E25" s="48"/>
+      <c r="E25" s="47"/>
       <c r="F25" s="32"/>
       <c r="G25" s="32"/>
       <c r="H25" s="32"/>
@@ -6863,17 +6860,17 @@
       <c r="N25" s="32"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="73"/>
-      <c r="B26" t="s" s="68">
+      <c r="A26" s="72"/>
+      <c r="B26" t="s" s="67">
         <v>85</v>
       </c>
-      <c r="C26" t="s" s="69">
+      <c r="C26" t="s" s="68">
         <v>26</v>
       </c>
-      <c r="D26" s="70">
+      <c r="D26" s="69">
         <v>3</v>
       </c>
-      <c r="E26" s="48"/>
+      <c r="E26" s="47"/>
       <c r="F26" s="32"/>
       <c r="G26" s="32"/>
       <c r="H26" s="32"/>
@@ -6885,17 +6882,17 @@
       <c r="N26" s="32"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="73"/>
-      <c r="B27" t="s" s="68">
+      <c r="A27" s="72"/>
+      <c r="B27" t="s" s="67">
         <v>86</v>
       </c>
-      <c r="C27" t="s" s="69">
+      <c r="C27" t="s" s="68">
         <v>27</v>
       </c>
-      <c r="D27" s="70">
+      <c r="D27" s="69">
         <v>2</v>
       </c>
-      <c r="E27" s="48"/>
+      <c r="E27" s="47"/>
       <c r="F27" s="32"/>
       <c r="G27" s="32"/>
       <c r="H27" s="32"/>
@@ -6907,17 +6904,17 @@
       <c r="N27" s="32"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="73"/>
-      <c r="B28" t="s" s="68">
+      <c r="A28" s="72"/>
+      <c r="B28" t="s" s="67">
         <v>87</v>
       </c>
-      <c r="C28" t="s" s="69">
+      <c r="C28" t="s" s="68">
         <v>28</v>
       </c>
-      <c r="D28" s="70">
+      <c r="D28" s="69">
         <v>5</v>
       </c>
-      <c r="E28" s="48"/>
+      <c r="E28" s="47"/>
       <c r="F28" s="32"/>
       <c r="G28" s="32"/>
       <c r="H28" s="32"/>
@@ -6929,17 +6926,17 @@
       <c r="N28" s="32"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="73"/>
-      <c r="B29" t="s" s="68">
+      <c r="A29" s="72"/>
+      <c r="B29" t="s" s="67">
         <v>88</v>
       </c>
-      <c r="C29" t="s" s="69">
+      <c r="C29" t="s" s="68">
         <v>29</v>
       </c>
-      <c r="D29" s="70">
+      <c r="D29" s="69">
         <v>7</v>
       </c>
-      <c r="E29" s="48"/>
+      <c r="E29" s="47"/>
       <c r="F29" s="32"/>
       <c r="G29" s="32"/>
       <c r="H29" s="32"/>
@@ -6951,17 +6948,17 @@
       <c r="N29" s="32"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="73"/>
-      <c r="B30" t="s" s="68">
+      <c r="A30" s="72"/>
+      <c r="B30" t="s" s="67">
         <v>89</v>
       </c>
-      <c r="C30" t="s" s="69">
+      <c r="C30" t="s" s="68">
         <v>30</v>
       </c>
-      <c r="D30" s="70">
+      <c r="D30" s="69">
         <v>4</v>
       </c>
-      <c r="E30" s="48"/>
+      <c r="E30" s="47"/>
       <c r="F30" s="32"/>
       <c r="G30" s="32"/>
       <c r="H30" s="32"/>
@@ -6973,17 +6970,17 @@
       <c r="N30" s="32"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="73"/>
-      <c r="B31" t="s" s="68">
+      <c r="A31" s="72"/>
+      <c r="B31" t="s" s="67">
         <v>90</v>
       </c>
-      <c r="C31" t="s" s="69">
+      <c r="C31" t="s" s="68">
         <v>31</v>
       </c>
-      <c r="D31" s="70">
+      <c r="D31" s="69">
         <v>4</v>
       </c>
-      <c r="E31" s="48"/>
+      <c r="E31" s="47"/>
       <c r="F31" s="32"/>
       <c r="G31" s="32"/>
       <c r="H31" s="32"/>
@@ -6995,17 +6992,17 @@
       <c r="N31" s="32"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="73"/>
-      <c r="B32" t="s" s="68">
+      <c r="A32" s="72"/>
+      <c r="B32" t="s" s="67">
         <v>125</v>
       </c>
-      <c r="C32" t="s" s="69">
+      <c r="C32" t="s" s="68">
         <v>32</v>
       </c>
-      <c r="D32" s="70">
+      <c r="D32" s="69">
         <v>2</v>
       </c>
-      <c r="E32" s="48"/>
+      <c r="E32" s="47"/>
       <c r="F32" s="32"/>
       <c r="G32" s="32"/>
       <c r="H32" s="32"/>
@@ -7017,17 +7014,17 @@
       <c r="N32" s="32"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="73"/>
-      <c r="B33" t="s" s="68">
+      <c r="A33" s="72"/>
+      <c r="B33" t="s" s="67">
         <v>92</v>
       </c>
-      <c r="C33" t="s" s="69">
+      <c r="C33" t="s" s="68">
         <v>33</v>
       </c>
-      <c r="D33" s="70">
+      <c r="D33" s="69">
         <v>5</v>
       </c>
-      <c r="E33" s="48"/>
+      <c r="E33" s="47"/>
       <c r="F33" s="32"/>
       <c r="G33" s="32"/>
       <c r="H33" s="32"/>
@@ -7039,17 +7036,17 @@
       <c r="N33" s="32"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="73"/>
-      <c r="B34" t="s" s="68">
+      <c r="A34" s="72"/>
+      <c r="B34" t="s" s="67">
         <v>93</v>
       </c>
-      <c r="C34" t="s" s="69">
+      <c r="C34" t="s" s="68">
         <v>34</v>
       </c>
-      <c r="D34" s="70">
+      <c r="D34" s="69">
         <v>7</v>
       </c>
-      <c r="E34" s="48"/>
+      <c r="E34" s="47"/>
       <c r="F34" s="32"/>
       <c r="G34" s="32"/>
       <c r="H34" s="32"/>
@@ -7061,17 +7058,17 @@
       <c r="N34" s="32"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="73"/>
-      <c r="B35" t="s" s="68">
+      <c r="A35" s="72"/>
+      <c r="B35" t="s" s="67">
         <v>94</v>
       </c>
-      <c r="C35" t="s" s="69">
+      <c r="C35" t="s" s="68">
         <v>35</v>
       </c>
-      <c r="D35" s="70">
+      <c r="D35" s="69">
         <v>9</v>
       </c>
-      <c r="E35" s="48"/>
+      <c r="E35" s="47"/>
       <c r="F35" s="32"/>
       <c r="G35" s="32"/>
       <c r="H35" s="32"/>
@@ -7083,17 +7080,17 @@
       <c r="N35" s="32"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="73"/>
-      <c r="B36" t="s" s="68">
+      <c r="A36" s="72"/>
+      <c r="B36" t="s" s="67">
         <v>95</v>
       </c>
-      <c r="C36" t="s" s="69">
+      <c r="C36" t="s" s="68">
         <v>36</v>
       </c>
-      <c r="D36" s="70">
+      <c r="D36" s="69">
         <v>4</v>
       </c>
-      <c r="E36" s="48"/>
+      <c r="E36" s="47"/>
       <c r="F36" s="32"/>
       <c r="G36" s="32"/>
       <c r="H36" s="32"/>
@@ -7105,17 +7102,17 @@
       <c r="N36" s="32"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="73"/>
-      <c r="B37" t="s" s="68">
+      <c r="A37" s="72"/>
+      <c r="B37" t="s" s="67">
         <v>96</v>
       </c>
-      <c r="C37" t="s" s="69">
+      <c r="C37" t="s" s="68">
         <v>37</v>
       </c>
-      <c r="D37" s="70">
+      <c r="D37" s="69">
         <v>2</v>
       </c>
-      <c r="E37" s="48"/>
+      <c r="E37" s="47"/>
       <c r="F37" s="32"/>
       <c r="G37" s="32"/>
       <c r="H37" s="32"/>
@@ -7127,17 +7124,17 @@
       <c r="N37" s="32"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="73"/>
-      <c r="B38" t="s" s="68">
+      <c r="A38" s="72"/>
+      <c r="B38" t="s" s="67">
         <v>97</v>
       </c>
-      <c r="C38" t="s" s="69">
+      <c r="C38" t="s" s="68">
         <v>38</v>
       </c>
-      <c r="D38" s="70">
+      <c r="D38" s="69">
         <v>6</v>
       </c>
-      <c r="E38" s="48"/>
+      <c r="E38" s="47"/>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>
       <c r="H38" s="32"/>
@@ -7149,17 +7146,17 @@
       <c r="N38" s="32"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="73"/>
-      <c r="B39" t="s" s="68">
+      <c r="A39" s="72"/>
+      <c r="B39" t="s" s="67">
         <v>98</v>
       </c>
-      <c r="C39" t="s" s="69">
+      <c r="C39" t="s" s="68">
         <v>39</v>
       </c>
-      <c r="D39" s="70">
+      <c r="D39" s="69">
         <v>3</v>
       </c>
-      <c r="E39" s="48"/>
+      <c r="E39" s="47"/>
       <c r="F39" s="32"/>
       <c r="G39" s="32"/>
       <c r="H39" s="32"/>
@@ -7171,17 +7168,17 @@
       <c r="N39" s="32"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="73"/>
-      <c r="B40" t="s" s="68">
+      <c r="A40" s="72"/>
+      <c r="B40" t="s" s="67">
         <v>99</v>
       </c>
-      <c r="C40" t="s" s="69">
+      <c r="C40" t="s" s="68">
         <v>40</v>
       </c>
-      <c r="D40" s="70">
+      <c r="D40" s="69">
         <v>2</v>
       </c>
-      <c r="E40" s="48"/>
+      <c r="E40" s="47"/>
       <c r="F40" s="32"/>
       <c r="G40" s="32"/>
       <c r="H40" s="32"/>
@@ -7193,17 +7190,17 @@
       <c r="N40" s="32"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="73"/>
-      <c r="B41" t="s" s="68">
+      <c r="A41" s="72"/>
+      <c r="B41" t="s" s="67">
         <v>100</v>
       </c>
-      <c r="C41" t="s" s="69">
+      <c r="C41" t="s" s="68">
         <v>41</v>
       </c>
-      <c r="D41" s="70">
+      <c r="D41" s="69">
         <v>6</v>
       </c>
-      <c r="E41" s="48"/>
+      <c r="E41" s="47"/>
       <c r="F41" s="32"/>
       <c r="G41" s="32"/>
       <c r="H41" s="32"/>
@@ -7215,17 +7212,17 @@
       <c r="N41" s="32"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="73"/>
-      <c r="B42" t="s" s="68">
+      <c r="A42" s="72"/>
+      <c r="B42" t="s" s="67">
         <v>101</v>
       </c>
-      <c r="C42" t="s" s="69">
+      <c r="C42" t="s" s="68">
         <v>42</v>
       </c>
-      <c r="D42" s="70">
+      <c r="D42" s="69">
         <v>5</v>
       </c>
-      <c r="E42" s="48"/>
+      <c r="E42" s="47"/>
       <c r="F42" s="32"/>
       <c r="G42" s="32"/>
       <c r="H42" s="32"/>
@@ -7237,17 +7234,17 @@
       <c r="N42" s="32"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="73"/>
-      <c r="B43" t="s" s="68">
+      <c r="A43" s="72"/>
+      <c r="B43" t="s" s="67">
         <v>102</v>
       </c>
-      <c r="C43" t="s" s="69">
+      <c r="C43" t="s" s="68">
         <v>43</v>
       </c>
-      <c r="D43" s="70">
+      <c r="D43" s="69">
         <v>3</v>
       </c>
-      <c r="E43" s="48"/>
+      <c r="E43" s="47"/>
       <c r="F43" s="32"/>
       <c r="G43" s="32"/>
       <c r="H43" s="32"/>
@@ -7259,17 +7256,17 @@
       <c r="N43" s="32"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="73"/>
-      <c r="B44" t="s" s="68">
+      <c r="A44" s="72"/>
+      <c r="B44" t="s" s="67">
         <v>103</v>
       </c>
-      <c r="C44" t="s" s="69">
+      <c r="C44" t="s" s="68">
         <v>44</v>
       </c>
-      <c r="D44" s="70">
+      <c r="D44" s="69">
         <v>5</v>
       </c>
-      <c r="E44" s="48"/>
+      <c r="E44" s="47"/>
       <c r="F44" s="32"/>
       <c r="G44" s="32"/>
       <c r="H44" s="32"/>
@@ -7281,17 +7278,17 @@
       <c r="N44" s="32"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="73"/>
-      <c r="B45" t="s" s="68">
+      <c r="A45" s="72"/>
+      <c r="B45" t="s" s="67">
         <v>104</v>
       </c>
-      <c r="C45" t="s" s="69">
+      <c r="C45" t="s" s="68">
         <v>45</v>
       </c>
-      <c r="D45" s="70">
+      <c r="D45" s="69">
         <v>36</v>
       </c>
-      <c r="E45" s="48"/>
+      <c r="E45" s="47"/>
       <c r="F45" s="32"/>
       <c r="G45" s="32"/>
       <c r="H45" s="32"/>
@@ -7303,17 +7300,17 @@
       <c r="N45" s="32"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="73"/>
-      <c r="B46" t="s" s="68">
+      <c r="A46" s="72"/>
+      <c r="B46" t="s" s="67">
         <v>105</v>
       </c>
-      <c r="C46" t="s" s="69">
+      <c r="C46" t="s" s="68">
         <v>46</v>
       </c>
-      <c r="D46" s="70">
+      <c r="D46" s="69">
         <v>7</v>
       </c>
-      <c r="E46" s="48"/>
+      <c r="E46" s="47"/>
       <c r="F46" s="32"/>
       <c r="G46" s="32"/>
       <c r="H46" s="32"/>
@@ -7325,17 +7322,17 @@
       <c r="N46" s="32"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="73"/>
-      <c r="B47" t="s" s="68">
+      <c r="A47" s="72"/>
+      <c r="B47" t="s" s="67">
         <v>106</v>
       </c>
-      <c r="C47" t="s" s="69">
+      <c r="C47" t="s" s="68">
         <v>47</v>
       </c>
-      <c r="D47" s="70">
+      <c r="D47" s="69">
         <v>1</v>
       </c>
-      <c r="E47" s="48"/>
+      <c r="E47" s="47"/>
       <c r="F47" s="32"/>
       <c r="G47" s="32"/>
       <c r="H47" s="32"/>
@@ -7347,17 +7344,17 @@
       <c r="N47" s="32"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="73"/>
-      <c r="B48" t="s" s="68">
+      <c r="A48" s="72"/>
+      <c r="B48" t="s" s="67">
         <v>107</v>
       </c>
-      <c r="C48" t="s" s="69">
+      <c r="C48" t="s" s="68">
         <v>48</v>
       </c>
-      <c r="D48" s="70">
+      <c r="D48" s="69">
         <v>4</v>
       </c>
-      <c r="E48" s="48"/>
+      <c r="E48" s="47"/>
       <c r="F48" s="32"/>
       <c r="G48" s="32"/>
       <c r="H48" s="32"/>
@@ -7369,17 +7366,17 @@
       <c r="N48" s="32"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="73"/>
-      <c r="B49" t="s" s="68">
+      <c r="A49" s="72"/>
+      <c r="B49" t="s" s="67">
         <v>108</v>
       </c>
-      <c r="C49" t="s" s="69">
+      <c r="C49" t="s" s="68">
         <v>49</v>
       </c>
-      <c r="D49" s="70">
+      <c r="D49" s="69">
         <v>57</v>
       </c>
-      <c r="E49" s="48"/>
+      <c r="E49" s="47"/>
       <c r="F49" s="32"/>
       <c r="G49" s="32"/>
       <c r="H49" s="32"/>
@@ -7391,17 +7388,17 @@
       <c r="N49" s="32"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="73"/>
-      <c r="B50" t="s" s="68">
+      <c r="A50" s="72"/>
+      <c r="B50" t="s" s="67">
         <v>109</v>
       </c>
-      <c r="C50" t="s" s="69">
+      <c r="C50" t="s" s="68">
         <v>50</v>
       </c>
-      <c r="D50" s="70">
+      <c r="D50" s="69">
         <v>3</v>
       </c>
-      <c r="E50" s="48"/>
+      <c r="E50" s="47"/>
       <c r="F50" s="32"/>
       <c r="G50" s="32"/>
       <c r="H50" s="32"/>
@@ -7413,17 +7410,17 @@
       <c r="N50" s="32"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="73"/>
-      <c r="B51" t="s" s="68">
+      <c r="A51" s="72"/>
+      <c r="B51" t="s" s="67">
         <v>110</v>
       </c>
-      <c r="C51" t="s" s="69">
+      <c r="C51" t="s" s="68">
         <v>51</v>
       </c>
-      <c r="D51" s="70">
+      <c r="D51" s="69">
         <v>1</v>
       </c>
-      <c r="E51" s="48"/>
+      <c r="E51" s="47"/>
       <c r="F51" s="32"/>
       <c r="G51" s="32"/>
       <c r="H51" s="32"/>
@@ -7435,17 +7432,17 @@
       <c r="N51" s="32"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="73"/>
-      <c r="B52" t="s" s="68">
+      <c r="A52" s="72"/>
+      <c r="B52" t="s" s="67">
         <v>111</v>
       </c>
-      <c r="C52" t="s" s="69">
+      <c r="C52" t="s" s="68">
         <v>52</v>
       </c>
-      <c r="D52" s="70">
+      <c r="D52" s="69">
         <v>7</v>
       </c>
-      <c r="E52" s="48"/>
+      <c r="E52" s="47"/>
       <c r="F52" s="32"/>
       <c r="G52" s="32"/>
       <c r="H52" s="32"/>
@@ -7457,17 +7454,17 @@
       <c r="N52" s="32"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="73"/>
-      <c r="B53" t="s" s="68">
+      <c r="A53" s="72"/>
+      <c r="B53" t="s" s="67">
         <v>112</v>
       </c>
-      <c r="C53" t="s" s="69">
+      <c r="C53" t="s" s="68">
         <v>53</v>
       </c>
-      <c r="D53" s="70">
+      <c r="D53" s="69">
         <v>4</v>
       </c>
-      <c r="E53" s="48"/>
+      <c r="E53" s="47"/>
       <c r="F53" s="32"/>
       <c r="G53" s="32"/>
       <c r="H53" s="32"/>
@@ -7479,17 +7476,17 @@
       <c r="N53" s="32"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="73"/>
-      <c r="B54" t="s" s="68">
+      <c r="A54" s="72"/>
+      <c r="B54" t="s" s="67">
         <v>113</v>
       </c>
-      <c r="C54" t="s" s="69">
+      <c r="C54" t="s" s="68">
         <v>54</v>
       </c>
-      <c r="D54" s="70">
+      <c r="D54" s="69">
         <v>2</v>
       </c>
-      <c r="E54" s="48"/>
+      <c r="E54" s="47"/>
       <c r="F54" s="32"/>
       <c r="G54" s="32"/>
       <c r="H54" s="32"/>
@@ -7501,17 +7498,17 @@
       <c r="N54" s="32"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="73"/>
-      <c r="B55" t="s" s="68">
+      <c r="A55" s="72"/>
+      <c r="B55" t="s" s="67">
         <v>114</v>
       </c>
-      <c r="C55" t="s" s="69">
+      <c r="C55" t="s" s="68">
         <v>55</v>
       </c>
-      <c r="D55" s="70">
+      <c r="D55" s="69">
         <v>6</v>
       </c>
-      <c r="E55" s="48"/>
+      <c r="E55" s="47"/>
       <c r="F55" s="32"/>
       <c r="G55" s="32"/>
       <c r="H55" s="32"/>
@@ -7523,17 +7520,17 @@
       <c r="N55" s="32"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="73"/>
-      <c r="B56" t="s" s="68">
+      <c r="A56" s="72"/>
+      <c r="B56" t="s" s="67">
         <v>115</v>
       </c>
-      <c r="C56" t="s" s="69">
+      <c r="C56" t="s" s="68">
         <v>56</v>
       </c>
-      <c r="D56" s="70">
+      <c r="D56" s="69">
         <v>8</v>
       </c>
-      <c r="E56" s="48"/>
+      <c r="E56" s="47"/>
       <c r="F56" s="32"/>
       <c r="G56" s="32"/>
       <c r="H56" s="32"/>
@@ -7545,17 +7542,17 @@
       <c r="N56" s="32"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="73"/>
-      <c r="B57" t="s" s="68">
+      <c r="A57" s="72"/>
+      <c r="B57" t="s" s="67">
         <v>116</v>
       </c>
-      <c r="C57" t="s" s="69">
+      <c r="C57" t="s" s="68">
         <v>57</v>
       </c>
-      <c r="D57" s="70">
+      <c r="D57" s="69">
         <v>2</v>
       </c>
-      <c r="E57" s="48"/>
+      <c r="E57" s="47"/>
       <c r="F57" s="32"/>
       <c r="G57" s="32"/>
       <c r="H57" s="32"/>
@@ -7567,17 +7564,17 @@
       <c r="N57" s="32"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="73"/>
-      <c r="B58" t="s" s="68">
+      <c r="A58" s="72"/>
+      <c r="B58" t="s" s="67">
         <v>117</v>
       </c>
-      <c r="C58" t="s" s="69">
+      <c r="C58" t="s" s="68">
         <v>58</v>
       </c>
-      <c r="D58" s="70">
+      <c r="D58" s="69">
         <v>2</v>
       </c>
-      <c r="E58" s="48"/>
+      <c r="E58" s="47"/>
       <c r="F58" s="32"/>
       <c r="G58" s="32"/>
       <c r="H58" s="32"/>
@@ -7589,17 +7586,17 @@
       <c r="N58" s="32"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="73"/>
-      <c r="B59" t="s" s="68">
+      <c r="A59" s="72"/>
+      <c r="B59" t="s" s="67">
         <v>118</v>
       </c>
-      <c r="C59" t="s" s="69">
+      <c r="C59" t="s" s="68">
         <v>59</v>
       </c>
-      <c r="D59" s="70">
+      <c r="D59" s="69">
         <v>6</v>
       </c>
-      <c r="E59" s="48"/>
+      <c r="E59" s="47"/>
       <c r="F59" s="32"/>
       <c r="G59" s="32"/>
       <c r="H59" s="32"/>
@@ -7611,17 +7608,17 @@
       <c r="N59" s="32"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="73"/>
-      <c r="B60" t="s" s="68">
+      <c r="A60" s="72"/>
+      <c r="B60" t="s" s="67">
         <v>119</v>
       </c>
-      <c r="C60" t="s" s="69">
+      <c r="C60" t="s" s="68">
         <v>60</v>
       </c>
-      <c r="D60" s="70">
+      <c r="D60" s="69">
         <v>1</v>
       </c>
-      <c r="E60" s="48"/>
+      <c r="E60" s="47"/>
       <c r="F60" s="32"/>
       <c r="G60" s="32"/>
       <c r="H60" s="32"/>
@@ -7633,11 +7630,11 @@
       <c r="N60" s="32"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="73"/>
-      <c r="B61" s="74"/>
+      <c r="A61" s="72"/>
+      <c r="B61" s="73"/>
       <c r="C61" s="32"/>
-      <c r="D61" s="70"/>
-      <c r="E61" s="48"/>
+      <c r="D61" s="69"/>
+      <c r="E61" s="47"/>
       <c r="F61" s="32"/>
       <c r="G61" s="32"/>
       <c r="H61" s="32"/>
@@ -7649,11 +7646,11 @@
       <c r="N61" s="32"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="73"/>
-      <c r="B62" s="48"/>
+      <c r="A62" s="72"/>
+      <c r="B62" s="47"/>
       <c r="C62" s="32"/>
-      <c r="D62" s="70"/>
-      <c r="E62" s="48"/>
+      <c r="D62" s="69"/>
+      <c r="E62" s="47"/>
       <c r="F62" s="32"/>
       <c r="G62" s="32"/>
       <c r="H62" s="32"/>
@@ -7665,11 +7662,11 @@
       <c r="N62" s="32"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="73"/>
-      <c r="B63" s="48"/>
+      <c r="A63" s="72"/>
+      <c r="B63" s="47"/>
       <c r="C63" s="32"/>
-      <c r="D63" s="70"/>
-      <c r="E63" s="48"/>
+      <c r="D63" s="69"/>
+      <c r="E63" s="47"/>
       <c r="F63" s="32"/>
       <c r="G63" s="32"/>
       <c r="H63" s="32"/>
@@ -7681,11 +7678,11 @@
       <c r="N63" s="32"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="73"/>
-      <c r="B64" s="48"/>
+      <c r="A64" s="72"/>
+      <c r="B64" s="47"/>
       <c r="C64" s="32"/>
-      <c r="D64" s="70"/>
-      <c r="E64" s="48"/>
+      <c r="D64" s="69"/>
+      <c r="E64" s="47"/>
       <c r="F64" s="32"/>
       <c r="G64" s="32"/>
       <c r="H64" s="32"/>
@@ -7697,11 +7694,11 @@
       <c r="N64" s="32"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="73"/>
-      <c r="B65" s="48"/>
+      <c r="A65" s="72"/>
+      <c r="B65" s="47"/>
       <c r="C65" s="32"/>
-      <c r="D65" s="70"/>
-      <c r="E65" s="48"/>
+      <c r="D65" s="69"/>
+      <c r="E65" s="47"/>
       <c r="F65" s="32"/>
       <c r="G65" s="32"/>
       <c r="H65" s="32"/>
@@ -7713,11 +7710,11 @@
       <c r="N65" s="32"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="73"/>
-      <c r="B66" s="48"/>
+      <c r="A66" s="72"/>
+      <c r="B66" s="47"/>
       <c r="C66" s="32"/>
-      <c r="D66" s="70"/>
-      <c r="E66" s="48"/>
+      <c r="D66" s="69"/>
+      <c r="E66" s="47"/>
       <c r="F66" s="32"/>
       <c r="G66" s="32"/>
       <c r="H66" s="32"/>
@@ -7729,11 +7726,11 @@
       <c r="N66" s="32"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="73"/>
-      <c r="B67" s="48"/>
+      <c r="A67" s="72"/>
+      <c r="B67" s="47"/>
       <c r="C67" s="32"/>
-      <c r="D67" s="70"/>
-      <c r="E67" s="48"/>
+      <c r="D67" s="69"/>
+      <c r="E67" s="47"/>
       <c r="F67" s="32"/>
       <c r="G67" s="32"/>
       <c r="H67" s="32"/>
@@ -7745,11 +7742,11 @@
       <c r="N67" s="32"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="A68" s="73"/>
-      <c r="B68" s="48"/>
+      <c r="A68" s="72"/>
+      <c r="B68" s="47"/>
       <c r="C68" s="32"/>
-      <c r="D68" s="70"/>
-      <c r="E68" s="48"/>
+      <c r="D68" s="69"/>
+      <c r="E68" s="47"/>
       <c r="F68" s="32"/>
       <c r="G68" s="32"/>
       <c r="H68" s="32"/>
@@ -7761,11 +7758,11 @@
       <c r="N68" s="32"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="A69" s="73"/>
-      <c r="B69" s="48"/>
+      <c r="A69" s="72"/>
+      <c r="B69" s="47"/>
       <c r="C69" s="32"/>
-      <c r="D69" s="70"/>
-      <c r="E69" s="48"/>
+      <c r="D69" s="69"/>
+      <c r="E69" s="47"/>
       <c r="F69" s="32"/>
       <c r="G69" s="32"/>
       <c r="H69" s="32"/>
@@ -7777,11 +7774,11 @@
       <c r="N69" s="32"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="A70" s="73"/>
-      <c r="B70" s="48"/>
+      <c r="A70" s="72"/>
+      <c r="B70" s="47"/>
       <c r="C70" s="32"/>
-      <c r="D70" s="70"/>
-      <c r="E70" s="48"/>
+      <c r="D70" s="69"/>
+      <c r="E70" s="47"/>
       <c r="F70" s="32"/>
       <c r="G70" s="32"/>
       <c r="H70" s="32"/>
@@ -7793,11 +7790,11 @@
       <c r="N70" s="32"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="A71" s="73"/>
-      <c r="B71" s="48"/>
+      <c r="A71" s="72"/>
+      <c r="B71" s="47"/>
       <c r="C71" s="32"/>
-      <c r="D71" s="70"/>
-      <c r="E71" s="48"/>
+      <c r="D71" s="69"/>
+      <c r="E71" s="47"/>
       <c r="F71" s="32"/>
       <c r="G71" s="32"/>
       <c r="H71" s="32"/>
@@ -7809,11 +7806,11 @@
       <c r="N71" s="32"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="A72" s="73"/>
-      <c r="B72" s="48"/>
+      <c r="A72" s="72"/>
+      <c r="B72" s="47"/>
       <c r="C72" s="32"/>
-      <c r="D72" s="70"/>
-      <c r="E72" s="48"/>
+      <c r="D72" s="69"/>
+      <c r="E72" s="47"/>
       <c r="F72" s="32"/>
       <c r="G72" s="32"/>
       <c r="H72" s="32"/>
@@ -7825,11 +7822,11 @@
       <c r="N72" s="32"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="A73" s="73"/>
-      <c r="B73" s="48"/>
+      <c r="A73" s="72"/>
+      <c r="B73" s="47"/>
       <c r="C73" s="32"/>
-      <c r="D73" s="70"/>
-      <c r="E73" s="48"/>
+      <c r="D73" s="69"/>
+      <c r="E73" s="47"/>
       <c r="F73" s="32"/>
       <c r="G73" s="32"/>
       <c r="H73" s="32"/>
@@ -7841,11 +7838,11 @@
       <c r="N73" s="32"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="A74" s="73"/>
-      <c r="B74" s="48"/>
+      <c r="A74" s="72"/>
+      <c r="B74" s="47"/>
       <c r="C74" s="32"/>
-      <c r="D74" s="70"/>
-      <c r="E74" s="48"/>
+      <c r="D74" s="69"/>
+      <c r="E74" s="47"/>
       <c r="F74" s="32"/>
       <c r="G74" s="32"/>
       <c r="H74" s="32"/>
@@ -7857,11 +7854,11 @@
       <c r="N74" s="32"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
-      <c r="A75" s="73"/>
-      <c r="B75" s="48"/>
+      <c r="A75" s="72"/>
+      <c r="B75" s="47"/>
       <c r="C75" s="32"/>
-      <c r="D75" s="70"/>
-      <c r="E75" s="48"/>
+      <c r="D75" s="69"/>
+      <c r="E75" s="47"/>
       <c r="F75" s="32"/>
       <c r="G75" s="32"/>
       <c r="H75" s="32"/>
@@ -7873,11 +7870,11 @@
       <c r="N75" s="32"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="A76" s="73"/>
-      <c r="B76" s="48"/>
+      <c r="A76" s="72"/>
+      <c r="B76" s="47"/>
       <c r="C76" s="32"/>
-      <c r="D76" s="70"/>
-      <c r="E76" s="48"/>
+      <c r="D76" s="69"/>
+      <c r="E76" s="47"/>
       <c r="F76" s="32"/>
       <c r="G76" s="32"/>
       <c r="H76" s="32"/>
@@ -7889,11 +7886,11 @@
       <c r="N76" s="32"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="A77" s="73"/>
-      <c r="B77" s="48"/>
+      <c r="A77" s="72"/>
+      <c r="B77" s="47"/>
       <c r="C77" s="32"/>
-      <c r="D77" s="70"/>
-      <c r="E77" s="48"/>
+      <c r="D77" s="69"/>
+      <c r="E77" s="47"/>
       <c r="F77" s="32"/>
       <c r="G77" s="32"/>
       <c r="H77" s="32"/>
@@ -7905,11 +7902,11 @@
       <c r="N77" s="32"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
-      <c r="A78" s="73"/>
-      <c r="B78" s="48"/>
+      <c r="A78" s="72"/>
+      <c r="B78" s="47"/>
       <c r="C78" s="32"/>
-      <c r="D78" s="70"/>
-      <c r="E78" s="48"/>
+      <c r="D78" s="69"/>
+      <c r="E78" s="47"/>
       <c r="F78" s="32"/>
       <c r="G78" s="32"/>
       <c r="H78" s="32"/>
@@ -7921,11 +7918,11 @@
       <c r="N78" s="32"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
-      <c r="A79" s="73"/>
-      <c r="B79" s="48"/>
+      <c r="A79" s="72"/>
+      <c r="B79" s="47"/>
       <c r="C79" s="32"/>
-      <c r="D79" s="70"/>
-      <c r="E79" s="48"/>
+      <c r="D79" s="69"/>
+      <c r="E79" s="47"/>
       <c r="F79" s="32"/>
       <c r="G79" s="32"/>
       <c r="H79" s="32"/>
@@ -7937,11 +7934,11 @@
       <c r="N79" s="32"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
-      <c r="A80" s="73"/>
-      <c r="B80" s="48"/>
+      <c r="A80" s="72"/>
+      <c r="B80" s="47"/>
       <c r="C80" s="32"/>
-      <c r="D80" s="70"/>
-      <c r="E80" s="48"/>
+      <c r="D80" s="69"/>
+      <c r="E80" s="47"/>
       <c r="F80" s="32"/>
       <c r="G80" s="32"/>
       <c r="H80" s="32"/>
@@ -7953,11 +7950,11 @@
       <c r="N80" s="32"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
-      <c r="A81" s="73"/>
-      <c r="B81" s="48"/>
+      <c r="A81" s="72"/>
+      <c r="B81" s="47"/>
       <c r="C81" s="32"/>
-      <c r="D81" s="70"/>
-      <c r="E81" s="48"/>
+      <c r="D81" s="69"/>
+      <c r="E81" s="47"/>
       <c r="F81" s="32"/>
       <c r="G81" s="32"/>
       <c r="H81" s="32"/>
@@ -7969,11 +7966,11 @@
       <c r="N81" s="32"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
-      <c r="A82" s="73"/>
-      <c r="B82" s="48"/>
+      <c r="A82" s="72"/>
+      <c r="B82" s="47"/>
       <c r="C82" s="32"/>
-      <c r="D82" s="70"/>
-      <c r="E82" s="48"/>
+      <c r="D82" s="69"/>
+      <c r="E82" s="47"/>
       <c r="F82" s="32"/>
       <c r="G82" s="32"/>
       <c r="H82" s="32"/>
@@ -7985,11 +7982,11 @@
       <c r="N82" s="32"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
-      <c r="A83" s="73"/>
-      <c r="B83" s="48"/>
+      <c r="A83" s="72"/>
+      <c r="B83" s="47"/>
       <c r="C83" s="32"/>
-      <c r="D83" s="70"/>
-      <c r="E83" s="48"/>
+      <c r="D83" s="69"/>
+      <c r="E83" s="47"/>
       <c r="F83" s="32"/>
       <c r="G83" s="32"/>
       <c r="H83" s="32"/>
@@ -8001,11 +7998,11 @@
       <c r="N83" s="32"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
-      <c r="A84" s="73"/>
-      <c r="B84" s="48"/>
+      <c r="A84" s="72"/>
+      <c r="B84" s="47"/>
       <c r="C84" s="32"/>
-      <c r="D84" s="70"/>
-      <c r="E84" s="48"/>
+      <c r="D84" s="69"/>
+      <c r="E84" s="47"/>
       <c r="F84" s="32"/>
       <c r="G84" s="32"/>
       <c r="H84" s="32"/>
@@ -8017,11 +8014,11 @@
       <c r="N84" s="32"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
-      <c r="A85" s="73"/>
-      <c r="B85" s="48"/>
+      <c r="A85" s="72"/>
+      <c r="B85" s="47"/>
       <c r="C85" s="32"/>
-      <c r="D85" s="70"/>
-      <c r="E85" s="48"/>
+      <c r="D85" s="69"/>
+      <c r="E85" s="47"/>
       <c r="F85" s="32"/>
       <c r="G85" s="32"/>
       <c r="H85" s="32"/>
@@ -8033,11 +8030,11 @@
       <c r="N85" s="32"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
-      <c r="A86" s="73"/>
-      <c r="B86" s="48"/>
+      <c r="A86" s="72"/>
+      <c r="B86" s="47"/>
       <c r="C86" s="32"/>
-      <c r="D86" s="70"/>
-      <c r="E86" s="48"/>
+      <c r="D86" s="69"/>
+      <c r="E86" s="47"/>
       <c r="F86" s="32"/>
       <c r="G86" s="32"/>
       <c r="H86" s="32"/>
@@ -8049,11 +8046,11 @@
       <c r="N86" s="32"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
-      <c r="A87" s="73"/>
-      <c r="B87" s="48"/>
+      <c r="A87" s="72"/>
+      <c r="B87" s="47"/>
       <c r="C87" s="32"/>
-      <c r="D87" s="70"/>
-      <c r="E87" s="48"/>
+      <c r="D87" s="69"/>
+      <c r="E87" s="47"/>
       <c r="F87" s="32"/>
       <c r="G87" s="32"/>
       <c r="H87" s="32"/>
@@ -8065,11 +8062,11 @@
       <c r="N87" s="32"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
-      <c r="A88" s="73"/>
-      <c r="B88" s="48"/>
+      <c r="A88" s="72"/>
+      <c r="B88" s="47"/>
       <c r="C88" s="32"/>
-      <c r="D88" s="70"/>
-      <c r="E88" s="48"/>
+      <c r="D88" s="69"/>
+      <c r="E88" s="47"/>
       <c r="F88" s="32"/>
       <c r="G88" s="32"/>
       <c r="H88" s="32"/>
@@ -8081,11 +8078,11 @@
       <c r="N88" s="32"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
-      <c r="A89" s="73"/>
-      <c r="B89" s="48"/>
+      <c r="A89" s="72"/>
+      <c r="B89" s="47"/>
       <c r="C89" s="32"/>
-      <c r="D89" s="70"/>
-      <c r="E89" s="48"/>
+      <c r="D89" s="69"/>
+      <c r="E89" s="47"/>
       <c r="F89" s="32"/>
       <c r="G89" s="32"/>
       <c r="H89" s="32"/>
@@ -8097,11 +8094,11 @@
       <c r="N89" s="32"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
-      <c r="A90" s="73"/>
-      <c r="B90" s="48"/>
+      <c r="A90" s="72"/>
+      <c r="B90" s="47"/>
       <c r="C90" s="32"/>
-      <c r="D90" s="70"/>
-      <c r="E90" s="48"/>
+      <c r="D90" s="69"/>
+      <c r="E90" s="47"/>
       <c r="F90" s="32"/>
       <c r="G90" s="32"/>
       <c r="H90" s="32"/>
@@ -8113,11 +8110,11 @@
       <c r="N90" s="32"/>
     </row>
     <row r="91" ht="15.75" customHeight="1">
-      <c r="A91" s="73"/>
-      <c r="B91" s="48"/>
+      <c r="A91" s="72"/>
+      <c r="B91" s="47"/>
       <c r="C91" s="32"/>
-      <c r="D91" s="70"/>
-      <c r="E91" s="48"/>
+      <c r="D91" s="69"/>
+      <c r="E91" s="47"/>
       <c r="F91" s="32"/>
       <c r="G91" s="32"/>
       <c r="H91" s="32"/>
@@ -8129,11 +8126,11 @@
       <c r="N91" s="32"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
-      <c r="A92" s="73"/>
-      <c r="B92" s="48"/>
+      <c r="A92" s="72"/>
+      <c r="B92" s="47"/>
       <c r="C92" s="32"/>
-      <c r="D92" s="70"/>
-      <c r="E92" s="48"/>
+      <c r="D92" s="69"/>
+      <c r="E92" s="47"/>
       <c r="F92" s="32"/>
       <c r="G92" s="32"/>
       <c r="H92" s="32"/>
@@ -8145,11 +8142,11 @@
       <c r="N92" s="32"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
-      <c r="A93" s="73"/>
-      <c r="B93" s="48"/>
+      <c r="A93" s="72"/>
+      <c r="B93" s="47"/>
       <c r="C93" s="32"/>
-      <c r="D93" s="70"/>
-      <c r="E93" s="48"/>
+      <c r="D93" s="69"/>
+      <c r="E93" s="47"/>
       <c r="F93" s="32"/>
       <c r="G93" s="32"/>
       <c r="H93" s="32"/>
@@ -8161,11 +8158,11 @@
       <c r="N93" s="32"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
-      <c r="A94" s="73"/>
-      <c r="B94" s="48"/>
+      <c r="A94" s="72"/>
+      <c r="B94" s="47"/>
       <c r="C94" s="32"/>
-      <c r="D94" s="70"/>
-      <c r="E94" s="48"/>
+      <c r="D94" s="69"/>
+      <c r="E94" s="47"/>
       <c r="F94" s="32"/>
       <c r="G94" s="32"/>
       <c r="H94" s="32"/>
@@ -8177,11 +8174,11 @@
       <c r="N94" s="32"/>
     </row>
     <row r="95" ht="15.75" customHeight="1">
-      <c r="A95" s="73"/>
-      <c r="B95" s="48"/>
+      <c r="A95" s="72"/>
+      <c r="B95" s="47"/>
       <c r="C95" s="32"/>
-      <c r="D95" s="70"/>
-      <c r="E95" s="48"/>
+      <c r="D95" s="69"/>
+      <c r="E95" s="47"/>
       <c r="F95" s="32"/>
       <c r="G95" s="32"/>
       <c r="H95" s="32"/>
@@ -8193,11 +8190,11 @@
       <c r="N95" s="32"/>
     </row>
     <row r="96" ht="15.75" customHeight="1">
-      <c r="A96" s="73"/>
-      <c r="B96" s="48"/>
+      <c r="A96" s="72"/>
+      <c r="B96" s="47"/>
       <c r="C96" s="32"/>
-      <c r="D96" s="70"/>
-      <c r="E96" s="48"/>
+      <c r="D96" s="69"/>
+      <c r="E96" s="47"/>
       <c r="F96" s="32"/>
       <c r="G96" s="32"/>
       <c r="H96" s="32"/>
@@ -8209,11 +8206,11 @@
       <c r="N96" s="32"/>
     </row>
     <row r="97" ht="15.75" customHeight="1">
-      <c r="A97" s="73"/>
-      <c r="B97" s="48"/>
+      <c r="A97" s="72"/>
+      <c r="B97" s="47"/>
       <c r="C97" s="32"/>
-      <c r="D97" s="70"/>
-      <c r="E97" s="48"/>
+      <c r="D97" s="69"/>
+      <c r="E97" s="47"/>
       <c r="F97" s="32"/>
       <c r="G97" s="32"/>
       <c r="H97" s="32"/>
@@ -8225,11 +8222,11 @@
       <c r="N97" s="32"/>
     </row>
     <row r="98" ht="15.75" customHeight="1">
-      <c r="A98" s="73"/>
-      <c r="B98" s="48"/>
+      <c r="A98" s="72"/>
+      <c r="B98" s="47"/>
       <c r="C98" s="32"/>
-      <c r="D98" s="70"/>
-      <c r="E98" s="48"/>
+      <c r="D98" s="69"/>
+      <c r="E98" s="47"/>
       <c r="F98" s="32"/>
       <c r="G98" s="32"/>
       <c r="H98" s="32"/>
@@ -8241,11 +8238,11 @@
       <c r="N98" s="32"/>
     </row>
     <row r="99" ht="15.75" customHeight="1">
-      <c r="A99" s="75"/>
-      <c r="B99" s="48"/>
+      <c r="A99" s="74"/>
+      <c r="B99" s="47"/>
       <c r="C99" s="32"/>
-      <c r="D99" s="70"/>
-      <c r="E99" s="48"/>
+      <c r="D99" s="69"/>
+      <c r="E99" s="47"/>
       <c r="F99" s="32"/>
       <c r="G99" s="32"/>
       <c r="H99" s="32"/>

--- a/spec/support/validRoSpreadsheet.xlsx
+++ b/spec/support/validRoSpreadsheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tomas/Desktop/tmp/compare/redone/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stephenhalliburton/workspace/caseflow/spec/support/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC4E0DB1-F6CA-9344-8534-13B50355BAFA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FF95FDD3-10D1-3749-BD00-E8A4203A0C81}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3460" yWindow="800" windowWidth="37280" windowHeight="21140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RO Non-Availability Dates" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="123">
   <si>
     <t>Example</t>
   </si>
@@ -388,6 +388,9 @@
   </si>
   <si>
     <t xml:space="preserve">Des Moines, IA </t>
+  </si>
+  <si>
+    <t>Number of Hearing Days Without Rooms in Date Range</t>
   </si>
 </sst>
 </file>
@@ -397,7 +400,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -512,7 +515,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="35">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -734,19 +737,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="12"/>
-      </right>
-      <top style="thin">
-        <color indexed="12"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="12"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="8"/>
       </left>
@@ -942,11 +932,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="12"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="12"/>
+      </right>
+      <top style="thin">
+        <color indexed="12"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1001,13 +1019,13 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1022,9 +1040,6 @@
     <xf numFmtId="14" fontId="10" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1040,25 +1055,25 @@
     <xf numFmtId="49" fontId="5" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="6" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1071,10 +1086,16 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2269,9 +2290,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IT50"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="13.5" style="1" customWidth="1"/>
@@ -2282,24 +2305,24 @@
     <col min="7" max="254" width="11" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:57" ht="56" customHeight="1">
+    <row r="1" spans="1:57" ht="56" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="66" t="s">
+      <c r="C1" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
       <c r="P1" s="4"/>
@@ -2345,7 +2368,7 @@
       <c r="BD1" s="4"/>
       <c r="BE1" s="5"/>
     </row>
-    <row r="2" spans="1:57" ht="39" customHeight="1">
+    <row r="2" spans="1:57" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
@@ -2518,7 +2541,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:57" ht="34" customHeight="1">
+    <row r="3" spans="1:57" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>59</v>
       </c>
@@ -2691,7 +2714,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="4" spans="1:57" ht="32" customHeight="1">
+    <row r="4" spans="1:57" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
         <v>116</v>
       </c>
@@ -2864,7 +2887,7 @@
         <v>43114</v>
       </c>
     </row>
-    <row r="5" spans="1:57" ht="17" customHeight="1">
+    <row r="5" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="19"/>
       <c r="B5" s="20">
         <v>43497</v>
@@ -3035,7 +3058,7 @@
         <v>43115</v>
       </c>
     </row>
-    <row r="6" spans="1:57" ht="17" customHeight="1">
+    <row r="6" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="19"/>
       <c r="B6" s="23">
         <v>43540</v>
@@ -3206,7 +3229,7 @@
         <v>43225</v>
       </c>
     </row>
-    <row r="7" spans="1:57" ht="17" customHeight="1">
+    <row r="7" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="19"/>
       <c r="B7" s="24">
         <v>43576</v>
@@ -3377,7 +3400,7 @@
         <v>43191</v>
       </c>
     </row>
-    <row r="8" spans="1:57" ht="17" customHeight="1">
+    <row r="8" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="19"/>
       <c r="B8" s="26">
         <v>43604</v>
@@ -3438,7 +3461,7 @@
       <c r="BD8" s="29"/>
       <c r="BE8" s="29"/>
     </row>
-    <row r="9" spans="1:57" ht="17" customHeight="1">
+    <row r="9" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="19"/>
       <c r="B9" s="30"/>
       <c r="C9" s="31"/>
@@ -3497,7 +3520,7 @@
       <c r="BD9" s="29"/>
       <c r="BE9" s="29"/>
     </row>
-    <row r="10" spans="1:57" ht="17" customHeight="1">
+    <row r="10" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="19"/>
       <c r="B10" s="32"/>
       <c r="C10" s="33"/>
@@ -3556,7 +3579,7 @@
       <c r="BD10" s="28"/>
       <c r="BE10" s="28"/>
     </row>
-    <row r="11" spans="1:57" ht="17" customHeight="1">
+    <row r="11" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="19"/>
       <c r="B11" s="34"/>
       <c r="C11" s="31"/>
@@ -3615,7 +3638,7 @@
       <c r="BD11" s="31"/>
       <c r="BE11" s="35"/>
     </row>
-    <row r="12" spans="1:57" ht="17" customHeight="1">
+    <row r="12" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="19"/>
       <c r="B12" s="32"/>
       <c r="C12" s="33"/>
@@ -3674,7 +3697,7 @@
       <c r="BD12" s="33"/>
       <c r="BE12" s="33"/>
     </row>
-    <row r="13" spans="1:57" ht="17" customHeight="1">
+    <row r="13" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="19"/>
       <c r="B13" s="34"/>
       <c r="C13" s="31"/>
@@ -3733,7 +3756,7 @@
       <c r="BD13" s="31"/>
       <c r="BE13" s="35"/>
     </row>
-    <row r="14" spans="1:57" ht="17" customHeight="1">
+    <row r="14" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="19"/>
       <c r="B14" s="32"/>
       <c r="C14" s="33"/>
@@ -3792,7 +3815,7 @@
       <c r="BD14" s="33"/>
       <c r="BE14" s="33"/>
     </row>
-    <row r="15" spans="1:57" ht="17" customHeight="1">
+    <row r="15" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="19"/>
       <c r="B15" s="34"/>
       <c r="C15" s="31"/>
@@ -3851,7 +3874,7 @@
       <c r="BD15" s="31"/>
       <c r="BE15" s="35"/>
     </row>
-    <row r="16" spans="1:57" ht="17" customHeight="1">
+    <row r="16" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="19"/>
       <c r="B16" s="32"/>
       <c r="C16" s="33"/>
@@ -3910,7 +3933,7 @@
       <c r="BD16" s="33"/>
       <c r="BE16" s="33"/>
     </row>
-    <row r="17" spans="1:57" ht="17" customHeight="1">
+    <row r="17" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="19"/>
       <c r="B17" s="34"/>
       <c r="C17" s="31"/>
@@ -3969,7 +3992,7 @@
       <c r="BD17" s="31"/>
       <c r="BE17" s="35"/>
     </row>
-    <row r="18" spans="1:57" ht="17" customHeight="1">
+    <row r="18" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="19"/>
       <c r="B18" s="32"/>
       <c r="C18" s="33"/>
@@ -4028,7 +4051,7 @@
       <c r="BD18" s="33"/>
       <c r="BE18" s="33"/>
     </row>
-    <row r="19" spans="1:57" ht="17" customHeight="1">
+    <row r="19" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="19"/>
       <c r="B19" s="34"/>
       <c r="C19" s="31"/>
@@ -4087,7 +4110,7 @@
       <c r="BD19" s="31"/>
       <c r="BE19" s="35"/>
     </row>
-    <row r="20" spans="1:57" ht="17" customHeight="1">
+    <row r="20" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="19"/>
       <c r="B20" s="32"/>
       <c r="C20" s="33"/>
@@ -4146,7 +4169,7 @@
       <c r="BD20" s="33"/>
       <c r="BE20" s="33"/>
     </row>
-    <row r="21" spans="1:57" ht="17" customHeight="1">
+    <row r="21" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="19"/>
       <c r="B21" s="34"/>
       <c r="C21" s="31"/>
@@ -4205,7 +4228,7 @@
       <c r="BD21" s="31"/>
       <c r="BE21" s="35"/>
     </row>
-    <row r="22" spans="1:57" ht="17" customHeight="1">
+    <row r="22" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="19"/>
       <c r="B22" s="32"/>
       <c r="C22" s="33"/>
@@ -4264,7 +4287,7 @@
       <c r="BD22" s="33"/>
       <c r="BE22" s="33"/>
     </row>
-    <row r="23" spans="1:57" ht="17" customHeight="1">
+    <row r="23" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="19"/>
       <c r="B23" s="34"/>
       <c r="C23" s="31"/>
@@ -4323,7 +4346,7 @@
       <c r="BD23" s="31"/>
       <c r="BE23" s="35"/>
     </row>
-    <row r="24" spans="1:57" ht="17" customHeight="1">
+    <row r="24" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="19"/>
       <c r="B24" s="32"/>
       <c r="C24" s="33"/>
@@ -4382,7 +4405,7 @@
       <c r="BD24" s="33"/>
       <c r="BE24" s="33"/>
     </row>
-    <row r="25" spans="1:57" ht="17" customHeight="1">
+    <row r="25" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="19"/>
       <c r="B25" s="34"/>
       <c r="C25" s="31"/>
@@ -4441,7 +4464,7 @@
       <c r="BD25" s="31"/>
       <c r="BE25" s="35"/>
     </row>
-    <row r="26" spans="1:57" ht="17" customHeight="1">
+    <row r="26" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="19"/>
       <c r="B26" s="32"/>
       <c r="C26" s="33"/>
@@ -4500,7 +4523,7 @@
       <c r="BD26" s="33"/>
       <c r="BE26" s="33"/>
     </row>
-    <row r="27" spans="1:57" ht="17" customHeight="1">
+    <row r="27" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="19"/>
       <c r="B27" s="34"/>
       <c r="C27" s="31"/>
@@ -4559,7 +4582,7 @@
       <c r="BD27" s="31"/>
       <c r="BE27" s="35"/>
     </row>
-    <row r="28" spans="1:57" ht="17" customHeight="1">
+    <row r="28" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="19"/>
       <c r="B28" s="32"/>
       <c r="C28" s="33"/>
@@ -4618,7 +4641,7 @@
       <c r="BD28" s="33"/>
       <c r="BE28" s="33"/>
     </row>
-    <row r="29" spans="1:57" ht="17" customHeight="1">
+    <row r="29" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="19"/>
       <c r="B29" s="34"/>
       <c r="C29" s="31"/>
@@ -4677,7 +4700,7 @@
       <c r="BD29" s="31"/>
       <c r="BE29" s="35"/>
     </row>
-    <row r="30" spans="1:57" ht="17" customHeight="1">
+    <row r="30" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="19"/>
       <c r="B30" s="32"/>
       <c r="C30" s="33"/>
@@ -4736,7 +4759,7 @@
       <c r="BD30" s="33"/>
       <c r="BE30" s="33"/>
     </row>
-    <row r="31" spans="1:57" ht="17" customHeight="1">
+    <row r="31" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="19"/>
       <c r="B31" s="34"/>
       <c r="C31" s="31"/>
@@ -4795,7 +4818,7 @@
       <c r="BD31" s="31"/>
       <c r="BE31" s="35"/>
     </row>
-    <row r="32" spans="1:57" ht="17" customHeight="1">
+    <row r="32" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="19"/>
       <c r="B32" s="32"/>
       <c r="C32" s="33"/>
@@ -4854,7 +4877,7 @@
       <c r="BD32" s="33"/>
       <c r="BE32" s="33"/>
     </row>
-    <row r="33" spans="1:57" ht="17" customHeight="1">
+    <row r="33" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="19"/>
       <c r="B33" s="34"/>
       <c r="C33" s="31"/>
@@ -4913,7 +4936,7 @@
       <c r="BD33" s="31"/>
       <c r="BE33" s="35"/>
     </row>
-    <row r="34" spans="1:57" ht="17" customHeight="1">
+    <row r="34" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="19"/>
       <c r="B34" s="32"/>
       <c r="C34" s="33"/>
@@ -4972,7 +4995,7 @@
       <c r="BD34" s="33"/>
       <c r="BE34" s="33"/>
     </row>
-    <row r="35" spans="1:57" ht="17" customHeight="1">
+    <row r="35" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="19"/>
       <c r="B35" s="34"/>
       <c r="C35" s="31"/>
@@ -5031,7 +5054,7 @@
       <c r="BD35" s="31"/>
       <c r="BE35" s="35"/>
     </row>
-    <row r="36" spans="1:57" ht="17" customHeight="1">
+    <row r="36" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="19"/>
       <c r="B36" s="32"/>
       <c r="C36" s="33"/>
@@ -5090,7 +5113,7 @@
       <c r="BD36" s="33"/>
       <c r="BE36" s="33"/>
     </row>
-    <row r="37" spans="1:57" ht="17" customHeight="1">
+    <row r="37" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="19"/>
       <c r="B37" s="34"/>
       <c r="C37" s="31"/>
@@ -5149,7 +5172,7 @@
       <c r="BD37" s="31"/>
       <c r="BE37" s="35"/>
     </row>
-    <row r="38" spans="1:57" ht="17" customHeight="1">
+    <row r="38" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="19"/>
       <c r="B38" s="32"/>
       <c r="C38" s="33"/>
@@ -5208,7 +5231,7 @@
       <c r="BD38" s="33"/>
       <c r="BE38" s="33"/>
     </row>
-    <row r="39" spans="1:57" ht="17" customHeight="1">
+    <row r="39" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="19"/>
       <c r="B39" s="34"/>
       <c r="C39" s="31"/>
@@ -5267,7 +5290,7 @@
       <c r="BD39" s="31"/>
       <c r="BE39" s="35"/>
     </row>
-    <row r="40" spans="1:57" ht="17" customHeight="1">
+    <row r="40" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="19"/>
       <c r="B40" s="32"/>
       <c r="C40" s="33"/>
@@ -5326,7 +5349,7 @@
       <c r="BD40" s="33"/>
       <c r="BE40" s="33"/>
     </row>
-    <row r="41" spans="1:57" ht="17" customHeight="1">
+    <row r="41" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="19"/>
       <c r="B41" s="34"/>
       <c r="C41" s="31"/>
@@ -5385,7 +5408,7 @@
       <c r="BD41" s="31"/>
       <c r="BE41" s="35"/>
     </row>
-    <row r="42" spans="1:57" ht="17" customHeight="1">
+    <row r="42" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="19"/>
       <c r="B42" s="32"/>
       <c r="C42" s="33"/>
@@ -5444,7 +5467,7 @@
       <c r="BD42" s="33"/>
       <c r="BE42" s="33"/>
     </row>
-    <row r="43" spans="1:57" ht="17" customHeight="1">
+    <row r="43" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="19"/>
       <c r="B43" s="34"/>
       <c r="C43" s="31"/>
@@ -5503,7 +5526,7 @@
       <c r="BD43" s="31"/>
       <c r="BE43" s="35"/>
     </row>
-    <row r="44" spans="1:57" ht="17" customHeight="1">
+    <row r="44" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="19"/>
       <c r="B44" s="32"/>
       <c r="C44" s="33"/>
@@ -5562,7 +5585,7 @@
       <c r="BD44" s="33"/>
       <c r="BE44" s="33"/>
     </row>
-    <row r="45" spans="1:57" ht="17" customHeight="1">
+    <row r="45" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="19"/>
       <c r="B45" s="34"/>
       <c r="C45" s="31"/>
@@ -5621,7 +5644,7 @@
       <c r="BD45" s="31"/>
       <c r="BE45" s="35"/>
     </row>
-    <row r="46" spans="1:57" ht="17" customHeight="1">
+    <row r="46" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="19"/>
       <c r="B46" s="32"/>
       <c r="C46" s="33"/>
@@ -5680,7 +5703,7 @@
       <c r="BD46" s="33"/>
       <c r="BE46" s="33"/>
     </row>
-    <row r="47" spans="1:57" ht="17" customHeight="1">
+    <row r="47" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="19"/>
       <c r="B47" s="34"/>
       <c r="C47" s="31"/>
@@ -5739,7 +5762,7 @@
       <c r="BD47" s="31"/>
       <c r="BE47" s="35"/>
     </row>
-    <row r="48" spans="1:57" ht="17" customHeight="1">
+    <row r="48" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="19"/>
       <c r="B48" s="32"/>
       <c r="C48" s="33"/>
@@ -5798,7 +5821,7 @@
       <c r="BD48" s="33"/>
       <c r="BE48" s="33"/>
     </row>
-    <row r="49" spans="1:57" ht="17" customHeight="1">
+    <row r="49" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="19"/>
       <c r="B49" s="34"/>
       <c r="C49" s="31"/>
@@ -5857,7 +5880,7 @@
       <c r="BD49" s="31"/>
       <c r="BE49" s="35"/>
     </row>
-    <row r="50" spans="1:57" ht="17" customHeight="1">
+    <row r="50" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="36"/>
       <c r="B50" s="37"/>
       <c r="C50" s="38"/>
@@ -5936,23 +5959,23 @@
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.6640625" style="39" customWidth="1"/>
     <col min="2" max="2" width="48" style="39" customWidth="1"/>
     <col min="3" max="256" width="8.6640625" style="39" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="43.5" customHeight="1">
-      <c r="A1" s="68" t="s">
+    <row r="1" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="67" t="s">
         <v>118</v>
       </c>
-      <c r="B1" s="69"/>
+      <c r="B1" s="68"/>
       <c r="C1" s="40"/>
       <c r="D1" s="29"/>
       <c r="E1" s="29"/>
     </row>
-    <row r="2" spans="1:5" ht="43.5" customHeight="1">
+    <row r="2" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="41"/>
       <c r="B2" s="42" t="s">
         <v>116</v>
@@ -5961,7 +5984,7 @@
       <c r="D2" s="29"/>
       <c r="E2" s="29"/>
     </row>
-    <row r="3" spans="1:5" ht="36.75" customHeight="1">
+    <row r="3" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="43" t="s">
         <v>0</v>
       </c>
@@ -5972,7 +5995,7 @@
       <c r="D3" s="29"/>
       <c r="E3" s="29"/>
     </row>
-    <row r="4" spans="1:5" ht="17" customHeight="1">
+    <row r="4" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="45"/>
       <c r="B4" s="18">
         <v>43114</v>
@@ -5981,7 +6004,7 @@
       <c r="D4" s="29"/>
       <c r="E4" s="29"/>
     </row>
-    <row r="5" spans="1:5" ht="17" customHeight="1">
+    <row r="5" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="29"/>
       <c r="B5" s="22">
         <v>43115</v>
@@ -5990,7 +6013,7 @@
       <c r="D5" s="29"/>
       <c r="E5" s="29"/>
     </row>
-    <row r="6" spans="1:5" ht="17" customHeight="1">
+    <row r="6" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="29"/>
       <c r="B6" s="22">
         <v>43225</v>
@@ -5999,7 +6022,7 @@
       <c r="D6" s="29"/>
       <c r="E6" s="29"/>
     </row>
-    <row r="7" spans="1:5" ht="17" customHeight="1">
+    <row r="7" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="29"/>
       <c r="B7" s="22">
         <v>43191</v>
@@ -6008,7 +6031,7 @@
       <c r="D7" s="29"/>
       <c r="E7" s="29"/>
     </row>
-    <row r="8" spans="1:5" ht="17" customHeight="1">
+    <row r="8" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="29"/>
       <c r="B8" s="25" t="s">
         <v>117</v>
@@ -6017,14 +6040,14 @@
       <c r="D8" s="29"/>
       <c r="E8" s="29"/>
     </row>
-    <row r="9" spans="1:5" ht="17" customHeight="1">
+    <row r="9" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="29"/>
       <c r="B9" s="29"/>
       <c r="C9" s="29"/>
       <c r="D9" s="29"/>
       <c r="E9" s="29"/>
     </row>
-    <row r="10" spans="1:5" ht="17" customHeight="1">
+    <row r="10" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="29"/>
       <c r="B10" s="29"/>
       <c r="C10" s="29"/>
@@ -6047,50 +6070,52 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:IV97"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10" style="46" customWidth="1"/>
     <col min="2" max="2" width="23.5" style="46" customWidth="1"/>
     <col min="3" max="3" width="11" style="46" customWidth="1"/>
     <col min="4" max="4" width="22.5" style="46" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" style="46" customWidth="1"/>
+    <col min="5" max="5" width="23" style="72" customWidth="1"/>
     <col min="6" max="256" width="11" style="46" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="60" customHeight="1">
-      <c r="A1" s="70" t="s">
+    <row r="1" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="69" t="s">
         <v>119</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
-      <c r="N1" s="48"/>
-    </row>
-    <row r="2" spans="1:14" ht="47" customHeight="1">
-      <c r="A2" s="49"/>
-      <c r="B2" s="50" t="s">
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+    </row>
+    <row r="2" spans="1:14" ht="47" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="48"/>
+      <c r="B2" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="51" t="s">
+      <c r="C2" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="52" t="s">
+      <c r="D2" s="51" t="s">
         <v>120</v>
       </c>
-      <c r="E2" s="40"/>
+      <c r="E2" s="51" t="s">
+        <v>122</v>
+      </c>
       <c r="F2" s="29"/>
       <c r="G2" s="29"/>
       <c r="H2" s="29"/>
@@ -6101,20 +6126,22 @@
       <c r="M2" s="29"/>
       <c r="N2" s="29"/>
     </row>
-    <row r="3" spans="1:14" ht="39" customHeight="1">
-      <c r="A3" s="53" t="s">
+    <row r="3" spans="1:14" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="55" t="s">
+      <c r="C3" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="56">
+      <c r="D3" s="55">
         <v>10</v>
       </c>
-      <c r="E3" s="40"/>
+      <c r="E3" s="70">
+        <v>50</v>
+      </c>
       <c r="F3" s="29"/>
       <c r="G3" s="29"/>
       <c r="H3" s="29"/>
@@ -6125,18 +6152,20 @@
       <c r="M3" s="29"/>
       <c r="N3" s="29"/>
     </row>
-    <row r="4" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A4" s="57"/>
-      <c r="B4" s="58" t="s">
+    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="56"/>
+      <c r="B4" s="57" t="s">
         <v>61</v>
       </c>
-      <c r="C4" s="59" t="s">
+      <c r="C4" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="60">
+      <c r="D4" s="59">
         <v>4</v>
       </c>
-      <c r="E4" s="40"/>
+      <c r="E4" s="59">
+        <v>4</v>
+      </c>
       <c r="F4" s="29"/>
       <c r="G4" s="29"/>
       <c r="H4" s="29"/>
@@ -6147,18 +6176,20 @@
       <c r="M4" s="29"/>
       <c r="N4" s="29"/>
     </row>
-    <row r="5" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A5" s="61"/>
-      <c r="B5" s="58" t="s">
+    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="60"/>
+      <c r="B5" s="57" t="s">
         <v>62</v>
       </c>
-      <c r="C5" s="59" t="s">
+      <c r="C5" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="60">
+      <c r="D5" s="59">
         <v>10</v>
       </c>
-      <c r="E5" s="40"/>
+      <c r="E5" s="59">
+        <v>10</v>
+      </c>
       <c r="F5" s="29"/>
       <c r="G5" s="29"/>
       <c r="H5" s="29"/>
@@ -6169,18 +6200,20 @@
       <c r="M5" s="29"/>
       <c r="N5" s="29"/>
     </row>
-    <row r="6" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A6" s="62"/>
-      <c r="B6" s="58" t="s">
+    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="61"/>
+      <c r="B6" s="57" t="s">
         <v>63</v>
       </c>
-      <c r="C6" s="59" t="s">
+      <c r="C6" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="60">
+      <c r="D6" s="59">
         <v>11</v>
       </c>
-      <c r="E6" s="40"/>
+      <c r="E6" s="59">
+        <v>11</v>
+      </c>
       <c r="F6" s="29"/>
       <c r="G6" s="29"/>
       <c r="H6" s="29"/>
@@ -6191,18 +6224,20 @@
       <c r="M6" s="29"/>
       <c r="N6" s="29"/>
     </row>
-    <row r="7" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A7" s="63"/>
-      <c r="B7" s="58" t="s">
+    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="62"/>
+      <c r="B7" s="57" t="s">
         <v>64</v>
       </c>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="60">
+      <c r="D7" s="59">
         <v>4</v>
       </c>
-      <c r="E7" s="40"/>
+      <c r="E7" s="59">
+        <v>4</v>
+      </c>
       <c r="F7" s="29"/>
       <c r="G7" s="29"/>
       <c r="H7" s="29"/>
@@ -6213,18 +6248,20 @@
       <c r="M7" s="29"/>
       <c r="N7" s="29"/>
     </row>
-    <row r="8" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A8" s="63"/>
-      <c r="B8" s="58" t="s">
+    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="62"/>
+      <c r="B8" s="57" t="s">
         <v>65</v>
       </c>
-      <c r="C8" s="59" t="s">
+      <c r="C8" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="60">
+      <c r="D8" s="59">
         <v>6</v>
       </c>
-      <c r="E8" s="40"/>
+      <c r="E8" s="59">
+        <v>6</v>
+      </c>
       <c r="F8" s="29"/>
       <c r="G8" s="29"/>
       <c r="H8" s="29"/>
@@ -6235,18 +6272,20 @@
       <c r="M8" s="29"/>
       <c r="N8" s="29"/>
     </row>
-    <row r="9" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A9" s="63"/>
-      <c r="B9" s="58" t="s">
+    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="62"/>
+      <c r="B9" s="57" t="s">
         <v>66</v>
       </c>
-      <c r="C9" s="59" t="s">
+      <c r="C9" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="60">
+      <c r="D9" s="59">
         <v>3</v>
       </c>
-      <c r="E9" s="40"/>
+      <c r="E9" s="59">
+        <v>3</v>
+      </c>
       <c r="F9" s="29"/>
       <c r="G9" s="29"/>
       <c r="H9" s="29"/>
@@ -6257,18 +6296,20 @@
       <c r="M9" s="29"/>
       <c r="N9" s="29"/>
     </row>
-    <row r="10" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A10" s="63"/>
-      <c r="B10" s="58" t="s">
+    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="62"/>
+      <c r="B10" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="C10" s="59" t="s">
+      <c r="C10" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="60">
+      <c r="D10" s="59">
         <v>1</v>
       </c>
-      <c r="E10" s="40"/>
+      <c r="E10" s="59">
+        <v>1</v>
+      </c>
       <c r="F10" s="29"/>
       <c r="G10" s="29"/>
       <c r="H10" s="29"/>
@@ -6279,18 +6320,20 @@
       <c r="M10" s="29"/>
       <c r="N10" s="29"/>
     </row>
-    <row r="11" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A11" s="63"/>
-      <c r="B11" s="58" t="s">
+    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="62"/>
+      <c r="B11" s="57" t="s">
         <v>68</v>
       </c>
-      <c r="C11" s="59" t="s">
+      <c r="C11" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="60">
+      <c r="D11" s="59">
         <v>6</v>
       </c>
-      <c r="E11" s="40"/>
+      <c r="E11" s="59">
+        <v>6</v>
+      </c>
       <c r="F11" s="29"/>
       <c r="G11" s="29"/>
       <c r="H11" s="29"/>
@@ -6301,18 +6344,20 @@
       <c r="M11" s="29"/>
       <c r="N11" s="29"/>
     </row>
-    <row r="12" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A12" s="63"/>
-      <c r="B12" s="58" t="s">
+    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="62"/>
+      <c r="B12" s="57" t="s">
         <v>69</v>
       </c>
-      <c r="C12" s="59" t="s">
+      <c r="C12" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="60">
+      <c r="D12" s="59">
         <v>8</v>
       </c>
-      <c r="E12" s="40"/>
+      <c r="E12" s="59">
+        <v>8</v>
+      </c>
       <c r="F12" s="29"/>
       <c r="G12" s="29"/>
       <c r="H12" s="29"/>
@@ -6323,18 +6368,20 @@
       <c r="M12" s="29"/>
       <c r="N12" s="29"/>
     </row>
-    <row r="13" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A13" s="63"/>
-      <c r="B13" s="58" t="s">
+    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="62"/>
+      <c r="B13" s="57" t="s">
         <v>70</v>
       </c>
-      <c r="C13" s="59" t="s">
+      <c r="C13" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="60">
+      <c r="D13" s="59">
         <v>9</v>
       </c>
-      <c r="E13" s="40"/>
+      <c r="E13" s="59">
+        <v>9</v>
+      </c>
       <c r="F13" s="29"/>
       <c r="G13" s="29"/>
       <c r="H13" s="29"/>
@@ -6345,18 +6392,20 @@
       <c r="M13" s="29"/>
       <c r="N13" s="29"/>
     </row>
-    <row r="14" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A14" s="63"/>
-      <c r="B14" s="58" t="s">
+    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="62"/>
+      <c r="B14" s="57" t="s">
         <v>71</v>
       </c>
-      <c r="C14" s="59" t="s">
+      <c r="C14" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="60">
+      <c r="D14" s="59">
         <v>5</v>
       </c>
-      <c r="E14" s="40"/>
+      <c r="E14" s="59">
+        <v>5</v>
+      </c>
       <c r="F14" s="29"/>
       <c r="G14" s="29"/>
       <c r="H14" s="29"/>
@@ -6367,18 +6416,20 @@
       <c r="M14" s="29"/>
       <c r="N14" s="29"/>
     </row>
-    <row r="15" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A15" s="63"/>
-      <c r="B15" s="58" t="s">
+    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="62"/>
+      <c r="B15" s="57" t="s">
         <v>72</v>
       </c>
-      <c r="C15" s="59" t="s">
+      <c r="C15" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="60">
+      <c r="D15" s="59">
         <v>4</v>
       </c>
-      <c r="E15" s="40"/>
+      <c r="E15" s="59">
+        <v>4</v>
+      </c>
       <c r="F15" s="29"/>
       <c r="G15" s="29"/>
       <c r="H15" s="29"/>
@@ -6389,18 +6440,20 @@
       <c r="M15" s="29"/>
       <c r="N15" s="29"/>
     </row>
-    <row r="16" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A16" s="63"/>
-      <c r="B16" s="58" t="s">
+    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="62"/>
+      <c r="B16" s="57" t="s">
         <v>73</v>
       </c>
-      <c r="C16" s="59" t="s">
+      <c r="C16" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="60">
+      <c r="D16" s="59">
         <v>2</v>
       </c>
-      <c r="E16" s="40"/>
+      <c r="E16" s="59">
+        <v>2</v>
+      </c>
       <c r="F16" s="29"/>
       <c r="G16" s="29"/>
       <c r="H16" s="29"/>
@@ -6411,18 +6464,20 @@
       <c r="M16" s="29"/>
       <c r="N16" s="29"/>
     </row>
-    <row r="17" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A17" s="63"/>
-      <c r="B17" s="58" t="s">
+    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="62"/>
+      <c r="B17" s="57" t="s">
         <v>74</v>
       </c>
-      <c r="C17" s="59" t="s">
+      <c r="C17" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="60">
+      <c r="D17" s="59">
         <v>5</v>
       </c>
-      <c r="E17" s="40"/>
+      <c r="E17" s="59">
+        <v>5</v>
+      </c>
       <c r="F17" s="29"/>
       <c r="G17" s="29"/>
       <c r="H17" s="29"/>
@@ -6433,18 +6488,20 @@
       <c r="M17" s="29"/>
       <c r="N17" s="29"/>
     </row>
-    <row r="18" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A18" s="63"/>
-      <c r="B18" s="58" t="s">
+    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="62"/>
+      <c r="B18" s="57" t="s">
         <v>75</v>
       </c>
-      <c r="C18" s="59" t="s">
+      <c r="C18" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="60">
+      <c r="D18" s="59">
         <v>7</v>
       </c>
-      <c r="E18" s="40"/>
+      <c r="E18" s="59">
+        <v>7</v>
+      </c>
       <c r="F18" s="29"/>
       <c r="G18" s="29"/>
       <c r="H18" s="29"/>
@@ -6455,18 +6512,20 @@
       <c r="M18" s="29"/>
       <c r="N18" s="29"/>
     </row>
-    <row r="19" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A19" s="63"/>
-      <c r="B19" s="58" t="s">
+    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="62"/>
+      <c r="B19" s="57" t="s">
         <v>76</v>
       </c>
-      <c r="C19" s="59" t="s">
+      <c r="C19" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="60">
+      <c r="D19" s="59">
         <v>15</v>
       </c>
-      <c r="E19" s="40"/>
+      <c r="E19" s="59">
+        <v>15</v>
+      </c>
       <c r="F19" s="29"/>
       <c r="G19" s="29"/>
       <c r="H19" s="29"/>
@@ -6477,18 +6536,20 @@
       <c r="M19" s="29"/>
       <c r="N19" s="29"/>
     </row>
-    <row r="20" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A20" s="63"/>
-      <c r="B20" s="58" t="s">
+    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="62"/>
+      <c r="B20" s="57" t="s">
         <v>77</v>
       </c>
-      <c r="C20" s="59" t="s">
+      <c r="C20" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="60">
+      <c r="D20" s="59">
         <v>3</v>
       </c>
-      <c r="E20" s="40"/>
+      <c r="E20" s="59">
+        <v>3</v>
+      </c>
       <c r="F20" s="29"/>
       <c r="G20" s="29"/>
       <c r="H20" s="29"/>
@@ -6499,18 +6560,20 @@
       <c r="M20" s="29"/>
       <c r="N20" s="29"/>
     </row>
-    <row r="21" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A21" s="63"/>
-      <c r="B21" s="58" t="s">
+    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="62"/>
+      <c r="B21" s="57" t="s">
         <v>78</v>
       </c>
-      <c r="C21" s="59" t="s">
+      <c r="C21" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="D21" s="60">
+      <c r="D21" s="59">
         <v>7</v>
       </c>
-      <c r="E21" s="40"/>
+      <c r="E21" s="59">
+        <v>7</v>
+      </c>
       <c r="F21" s="29"/>
       <c r="G21" s="29"/>
       <c r="H21" s="29"/>
@@ -6521,18 +6584,20 @@
       <c r="M21" s="29"/>
       <c r="N21" s="29"/>
     </row>
-    <row r="22" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A22" s="63"/>
-      <c r="B22" s="58" t="s">
+    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="62"/>
+      <c r="B22" s="57" t="s">
         <v>79</v>
       </c>
-      <c r="C22" s="59" t="s">
+      <c r="C22" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="D22" s="60">
+      <c r="D22" s="59">
         <v>0</v>
       </c>
-      <c r="E22" s="40"/>
+      <c r="E22" s="59">
+        <v>0</v>
+      </c>
       <c r="F22" s="29"/>
       <c r="G22" s="29"/>
       <c r="H22" s="29"/>
@@ -6543,18 +6608,20 @@
       <c r="M22" s="29"/>
       <c r="N22" s="29"/>
     </row>
-    <row r="23" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A23" s="63"/>
-      <c r="B23" s="58" t="s">
+    <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="62"/>
+      <c r="B23" s="57" t="s">
         <v>80</v>
       </c>
-      <c r="C23" s="59" t="s">
+      <c r="C23" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="D23" s="60">
+      <c r="D23" s="59">
         <v>3</v>
       </c>
-      <c r="E23" s="40"/>
+      <c r="E23" s="59">
+        <v>3</v>
+      </c>
       <c r="F23" s="29"/>
       <c r="G23" s="29"/>
       <c r="H23" s="29"/>
@@ -6565,18 +6632,20 @@
       <c r="M23" s="29"/>
       <c r="N23" s="29"/>
     </row>
-    <row r="24" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A24" s="63"/>
-      <c r="B24" s="58" t="s">
+    <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="62"/>
+      <c r="B24" s="57" t="s">
         <v>81</v>
       </c>
-      <c r="C24" s="59" t="s">
+      <c r="C24" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="D24" s="60">
+      <c r="D24" s="59">
         <v>7</v>
       </c>
-      <c r="E24" s="40"/>
+      <c r="E24" s="59">
+        <v>7</v>
+      </c>
       <c r="F24" s="29"/>
       <c r="G24" s="29"/>
       <c r="H24" s="29"/>
@@ -6587,18 +6656,20 @@
       <c r="M24" s="29"/>
       <c r="N24" s="29"/>
     </row>
-    <row r="25" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A25" s="63"/>
-      <c r="B25" s="58" t="s">
+    <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="62"/>
+      <c r="B25" s="57" t="s">
         <v>82</v>
       </c>
-      <c r="C25" s="59" t="s">
+      <c r="C25" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="D25" s="60">
+      <c r="D25" s="59">
         <v>3</v>
       </c>
-      <c r="E25" s="40"/>
+      <c r="E25" s="59">
+        <v>3</v>
+      </c>
       <c r="F25" s="29"/>
       <c r="G25" s="29"/>
       <c r="H25" s="29"/>
@@ -6609,18 +6680,20 @@
       <c r="M25" s="29"/>
       <c r="N25" s="29"/>
     </row>
-    <row r="26" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A26" s="63"/>
-      <c r="B26" s="58" t="s">
+    <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="62"/>
+      <c r="B26" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="C26" s="59" t="s">
+      <c r="C26" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="D26" s="60">
+      <c r="D26" s="59">
         <v>2</v>
       </c>
-      <c r="E26" s="40"/>
+      <c r="E26" s="59">
+        <v>2</v>
+      </c>
       <c r="F26" s="29"/>
       <c r="G26" s="29"/>
       <c r="H26" s="29"/>
@@ -6631,18 +6704,20 @@
       <c r="M26" s="29"/>
       <c r="N26" s="29"/>
     </row>
-    <row r="27" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A27" s="63"/>
-      <c r="B27" s="58" t="s">
+    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="62"/>
+      <c r="B27" s="57" t="s">
         <v>84</v>
       </c>
-      <c r="C27" s="59" t="s">
+      <c r="C27" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="D27" s="60">
+      <c r="D27" s="59">
         <v>5</v>
       </c>
-      <c r="E27" s="40"/>
+      <c r="E27" s="59">
+        <v>5</v>
+      </c>
       <c r="F27" s="29"/>
       <c r="G27" s="29"/>
       <c r="H27" s="29"/>
@@ -6653,18 +6728,20 @@
       <c r="M27" s="29"/>
       <c r="N27" s="29"/>
     </row>
-    <row r="28" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A28" s="63"/>
-      <c r="B28" s="58" t="s">
+    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="62"/>
+      <c r="B28" s="57" t="s">
         <v>85</v>
       </c>
-      <c r="C28" s="59" t="s">
+      <c r="C28" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="D28" s="60">
+      <c r="D28" s="59">
         <v>7</v>
       </c>
-      <c r="E28" s="40"/>
+      <c r="E28" s="59">
+        <v>7</v>
+      </c>
       <c r="F28" s="29"/>
       <c r="G28" s="29"/>
       <c r="H28" s="29"/>
@@ -6675,18 +6752,20 @@
       <c r="M28" s="29"/>
       <c r="N28" s="29"/>
     </row>
-    <row r="29" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A29" s="63"/>
-      <c r="B29" s="58" t="s">
+    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="62"/>
+      <c r="B29" s="57" t="s">
         <v>86</v>
       </c>
-      <c r="C29" s="59" t="s">
+      <c r="C29" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="D29" s="60">
+      <c r="D29" s="59">
         <v>4</v>
       </c>
-      <c r="E29" s="40"/>
+      <c r="E29" s="59">
+        <v>4</v>
+      </c>
       <c r="F29" s="29"/>
       <c r="G29" s="29"/>
       <c r="H29" s="29"/>
@@ -6697,18 +6776,20 @@
       <c r="M29" s="29"/>
       <c r="N29" s="29"/>
     </row>
-    <row r="30" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A30" s="63"/>
-      <c r="B30" s="58" t="s">
+    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="62"/>
+      <c r="B30" s="57" t="s">
         <v>87</v>
       </c>
-      <c r="C30" s="59" t="s">
+      <c r="C30" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="D30" s="60">
+      <c r="D30" s="59">
         <v>4</v>
       </c>
-      <c r="E30" s="40"/>
+      <c r="E30" s="59">
+        <v>4</v>
+      </c>
       <c r="F30" s="29"/>
       <c r="G30" s="29"/>
       <c r="H30" s="29"/>
@@ -6719,18 +6800,20 @@
       <c r="M30" s="29"/>
       <c r="N30" s="29"/>
     </row>
-    <row r="31" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A31" s="63"/>
-      <c r="B31" s="58" t="s">
+    <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="62"/>
+      <c r="B31" s="57" t="s">
         <v>121</v>
       </c>
-      <c r="C31" s="59" t="s">
+      <c r="C31" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="D31" s="60">
+      <c r="D31" s="59">
         <v>2</v>
       </c>
-      <c r="E31" s="40"/>
+      <c r="E31" s="59">
+        <v>2</v>
+      </c>
       <c r="F31" s="29"/>
       <c r="G31" s="29"/>
       <c r="H31" s="29"/>
@@ -6741,18 +6824,20 @@
       <c r="M31" s="29"/>
       <c r="N31" s="29"/>
     </row>
-    <row r="32" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A32" s="63"/>
-      <c r="B32" s="58" t="s">
+    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="62"/>
+      <c r="B32" s="57" t="s">
         <v>89</v>
       </c>
-      <c r="C32" s="59" t="s">
+      <c r="C32" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="D32" s="60">
+      <c r="D32" s="59">
         <v>5</v>
       </c>
-      <c r="E32" s="40"/>
+      <c r="E32" s="59">
+        <v>5</v>
+      </c>
       <c r="F32" s="29"/>
       <c r="G32" s="29"/>
       <c r="H32" s="29"/>
@@ -6763,18 +6848,20 @@
       <c r="M32" s="29"/>
       <c r="N32" s="29"/>
     </row>
-    <row r="33" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A33" s="63"/>
-      <c r="B33" s="58" t="s">
+    <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="62"/>
+      <c r="B33" s="57" t="s">
         <v>90</v>
       </c>
-      <c r="C33" s="59" t="s">
+      <c r="C33" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="D33" s="60">
+      <c r="D33" s="59">
         <v>7</v>
       </c>
-      <c r="E33" s="40"/>
+      <c r="E33" s="59">
+        <v>7</v>
+      </c>
       <c r="F33" s="29"/>
       <c r="G33" s="29"/>
       <c r="H33" s="29"/>
@@ -6785,18 +6872,20 @@
       <c r="M33" s="29"/>
       <c r="N33" s="29"/>
     </row>
-    <row r="34" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A34" s="63"/>
-      <c r="B34" s="58" t="s">
+    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="62"/>
+      <c r="B34" s="57" t="s">
         <v>91</v>
       </c>
-      <c r="C34" s="59" t="s">
+      <c r="C34" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="D34" s="60">
+      <c r="D34" s="59">
         <v>9</v>
       </c>
-      <c r="E34" s="40"/>
+      <c r="E34" s="59">
+        <v>9</v>
+      </c>
       <c r="F34" s="29"/>
       <c r="G34" s="29"/>
       <c r="H34" s="29"/>
@@ -6807,18 +6896,20 @@
       <c r="M34" s="29"/>
       <c r="N34" s="29"/>
     </row>
-    <row r="35" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A35" s="63"/>
-      <c r="B35" s="58" t="s">
+    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="62"/>
+      <c r="B35" s="57" t="s">
         <v>92</v>
       </c>
-      <c r="C35" s="59" t="s">
+      <c r="C35" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="D35" s="60">
+      <c r="D35" s="59">
         <v>4</v>
       </c>
-      <c r="E35" s="40"/>
+      <c r="E35" s="59">
+        <v>4</v>
+      </c>
       <c r="F35" s="29"/>
       <c r="G35" s="29"/>
       <c r="H35" s="29"/>
@@ -6829,18 +6920,20 @@
       <c r="M35" s="29"/>
       <c r="N35" s="29"/>
     </row>
-    <row r="36" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A36" s="63"/>
-      <c r="B36" s="58" t="s">
+    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="62"/>
+      <c r="B36" s="57" t="s">
         <v>93</v>
       </c>
-      <c r="C36" s="59" t="s">
+      <c r="C36" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="D36" s="60">
+      <c r="D36" s="59">
         <v>2</v>
       </c>
-      <c r="E36" s="40"/>
+      <c r="E36" s="59">
+        <v>2</v>
+      </c>
       <c r="F36" s="29"/>
       <c r="G36" s="29"/>
       <c r="H36" s="29"/>
@@ -6851,18 +6944,20 @@
       <c r="M36" s="29"/>
       <c r="N36" s="29"/>
     </row>
-    <row r="37" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A37" s="63"/>
-      <c r="B37" s="58" t="s">
+    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="62"/>
+      <c r="B37" s="57" t="s">
         <v>94</v>
       </c>
-      <c r="C37" s="59" t="s">
+      <c r="C37" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="D37" s="60">
+      <c r="D37" s="59">
         <v>6</v>
       </c>
-      <c r="E37" s="40"/>
+      <c r="E37" s="59">
+        <v>6</v>
+      </c>
       <c r="F37" s="29"/>
       <c r="G37" s="29"/>
       <c r="H37" s="29"/>
@@ -6873,18 +6968,20 @@
       <c r="M37" s="29"/>
       <c r="N37" s="29"/>
     </row>
-    <row r="38" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A38" s="63"/>
-      <c r="B38" s="58" t="s">
+    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="62"/>
+      <c r="B38" s="57" t="s">
         <v>95</v>
       </c>
-      <c r="C38" s="59" t="s">
+      <c r="C38" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="D38" s="60">
+      <c r="D38" s="59">
         <v>3</v>
       </c>
-      <c r="E38" s="40"/>
+      <c r="E38" s="59">
+        <v>3</v>
+      </c>
       <c r="F38" s="29"/>
       <c r="G38" s="29"/>
       <c r="H38" s="29"/>
@@ -6895,18 +6992,20 @@
       <c r="M38" s="29"/>
       <c r="N38" s="29"/>
     </row>
-    <row r="39" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A39" s="63"/>
-      <c r="B39" s="58" t="s">
+    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="62"/>
+      <c r="B39" s="57" t="s">
         <v>96</v>
       </c>
-      <c r="C39" s="59" t="s">
+      <c r="C39" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="D39" s="60">
+      <c r="D39" s="59">
         <v>2</v>
       </c>
-      <c r="E39" s="40"/>
+      <c r="E39" s="59">
+        <v>2</v>
+      </c>
       <c r="F39" s="29"/>
       <c r="G39" s="29"/>
       <c r="H39" s="29"/>
@@ -6917,18 +7016,20 @@
       <c r="M39" s="29"/>
       <c r="N39" s="29"/>
     </row>
-    <row r="40" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A40" s="63"/>
-      <c r="B40" s="58" t="s">
+    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="62"/>
+      <c r="B40" s="57" t="s">
         <v>97</v>
       </c>
-      <c r="C40" s="59" t="s">
+      <c r="C40" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="D40" s="60">
+      <c r="D40" s="59">
         <v>6</v>
       </c>
-      <c r="E40" s="40"/>
+      <c r="E40" s="59">
+        <v>6</v>
+      </c>
       <c r="F40" s="29"/>
       <c r="G40" s="29"/>
       <c r="H40" s="29"/>
@@ -6939,18 +7040,20 @@
       <c r="M40" s="29"/>
       <c r="N40" s="29"/>
     </row>
-    <row r="41" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A41" s="63"/>
-      <c r="B41" s="58" t="s">
+    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="62"/>
+      <c r="B41" s="57" t="s">
         <v>98</v>
       </c>
-      <c r="C41" s="59" t="s">
+      <c r="C41" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="D41" s="60">
+      <c r="D41" s="59">
         <v>5</v>
       </c>
-      <c r="E41" s="40"/>
+      <c r="E41" s="59">
+        <v>5</v>
+      </c>
       <c r="F41" s="29"/>
       <c r="G41" s="29"/>
       <c r="H41" s="29"/>
@@ -6961,18 +7064,20 @@
       <c r="M41" s="29"/>
       <c r="N41" s="29"/>
     </row>
-    <row r="42" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A42" s="63"/>
-      <c r="B42" s="58" t="s">
+    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="62"/>
+      <c r="B42" s="57" t="s">
         <v>99</v>
       </c>
-      <c r="C42" s="59" t="s">
+      <c r="C42" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="D42" s="60">
+      <c r="D42" s="59">
         <v>3</v>
       </c>
-      <c r="E42" s="40"/>
+      <c r="E42" s="59">
+        <v>3</v>
+      </c>
       <c r="F42" s="29"/>
       <c r="G42" s="29"/>
       <c r="H42" s="29"/>
@@ -6983,18 +7088,20 @@
       <c r="M42" s="29"/>
       <c r="N42" s="29"/>
     </row>
-    <row r="43" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A43" s="63"/>
-      <c r="B43" s="58" t="s">
+    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="62"/>
+      <c r="B43" s="57" t="s">
         <v>100</v>
       </c>
-      <c r="C43" s="59" t="s">
+      <c r="C43" s="58" t="s">
         <v>43</v>
       </c>
-      <c r="D43" s="60">
+      <c r="D43" s="59">
         <v>5</v>
       </c>
-      <c r="E43" s="40"/>
+      <c r="E43" s="59">
+        <v>5</v>
+      </c>
       <c r="F43" s="29"/>
       <c r="G43" s="29"/>
       <c r="H43" s="29"/>
@@ -7005,18 +7112,20 @@
       <c r="M43" s="29"/>
       <c r="N43" s="29"/>
     </row>
-    <row r="44" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A44" s="63"/>
-      <c r="B44" s="58" t="s">
+    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="62"/>
+      <c r="B44" s="57" t="s">
         <v>101</v>
       </c>
-      <c r="C44" s="59" t="s">
+      <c r="C44" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="D44" s="60">
+      <c r="D44" s="59">
         <v>36</v>
       </c>
-      <c r="E44" s="40"/>
+      <c r="E44" s="59">
+        <v>36</v>
+      </c>
       <c r="F44" s="29"/>
       <c r="G44" s="29"/>
       <c r="H44" s="29"/>
@@ -7027,18 +7136,20 @@
       <c r="M44" s="29"/>
       <c r="N44" s="29"/>
     </row>
-    <row r="45" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A45" s="63"/>
-      <c r="B45" s="58" t="s">
+    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="62"/>
+      <c r="B45" s="57" t="s">
         <v>102</v>
       </c>
-      <c r="C45" s="59" t="s">
+      <c r="C45" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="D45" s="60">
+      <c r="D45" s="59">
         <v>7</v>
       </c>
-      <c r="E45" s="40"/>
+      <c r="E45" s="59">
+        <v>7</v>
+      </c>
       <c r="F45" s="29"/>
       <c r="G45" s="29"/>
       <c r="H45" s="29"/>
@@ -7049,18 +7160,20 @@
       <c r="M45" s="29"/>
       <c r="N45" s="29"/>
     </row>
-    <row r="46" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A46" s="63"/>
-      <c r="B46" s="58" t="s">
+    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="62"/>
+      <c r="B46" s="57" t="s">
         <v>103</v>
       </c>
-      <c r="C46" s="59" t="s">
+      <c r="C46" s="58" t="s">
         <v>46</v>
       </c>
-      <c r="D46" s="60">
+      <c r="D46" s="59">
         <v>1</v>
       </c>
-      <c r="E46" s="40"/>
+      <c r="E46" s="59">
+        <v>1</v>
+      </c>
       <c r="F46" s="29"/>
       <c r="G46" s="29"/>
       <c r="H46" s="29"/>
@@ -7071,18 +7184,20 @@
       <c r="M46" s="29"/>
       <c r="N46" s="29"/>
     </row>
-    <row r="47" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A47" s="63"/>
-      <c r="B47" s="58" t="s">
+    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="62"/>
+      <c r="B47" s="57" t="s">
         <v>104</v>
       </c>
-      <c r="C47" s="59" t="s">
+      <c r="C47" s="58" t="s">
         <v>47</v>
       </c>
-      <c r="D47" s="60">
+      <c r="D47" s="59">
         <v>4</v>
       </c>
-      <c r="E47" s="40"/>
+      <c r="E47" s="59">
+        <v>4</v>
+      </c>
       <c r="F47" s="29"/>
       <c r="G47" s="29"/>
       <c r="H47" s="29"/>
@@ -7093,18 +7208,20 @@
       <c r="M47" s="29"/>
       <c r="N47" s="29"/>
     </row>
-    <row r="48" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A48" s="63"/>
-      <c r="B48" s="58" t="s">
+    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="62"/>
+      <c r="B48" s="57" t="s">
         <v>105</v>
       </c>
-      <c r="C48" s="59" t="s">
+      <c r="C48" s="58" t="s">
         <v>48</v>
       </c>
-      <c r="D48" s="60">
+      <c r="D48" s="59">
         <v>57</v>
       </c>
-      <c r="E48" s="40"/>
+      <c r="E48" s="59">
+        <v>57</v>
+      </c>
       <c r="F48" s="29"/>
       <c r="G48" s="29"/>
       <c r="H48" s="29"/>
@@ -7115,18 +7232,20 @@
       <c r="M48" s="29"/>
       <c r="N48" s="29"/>
     </row>
-    <row r="49" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A49" s="63"/>
-      <c r="B49" s="58" t="s">
+    <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="62"/>
+      <c r="B49" s="57" t="s">
         <v>106</v>
       </c>
-      <c r="C49" s="59" t="s">
+      <c r="C49" s="58" t="s">
         <v>49</v>
       </c>
-      <c r="D49" s="60">
+      <c r="D49" s="59">
         <v>3</v>
       </c>
-      <c r="E49" s="40"/>
+      <c r="E49" s="59">
+        <v>3</v>
+      </c>
       <c r="F49" s="29"/>
       <c r="G49" s="29"/>
       <c r="H49" s="29"/>
@@ -7137,18 +7256,20 @@
       <c r="M49" s="29"/>
       <c r="N49" s="29"/>
     </row>
-    <row r="50" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A50" s="63"/>
-      <c r="B50" s="58" t="s">
+    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="62"/>
+      <c r="B50" s="57" t="s">
         <v>107</v>
       </c>
-      <c r="C50" s="59" t="s">
+      <c r="C50" s="58" t="s">
         <v>50</v>
       </c>
-      <c r="D50" s="60">
+      <c r="D50" s="59">
         <v>1</v>
       </c>
-      <c r="E50" s="40"/>
+      <c r="E50" s="59">
+        <v>1</v>
+      </c>
       <c r="F50" s="29"/>
       <c r="G50" s="29"/>
       <c r="H50" s="29"/>
@@ -7159,18 +7280,20 @@
       <c r="M50" s="29"/>
       <c r="N50" s="29"/>
     </row>
-    <row r="51" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A51" s="63"/>
-      <c r="B51" s="58" t="s">
+    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="62"/>
+      <c r="B51" s="57" t="s">
         <v>108</v>
       </c>
-      <c r="C51" s="59" t="s">
+      <c r="C51" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="D51" s="60">
+      <c r="D51" s="59">
         <v>7</v>
       </c>
-      <c r="E51" s="40"/>
+      <c r="E51" s="59">
+        <v>7</v>
+      </c>
       <c r="F51" s="29"/>
       <c r="G51" s="29"/>
       <c r="H51" s="29"/>
@@ -7181,18 +7304,20 @@
       <c r="M51" s="29"/>
       <c r="N51" s="29"/>
     </row>
-    <row r="52" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A52" s="63"/>
-      <c r="B52" s="58" t="s">
+    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="62"/>
+      <c r="B52" s="57" t="s">
         <v>109</v>
       </c>
-      <c r="C52" s="59" t="s">
+      <c r="C52" s="58" t="s">
         <v>52</v>
       </c>
-      <c r="D52" s="60">
+      <c r="D52" s="59">
         <v>4</v>
       </c>
-      <c r="E52" s="40"/>
+      <c r="E52" s="59">
+        <v>4</v>
+      </c>
       <c r="F52" s="29"/>
       <c r="G52" s="29"/>
       <c r="H52" s="29"/>
@@ -7203,18 +7328,20 @@
       <c r="M52" s="29"/>
       <c r="N52" s="29"/>
     </row>
-    <row r="53" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A53" s="63"/>
-      <c r="B53" s="58" t="s">
+    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="62"/>
+      <c r="B53" s="57" t="s">
         <v>110</v>
       </c>
-      <c r="C53" s="59" t="s">
+      <c r="C53" s="58" t="s">
         <v>53</v>
       </c>
-      <c r="D53" s="60">
+      <c r="D53" s="59">
         <v>2</v>
       </c>
-      <c r="E53" s="40"/>
+      <c r="E53" s="59">
+        <v>2</v>
+      </c>
       <c r="F53" s="29"/>
       <c r="G53" s="29"/>
       <c r="H53" s="29"/>
@@ -7225,18 +7352,20 @@
       <c r="M53" s="29"/>
       <c r="N53" s="29"/>
     </row>
-    <row r="54" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A54" s="63"/>
-      <c r="B54" s="58" t="s">
+    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="62"/>
+      <c r="B54" s="57" t="s">
         <v>111</v>
       </c>
-      <c r="C54" s="59" t="s">
+      <c r="C54" s="58" t="s">
         <v>54</v>
       </c>
-      <c r="D54" s="60">
+      <c r="D54" s="59">
         <v>6</v>
       </c>
-      <c r="E54" s="40"/>
+      <c r="E54" s="59">
+        <v>6</v>
+      </c>
       <c r="F54" s="29"/>
       <c r="G54" s="29"/>
       <c r="H54" s="29"/>
@@ -7247,18 +7376,20 @@
       <c r="M54" s="29"/>
       <c r="N54" s="29"/>
     </row>
-    <row r="55" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A55" s="63"/>
-      <c r="B55" s="58" t="s">
+    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="62"/>
+      <c r="B55" s="57" t="s">
         <v>112</v>
       </c>
-      <c r="C55" s="59" t="s">
+      <c r="C55" s="58" t="s">
         <v>55</v>
       </c>
-      <c r="D55" s="60">
+      <c r="D55" s="59">
         <v>2</v>
       </c>
-      <c r="E55" s="40"/>
+      <c r="E55" s="59">
+        <v>2</v>
+      </c>
       <c r="F55" s="29"/>
       <c r="G55" s="29"/>
       <c r="H55" s="29"/>
@@ -7269,18 +7400,20 @@
       <c r="M55" s="29"/>
       <c r="N55" s="29"/>
     </row>
-    <row r="56" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A56" s="63"/>
-      <c r="B56" s="58" t="s">
+    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="62"/>
+      <c r="B56" s="57" t="s">
         <v>113</v>
       </c>
-      <c r="C56" s="59" t="s">
+      <c r="C56" s="58" t="s">
         <v>56</v>
       </c>
-      <c r="D56" s="60">
+      <c r="D56" s="59">
         <v>2</v>
       </c>
-      <c r="E56" s="40"/>
+      <c r="E56" s="59">
+        <v>2</v>
+      </c>
       <c r="F56" s="29"/>
       <c r="G56" s="29"/>
       <c r="H56" s="29"/>
@@ -7291,18 +7424,20 @@
       <c r="M56" s="29"/>
       <c r="N56" s="29"/>
     </row>
-    <row r="57" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A57" s="63"/>
-      <c r="B57" s="58" t="s">
+    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="62"/>
+      <c r="B57" s="57" t="s">
         <v>114</v>
       </c>
-      <c r="C57" s="59" t="s">
+      <c r="C57" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="D57" s="60">
+      <c r="D57" s="59">
         <v>6</v>
       </c>
-      <c r="E57" s="40"/>
+      <c r="E57" s="59">
+        <v>6</v>
+      </c>
       <c r="F57" s="29"/>
       <c r="G57" s="29"/>
       <c r="H57" s="29"/>
@@ -7313,18 +7448,20 @@
       <c r="M57" s="29"/>
       <c r="N57" s="29"/>
     </row>
-    <row r="58" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A58" s="63"/>
-      <c r="B58" s="58" t="s">
+    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="62"/>
+      <c r="B58" s="57" t="s">
         <v>115</v>
       </c>
-      <c r="C58" s="59" t="s">
+      <c r="C58" s="58" t="s">
         <v>58</v>
       </c>
-      <c r="D58" s="60">
+      <c r="D58" s="59">
         <v>1</v>
       </c>
-      <c r="E58" s="40"/>
+      <c r="E58" s="59">
+        <v>1</v>
+      </c>
       <c r="F58" s="29"/>
       <c r="G58" s="29"/>
       <c r="H58" s="29"/>
@@ -7335,12 +7472,12 @@
       <c r="M58" s="29"/>
       <c r="N58" s="29"/>
     </row>
-    <row r="59" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A59" s="63"/>
-      <c r="B59" s="64"/>
+    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="62"/>
+      <c r="B59" s="63"/>
       <c r="C59" s="29"/>
-      <c r="D59" s="60"/>
-      <c r="E59" s="40"/>
+      <c r="D59" s="59"/>
+      <c r="E59" s="71"/>
       <c r="F59" s="29"/>
       <c r="G59" s="29"/>
       <c r="H59" s="29"/>
@@ -7351,12 +7488,12 @@
       <c r="M59" s="29"/>
       <c r="N59" s="29"/>
     </row>
-    <row r="60" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A60" s="63"/>
+    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="62"/>
       <c r="B60" s="40"/>
       <c r="C60" s="29"/>
-      <c r="D60" s="60"/>
-      <c r="E60" s="40"/>
+      <c r="D60" s="59"/>
+      <c r="E60" s="71"/>
       <c r="F60" s="29"/>
       <c r="G60" s="29"/>
       <c r="H60" s="29"/>
@@ -7367,12 +7504,12 @@
       <c r="M60" s="29"/>
       <c r="N60" s="29"/>
     </row>
-    <row r="61" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A61" s="63"/>
+    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="62"/>
       <c r="B61" s="40"/>
       <c r="C61" s="29"/>
-      <c r="D61" s="60"/>
-      <c r="E61" s="40"/>
+      <c r="D61" s="59"/>
+      <c r="E61" s="71"/>
       <c r="F61" s="29"/>
       <c r="G61" s="29"/>
       <c r="H61" s="29"/>
@@ -7383,12 +7520,12 @@
       <c r="M61" s="29"/>
       <c r="N61" s="29"/>
     </row>
-    <row r="62" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A62" s="63"/>
+    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="62"/>
       <c r="B62" s="40"/>
       <c r="C62" s="29"/>
-      <c r="D62" s="60"/>
-      <c r="E62" s="40"/>
+      <c r="D62" s="59"/>
+      <c r="E62" s="71"/>
       <c r="F62" s="29"/>
       <c r="G62" s="29"/>
       <c r="H62" s="29"/>
@@ -7399,12 +7536,12 @@
       <c r="M62" s="29"/>
       <c r="N62" s="29"/>
     </row>
-    <row r="63" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A63" s="63"/>
+    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="62"/>
       <c r="B63" s="40"/>
       <c r="C63" s="29"/>
-      <c r="D63" s="60"/>
-      <c r="E63" s="40"/>
+      <c r="D63" s="59"/>
+      <c r="E63" s="71"/>
       <c r="F63" s="29"/>
       <c r="G63" s="29"/>
       <c r="H63" s="29"/>
@@ -7415,12 +7552,12 @@
       <c r="M63" s="29"/>
       <c r="N63" s="29"/>
     </row>
-    <row r="64" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A64" s="63"/>
+    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="62"/>
       <c r="B64" s="40"/>
       <c r="C64" s="29"/>
-      <c r="D64" s="60"/>
-      <c r="E64" s="40"/>
+      <c r="D64" s="59"/>
+      <c r="E64" s="71"/>
       <c r="F64" s="29"/>
       <c r="G64" s="29"/>
       <c r="H64" s="29"/>
@@ -7431,12 +7568,12 @@
       <c r="M64" s="29"/>
       <c r="N64" s="29"/>
     </row>
-    <row r="65" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A65" s="63"/>
+    <row r="65" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="62"/>
       <c r="B65" s="40"/>
       <c r="C65" s="29"/>
-      <c r="D65" s="60"/>
-      <c r="E65" s="40"/>
+      <c r="D65" s="59"/>
+      <c r="E65" s="71"/>
       <c r="F65" s="29"/>
       <c r="G65" s="29"/>
       <c r="H65" s="29"/>
@@ -7447,12 +7584,12 @@
       <c r="M65" s="29"/>
       <c r="N65" s="29"/>
     </row>
-    <row r="66" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A66" s="63"/>
+    <row r="66" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="62"/>
       <c r="B66" s="40"/>
       <c r="C66" s="29"/>
-      <c r="D66" s="60"/>
-      <c r="E66" s="40"/>
+      <c r="D66" s="59"/>
+      <c r="E66" s="71"/>
       <c r="F66" s="29"/>
       <c r="G66" s="29"/>
       <c r="H66" s="29"/>
@@ -7463,12 +7600,12 @@
       <c r="M66" s="29"/>
       <c r="N66" s="29"/>
     </row>
-    <row r="67" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A67" s="63"/>
+    <row r="67" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="62"/>
       <c r="B67" s="40"/>
       <c r="C67" s="29"/>
-      <c r="D67" s="60"/>
-      <c r="E67" s="40"/>
+      <c r="D67" s="59"/>
+      <c r="E67" s="71"/>
       <c r="F67" s="29"/>
       <c r="G67" s="29"/>
       <c r="H67" s="29"/>
@@ -7479,12 +7616,12 @@
       <c r="M67" s="29"/>
       <c r="N67" s="29"/>
     </row>
-    <row r="68" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A68" s="63"/>
+    <row r="68" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="62"/>
       <c r="B68" s="40"/>
       <c r="C68" s="29"/>
-      <c r="D68" s="60"/>
-      <c r="E68" s="40"/>
+      <c r="D68" s="59"/>
+      <c r="E68" s="71"/>
       <c r="F68" s="29"/>
       <c r="G68" s="29"/>
       <c r="H68" s="29"/>
@@ -7495,12 +7632,12 @@
       <c r="M68" s="29"/>
       <c r="N68" s="29"/>
     </row>
-    <row r="69" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A69" s="63"/>
+    <row r="69" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="62"/>
       <c r="B69" s="40"/>
       <c r="C69" s="29"/>
-      <c r="D69" s="60"/>
-      <c r="E69" s="40"/>
+      <c r="D69" s="59"/>
+      <c r="E69" s="71"/>
       <c r="F69" s="29"/>
       <c r="G69" s="29"/>
       <c r="H69" s="29"/>
@@ -7511,12 +7648,12 @@
       <c r="M69" s="29"/>
       <c r="N69" s="29"/>
     </row>
-    <row r="70" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A70" s="63"/>
+    <row r="70" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="62"/>
       <c r="B70" s="40"/>
       <c r="C70" s="29"/>
-      <c r="D70" s="60"/>
-      <c r="E70" s="40"/>
+      <c r="D70" s="59"/>
+      <c r="E70" s="71"/>
       <c r="F70" s="29"/>
       <c r="G70" s="29"/>
       <c r="H70" s="29"/>
@@ -7527,12 +7664,12 @@
       <c r="M70" s="29"/>
       <c r="N70" s="29"/>
     </row>
-    <row r="71" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A71" s="63"/>
+    <row r="71" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="62"/>
       <c r="B71" s="40"/>
       <c r="C71" s="29"/>
-      <c r="D71" s="60"/>
-      <c r="E71" s="40"/>
+      <c r="D71" s="59"/>
+      <c r="E71" s="71"/>
       <c r="F71" s="29"/>
       <c r="G71" s="29"/>
       <c r="H71" s="29"/>
@@ -7543,12 +7680,12 @@
       <c r="M71" s="29"/>
       <c r="N71" s="29"/>
     </row>
-    <row r="72" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A72" s="63"/>
+    <row r="72" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="62"/>
       <c r="B72" s="40"/>
       <c r="C72" s="29"/>
-      <c r="D72" s="60"/>
-      <c r="E72" s="40"/>
+      <c r="D72" s="59"/>
+      <c r="E72" s="71"/>
       <c r="F72" s="29"/>
       <c r="G72" s="29"/>
       <c r="H72" s="29"/>
@@ -7559,12 +7696,12 @@
       <c r="M72" s="29"/>
       <c r="N72" s="29"/>
     </row>
-    <row r="73" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A73" s="63"/>
+    <row r="73" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="62"/>
       <c r="B73" s="40"/>
       <c r="C73" s="29"/>
-      <c r="D73" s="60"/>
-      <c r="E73" s="40"/>
+      <c r="D73" s="59"/>
+      <c r="E73" s="71"/>
       <c r="F73" s="29"/>
       <c r="G73" s="29"/>
       <c r="H73" s="29"/>
@@ -7575,12 +7712,12 @@
       <c r="M73" s="29"/>
       <c r="N73" s="29"/>
     </row>
-    <row r="74" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A74" s="63"/>
+    <row r="74" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="62"/>
       <c r="B74" s="40"/>
       <c r="C74" s="29"/>
-      <c r="D74" s="60"/>
-      <c r="E74" s="40"/>
+      <c r="D74" s="59"/>
+      <c r="E74" s="71"/>
       <c r="F74" s="29"/>
       <c r="G74" s="29"/>
       <c r="H74" s="29"/>
@@ -7591,12 +7728,12 @@
       <c r="M74" s="29"/>
       <c r="N74" s="29"/>
     </row>
-    <row r="75" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A75" s="63"/>
+    <row r="75" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="62"/>
       <c r="B75" s="40"/>
       <c r="C75" s="29"/>
-      <c r="D75" s="60"/>
-      <c r="E75" s="40"/>
+      <c r="D75" s="59"/>
+      <c r="E75" s="71"/>
       <c r="F75" s="29"/>
       <c r="G75" s="29"/>
       <c r="H75" s="29"/>
@@ -7607,12 +7744,12 @@
       <c r="M75" s="29"/>
       <c r="N75" s="29"/>
     </row>
-    <row r="76" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A76" s="63"/>
+    <row r="76" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="62"/>
       <c r="B76" s="40"/>
       <c r="C76" s="29"/>
-      <c r="D76" s="60"/>
-      <c r="E76" s="40"/>
+      <c r="D76" s="59"/>
+      <c r="E76" s="71"/>
       <c r="F76" s="29"/>
       <c r="G76" s="29"/>
       <c r="H76" s="29"/>
@@ -7623,12 +7760,12 @@
       <c r="M76" s="29"/>
       <c r="N76" s="29"/>
     </row>
-    <row r="77" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A77" s="63"/>
+    <row r="77" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="62"/>
       <c r="B77" s="40"/>
       <c r="C77" s="29"/>
-      <c r="D77" s="60"/>
-      <c r="E77" s="40"/>
+      <c r="D77" s="59"/>
+      <c r="E77" s="71"/>
       <c r="F77" s="29"/>
       <c r="G77" s="29"/>
       <c r="H77" s="29"/>
@@ -7639,12 +7776,12 @@
       <c r="M77" s="29"/>
       <c r="N77" s="29"/>
     </row>
-    <row r="78" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A78" s="63"/>
+    <row r="78" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="62"/>
       <c r="B78" s="40"/>
       <c r="C78" s="29"/>
-      <c r="D78" s="60"/>
-      <c r="E78" s="40"/>
+      <c r="D78" s="59"/>
+      <c r="E78" s="71"/>
       <c r="F78" s="29"/>
       <c r="G78" s="29"/>
       <c r="H78" s="29"/>
@@ -7655,12 +7792,12 @@
       <c r="M78" s="29"/>
       <c r="N78" s="29"/>
     </row>
-    <row r="79" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A79" s="63"/>
+    <row r="79" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="62"/>
       <c r="B79" s="40"/>
       <c r="C79" s="29"/>
-      <c r="D79" s="60"/>
-      <c r="E79" s="40"/>
+      <c r="D79" s="59"/>
+      <c r="E79" s="71"/>
       <c r="F79" s="29"/>
       <c r="G79" s="29"/>
       <c r="H79" s="29"/>
@@ -7671,12 +7808,12 @@
       <c r="M79" s="29"/>
       <c r="N79" s="29"/>
     </row>
-    <row r="80" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A80" s="63"/>
+    <row r="80" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="62"/>
       <c r="B80" s="40"/>
       <c r="C80" s="29"/>
-      <c r="D80" s="60"/>
-      <c r="E80" s="40"/>
+      <c r="D80" s="59"/>
+      <c r="E80" s="71"/>
       <c r="F80" s="29"/>
       <c r="G80" s="29"/>
       <c r="H80" s="29"/>
@@ -7687,12 +7824,12 @@
       <c r="M80" s="29"/>
       <c r="N80" s="29"/>
     </row>
-    <row r="81" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A81" s="63"/>
+    <row r="81" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="62"/>
       <c r="B81" s="40"/>
       <c r="C81" s="29"/>
-      <c r="D81" s="60"/>
-      <c r="E81" s="40"/>
+      <c r="D81" s="59"/>
+      <c r="E81" s="71"/>
       <c r="F81" s="29"/>
       <c r="G81" s="29"/>
       <c r="H81" s="29"/>
@@ -7703,12 +7840,12 @@
       <c r="M81" s="29"/>
       <c r="N81" s="29"/>
     </row>
-    <row r="82" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A82" s="63"/>
+    <row r="82" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="62"/>
       <c r="B82" s="40"/>
       <c r="C82" s="29"/>
-      <c r="D82" s="60"/>
-      <c r="E82" s="40"/>
+      <c r="D82" s="59"/>
+      <c r="E82" s="71"/>
       <c r="F82" s="29"/>
       <c r="G82" s="29"/>
       <c r="H82" s="29"/>
@@ -7719,12 +7856,12 @@
       <c r="M82" s="29"/>
       <c r="N82" s="29"/>
     </row>
-    <row r="83" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A83" s="63"/>
+    <row r="83" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="62"/>
       <c r="B83" s="40"/>
       <c r="C83" s="29"/>
-      <c r="D83" s="60"/>
-      <c r="E83" s="40"/>
+      <c r="D83" s="59"/>
+      <c r="E83" s="71"/>
       <c r="F83" s="29"/>
       <c r="G83" s="29"/>
       <c r="H83" s="29"/>
@@ -7735,12 +7872,12 @@
       <c r="M83" s="29"/>
       <c r="N83" s="29"/>
     </row>
-    <row r="84" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A84" s="63"/>
+    <row r="84" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="62"/>
       <c r="B84" s="40"/>
       <c r="C84" s="29"/>
-      <c r="D84" s="60"/>
-      <c r="E84" s="40"/>
+      <c r="D84" s="59"/>
+      <c r="E84" s="71"/>
       <c r="F84" s="29"/>
       <c r="G84" s="29"/>
       <c r="H84" s="29"/>
@@ -7751,12 +7888,12 @@
       <c r="M84" s="29"/>
       <c r="N84" s="29"/>
     </row>
-    <row r="85" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A85" s="63"/>
+    <row r="85" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="62"/>
       <c r="B85" s="40"/>
       <c r="C85" s="29"/>
-      <c r="D85" s="60"/>
-      <c r="E85" s="40"/>
+      <c r="D85" s="59"/>
+      <c r="E85" s="71"/>
       <c r="F85" s="29"/>
       <c r="G85" s="29"/>
       <c r="H85" s="29"/>
@@ -7767,12 +7904,12 @@
       <c r="M85" s="29"/>
       <c r="N85" s="29"/>
     </row>
-    <row r="86" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A86" s="63"/>
+    <row r="86" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="62"/>
       <c r="B86" s="40"/>
       <c r="C86" s="29"/>
-      <c r="D86" s="60"/>
-      <c r="E86" s="40"/>
+      <c r="D86" s="59"/>
+      <c r="E86" s="71"/>
       <c r="F86" s="29"/>
       <c r="G86" s="29"/>
       <c r="H86" s="29"/>
@@ -7783,12 +7920,12 @@
       <c r="M86" s="29"/>
       <c r="N86" s="29"/>
     </row>
-    <row r="87" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A87" s="63"/>
+    <row r="87" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="62"/>
       <c r="B87" s="40"/>
       <c r="C87" s="29"/>
-      <c r="D87" s="60"/>
-      <c r="E87" s="40"/>
+      <c r="D87" s="59"/>
+      <c r="E87" s="71"/>
       <c r="F87" s="29"/>
       <c r="G87" s="29"/>
       <c r="H87" s="29"/>
@@ -7799,12 +7936,12 @@
       <c r="M87" s="29"/>
       <c r="N87" s="29"/>
     </row>
-    <row r="88" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A88" s="63"/>
+    <row r="88" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="62"/>
       <c r="B88" s="40"/>
       <c r="C88" s="29"/>
-      <c r="D88" s="60"/>
-      <c r="E88" s="40"/>
+      <c r="D88" s="59"/>
+      <c r="E88" s="71"/>
       <c r="F88" s="29"/>
       <c r="G88" s="29"/>
       <c r="H88" s="29"/>
@@ -7815,12 +7952,12 @@
       <c r="M88" s="29"/>
       <c r="N88" s="29"/>
     </row>
-    <row r="89" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A89" s="63"/>
+    <row r="89" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="62"/>
       <c r="B89" s="40"/>
       <c r="C89" s="29"/>
-      <c r="D89" s="60"/>
-      <c r="E89" s="40"/>
+      <c r="D89" s="59"/>
+      <c r="E89" s="71"/>
       <c r="F89" s="29"/>
       <c r="G89" s="29"/>
       <c r="H89" s="29"/>
@@ -7831,12 +7968,12 @@
       <c r="M89" s="29"/>
       <c r="N89" s="29"/>
     </row>
-    <row r="90" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A90" s="63"/>
+    <row r="90" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="62"/>
       <c r="B90" s="40"/>
       <c r="C90" s="29"/>
-      <c r="D90" s="60"/>
-      <c r="E90" s="40"/>
+      <c r="D90" s="59"/>
+      <c r="E90" s="71"/>
       <c r="F90" s="29"/>
       <c r="G90" s="29"/>
       <c r="H90" s="29"/>
@@ -7847,12 +7984,12 @@
       <c r="M90" s="29"/>
       <c r="N90" s="29"/>
     </row>
-    <row r="91" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A91" s="63"/>
+    <row r="91" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="62"/>
       <c r="B91" s="40"/>
       <c r="C91" s="29"/>
-      <c r="D91" s="60"/>
-      <c r="E91" s="40"/>
+      <c r="D91" s="59"/>
+      <c r="E91" s="71"/>
       <c r="F91" s="29"/>
       <c r="G91" s="29"/>
       <c r="H91" s="29"/>
@@ -7863,12 +8000,12 @@
       <c r="M91" s="29"/>
       <c r="N91" s="29"/>
     </row>
-    <row r="92" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A92" s="63"/>
+    <row r="92" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="62"/>
       <c r="B92" s="40"/>
       <c r="C92" s="29"/>
-      <c r="D92" s="60"/>
-      <c r="E92" s="40"/>
+      <c r="D92" s="59"/>
+      <c r="E92" s="71"/>
       <c r="F92" s="29"/>
       <c r="G92" s="29"/>
       <c r="H92" s="29"/>
@@ -7879,12 +8016,12 @@
       <c r="M92" s="29"/>
       <c r="N92" s="29"/>
     </row>
-    <row r="93" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A93" s="63"/>
+    <row r="93" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="62"/>
       <c r="B93" s="40"/>
       <c r="C93" s="29"/>
-      <c r="D93" s="60"/>
-      <c r="E93" s="40"/>
+      <c r="D93" s="59"/>
+      <c r="E93" s="71"/>
       <c r="F93" s="29"/>
       <c r="G93" s="29"/>
       <c r="H93" s="29"/>
@@ -7895,12 +8032,12 @@
       <c r="M93" s="29"/>
       <c r="N93" s="29"/>
     </row>
-    <row r="94" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A94" s="63"/>
+    <row r="94" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="62"/>
       <c r="B94" s="40"/>
       <c r="C94" s="29"/>
-      <c r="D94" s="60"/>
-      <c r="E94" s="40"/>
+      <c r="D94" s="59"/>
+      <c r="E94" s="71"/>
       <c r="F94" s="29"/>
       <c r="G94" s="29"/>
       <c r="H94" s="29"/>
@@ -7911,12 +8048,12 @@
       <c r="M94" s="29"/>
       <c r="N94" s="29"/>
     </row>
-    <row r="95" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A95" s="63"/>
+    <row r="95" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="62"/>
       <c r="B95" s="40"/>
       <c r="C95" s="29"/>
-      <c r="D95" s="60"/>
-      <c r="E95" s="40"/>
+      <c r="D95" s="59"/>
+      <c r="E95" s="71"/>
       <c r="F95" s="29"/>
       <c r="G95" s="29"/>
       <c r="H95" s="29"/>
@@ -7927,12 +8064,12 @@
       <c r="M95" s="29"/>
       <c r="N95" s="29"/>
     </row>
-    <row r="96" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A96" s="63"/>
+    <row r="96" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="62"/>
       <c r="B96" s="40"/>
       <c r="C96" s="29"/>
-      <c r="D96" s="60"/>
-      <c r="E96" s="40"/>
+      <c r="D96" s="59"/>
+      <c r="E96" s="71"/>
       <c r="F96" s="29"/>
       <c r="G96" s="29"/>
       <c r="H96" s="29"/>
@@ -7943,12 +8080,12 @@
       <c r="M96" s="29"/>
       <c r="N96" s="29"/>
     </row>
-    <row r="97" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A97" s="65"/>
+    <row r="97" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="64"/>
       <c r="B97" s="40"/>
       <c r="C97" s="29"/>
-      <c r="D97" s="60"/>
-      <c r="E97" s="40"/>
+      <c r="D97" s="59"/>
+      <c r="E97" s="71"/>
       <c r="F97" s="29"/>
       <c r="G97" s="29"/>
       <c r="H97" s="29"/>
@@ -7961,7 +8098,7 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A1:E1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>

--- a/spec/support/validRoSpreadsheet.xlsx
+++ b/spec/support/validRoSpreadsheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stephenhalliburton/workspace/caseflow/spec/support/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/navaloaner_2/workspace/caseflow/spec/support/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FF95FDD3-10D1-3749-BD00-E8A4203A0C81}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DEA354B-0008-3340-9C81-DD16D7F58975}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3460" yWindow="800" windowWidth="37280" windowHeight="21140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="28340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RO Non-Availability Dates" sheetId="1" r:id="rId1"/>
@@ -384,13 +384,13 @@
     <t>Allocation of Regional Office Video Hearings</t>
   </si>
   <si>
-    <t>Number of Hearing Days Allocated in Date Range</t>
-  </si>
-  <si>
     <t xml:space="preserve">Des Moines, IA </t>
   </si>
   <si>
     <t>Number of Hearing Days Without Rooms in Date Range</t>
+  </si>
+  <si>
+    <t>Number of Hearing Days with 425 I Rooms Allocated in Date Range</t>
   </si>
 </sst>
 </file>
@@ -1074,6 +1074,9 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1089,9 +1092,6 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2290,9 +2290,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IT50"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2310,19 +2308,19 @@
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="65" t="s">
+      <c r="C1" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
       <c r="P1" s="4"/>
@@ -5967,10 +5965,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="70" t="s">
         <v>118</v>
       </c>
-      <c r="B1" s="68"/>
+      <c r="B1" s="71"/>
       <c r="C1" s="40"/>
       <c r="D1" s="29"/>
       <c r="E1" s="29"/>
@@ -6070,8 +6068,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:IV97"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6080,12 +6078,12 @@
     <col min="2" max="2" width="23.5" style="46" customWidth="1"/>
     <col min="3" max="3" width="11" style="46" customWidth="1"/>
     <col min="4" max="4" width="22.5" style="46" customWidth="1"/>
-    <col min="5" max="5" width="23" style="72" customWidth="1"/>
+    <col min="5" max="5" width="23" style="67" customWidth="1"/>
     <col min="6" max="256" width="11" style="46" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="72" t="s">
         <v>119</v>
       </c>
       <c r="B1" s="73"/>
@@ -6111,10 +6109,10 @@
         <v>2</v>
       </c>
       <c r="D2" s="51" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E2" s="51" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F2" s="29"/>
       <c r="G2" s="29"/>
@@ -6139,7 +6137,7 @@
       <c r="D3" s="55">
         <v>10</v>
       </c>
-      <c r="E3" s="70">
+      <c r="E3" s="65">
         <v>50</v>
       </c>
       <c r="F3" s="29"/>
@@ -6803,7 +6801,7 @@
     <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="62"/>
       <c r="B31" s="57" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C31" s="58" t="s">
         <v>31</v>
@@ -7477,7 +7475,7 @@
       <c r="B59" s="63"/>
       <c r="C59" s="29"/>
       <c r="D59" s="59"/>
-      <c r="E59" s="71"/>
+      <c r="E59" s="66"/>
       <c r="F59" s="29"/>
       <c r="G59" s="29"/>
       <c r="H59" s="29"/>
@@ -7493,7 +7491,7 @@
       <c r="B60" s="40"/>
       <c r="C60" s="29"/>
       <c r="D60" s="59"/>
-      <c r="E60" s="71"/>
+      <c r="E60" s="66"/>
       <c r="F60" s="29"/>
       <c r="G60" s="29"/>
       <c r="H60" s="29"/>
@@ -7509,7 +7507,7 @@
       <c r="B61" s="40"/>
       <c r="C61" s="29"/>
       <c r="D61" s="59"/>
-      <c r="E61" s="71"/>
+      <c r="E61" s="66"/>
       <c r="F61" s="29"/>
       <c r="G61" s="29"/>
       <c r="H61" s="29"/>
@@ -7525,7 +7523,7 @@
       <c r="B62" s="40"/>
       <c r="C62" s="29"/>
       <c r="D62" s="59"/>
-      <c r="E62" s="71"/>
+      <c r="E62" s="66"/>
       <c r="F62" s="29"/>
       <c r="G62" s="29"/>
       <c r="H62" s="29"/>
@@ -7541,7 +7539,7 @@
       <c r="B63" s="40"/>
       <c r="C63" s="29"/>
       <c r="D63" s="59"/>
-      <c r="E63" s="71"/>
+      <c r="E63" s="66"/>
       <c r="F63" s="29"/>
       <c r="G63" s="29"/>
       <c r="H63" s="29"/>
@@ -7557,7 +7555,7 @@
       <c r="B64" s="40"/>
       <c r="C64" s="29"/>
       <c r="D64" s="59"/>
-      <c r="E64" s="71"/>
+      <c r="E64" s="66"/>
       <c r="F64" s="29"/>
       <c r="G64" s="29"/>
       <c r="H64" s="29"/>
@@ -7573,7 +7571,7 @@
       <c r="B65" s="40"/>
       <c r="C65" s="29"/>
       <c r="D65" s="59"/>
-      <c r="E65" s="71"/>
+      <c r="E65" s="66"/>
       <c r="F65" s="29"/>
       <c r="G65" s="29"/>
       <c r="H65" s="29"/>
@@ -7589,7 +7587,7 @@
       <c r="B66" s="40"/>
       <c r="C66" s="29"/>
       <c r="D66" s="59"/>
-      <c r="E66" s="71"/>
+      <c r="E66" s="66"/>
       <c r="F66" s="29"/>
       <c r="G66" s="29"/>
       <c r="H66" s="29"/>
@@ -7605,7 +7603,7 @@
       <c r="B67" s="40"/>
       <c r="C67" s="29"/>
       <c r="D67" s="59"/>
-      <c r="E67" s="71"/>
+      <c r="E67" s="66"/>
       <c r="F67" s="29"/>
       <c r="G67" s="29"/>
       <c r="H67" s="29"/>
@@ -7621,7 +7619,7 @@
       <c r="B68" s="40"/>
       <c r="C68" s="29"/>
       <c r="D68" s="59"/>
-      <c r="E68" s="71"/>
+      <c r="E68" s="66"/>
       <c r="F68" s="29"/>
       <c r="G68" s="29"/>
       <c r="H68" s="29"/>
@@ -7637,7 +7635,7 @@
       <c r="B69" s="40"/>
       <c r="C69" s="29"/>
       <c r="D69" s="59"/>
-      <c r="E69" s="71"/>
+      <c r="E69" s="66"/>
       <c r="F69" s="29"/>
       <c r="G69" s="29"/>
       <c r="H69" s="29"/>
@@ -7653,7 +7651,7 @@
       <c r="B70" s="40"/>
       <c r="C70" s="29"/>
       <c r="D70" s="59"/>
-      <c r="E70" s="71"/>
+      <c r="E70" s="66"/>
       <c r="F70" s="29"/>
       <c r="G70" s="29"/>
       <c r="H70" s="29"/>
@@ -7669,7 +7667,7 @@
       <c r="B71" s="40"/>
       <c r="C71" s="29"/>
       <c r="D71" s="59"/>
-      <c r="E71" s="71"/>
+      <c r="E71" s="66"/>
       <c r="F71" s="29"/>
       <c r="G71" s="29"/>
       <c r="H71" s="29"/>
@@ -7685,7 +7683,7 @@
       <c r="B72" s="40"/>
       <c r="C72" s="29"/>
       <c r="D72" s="59"/>
-      <c r="E72" s="71"/>
+      <c r="E72" s="66"/>
       <c r="F72" s="29"/>
       <c r="G72" s="29"/>
       <c r="H72" s="29"/>
@@ -7701,7 +7699,7 @@
       <c r="B73" s="40"/>
       <c r="C73" s="29"/>
       <c r="D73" s="59"/>
-      <c r="E73" s="71"/>
+      <c r="E73" s="66"/>
       <c r="F73" s="29"/>
       <c r="G73" s="29"/>
       <c r="H73" s="29"/>
@@ -7717,7 +7715,7 @@
       <c r="B74" s="40"/>
       <c r="C74" s="29"/>
       <c r="D74" s="59"/>
-      <c r="E74" s="71"/>
+      <c r="E74" s="66"/>
       <c r="F74" s="29"/>
       <c r="G74" s="29"/>
       <c r="H74" s="29"/>
@@ -7733,7 +7731,7 @@
       <c r="B75" s="40"/>
       <c r="C75" s="29"/>
       <c r="D75" s="59"/>
-      <c r="E75" s="71"/>
+      <c r="E75" s="66"/>
       <c r="F75" s="29"/>
       <c r="G75" s="29"/>
       <c r="H75" s="29"/>
@@ -7749,7 +7747,7 @@
       <c r="B76" s="40"/>
       <c r="C76" s="29"/>
       <c r="D76" s="59"/>
-      <c r="E76" s="71"/>
+      <c r="E76" s="66"/>
       <c r="F76" s="29"/>
       <c r="G76" s="29"/>
       <c r="H76" s="29"/>
@@ -7765,7 +7763,7 @@
       <c r="B77" s="40"/>
       <c r="C77" s="29"/>
       <c r="D77" s="59"/>
-      <c r="E77" s="71"/>
+      <c r="E77" s="66"/>
       <c r="F77" s="29"/>
       <c r="G77" s="29"/>
       <c r="H77" s="29"/>
@@ -7781,7 +7779,7 @@
       <c r="B78" s="40"/>
       <c r="C78" s="29"/>
       <c r="D78" s="59"/>
-      <c r="E78" s="71"/>
+      <c r="E78" s="66"/>
       <c r="F78" s="29"/>
       <c r="G78" s="29"/>
       <c r="H78" s="29"/>
@@ -7797,7 +7795,7 @@
       <c r="B79" s="40"/>
       <c r="C79" s="29"/>
       <c r="D79" s="59"/>
-      <c r="E79" s="71"/>
+      <c r="E79" s="66"/>
       <c r="F79" s="29"/>
       <c r="G79" s="29"/>
       <c r="H79" s="29"/>
@@ -7813,7 +7811,7 @@
       <c r="B80" s="40"/>
       <c r="C80" s="29"/>
       <c r="D80" s="59"/>
-      <c r="E80" s="71"/>
+      <c r="E80" s="66"/>
       <c r="F80" s="29"/>
       <c r="G80" s="29"/>
       <c r="H80" s="29"/>
@@ -7829,7 +7827,7 @@
       <c r="B81" s="40"/>
       <c r="C81" s="29"/>
       <c r="D81" s="59"/>
-      <c r="E81" s="71"/>
+      <c r="E81" s="66"/>
       <c r="F81" s="29"/>
       <c r="G81" s="29"/>
       <c r="H81" s="29"/>
@@ -7845,7 +7843,7 @@
       <c r="B82" s="40"/>
       <c r="C82" s="29"/>
       <c r="D82" s="59"/>
-      <c r="E82" s="71"/>
+      <c r="E82" s="66"/>
       <c r="F82" s="29"/>
       <c r="G82" s="29"/>
       <c r="H82" s="29"/>
@@ -7861,7 +7859,7 @@
       <c r="B83" s="40"/>
       <c r="C83" s="29"/>
       <c r="D83" s="59"/>
-      <c r="E83" s="71"/>
+      <c r="E83" s="66"/>
       <c r="F83" s="29"/>
       <c r="G83" s="29"/>
       <c r="H83" s="29"/>
@@ -7877,7 +7875,7 @@
       <c r="B84" s="40"/>
       <c r="C84" s="29"/>
       <c r="D84" s="59"/>
-      <c r="E84" s="71"/>
+      <c r="E84" s="66"/>
       <c r="F84" s="29"/>
       <c r="G84" s="29"/>
       <c r="H84" s="29"/>
@@ -7893,7 +7891,7 @@
       <c r="B85" s="40"/>
       <c r="C85" s="29"/>
       <c r="D85" s="59"/>
-      <c r="E85" s="71"/>
+      <c r="E85" s="66"/>
       <c r="F85" s="29"/>
       <c r="G85" s="29"/>
       <c r="H85" s="29"/>
@@ -7909,7 +7907,7 @@
       <c r="B86" s="40"/>
       <c r="C86" s="29"/>
       <c r="D86" s="59"/>
-      <c r="E86" s="71"/>
+      <c r="E86" s="66"/>
       <c r="F86" s="29"/>
       <c r="G86" s="29"/>
       <c r="H86" s="29"/>
@@ -7925,7 +7923,7 @@
       <c r="B87" s="40"/>
       <c r="C87" s="29"/>
       <c r="D87" s="59"/>
-      <c r="E87" s="71"/>
+      <c r="E87" s="66"/>
       <c r="F87" s="29"/>
       <c r="G87" s="29"/>
       <c r="H87" s="29"/>
@@ -7941,7 +7939,7 @@
       <c r="B88" s="40"/>
       <c r="C88" s="29"/>
       <c r="D88" s="59"/>
-      <c r="E88" s="71"/>
+      <c r="E88" s="66"/>
       <c r="F88" s="29"/>
       <c r="G88" s="29"/>
       <c r="H88" s="29"/>
@@ -7957,7 +7955,7 @@
       <c r="B89" s="40"/>
       <c r="C89" s="29"/>
       <c r="D89" s="59"/>
-      <c r="E89" s="71"/>
+      <c r="E89" s="66"/>
       <c r="F89" s="29"/>
       <c r="G89" s="29"/>
       <c r="H89" s="29"/>
@@ -7973,7 +7971,7 @@
       <c r="B90" s="40"/>
       <c r="C90" s="29"/>
       <c r="D90" s="59"/>
-      <c r="E90" s="71"/>
+      <c r="E90" s="66"/>
       <c r="F90" s="29"/>
       <c r="G90" s="29"/>
       <c r="H90" s="29"/>
@@ -7989,7 +7987,7 @@
       <c r="B91" s="40"/>
       <c r="C91" s="29"/>
       <c r="D91" s="59"/>
-      <c r="E91" s="71"/>
+      <c r="E91" s="66"/>
       <c r="F91" s="29"/>
       <c r="G91" s="29"/>
       <c r="H91" s="29"/>
@@ -8005,7 +8003,7 @@
       <c r="B92" s="40"/>
       <c r="C92" s="29"/>
       <c r="D92" s="59"/>
-      <c r="E92" s="71"/>
+      <c r="E92" s="66"/>
       <c r="F92" s="29"/>
       <c r="G92" s="29"/>
       <c r="H92" s="29"/>
@@ -8021,7 +8019,7 @@
       <c r="B93" s="40"/>
       <c r="C93" s="29"/>
       <c r="D93" s="59"/>
-      <c r="E93" s="71"/>
+      <c r="E93" s="66"/>
       <c r="F93" s="29"/>
       <c r="G93" s="29"/>
       <c r="H93" s="29"/>
@@ -8037,7 +8035,7 @@
       <c r="B94" s="40"/>
       <c r="C94" s="29"/>
       <c r="D94" s="59"/>
-      <c r="E94" s="71"/>
+      <c r="E94" s="66"/>
       <c r="F94" s="29"/>
       <c r="G94" s="29"/>
       <c r="H94" s="29"/>
@@ -8053,7 +8051,7 @@
       <c r="B95" s="40"/>
       <c r="C95" s="29"/>
       <c r="D95" s="59"/>
-      <c r="E95" s="71"/>
+      <c r="E95" s="66"/>
       <c r="F95" s="29"/>
       <c r="G95" s="29"/>
       <c r="H95" s="29"/>
@@ -8069,7 +8067,7 @@
       <c r="B96" s="40"/>
       <c r="C96" s="29"/>
       <c r="D96" s="59"/>
-      <c r="E96" s="71"/>
+      <c r="E96" s="66"/>
       <c r="F96" s="29"/>
       <c r="G96" s="29"/>
       <c r="H96" s="29"/>
@@ -8085,7 +8083,7 @@
       <c r="B97" s="40"/>
       <c r="C97" s="29"/>
       <c r="D97" s="59"/>
-      <c r="E97" s="71"/>
+      <c r="E97" s="66"/>
       <c r="F97" s="29"/>
       <c r="G97" s="29"/>
       <c r="H97" s="29"/>

--- a/spec/support/validRoSpreadsheet.xlsx
+++ b/spec/support/validRoSpreadsheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stephenhalliburton/workspace/caseflow/spec/support/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FF95FDD3-10D1-3749-BD00-E8A4203A0C81}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E37B50C1-60AE-0A47-A5C3-44A930A35156}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3460" yWindow="800" windowWidth="37280" windowHeight="21140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1120" yWindow="460" windowWidth="37280" windowHeight="21140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RO Non-Availability Dates" sheetId="1" r:id="rId1"/>
@@ -410,16 +410,19 @@
       <sz val="14"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
       <color indexed="9"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
       <color indexed="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="16"/>
@@ -431,33 +434,39 @@
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color indexed="14"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color indexed="14"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
       <color indexed="17"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color indexed="17"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
@@ -1074,6 +1083,9 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1089,9 +1101,6 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2310,19 +2319,19 @@
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="65" t="s">
+      <c r="C1" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
       <c r="P1" s="4"/>
@@ -5967,10 +5976,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="70" t="s">
         <v>118</v>
       </c>
-      <c r="B1" s="68"/>
+      <c r="B1" s="71"/>
       <c r="C1" s="40"/>
       <c r="D1" s="29"/>
       <c r="E1" s="29"/>
@@ -6070,8 +6079,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:IV97"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6080,12 +6089,12 @@
     <col min="2" max="2" width="23.5" style="46" customWidth="1"/>
     <col min="3" max="3" width="11" style="46" customWidth="1"/>
     <col min="4" max="4" width="22.5" style="46" customWidth="1"/>
-    <col min="5" max="5" width="23" style="72" customWidth="1"/>
+    <col min="5" max="5" width="23" style="67" customWidth="1"/>
     <col min="6" max="256" width="11" style="46" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="72" t="s">
         <v>119</v>
       </c>
       <c r="B1" s="73"/>
@@ -6139,7 +6148,7 @@
       <c r="D3" s="55">
         <v>10</v>
       </c>
-      <c r="E3" s="70">
+      <c r="E3" s="65">
         <v>50</v>
       </c>
       <c r="F3" s="29"/>
@@ -6164,7 +6173,7 @@
         <v>4</v>
       </c>
       <c r="E4" s="59">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F4" s="29"/>
       <c r="G4" s="29"/>
@@ -6188,7 +6197,7 @@
         <v>10</v>
       </c>
       <c r="E5" s="59">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="F5" s="29"/>
       <c r="G5" s="29"/>
@@ -6260,7 +6269,7 @@
         <v>6</v>
       </c>
       <c r="E8" s="59">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="F8" s="29"/>
       <c r="G8" s="29"/>
@@ -6380,7 +6389,7 @@
         <v>9</v>
       </c>
       <c r="E13" s="59">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="F13" s="29"/>
       <c r="G13" s="29"/>
@@ -6524,7 +6533,7 @@
         <v>15</v>
       </c>
       <c r="E19" s="59">
-        <v>15</v>
+        <v>115</v>
       </c>
       <c r="F19" s="29"/>
       <c r="G19" s="29"/>
@@ -6620,7 +6629,7 @@
         <v>3</v>
       </c>
       <c r="E23" s="59">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="F23" s="29"/>
       <c r="G23" s="29"/>
@@ -7477,7 +7486,7 @@
       <c r="B59" s="63"/>
       <c r="C59" s="29"/>
       <c r="D59" s="59"/>
-      <c r="E59" s="71"/>
+      <c r="E59" s="66"/>
       <c r="F59" s="29"/>
       <c r="G59" s="29"/>
       <c r="H59" s="29"/>
@@ -7493,7 +7502,7 @@
       <c r="B60" s="40"/>
       <c r="C60" s="29"/>
       <c r="D60" s="59"/>
-      <c r="E60" s="71"/>
+      <c r="E60" s="66"/>
       <c r="F60" s="29"/>
       <c r="G60" s="29"/>
       <c r="H60" s="29"/>
@@ -7509,7 +7518,7 @@
       <c r="B61" s="40"/>
       <c r="C61" s="29"/>
       <c r="D61" s="59"/>
-      <c r="E61" s="71"/>
+      <c r="E61" s="66"/>
       <c r="F61" s="29"/>
       <c r="G61" s="29"/>
       <c r="H61" s="29"/>
@@ -7525,7 +7534,7 @@
       <c r="B62" s="40"/>
       <c r="C62" s="29"/>
       <c r="D62" s="59"/>
-      <c r="E62" s="71"/>
+      <c r="E62" s="66"/>
       <c r="F62" s="29"/>
       <c r="G62" s="29"/>
       <c r="H62" s="29"/>
@@ -7541,7 +7550,7 @@
       <c r="B63" s="40"/>
       <c r="C63" s="29"/>
       <c r="D63" s="59"/>
-      <c r="E63" s="71"/>
+      <c r="E63" s="66"/>
       <c r="F63" s="29"/>
       <c r="G63" s="29"/>
       <c r="H63" s="29"/>
@@ -7557,7 +7566,7 @@
       <c r="B64" s="40"/>
       <c r="C64" s="29"/>
       <c r="D64" s="59"/>
-      <c r="E64" s="71"/>
+      <c r="E64" s="66"/>
       <c r="F64" s="29"/>
       <c r="G64" s="29"/>
       <c r="H64" s="29"/>
@@ -7573,7 +7582,7 @@
       <c r="B65" s="40"/>
       <c r="C65" s="29"/>
       <c r="D65" s="59"/>
-      <c r="E65" s="71"/>
+      <c r="E65" s="66"/>
       <c r="F65" s="29"/>
       <c r="G65" s="29"/>
       <c r="H65" s="29"/>
@@ -7589,7 +7598,7 @@
       <c r="B66" s="40"/>
       <c r="C66" s="29"/>
       <c r="D66" s="59"/>
-      <c r="E66" s="71"/>
+      <c r="E66" s="66"/>
       <c r="F66" s="29"/>
       <c r="G66" s="29"/>
       <c r="H66" s="29"/>
@@ -7605,7 +7614,7 @@
       <c r="B67" s="40"/>
       <c r="C67" s="29"/>
       <c r="D67" s="59"/>
-      <c r="E67" s="71"/>
+      <c r="E67" s="66"/>
       <c r="F67" s="29"/>
       <c r="G67" s="29"/>
       <c r="H67" s="29"/>
@@ -7621,7 +7630,7 @@
       <c r="B68" s="40"/>
       <c r="C68" s="29"/>
       <c r="D68" s="59"/>
-      <c r="E68" s="71"/>
+      <c r="E68" s="66"/>
       <c r="F68" s="29"/>
       <c r="G68" s="29"/>
       <c r="H68" s="29"/>
@@ -7637,7 +7646,7 @@
       <c r="B69" s="40"/>
       <c r="C69" s="29"/>
       <c r="D69" s="59"/>
-      <c r="E69" s="71"/>
+      <c r="E69" s="66"/>
       <c r="F69" s="29"/>
       <c r="G69" s="29"/>
       <c r="H69" s="29"/>
@@ -7653,7 +7662,7 @@
       <c r="B70" s="40"/>
       <c r="C70" s="29"/>
       <c r="D70" s="59"/>
-      <c r="E70" s="71"/>
+      <c r="E70" s="66"/>
       <c r="F70" s="29"/>
       <c r="G70" s="29"/>
       <c r="H70" s="29"/>
@@ -7669,7 +7678,7 @@
       <c r="B71" s="40"/>
       <c r="C71" s="29"/>
       <c r="D71" s="59"/>
-      <c r="E71" s="71"/>
+      <c r="E71" s="66"/>
       <c r="F71" s="29"/>
       <c r="G71" s="29"/>
       <c r="H71" s="29"/>
@@ -7685,7 +7694,7 @@
       <c r="B72" s="40"/>
       <c r="C72" s="29"/>
       <c r="D72" s="59"/>
-      <c r="E72" s="71"/>
+      <c r="E72" s="66"/>
       <c r="F72" s="29"/>
       <c r="G72" s="29"/>
       <c r="H72" s="29"/>
@@ -7701,7 +7710,7 @@
       <c r="B73" s="40"/>
       <c r="C73" s="29"/>
       <c r="D73" s="59"/>
-      <c r="E73" s="71"/>
+      <c r="E73" s="66"/>
       <c r="F73" s="29"/>
       <c r="G73" s="29"/>
       <c r="H73" s="29"/>
@@ -7717,7 +7726,7 @@
       <c r="B74" s="40"/>
       <c r="C74" s="29"/>
       <c r="D74" s="59"/>
-      <c r="E74" s="71"/>
+      <c r="E74" s="66"/>
       <c r="F74" s="29"/>
       <c r="G74" s="29"/>
       <c r="H74" s="29"/>
@@ -7733,7 +7742,7 @@
       <c r="B75" s="40"/>
       <c r="C75" s="29"/>
       <c r="D75" s="59"/>
-      <c r="E75" s="71"/>
+      <c r="E75" s="66"/>
       <c r="F75" s="29"/>
       <c r="G75" s="29"/>
       <c r="H75" s="29"/>
@@ -7749,7 +7758,7 @@
       <c r="B76" s="40"/>
       <c r="C76" s="29"/>
       <c r="D76" s="59"/>
-      <c r="E76" s="71"/>
+      <c r="E76" s="66"/>
       <c r="F76" s="29"/>
       <c r="G76" s="29"/>
       <c r="H76" s="29"/>
@@ -7765,7 +7774,7 @@
       <c r="B77" s="40"/>
       <c r="C77" s="29"/>
       <c r="D77" s="59"/>
-      <c r="E77" s="71"/>
+      <c r="E77" s="66"/>
       <c r="F77" s="29"/>
       <c r="G77" s="29"/>
       <c r="H77" s="29"/>
@@ -7781,7 +7790,7 @@
       <c r="B78" s="40"/>
       <c r="C78" s="29"/>
       <c r="D78" s="59"/>
-      <c r="E78" s="71"/>
+      <c r="E78" s="66"/>
       <c r="F78" s="29"/>
       <c r="G78" s="29"/>
       <c r="H78" s="29"/>
@@ -7797,7 +7806,7 @@
       <c r="B79" s="40"/>
       <c r="C79" s="29"/>
       <c r="D79" s="59"/>
-      <c r="E79" s="71"/>
+      <c r="E79" s="66"/>
       <c r="F79" s="29"/>
       <c r="G79" s="29"/>
       <c r="H79" s="29"/>
@@ -7813,7 +7822,7 @@
       <c r="B80" s="40"/>
       <c r="C80" s="29"/>
       <c r="D80" s="59"/>
-      <c r="E80" s="71"/>
+      <c r="E80" s="66"/>
       <c r="F80" s="29"/>
       <c r="G80" s="29"/>
       <c r="H80" s="29"/>
@@ -7829,7 +7838,7 @@
       <c r="B81" s="40"/>
       <c r="C81" s="29"/>
       <c r="D81" s="59"/>
-      <c r="E81" s="71"/>
+      <c r="E81" s="66"/>
       <c r="F81" s="29"/>
       <c r="G81" s="29"/>
       <c r="H81" s="29"/>
@@ -7845,7 +7854,7 @@
       <c r="B82" s="40"/>
       <c r="C82" s="29"/>
       <c r="D82" s="59"/>
-      <c r="E82" s="71"/>
+      <c r="E82" s="66"/>
       <c r="F82" s="29"/>
       <c r="G82" s="29"/>
       <c r="H82" s="29"/>
@@ -7861,7 +7870,7 @@
       <c r="B83" s="40"/>
       <c r="C83" s="29"/>
       <c r="D83" s="59"/>
-      <c r="E83" s="71"/>
+      <c r="E83" s="66"/>
       <c r="F83" s="29"/>
       <c r="G83" s="29"/>
       <c r="H83" s="29"/>
@@ -7877,7 +7886,7 @@
       <c r="B84" s="40"/>
       <c r="C84" s="29"/>
       <c r="D84" s="59"/>
-      <c r="E84" s="71"/>
+      <c r="E84" s="66"/>
       <c r="F84" s="29"/>
       <c r="G84" s="29"/>
       <c r="H84" s="29"/>
@@ -7893,7 +7902,7 @@
       <c r="B85" s="40"/>
       <c r="C85" s="29"/>
       <c r="D85" s="59"/>
-      <c r="E85" s="71"/>
+      <c r="E85" s="66"/>
       <c r="F85" s="29"/>
       <c r="G85" s="29"/>
       <c r="H85" s="29"/>
@@ -7909,7 +7918,7 @@
       <c r="B86" s="40"/>
       <c r="C86" s="29"/>
       <c r="D86" s="59"/>
-      <c r="E86" s="71"/>
+      <c r="E86" s="66"/>
       <c r="F86" s="29"/>
       <c r="G86" s="29"/>
       <c r="H86" s="29"/>
@@ -7925,7 +7934,7 @@
       <c r="B87" s="40"/>
       <c r="C87" s="29"/>
       <c r="D87" s="59"/>
-      <c r="E87" s="71"/>
+      <c r="E87" s="66"/>
       <c r="F87" s="29"/>
       <c r="G87" s="29"/>
       <c r="H87" s="29"/>
@@ -7941,7 +7950,7 @@
       <c r="B88" s="40"/>
       <c r="C88" s="29"/>
       <c r="D88" s="59"/>
-      <c r="E88" s="71"/>
+      <c r="E88" s="66"/>
       <c r="F88" s="29"/>
       <c r="G88" s="29"/>
       <c r="H88" s="29"/>
@@ -7957,7 +7966,7 @@
       <c r="B89" s="40"/>
       <c r="C89" s="29"/>
       <c r="D89" s="59"/>
-      <c r="E89" s="71"/>
+      <c r="E89" s="66"/>
       <c r="F89" s="29"/>
       <c r="G89" s="29"/>
       <c r="H89" s="29"/>
@@ -7973,7 +7982,7 @@
       <c r="B90" s="40"/>
       <c r="C90" s="29"/>
       <c r="D90" s="59"/>
-      <c r="E90" s="71"/>
+      <c r="E90" s="66"/>
       <c r="F90" s="29"/>
       <c r="G90" s="29"/>
       <c r="H90" s="29"/>
@@ -7989,7 +7998,7 @@
       <c r="B91" s="40"/>
       <c r="C91" s="29"/>
       <c r="D91" s="59"/>
-      <c r="E91" s="71"/>
+      <c r="E91" s="66"/>
       <c r="F91" s="29"/>
       <c r="G91" s="29"/>
       <c r="H91" s="29"/>
@@ -8005,7 +8014,7 @@
       <c r="B92" s="40"/>
       <c r="C92" s="29"/>
       <c r="D92" s="59"/>
-      <c r="E92" s="71"/>
+      <c r="E92" s="66"/>
       <c r="F92" s="29"/>
       <c r="G92" s="29"/>
       <c r="H92" s="29"/>
@@ -8021,7 +8030,7 @@
       <c r="B93" s="40"/>
       <c r="C93" s="29"/>
       <c r="D93" s="59"/>
-      <c r="E93" s="71"/>
+      <c r="E93" s="66"/>
       <c r="F93" s="29"/>
       <c r="G93" s="29"/>
       <c r="H93" s="29"/>
@@ -8037,7 +8046,7 @@
       <c r="B94" s="40"/>
       <c r="C94" s="29"/>
       <c r="D94" s="59"/>
-      <c r="E94" s="71"/>
+      <c r="E94" s="66"/>
       <c r="F94" s="29"/>
       <c r="G94" s="29"/>
       <c r="H94" s="29"/>
@@ -8053,7 +8062,7 @@
       <c r="B95" s="40"/>
       <c r="C95" s="29"/>
       <c r="D95" s="59"/>
-      <c r="E95" s="71"/>
+      <c r="E95" s="66"/>
       <c r="F95" s="29"/>
       <c r="G95" s="29"/>
       <c r="H95" s="29"/>
@@ -8069,7 +8078,7 @@
       <c r="B96" s="40"/>
       <c r="C96" s="29"/>
       <c r="D96" s="59"/>
-      <c r="E96" s="71"/>
+      <c r="E96" s="66"/>
       <c r="F96" s="29"/>
       <c r="G96" s="29"/>
       <c r="H96" s="29"/>
@@ -8085,7 +8094,7 @@
       <c r="B97" s="40"/>
       <c r="C97" s="29"/>
       <c r="D97" s="59"/>
-      <c r="E97" s="71"/>
+      <c r="E97" s="66"/>
       <c r="F97" s="29"/>
       <c r="G97" s="29"/>
       <c r="H97" s="29"/>

--- a/spec/support/validRoSpreadsheet.xlsx
+++ b/spec/support/validRoSpreadsheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tomas/Desktop/tmp/compare/redone/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stephenhalliburton/workspace/caseflow/spec/support/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC4E0DB1-F6CA-9344-8534-13B50355BAFA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E37B50C1-60AE-0A47-A5C3-44A930A35156}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1120" yWindow="460" windowWidth="37280" windowHeight="21140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RO Non-Availability Dates" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="123">
   <si>
     <t>Example</t>
   </si>
@@ -388,6 +388,9 @@
   </si>
   <si>
     <t xml:space="preserve">Des Moines, IA </t>
+  </si>
+  <si>
+    <t>Number of Hearing Days Without Rooms in Date Range</t>
   </si>
 </sst>
 </file>
@@ -397,7 +400,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -407,16 +410,19 @@
       <sz val="14"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
       <color indexed="9"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
       <color indexed="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="16"/>
@@ -428,33 +434,39 @@
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color indexed="14"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color indexed="14"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
       <color indexed="17"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color indexed="17"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
@@ -512,7 +524,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="35">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -734,19 +746,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="12"/>
-      </right>
-      <top style="thin">
-        <color indexed="12"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="12"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="8"/>
       </left>
@@ -942,11 +941,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="12"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="12"/>
+      </right>
+      <top style="thin">
+        <color indexed="12"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1001,13 +1028,13 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1022,9 +1049,6 @@
     <xf numFmtId="14" fontId="10" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1040,25 +1064,28 @@
     <xf numFmtId="49" fontId="5" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="6" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1071,10 +1098,13 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2269,9 +2299,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IT50"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="13.5" style="1" customWidth="1"/>
@@ -2282,24 +2314,24 @@
     <col min="7" max="254" width="11" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:57" ht="56" customHeight="1">
+    <row r="1" spans="1:57" ht="56" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="66" t="s">
+      <c r="C1" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
       <c r="P1" s="4"/>
@@ -2345,7 +2377,7 @@
       <c r="BD1" s="4"/>
       <c r="BE1" s="5"/>
     </row>
-    <row r="2" spans="1:57" ht="39" customHeight="1">
+    <row r="2" spans="1:57" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
@@ -2518,7 +2550,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:57" ht="34" customHeight="1">
+    <row r="3" spans="1:57" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>59</v>
       </c>
@@ -2691,7 +2723,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="4" spans="1:57" ht="32" customHeight="1">
+    <row r="4" spans="1:57" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
         <v>116</v>
       </c>
@@ -2864,7 +2896,7 @@
         <v>43114</v>
       </c>
     </row>
-    <row r="5" spans="1:57" ht="17" customHeight="1">
+    <row r="5" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="19"/>
       <c r="B5" s="20">
         <v>43497</v>
@@ -3035,7 +3067,7 @@
         <v>43115</v>
       </c>
     </row>
-    <row r="6" spans="1:57" ht="17" customHeight="1">
+    <row r="6" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="19"/>
       <c r="B6" s="23">
         <v>43540</v>
@@ -3206,7 +3238,7 @@
         <v>43225</v>
       </c>
     </row>
-    <row r="7" spans="1:57" ht="17" customHeight="1">
+    <row r="7" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="19"/>
       <c r="B7" s="24">
         <v>43576</v>
@@ -3377,7 +3409,7 @@
         <v>43191</v>
       </c>
     </row>
-    <row r="8" spans="1:57" ht="17" customHeight="1">
+    <row r="8" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="19"/>
       <c r="B8" s="26">
         <v>43604</v>
@@ -3438,7 +3470,7 @@
       <c r="BD8" s="29"/>
       <c r="BE8" s="29"/>
     </row>
-    <row r="9" spans="1:57" ht="17" customHeight="1">
+    <row r="9" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="19"/>
       <c r="B9" s="30"/>
       <c r="C9" s="31"/>
@@ -3497,7 +3529,7 @@
       <c r="BD9" s="29"/>
       <c r="BE9" s="29"/>
     </row>
-    <row r="10" spans="1:57" ht="17" customHeight="1">
+    <row r="10" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="19"/>
       <c r="B10" s="32"/>
       <c r="C10" s="33"/>
@@ -3556,7 +3588,7 @@
       <c r="BD10" s="28"/>
       <c r="BE10" s="28"/>
     </row>
-    <row r="11" spans="1:57" ht="17" customHeight="1">
+    <row r="11" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="19"/>
       <c r="B11" s="34"/>
       <c r="C11" s="31"/>
@@ -3615,7 +3647,7 @@
       <c r="BD11" s="31"/>
       <c r="BE11" s="35"/>
     </row>
-    <row r="12" spans="1:57" ht="17" customHeight="1">
+    <row r="12" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="19"/>
       <c r="B12" s="32"/>
       <c r="C12" s="33"/>
@@ -3674,7 +3706,7 @@
       <c r="BD12" s="33"/>
       <c r="BE12" s="33"/>
     </row>
-    <row r="13" spans="1:57" ht="17" customHeight="1">
+    <row r="13" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="19"/>
       <c r="B13" s="34"/>
       <c r="C13" s="31"/>
@@ -3733,7 +3765,7 @@
       <c r="BD13" s="31"/>
       <c r="BE13" s="35"/>
     </row>
-    <row r="14" spans="1:57" ht="17" customHeight="1">
+    <row r="14" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="19"/>
       <c r="B14" s="32"/>
       <c r="C14" s="33"/>
@@ -3792,7 +3824,7 @@
       <c r="BD14" s="33"/>
       <c r="BE14" s="33"/>
     </row>
-    <row r="15" spans="1:57" ht="17" customHeight="1">
+    <row r="15" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="19"/>
       <c r="B15" s="34"/>
       <c r="C15" s="31"/>
@@ -3851,7 +3883,7 @@
       <c r="BD15" s="31"/>
       <c r="BE15" s="35"/>
     </row>
-    <row r="16" spans="1:57" ht="17" customHeight="1">
+    <row r="16" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="19"/>
       <c r="B16" s="32"/>
       <c r="C16" s="33"/>
@@ -3910,7 +3942,7 @@
       <c r="BD16" s="33"/>
       <c r="BE16" s="33"/>
     </row>
-    <row r="17" spans="1:57" ht="17" customHeight="1">
+    <row r="17" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="19"/>
       <c r="B17" s="34"/>
       <c r="C17" s="31"/>
@@ -3969,7 +4001,7 @@
       <c r="BD17" s="31"/>
       <c r="BE17" s="35"/>
     </row>
-    <row r="18" spans="1:57" ht="17" customHeight="1">
+    <row r="18" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="19"/>
       <c r="B18" s="32"/>
       <c r="C18" s="33"/>
@@ -4028,7 +4060,7 @@
       <c r="BD18" s="33"/>
       <c r="BE18" s="33"/>
     </row>
-    <row r="19" spans="1:57" ht="17" customHeight="1">
+    <row r="19" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="19"/>
       <c r="B19" s="34"/>
       <c r="C19" s="31"/>
@@ -4087,7 +4119,7 @@
       <c r="BD19" s="31"/>
       <c r="BE19" s="35"/>
     </row>
-    <row r="20" spans="1:57" ht="17" customHeight="1">
+    <row r="20" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="19"/>
       <c r="B20" s="32"/>
       <c r="C20" s="33"/>
@@ -4146,7 +4178,7 @@
       <c r="BD20" s="33"/>
       <c r="BE20" s="33"/>
     </row>
-    <row r="21" spans="1:57" ht="17" customHeight="1">
+    <row r="21" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="19"/>
       <c r="B21" s="34"/>
       <c r="C21" s="31"/>
@@ -4205,7 +4237,7 @@
       <c r="BD21" s="31"/>
       <c r="BE21" s="35"/>
     </row>
-    <row r="22" spans="1:57" ht="17" customHeight="1">
+    <row r="22" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="19"/>
       <c r="B22" s="32"/>
       <c r="C22" s="33"/>
@@ -4264,7 +4296,7 @@
       <c r="BD22" s="33"/>
       <c r="BE22" s="33"/>
     </row>
-    <row r="23" spans="1:57" ht="17" customHeight="1">
+    <row r="23" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="19"/>
       <c r="B23" s="34"/>
       <c r="C23" s="31"/>
@@ -4323,7 +4355,7 @@
       <c r="BD23" s="31"/>
       <c r="BE23" s="35"/>
     </row>
-    <row r="24" spans="1:57" ht="17" customHeight="1">
+    <row r="24" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="19"/>
       <c r="B24" s="32"/>
       <c r="C24" s="33"/>
@@ -4382,7 +4414,7 @@
       <c r="BD24" s="33"/>
       <c r="BE24" s="33"/>
     </row>
-    <row r="25" spans="1:57" ht="17" customHeight="1">
+    <row r="25" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="19"/>
       <c r="B25" s="34"/>
       <c r="C25" s="31"/>
@@ -4441,7 +4473,7 @@
       <c r="BD25" s="31"/>
       <c r="BE25" s="35"/>
     </row>
-    <row r="26" spans="1:57" ht="17" customHeight="1">
+    <row r="26" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="19"/>
       <c r="B26" s="32"/>
       <c r="C26" s="33"/>
@@ -4500,7 +4532,7 @@
       <c r="BD26" s="33"/>
       <c r="BE26" s="33"/>
     </row>
-    <row r="27" spans="1:57" ht="17" customHeight="1">
+    <row r="27" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="19"/>
       <c r="B27" s="34"/>
       <c r="C27" s="31"/>
@@ -4559,7 +4591,7 @@
       <c r="BD27" s="31"/>
       <c r="BE27" s="35"/>
     </row>
-    <row r="28" spans="1:57" ht="17" customHeight="1">
+    <row r="28" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="19"/>
       <c r="B28" s="32"/>
       <c r="C28" s="33"/>
@@ -4618,7 +4650,7 @@
       <c r="BD28" s="33"/>
       <c r="BE28" s="33"/>
     </row>
-    <row r="29" spans="1:57" ht="17" customHeight="1">
+    <row r="29" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="19"/>
       <c r="B29" s="34"/>
       <c r="C29" s="31"/>
@@ -4677,7 +4709,7 @@
       <c r="BD29" s="31"/>
       <c r="BE29" s="35"/>
     </row>
-    <row r="30" spans="1:57" ht="17" customHeight="1">
+    <row r="30" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="19"/>
       <c r="B30" s="32"/>
       <c r="C30" s="33"/>
@@ -4736,7 +4768,7 @@
       <c r="BD30" s="33"/>
       <c r="BE30" s="33"/>
     </row>
-    <row r="31" spans="1:57" ht="17" customHeight="1">
+    <row r="31" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="19"/>
       <c r="B31" s="34"/>
       <c r="C31" s="31"/>
@@ -4795,7 +4827,7 @@
       <c r="BD31" s="31"/>
       <c r="BE31" s="35"/>
     </row>
-    <row r="32" spans="1:57" ht="17" customHeight="1">
+    <row r="32" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="19"/>
       <c r="B32" s="32"/>
       <c r="C32" s="33"/>
@@ -4854,7 +4886,7 @@
       <c r="BD32" s="33"/>
       <c r="BE32" s="33"/>
     </row>
-    <row r="33" spans="1:57" ht="17" customHeight="1">
+    <row r="33" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="19"/>
       <c r="B33" s="34"/>
       <c r="C33" s="31"/>
@@ -4913,7 +4945,7 @@
       <c r="BD33" s="31"/>
       <c r="BE33" s="35"/>
     </row>
-    <row r="34" spans="1:57" ht="17" customHeight="1">
+    <row r="34" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="19"/>
       <c r="B34" s="32"/>
       <c r="C34" s="33"/>
@@ -4972,7 +5004,7 @@
       <c r="BD34" s="33"/>
       <c r="BE34" s="33"/>
     </row>
-    <row r="35" spans="1:57" ht="17" customHeight="1">
+    <row r="35" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="19"/>
       <c r="B35" s="34"/>
       <c r="C35" s="31"/>
@@ -5031,7 +5063,7 @@
       <c r="BD35" s="31"/>
       <c r="BE35" s="35"/>
     </row>
-    <row r="36" spans="1:57" ht="17" customHeight="1">
+    <row r="36" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="19"/>
       <c r="B36" s="32"/>
       <c r="C36" s="33"/>
@@ -5090,7 +5122,7 @@
       <c r="BD36" s="33"/>
       <c r="BE36" s="33"/>
     </row>
-    <row r="37" spans="1:57" ht="17" customHeight="1">
+    <row r="37" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="19"/>
       <c r="B37" s="34"/>
       <c r="C37" s="31"/>
@@ -5149,7 +5181,7 @@
       <c r="BD37" s="31"/>
       <c r="BE37" s="35"/>
     </row>
-    <row r="38" spans="1:57" ht="17" customHeight="1">
+    <row r="38" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="19"/>
       <c r="B38" s="32"/>
       <c r="C38" s="33"/>
@@ -5208,7 +5240,7 @@
       <c r="BD38" s="33"/>
       <c r="BE38" s="33"/>
     </row>
-    <row r="39" spans="1:57" ht="17" customHeight="1">
+    <row r="39" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="19"/>
       <c r="B39" s="34"/>
       <c r="C39" s="31"/>
@@ -5267,7 +5299,7 @@
       <c r="BD39" s="31"/>
       <c r="BE39" s="35"/>
     </row>
-    <row r="40" spans="1:57" ht="17" customHeight="1">
+    <row r="40" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="19"/>
       <c r="B40" s="32"/>
       <c r="C40" s="33"/>
@@ -5326,7 +5358,7 @@
       <c r="BD40" s="33"/>
       <c r="BE40" s="33"/>
     </row>
-    <row r="41" spans="1:57" ht="17" customHeight="1">
+    <row r="41" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="19"/>
       <c r="B41" s="34"/>
       <c r="C41" s="31"/>
@@ -5385,7 +5417,7 @@
       <c r="BD41" s="31"/>
       <c r="BE41" s="35"/>
     </row>
-    <row r="42" spans="1:57" ht="17" customHeight="1">
+    <row r="42" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="19"/>
       <c r="B42" s="32"/>
       <c r="C42" s="33"/>
@@ -5444,7 +5476,7 @@
       <c r="BD42" s="33"/>
       <c r="BE42" s="33"/>
     </row>
-    <row r="43" spans="1:57" ht="17" customHeight="1">
+    <row r="43" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="19"/>
       <c r="B43" s="34"/>
       <c r="C43" s="31"/>
@@ -5503,7 +5535,7 @@
       <c r="BD43" s="31"/>
       <c r="BE43" s="35"/>
     </row>
-    <row r="44" spans="1:57" ht="17" customHeight="1">
+    <row r="44" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="19"/>
       <c r="B44" s="32"/>
       <c r="C44" s="33"/>
@@ -5562,7 +5594,7 @@
       <c r="BD44" s="33"/>
       <c r="BE44" s="33"/>
     </row>
-    <row r="45" spans="1:57" ht="17" customHeight="1">
+    <row r="45" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="19"/>
       <c r="B45" s="34"/>
       <c r="C45" s="31"/>
@@ -5621,7 +5653,7 @@
       <c r="BD45" s="31"/>
       <c r="BE45" s="35"/>
     </row>
-    <row r="46" spans="1:57" ht="17" customHeight="1">
+    <row r="46" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="19"/>
       <c r="B46" s="32"/>
       <c r="C46" s="33"/>
@@ -5680,7 +5712,7 @@
       <c r="BD46" s="33"/>
       <c r="BE46" s="33"/>
     </row>
-    <row r="47" spans="1:57" ht="17" customHeight="1">
+    <row r="47" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="19"/>
       <c r="B47" s="34"/>
       <c r="C47" s="31"/>
@@ -5739,7 +5771,7 @@
       <c r="BD47" s="31"/>
       <c r="BE47" s="35"/>
     </row>
-    <row r="48" spans="1:57" ht="17" customHeight="1">
+    <row r="48" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="19"/>
       <c r="B48" s="32"/>
       <c r="C48" s="33"/>
@@ -5798,7 +5830,7 @@
       <c r="BD48" s="33"/>
       <c r="BE48" s="33"/>
     </row>
-    <row r="49" spans="1:57" ht="17" customHeight="1">
+    <row r="49" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="19"/>
       <c r="B49" s="34"/>
       <c r="C49" s="31"/>
@@ -5857,7 +5889,7 @@
       <c r="BD49" s="31"/>
       <c r="BE49" s="35"/>
     </row>
-    <row r="50" spans="1:57" ht="17" customHeight="1">
+    <row r="50" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="36"/>
       <c r="B50" s="37"/>
       <c r="C50" s="38"/>
@@ -5936,23 +5968,23 @@
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.6640625" style="39" customWidth="1"/>
     <col min="2" max="2" width="48" style="39" customWidth="1"/>
     <col min="3" max="256" width="8.6640625" style="39" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="43.5" customHeight="1">
-      <c r="A1" s="68" t="s">
+    <row r="1" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="70" t="s">
         <v>118</v>
       </c>
-      <c r="B1" s="69"/>
+      <c r="B1" s="71"/>
       <c r="C1" s="40"/>
       <c r="D1" s="29"/>
       <c r="E1" s="29"/>
     </row>
-    <row r="2" spans="1:5" ht="43.5" customHeight="1">
+    <row r="2" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="41"/>
       <c r="B2" s="42" t="s">
         <v>116</v>
@@ -5961,7 +5993,7 @@
       <c r="D2" s="29"/>
       <c r="E2" s="29"/>
     </row>
-    <row r="3" spans="1:5" ht="36.75" customHeight="1">
+    <row r="3" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="43" t="s">
         <v>0</v>
       </c>
@@ -5972,7 +6004,7 @@
       <c r="D3" s="29"/>
       <c r="E3" s="29"/>
     </row>
-    <row r="4" spans="1:5" ht="17" customHeight="1">
+    <row r="4" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="45"/>
       <c r="B4" s="18">
         <v>43114</v>
@@ -5981,7 +6013,7 @@
       <c r="D4" s="29"/>
       <c r="E4" s="29"/>
     </row>
-    <row r="5" spans="1:5" ht="17" customHeight="1">
+    <row r="5" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="29"/>
       <c r="B5" s="22">
         <v>43115</v>
@@ -5990,7 +6022,7 @@
       <c r="D5" s="29"/>
       <c r="E5" s="29"/>
     </row>
-    <row r="6" spans="1:5" ht="17" customHeight="1">
+    <row r="6" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="29"/>
       <c r="B6" s="22">
         <v>43225</v>
@@ -5999,7 +6031,7 @@
       <c r="D6" s="29"/>
       <c r="E6" s="29"/>
     </row>
-    <row r="7" spans="1:5" ht="17" customHeight="1">
+    <row r="7" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="29"/>
       <c r="B7" s="22">
         <v>43191</v>
@@ -6008,7 +6040,7 @@
       <c r="D7" s="29"/>
       <c r="E7" s="29"/>
     </row>
-    <row r="8" spans="1:5" ht="17" customHeight="1">
+    <row r="8" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="29"/>
       <c r="B8" s="25" t="s">
         <v>117</v>
@@ -6017,14 +6049,14 @@
       <c r="D8" s="29"/>
       <c r="E8" s="29"/>
     </row>
-    <row r="9" spans="1:5" ht="17" customHeight="1">
+    <row r="9" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="29"/>
       <c r="B9" s="29"/>
       <c r="C9" s="29"/>
       <c r="D9" s="29"/>
       <c r="E9" s="29"/>
     </row>
-    <row r="10" spans="1:5" ht="17" customHeight="1">
+    <row r="10" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="29"/>
       <c r="B10" s="29"/>
       <c r="C10" s="29"/>
@@ -6047,50 +6079,52 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:IV97"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10" style="46" customWidth="1"/>
     <col min="2" max="2" width="23.5" style="46" customWidth="1"/>
     <col min="3" max="3" width="11" style="46" customWidth="1"/>
     <col min="4" max="4" width="22.5" style="46" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" style="46" customWidth="1"/>
+    <col min="5" max="5" width="23" style="67" customWidth="1"/>
     <col min="6" max="256" width="11" style="46" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="60" customHeight="1">
-      <c r="A1" s="70" t="s">
+    <row r="1" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="72" t="s">
         <v>119</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
-      <c r="N1" s="48"/>
-    </row>
-    <row r="2" spans="1:14" ht="47" customHeight="1">
-      <c r="A2" s="49"/>
-      <c r="B2" s="50" t="s">
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+    </row>
+    <row r="2" spans="1:14" ht="47" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="48"/>
+      <c r="B2" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="51" t="s">
+      <c r="C2" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="52" t="s">
+      <c r="D2" s="51" t="s">
         <v>120</v>
       </c>
-      <c r="E2" s="40"/>
+      <c r="E2" s="51" t="s">
+        <v>122</v>
+      </c>
       <c r="F2" s="29"/>
       <c r="G2" s="29"/>
       <c r="H2" s="29"/>
@@ -6101,20 +6135,22 @@
       <c r="M2" s="29"/>
       <c r="N2" s="29"/>
     </row>
-    <row r="3" spans="1:14" ht="39" customHeight="1">
-      <c r="A3" s="53" t="s">
+    <row r="3" spans="1:14" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="55" t="s">
+      <c r="C3" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="56">
+      <c r="D3" s="55">
         <v>10</v>
       </c>
-      <c r="E3" s="40"/>
+      <c r="E3" s="65">
+        <v>50</v>
+      </c>
       <c r="F3" s="29"/>
       <c r="G3" s="29"/>
       <c r="H3" s="29"/>
@@ -6125,18 +6161,20 @@
       <c r="M3" s="29"/>
       <c r="N3" s="29"/>
     </row>
-    <row r="4" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A4" s="57"/>
-      <c r="B4" s="58" t="s">
+    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="56"/>
+      <c r="B4" s="57" t="s">
         <v>61</v>
       </c>
-      <c r="C4" s="59" t="s">
+      <c r="C4" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="60">
+      <c r="D4" s="59">
         <v>4</v>
       </c>
-      <c r="E4" s="40"/>
+      <c r="E4" s="59">
+        <v>9</v>
+      </c>
       <c r="F4" s="29"/>
       <c r="G4" s="29"/>
       <c r="H4" s="29"/>
@@ -6147,18 +6185,20 @@
       <c r="M4" s="29"/>
       <c r="N4" s="29"/>
     </row>
-    <row r="5" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A5" s="61"/>
-      <c r="B5" s="58" t="s">
+    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="60"/>
+      <c r="B5" s="57" t="s">
         <v>62</v>
       </c>
-      <c r="C5" s="59" t="s">
+      <c r="C5" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="60">
+      <c r="D5" s="59">
         <v>10</v>
       </c>
-      <c r="E5" s="40"/>
+      <c r="E5" s="59">
+        <v>50</v>
+      </c>
       <c r="F5" s="29"/>
       <c r="G5" s="29"/>
       <c r="H5" s="29"/>
@@ -6169,18 +6209,20 @@
       <c r="M5" s="29"/>
       <c r="N5" s="29"/>
     </row>
-    <row r="6" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A6" s="62"/>
-      <c r="B6" s="58" t="s">
+    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="61"/>
+      <c r="B6" s="57" t="s">
         <v>63</v>
       </c>
-      <c r="C6" s="59" t="s">
+      <c r="C6" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="60">
+      <c r="D6" s="59">
         <v>11</v>
       </c>
-      <c r="E6" s="40"/>
+      <c r="E6" s="59">
+        <v>11</v>
+      </c>
       <c r="F6" s="29"/>
       <c r="G6" s="29"/>
       <c r="H6" s="29"/>
@@ -6191,18 +6233,20 @@
       <c r="M6" s="29"/>
       <c r="N6" s="29"/>
     </row>
-    <row r="7" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A7" s="63"/>
-      <c r="B7" s="58" t="s">
+    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="62"/>
+      <c r="B7" s="57" t="s">
         <v>64</v>
       </c>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="60">
+      <c r="D7" s="59">
         <v>4</v>
       </c>
-      <c r="E7" s="40"/>
+      <c r="E7" s="59">
+        <v>4</v>
+      </c>
       <c r="F7" s="29"/>
       <c r="G7" s="29"/>
       <c r="H7" s="29"/>
@@ -6213,18 +6257,20 @@
       <c r="M7" s="29"/>
       <c r="N7" s="29"/>
     </row>
-    <row r="8" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A8" s="63"/>
-      <c r="B8" s="58" t="s">
+    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="62"/>
+      <c r="B8" s="57" t="s">
         <v>65</v>
       </c>
-      <c r="C8" s="59" t="s">
+      <c r="C8" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="60">
+      <c r="D8" s="59">
         <v>6</v>
       </c>
-      <c r="E8" s="40"/>
+      <c r="E8" s="59">
+        <v>20</v>
+      </c>
       <c r="F8" s="29"/>
       <c r="G8" s="29"/>
       <c r="H8" s="29"/>
@@ -6235,18 +6281,20 @@
       <c r="M8" s="29"/>
       <c r="N8" s="29"/>
     </row>
-    <row r="9" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A9" s="63"/>
-      <c r="B9" s="58" t="s">
+    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="62"/>
+      <c r="B9" s="57" t="s">
         <v>66</v>
       </c>
-      <c r="C9" s="59" t="s">
+      <c r="C9" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="60">
+      <c r="D9" s="59">
         <v>3</v>
       </c>
-      <c r="E9" s="40"/>
+      <c r="E9" s="59">
+        <v>3</v>
+      </c>
       <c r="F9" s="29"/>
       <c r="G9" s="29"/>
       <c r="H9" s="29"/>
@@ -6257,18 +6305,20 @@
       <c r="M9" s="29"/>
       <c r="N9" s="29"/>
     </row>
-    <row r="10" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A10" s="63"/>
-      <c r="B10" s="58" t="s">
+    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="62"/>
+      <c r="B10" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="C10" s="59" t="s">
+      <c r="C10" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="60">
+      <c r="D10" s="59">
         <v>1</v>
       </c>
-      <c r="E10" s="40"/>
+      <c r="E10" s="59">
+        <v>1</v>
+      </c>
       <c r="F10" s="29"/>
       <c r="G10" s="29"/>
       <c r="H10" s="29"/>
@@ -6279,18 +6329,20 @@
       <c r="M10" s="29"/>
       <c r="N10" s="29"/>
     </row>
-    <row r="11" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A11" s="63"/>
-      <c r="B11" s="58" t="s">
+    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="62"/>
+      <c r="B11" s="57" t="s">
         <v>68</v>
       </c>
-      <c r="C11" s="59" t="s">
+      <c r="C11" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="60">
+      <c r="D11" s="59">
         <v>6</v>
       </c>
-      <c r="E11" s="40"/>
+      <c r="E11" s="59">
+        <v>6</v>
+      </c>
       <c r="F11" s="29"/>
       <c r="G11" s="29"/>
       <c r="H11" s="29"/>
@@ -6301,18 +6353,20 @@
       <c r="M11" s="29"/>
       <c r="N11" s="29"/>
     </row>
-    <row r="12" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A12" s="63"/>
-      <c r="B12" s="58" t="s">
+    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="62"/>
+      <c r="B12" s="57" t="s">
         <v>69</v>
       </c>
-      <c r="C12" s="59" t="s">
+      <c r="C12" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="60">
+      <c r="D12" s="59">
         <v>8</v>
       </c>
-      <c r="E12" s="40"/>
+      <c r="E12" s="59">
+        <v>8</v>
+      </c>
       <c r="F12" s="29"/>
       <c r="G12" s="29"/>
       <c r="H12" s="29"/>
@@ -6323,18 +6377,20 @@
       <c r="M12" s="29"/>
       <c r="N12" s="29"/>
     </row>
-    <row r="13" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A13" s="63"/>
-      <c r="B13" s="58" t="s">
+    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="62"/>
+      <c r="B13" s="57" t="s">
         <v>70</v>
       </c>
-      <c r="C13" s="59" t="s">
+      <c r="C13" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="60">
+      <c r="D13" s="59">
         <v>9</v>
       </c>
-      <c r="E13" s="40"/>
+      <c r="E13" s="59">
+        <v>60</v>
+      </c>
       <c r="F13" s="29"/>
       <c r="G13" s="29"/>
       <c r="H13" s="29"/>
@@ -6345,18 +6401,20 @@
       <c r="M13" s="29"/>
       <c r="N13" s="29"/>
     </row>
-    <row r="14" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A14" s="63"/>
-      <c r="B14" s="58" t="s">
+    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="62"/>
+      <c r="B14" s="57" t="s">
         <v>71</v>
       </c>
-      <c r="C14" s="59" t="s">
+      <c r="C14" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="60">
+      <c r="D14" s="59">
         <v>5</v>
       </c>
-      <c r="E14" s="40"/>
+      <c r="E14" s="59">
+        <v>5</v>
+      </c>
       <c r="F14" s="29"/>
       <c r="G14" s="29"/>
       <c r="H14" s="29"/>
@@ -6367,18 +6425,20 @@
       <c r="M14" s="29"/>
       <c r="N14" s="29"/>
     </row>
-    <row r="15" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A15" s="63"/>
-      <c r="B15" s="58" t="s">
+    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="62"/>
+      <c r="B15" s="57" t="s">
         <v>72</v>
       </c>
-      <c r="C15" s="59" t="s">
+      <c r="C15" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="60">
+      <c r="D15" s="59">
         <v>4</v>
       </c>
-      <c r="E15" s="40"/>
+      <c r="E15" s="59">
+        <v>4</v>
+      </c>
       <c r="F15" s="29"/>
       <c r="G15" s="29"/>
       <c r="H15" s="29"/>
@@ -6389,18 +6449,20 @@
       <c r="M15" s="29"/>
       <c r="N15" s="29"/>
     </row>
-    <row r="16" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A16" s="63"/>
-      <c r="B16" s="58" t="s">
+    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="62"/>
+      <c r="B16" s="57" t="s">
         <v>73</v>
       </c>
-      <c r="C16" s="59" t="s">
+      <c r="C16" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="60">
+      <c r="D16" s="59">
         <v>2</v>
       </c>
-      <c r="E16" s="40"/>
+      <c r="E16" s="59">
+        <v>2</v>
+      </c>
       <c r="F16" s="29"/>
       <c r="G16" s="29"/>
       <c r="H16" s="29"/>
@@ -6411,18 +6473,20 @@
       <c r="M16" s="29"/>
       <c r="N16" s="29"/>
     </row>
-    <row r="17" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A17" s="63"/>
-      <c r="B17" s="58" t="s">
+    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="62"/>
+      <c r="B17" s="57" t="s">
         <v>74</v>
       </c>
-      <c r="C17" s="59" t="s">
+      <c r="C17" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="60">
+      <c r="D17" s="59">
         <v>5</v>
       </c>
-      <c r="E17" s="40"/>
+      <c r="E17" s="59">
+        <v>5</v>
+      </c>
       <c r="F17" s="29"/>
       <c r="G17" s="29"/>
       <c r="H17" s="29"/>
@@ -6433,18 +6497,20 @@
       <c r="M17" s="29"/>
       <c r="N17" s="29"/>
     </row>
-    <row r="18" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A18" s="63"/>
-      <c r="B18" s="58" t="s">
+    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="62"/>
+      <c r="B18" s="57" t="s">
         <v>75</v>
       </c>
-      <c r="C18" s="59" t="s">
+      <c r="C18" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="60">
+      <c r="D18" s="59">
         <v>7</v>
       </c>
-      <c r="E18" s="40"/>
+      <c r="E18" s="59">
+        <v>7</v>
+      </c>
       <c r="F18" s="29"/>
       <c r="G18" s="29"/>
       <c r="H18" s="29"/>
@@ -6455,18 +6521,20 @@
       <c r="M18" s="29"/>
       <c r="N18" s="29"/>
     </row>
-    <row r="19" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A19" s="63"/>
-      <c r="B19" s="58" t="s">
+    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="62"/>
+      <c r="B19" s="57" t="s">
         <v>76</v>
       </c>
-      <c r="C19" s="59" t="s">
+      <c r="C19" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="60">
+      <c r="D19" s="59">
         <v>15</v>
       </c>
-      <c r="E19" s="40"/>
+      <c r="E19" s="59">
+        <v>115</v>
+      </c>
       <c r="F19" s="29"/>
       <c r="G19" s="29"/>
       <c r="H19" s="29"/>
@@ -6477,18 +6545,20 @@
       <c r="M19" s="29"/>
       <c r="N19" s="29"/>
     </row>
-    <row r="20" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A20" s="63"/>
-      <c r="B20" s="58" t="s">
+    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="62"/>
+      <c r="B20" s="57" t="s">
         <v>77</v>
       </c>
-      <c r="C20" s="59" t="s">
+      <c r="C20" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="60">
+      <c r="D20" s="59">
         <v>3</v>
       </c>
-      <c r="E20" s="40"/>
+      <c r="E20" s="59">
+        <v>3</v>
+      </c>
       <c r="F20" s="29"/>
       <c r="G20" s="29"/>
       <c r="H20" s="29"/>
@@ -6499,18 +6569,20 @@
       <c r="M20" s="29"/>
       <c r="N20" s="29"/>
     </row>
-    <row r="21" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A21" s="63"/>
-      <c r="B21" s="58" t="s">
+    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="62"/>
+      <c r="B21" s="57" t="s">
         <v>78</v>
       </c>
-      <c r="C21" s="59" t="s">
+      <c r="C21" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="D21" s="60">
+      <c r="D21" s="59">
         <v>7</v>
       </c>
-      <c r="E21" s="40"/>
+      <c r="E21" s="59">
+        <v>7</v>
+      </c>
       <c r="F21" s="29"/>
       <c r="G21" s="29"/>
       <c r="H21" s="29"/>
@@ -6521,18 +6593,20 @@
       <c r="M21" s="29"/>
       <c r="N21" s="29"/>
     </row>
-    <row r="22" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A22" s="63"/>
-      <c r="B22" s="58" t="s">
+    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="62"/>
+      <c r="B22" s="57" t="s">
         <v>79</v>
       </c>
-      <c r="C22" s="59" t="s">
+      <c r="C22" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="D22" s="60">
+      <c r="D22" s="59">
         <v>0</v>
       </c>
-      <c r="E22" s="40"/>
+      <c r="E22" s="59">
+        <v>0</v>
+      </c>
       <c r="F22" s="29"/>
       <c r="G22" s="29"/>
       <c r="H22" s="29"/>
@@ -6543,18 +6617,20 @@
       <c r="M22" s="29"/>
       <c r="N22" s="29"/>
     </row>
-    <row r="23" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A23" s="63"/>
-      <c r="B23" s="58" t="s">
+    <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="62"/>
+      <c r="B23" s="57" t="s">
         <v>80</v>
       </c>
-      <c r="C23" s="59" t="s">
+      <c r="C23" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="D23" s="60">
+      <c r="D23" s="59">
         <v>3</v>
       </c>
-      <c r="E23" s="40"/>
+      <c r="E23" s="59">
+        <v>30</v>
+      </c>
       <c r="F23" s="29"/>
       <c r="G23" s="29"/>
       <c r="H23" s="29"/>
@@ -6565,18 +6641,20 @@
       <c r="M23" s="29"/>
       <c r="N23" s="29"/>
     </row>
-    <row r="24" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A24" s="63"/>
-      <c r="B24" s="58" t="s">
+    <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="62"/>
+      <c r="B24" s="57" t="s">
         <v>81</v>
       </c>
-      <c r="C24" s="59" t="s">
+      <c r="C24" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="D24" s="60">
+      <c r="D24" s="59">
         <v>7</v>
       </c>
-      <c r="E24" s="40"/>
+      <c r="E24" s="59">
+        <v>7</v>
+      </c>
       <c r="F24" s="29"/>
       <c r="G24" s="29"/>
       <c r="H24" s="29"/>
@@ -6587,18 +6665,20 @@
       <c r="M24" s="29"/>
       <c r="N24" s="29"/>
     </row>
-    <row r="25" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A25" s="63"/>
-      <c r="B25" s="58" t="s">
+    <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="62"/>
+      <c r="B25" s="57" t="s">
         <v>82</v>
       </c>
-      <c r="C25" s="59" t="s">
+      <c r="C25" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="D25" s="60">
+      <c r="D25" s="59">
         <v>3</v>
       </c>
-      <c r="E25" s="40"/>
+      <c r="E25" s="59">
+        <v>3</v>
+      </c>
       <c r="F25" s="29"/>
       <c r="G25" s="29"/>
       <c r="H25" s="29"/>
@@ -6609,18 +6689,20 @@
       <c r="M25" s="29"/>
       <c r="N25" s="29"/>
     </row>
-    <row r="26" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A26" s="63"/>
-      <c r="B26" s="58" t="s">
+    <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="62"/>
+      <c r="B26" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="C26" s="59" t="s">
+      <c r="C26" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="D26" s="60">
+      <c r="D26" s="59">
         <v>2</v>
       </c>
-      <c r="E26" s="40"/>
+      <c r="E26" s="59">
+        <v>2</v>
+      </c>
       <c r="F26" s="29"/>
       <c r="G26" s="29"/>
       <c r="H26" s="29"/>
@@ -6631,18 +6713,20 @@
       <c r="M26" s="29"/>
       <c r="N26" s="29"/>
     </row>
-    <row r="27" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A27" s="63"/>
-      <c r="B27" s="58" t="s">
+    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="62"/>
+      <c r="B27" s="57" t="s">
         <v>84</v>
       </c>
-      <c r="C27" s="59" t="s">
+      <c r="C27" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="D27" s="60">
+      <c r="D27" s="59">
         <v>5</v>
       </c>
-      <c r="E27" s="40"/>
+      <c r="E27" s="59">
+        <v>5</v>
+      </c>
       <c r="F27" s="29"/>
       <c r="G27" s="29"/>
       <c r="H27" s="29"/>
@@ -6653,18 +6737,20 @@
       <c r="M27" s="29"/>
       <c r="N27" s="29"/>
     </row>
-    <row r="28" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A28" s="63"/>
-      <c r="B28" s="58" t="s">
+    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="62"/>
+      <c r="B28" s="57" t="s">
         <v>85</v>
       </c>
-      <c r="C28" s="59" t="s">
+      <c r="C28" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="D28" s="60">
+      <c r="D28" s="59">
         <v>7</v>
       </c>
-      <c r="E28" s="40"/>
+      <c r="E28" s="59">
+        <v>7</v>
+      </c>
       <c r="F28" s="29"/>
       <c r="G28" s="29"/>
       <c r="H28" s="29"/>
@@ -6675,18 +6761,20 @@
       <c r="M28" s="29"/>
       <c r="N28" s="29"/>
     </row>
-    <row r="29" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A29" s="63"/>
-      <c r="B29" s="58" t="s">
+    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="62"/>
+      <c r="B29" s="57" t="s">
         <v>86</v>
       </c>
-      <c r="C29" s="59" t="s">
+      <c r="C29" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="D29" s="60">
+      <c r="D29" s="59">
         <v>4</v>
       </c>
-      <c r="E29" s="40"/>
+      <c r="E29" s="59">
+        <v>4</v>
+      </c>
       <c r="F29" s="29"/>
       <c r="G29" s="29"/>
       <c r="H29" s="29"/>
@@ -6697,18 +6785,20 @@
       <c r="M29" s="29"/>
       <c r="N29" s="29"/>
     </row>
-    <row r="30" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A30" s="63"/>
-      <c r="B30" s="58" t="s">
+    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="62"/>
+      <c r="B30" s="57" t="s">
         <v>87</v>
       </c>
-      <c r="C30" s="59" t="s">
+      <c r="C30" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="D30" s="60">
+      <c r="D30" s="59">
         <v>4</v>
       </c>
-      <c r="E30" s="40"/>
+      <c r="E30" s="59">
+        <v>4</v>
+      </c>
       <c r="F30" s="29"/>
       <c r="G30" s="29"/>
       <c r="H30" s="29"/>
@@ -6719,18 +6809,20 @@
       <c r="M30" s="29"/>
       <c r="N30" s="29"/>
     </row>
-    <row r="31" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A31" s="63"/>
-      <c r="B31" s="58" t="s">
+    <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="62"/>
+      <c r="B31" s="57" t="s">
         <v>121</v>
       </c>
-      <c r="C31" s="59" t="s">
+      <c r="C31" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="D31" s="60">
+      <c r="D31" s="59">
         <v>2</v>
       </c>
-      <c r="E31" s="40"/>
+      <c r="E31" s="59">
+        <v>2</v>
+      </c>
       <c r="F31" s="29"/>
       <c r="G31" s="29"/>
       <c r="H31" s="29"/>
@@ -6741,18 +6833,20 @@
       <c r="M31" s="29"/>
       <c r="N31" s="29"/>
     </row>
-    <row r="32" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A32" s="63"/>
-      <c r="B32" s="58" t="s">
+    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="62"/>
+      <c r="B32" s="57" t="s">
         <v>89</v>
       </c>
-      <c r="C32" s="59" t="s">
+      <c r="C32" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="D32" s="60">
+      <c r="D32" s="59">
         <v>5</v>
       </c>
-      <c r="E32" s="40"/>
+      <c r="E32" s="59">
+        <v>5</v>
+      </c>
       <c r="F32" s="29"/>
       <c r="G32" s="29"/>
       <c r="H32" s="29"/>
@@ -6763,18 +6857,20 @@
       <c r="M32" s="29"/>
       <c r="N32" s="29"/>
     </row>
-    <row r="33" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A33" s="63"/>
-      <c r="B33" s="58" t="s">
+    <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="62"/>
+      <c r="B33" s="57" t="s">
         <v>90</v>
       </c>
-      <c r="C33" s="59" t="s">
+      <c r="C33" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="D33" s="60">
+      <c r="D33" s="59">
         <v>7</v>
       </c>
-      <c r="E33" s="40"/>
+      <c r="E33" s="59">
+        <v>7</v>
+      </c>
       <c r="F33" s="29"/>
       <c r="G33" s="29"/>
       <c r="H33" s="29"/>
@@ -6785,18 +6881,20 @@
       <c r="M33" s="29"/>
       <c r="N33" s="29"/>
     </row>
-    <row r="34" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A34" s="63"/>
-      <c r="B34" s="58" t="s">
+    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="62"/>
+      <c r="B34" s="57" t="s">
         <v>91</v>
       </c>
-      <c r="C34" s="59" t="s">
+      <c r="C34" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="D34" s="60">
+      <c r="D34" s="59">
         <v>9</v>
       </c>
-      <c r="E34" s="40"/>
+      <c r="E34" s="59">
+        <v>9</v>
+      </c>
       <c r="F34" s="29"/>
       <c r="G34" s="29"/>
       <c r="H34" s="29"/>
@@ -6807,18 +6905,20 @@
       <c r="M34" s="29"/>
       <c r="N34" s="29"/>
     </row>
-    <row r="35" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A35" s="63"/>
-      <c r="B35" s="58" t="s">
+    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="62"/>
+      <c r="B35" s="57" t="s">
         <v>92</v>
       </c>
-      <c r="C35" s="59" t="s">
+      <c r="C35" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="D35" s="60">
+      <c r="D35" s="59">
         <v>4</v>
       </c>
-      <c r="E35" s="40"/>
+      <c r="E35" s="59">
+        <v>4</v>
+      </c>
       <c r="F35" s="29"/>
       <c r="G35" s="29"/>
       <c r="H35" s="29"/>
@@ -6829,18 +6929,20 @@
       <c r="M35" s="29"/>
       <c r="N35" s="29"/>
     </row>
-    <row r="36" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A36" s="63"/>
-      <c r="B36" s="58" t="s">
+    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="62"/>
+      <c r="B36" s="57" t="s">
         <v>93</v>
       </c>
-      <c r="C36" s="59" t="s">
+      <c r="C36" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="D36" s="60">
+      <c r="D36" s="59">
         <v>2</v>
       </c>
-      <c r="E36" s="40"/>
+      <c r="E36" s="59">
+        <v>2</v>
+      </c>
       <c r="F36" s="29"/>
       <c r="G36" s="29"/>
       <c r="H36" s="29"/>
@@ -6851,18 +6953,20 @@
       <c r="M36" s="29"/>
       <c r="N36" s="29"/>
     </row>
-    <row r="37" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A37" s="63"/>
-      <c r="B37" s="58" t="s">
+    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="62"/>
+      <c r="B37" s="57" t="s">
         <v>94</v>
       </c>
-      <c r="C37" s="59" t="s">
+      <c r="C37" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="D37" s="60">
+      <c r="D37" s="59">
         <v>6</v>
       </c>
-      <c r="E37" s="40"/>
+      <c r="E37" s="59">
+        <v>6</v>
+      </c>
       <c r="F37" s="29"/>
       <c r="G37" s="29"/>
       <c r="H37" s="29"/>
@@ -6873,18 +6977,20 @@
       <c r="M37" s="29"/>
       <c r="N37" s="29"/>
     </row>
-    <row r="38" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A38" s="63"/>
-      <c r="B38" s="58" t="s">
+    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="62"/>
+      <c r="B38" s="57" t="s">
         <v>95</v>
       </c>
-      <c r="C38" s="59" t="s">
+      <c r="C38" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="D38" s="60">
+      <c r="D38" s="59">
         <v>3</v>
       </c>
-      <c r="E38" s="40"/>
+      <c r="E38" s="59">
+        <v>3</v>
+      </c>
       <c r="F38" s="29"/>
       <c r="G38" s="29"/>
       <c r="H38" s="29"/>
@@ -6895,18 +7001,20 @@
       <c r="M38" s="29"/>
       <c r="N38" s="29"/>
     </row>
-    <row r="39" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A39" s="63"/>
-      <c r="B39" s="58" t="s">
+    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="62"/>
+      <c r="B39" s="57" t="s">
         <v>96</v>
       </c>
-      <c r="C39" s="59" t="s">
+      <c r="C39" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="D39" s="60">
+      <c r="D39" s="59">
         <v>2</v>
       </c>
-      <c r="E39" s="40"/>
+      <c r="E39" s="59">
+        <v>2</v>
+      </c>
       <c r="F39" s="29"/>
       <c r="G39" s="29"/>
       <c r="H39" s="29"/>
@@ -6917,18 +7025,20 @@
       <c r="M39" s="29"/>
       <c r="N39" s="29"/>
     </row>
-    <row r="40" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A40" s="63"/>
-      <c r="B40" s="58" t="s">
+    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="62"/>
+      <c r="B40" s="57" t="s">
         <v>97</v>
       </c>
-      <c r="C40" s="59" t="s">
+      <c r="C40" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="D40" s="60">
+      <c r="D40" s="59">
         <v>6</v>
       </c>
-      <c r="E40" s="40"/>
+      <c r="E40" s="59">
+        <v>6</v>
+      </c>
       <c r="F40" s="29"/>
       <c r="G40" s="29"/>
       <c r="H40" s="29"/>
@@ -6939,18 +7049,20 @@
       <c r="M40" s="29"/>
       <c r="N40" s="29"/>
     </row>
-    <row r="41" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A41" s="63"/>
-      <c r="B41" s="58" t="s">
+    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="62"/>
+      <c r="B41" s="57" t="s">
         <v>98</v>
       </c>
-      <c r="C41" s="59" t="s">
+      <c r="C41" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="D41" s="60">
+      <c r="D41" s="59">
         <v>5</v>
       </c>
-      <c r="E41" s="40"/>
+      <c r="E41" s="59">
+        <v>5</v>
+      </c>
       <c r="F41" s="29"/>
       <c r="G41" s="29"/>
       <c r="H41" s="29"/>
@@ -6961,18 +7073,20 @@
       <c r="M41" s="29"/>
       <c r="N41" s="29"/>
     </row>
-    <row r="42" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A42" s="63"/>
-      <c r="B42" s="58" t="s">
+    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="62"/>
+      <c r="B42" s="57" t="s">
         <v>99</v>
       </c>
-      <c r="C42" s="59" t="s">
+      <c r="C42" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="D42" s="60">
+      <c r="D42" s="59">
         <v>3</v>
       </c>
-      <c r="E42" s="40"/>
+      <c r="E42" s="59">
+        <v>3</v>
+      </c>
       <c r="F42" s="29"/>
       <c r="G42" s="29"/>
       <c r="H42" s="29"/>
@@ -6983,18 +7097,20 @@
       <c r="M42" s="29"/>
       <c r="N42" s="29"/>
     </row>
-    <row r="43" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A43" s="63"/>
-      <c r="B43" s="58" t="s">
+    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="62"/>
+      <c r="B43" s="57" t="s">
         <v>100</v>
       </c>
-      <c r="C43" s="59" t="s">
+      <c r="C43" s="58" t="s">
         <v>43</v>
       </c>
-      <c r="D43" s="60">
+      <c r="D43" s="59">
         <v>5</v>
       </c>
-      <c r="E43" s="40"/>
+      <c r="E43" s="59">
+        <v>5</v>
+      </c>
       <c r="F43" s="29"/>
       <c r="G43" s="29"/>
       <c r="H43" s="29"/>
@@ -7005,18 +7121,20 @@
       <c r="M43" s="29"/>
       <c r="N43" s="29"/>
     </row>
-    <row r="44" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A44" s="63"/>
-      <c r="B44" s="58" t="s">
+    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="62"/>
+      <c r="B44" s="57" t="s">
         <v>101</v>
       </c>
-      <c r="C44" s="59" t="s">
+      <c r="C44" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="D44" s="60">
+      <c r="D44" s="59">
         <v>36</v>
       </c>
-      <c r="E44" s="40"/>
+      <c r="E44" s="59">
+        <v>36</v>
+      </c>
       <c r="F44" s="29"/>
       <c r="G44" s="29"/>
       <c r="H44" s="29"/>
@@ -7027,18 +7145,20 @@
       <c r="M44" s="29"/>
       <c r="N44" s="29"/>
     </row>
-    <row r="45" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A45" s="63"/>
-      <c r="B45" s="58" t="s">
+    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="62"/>
+      <c r="B45" s="57" t="s">
         <v>102</v>
       </c>
-      <c r="C45" s="59" t="s">
+      <c r="C45" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="D45" s="60">
+      <c r="D45" s="59">
         <v>7</v>
       </c>
-      <c r="E45" s="40"/>
+      <c r="E45" s="59">
+        <v>7</v>
+      </c>
       <c r="F45" s="29"/>
       <c r="G45" s="29"/>
       <c r="H45" s="29"/>
@@ -7049,18 +7169,20 @@
       <c r="M45" s="29"/>
       <c r="N45" s="29"/>
     </row>
-    <row r="46" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A46" s="63"/>
-      <c r="B46" s="58" t="s">
+    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="62"/>
+      <c r="B46" s="57" t="s">
         <v>103</v>
       </c>
-      <c r="C46" s="59" t="s">
+      <c r="C46" s="58" t="s">
         <v>46</v>
       </c>
-      <c r="D46" s="60">
+      <c r="D46" s="59">
         <v>1</v>
       </c>
-      <c r="E46" s="40"/>
+      <c r="E46" s="59">
+        <v>1</v>
+      </c>
       <c r="F46" s="29"/>
       <c r="G46" s="29"/>
       <c r="H46" s="29"/>
@@ -7071,18 +7193,20 @@
       <c r="M46" s="29"/>
       <c r="N46" s="29"/>
     </row>
-    <row r="47" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A47" s="63"/>
-      <c r="B47" s="58" t="s">
+    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="62"/>
+      <c r="B47" s="57" t="s">
         <v>104</v>
       </c>
-      <c r="C47" s="59" t="s">
+      <c r="C47" s="58" t="s">
         <v>47</v>
       </c>
-      <c r="D47" s="60">
+      <c r="D47" s="59">
         <v>4</v>
       </c>
-      <c r="E47" s="40"/>
+      <c r="E47" s="59">
+        <v>4</v>
+      </c>
       <c r="F47" s="29"/>
       <c r="G47" s="29"/>
       <c r="H47" s="29"/>
@@ -7093,18 +7217,20 @@
       <c r="M47" s="29"/>
       <c r="N47" s="29"/>
     </row>
-    <row r="48" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A48" s="63"/>
-      <c r="B48" s="58" t="s">
+    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="62"/>
+      <c r="B48" s="57" t="s">
         <v>105</v>
       </c>
-      <c r="C48" s="59" t="s">
+      <c r="C48" s="58" t="s">
         <v>48</v>
       </c>
-      <c r="D48" s="60">
+      <c r="D48" s="59">
         <v>57</v>
       </c>
-      <c r="E48" s="40"/>
+      <c r="E48" s="59">
+        <v>57</v>
+      </c>
       <c r="F48" s="29"/>
       <c r="G48" s="29"/>
       <c r="H48" s="29"/>
@@ -7115,18 +7241,20 @@
       <c r="M48" s="29"/>
       <c r="N48" s="29"/>
     </row>
-    <row r="49" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A49" s="63"/>
-      <c r="B49" s="58" t="s">
+    <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="62"/>
+      <c r="B49" s="57" t="s">
         <v>106</v>
       </c>
-      <c r="C49" s="59" t="s">
+      <c r="C49" s="58" t="s">
         <v>49</v>
       </c>
-      <c r="D49" s="60">
+      <c r="D49" s="59">
         <v>3</v>
       </c>
-      <c r="E49" s="40"/>
+      <c r="E49" s="59">
+        <v>3</v>
+      </c>
       <c r="F49" s="29"/>
       <c r="G49" s="29"/>
       <c r="H49" s="29"/>
@@ -7137,18 +7265,20 @@
       <c r="M49" s="29"/>
       <c r="N49" s="29"/>
     </row>
-    <row r="50" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A50" s="63"/>
-      <c r="B50" s="58" t="s">
+    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="62"/>
+      <c r="B50" s="57" t="s">
         <v>107</v>
       </c>
-      <c r="C50" s="59" t="s">
+      <c r="C50" s="58" t="s">
         <v>50</v>
       </c>
-      <c r="D50" s="60">
+      <c r="D50" s="59">
         <v>1</v>
       </c>
-      <c r="E50" s="40"/>
+      <c r="E50" s="59">
+        <v>1</v>
+      </c>
       <c r="F50" s="29"/>
       <c r="G50" s="29"/>
       <c r="H50" s="29"/>
@@ -7159,18 +7289,20 @@
       <c r="M50" s="29"/>
       <c r="N50" s="29"/>
     </row>
-    <row r="51" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A51" s="63"/>
-      <c r="B51" s="58" t="s">
+    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="62"/>
+      <c r="B51" s="57" t="s">
         <v>108</v>
       </c>
-      <c r="C51" s="59" t="s">
+      <c r="C51" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="D51" s="60">
+      <c r="D51" s="59">
         <v>7</v>
       </c>
-      <c r="E51" s="40"/>
+      <c r="E51" s="59">
+        <v>7</v>
+      </c>
       <c r="F51" s="29"/>
       <c r="G51" s="29"/>
       <c r="H51" s="29"/>
@@ -7181,18 +7313,20 @@
       <c r="M51" s="29"/>
       <c r="N51" s="29"/>
     </row>
-    <row r="52" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A52" s="63"/>
-      <c r="B52" s="58" t="s">
+    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="62"/>
+      <c r="B52" s="57" t="s">
         <v>109</v>
       </c>
-      <c r="C52" s="59" t="s">
+      <c r="C52" s="58" t="s">
         <v>52</v>
       </c>
-      <c r="D52" s="60">
+      <c r="D52" s="59">
         <v>4</v>
       </c>
-      <c r="E52" s="40"/>
+      <c r="E52" s="59">
+        <v>4</v>
+      </c>
       <c r="F52" s="29"/>
       <c r="G52" s="29"/>
       <c r="H52" s="29"/>
@@ -7203,18 +7337,20 @@
       <c r="M52" s="29"/>
       <c r="N52" s="29"/>
     </row>
-    <row r="53" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A53" s="63"/>
-      <c r="B53" s="58" t="s">
+    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="62"/>
+      <c r="B53" s="57" t="s">
         <v>110</v>
       </c>
-      <c r="C53" s="59" t="s">
+      <c r="C53" s="58" t="s">
         <v>53</v>
       </c>
-      <c r="D53" s="60">
+      <c r="D53" s="59">
         <v>2</v>
       </c>
-      <c r="E53" s="40"/>
+      <c r="E53" s="59">
+        <v>2</v>
+      </c>
       <c r="F53" s="29"/>
       <c r="G53" s="29"/>
       <c r="H53" s="29"/>
@@ -7225,18 +7361,20 @@
       <c r="M53" s="29"/>
       <c r="N53" s="29"/>
     </row>
-    <row r="54" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A54" s="63"/>
-      <c r="B54" s="58" t="s">
+    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="62"/>
+      <c r="B54" s="57" t="s">
         <v>111</v>
       </c>
-      <c r="C54" s="59" t="s">
+      <c r="C54" s="58" t="s">
         <v>54</v>
       </c>
-      <c r="D54" s="60">
+      <c r="D54" s="59">
         <v>6</v>
       </c>
-      <c r="E54" s="40"/>
+      <c r="E54" s="59">
+        <v>6</v>
+      </c>
       <c r="F54" s="29"/>
       <c r="G54" s="29"/>
       <c r="H54" s="29"/>
@@ -7247,18 +7385,20 @@
       <c r="M54" s="29"/>
       <c r="N54" s="29"/>
     </row>
-    <row r="55" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A55" s="63"/>
-      <c r="B55" s="58" t="s">
+    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="62"/>
+      <c r="B55" s="57" t="s">
         <v>112</v>
       </c>
-      <c r="C55" s="59" t="s">
+      <c r="C55" s="58" t="s">
         <v>55</v>
       </c>
-      <c r="D55" s="60">
+      <c r="D55" s="59">
         <v>2</v>
       </c>
-      <c r="E55" s="40"/>
+      <c r="E55" s="59">
+        <v>2</v>
+      </c>
       <c r="F55" s="29"/>
       <c r="G55" s="29"/>
       <c r="H55" s="29"/>
@@ -7269,18 +7409,20 @@
       <c r="M55" s="29"/>
       <c r="N55" s="29"/>
     </row>
-    <row r="56" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A56" s="63"/>
-      <c r="B56" s="58" t="s">
+    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="62"/>
+      <c r="B56" s="57" t="s">
         <v>113</v>
       </c>
-      <c r="C56" s="59" t="s">
+      <c r="C56" s="58" t="s">
         <v>56</v>
       </c>
-      <c r="D56" s="60">
+      <c r="D56" s="59">
         <v>2</v>
       </c>
-      <c r="E56" s="40"/>
+      <c r="E56" s="59">
+        <v>2</v>
+      </c>
       <c r="F56" s="29"/>
       <c r="G56" s="29"/>
       <c r="H56" s="29"/>
@@ -7291,18 +7433,20 @@
       <c r="M56" s="29"/>
       <c r="N56" s="29"/>
     </row>
-    <row r="57" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A57" s="63"/>
-      <c r="B57" s="58" t="s">
+    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="62"/>
+      <c r="B57" s="57" t="s">
         <v>114</v>
       </c>
-      <c r="C57" s="59" t="s">
+      <c r="C57" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="D57" s="60">
+      <c r="D57" s="59">
         <v>6</v>
       </c>
-      <c r="E57" s="40"/>
+      <c r="E57" s="59">
+        <v>6</v>
+      </c>
       <c r="F57" s="29"/>
       <c r="G57" s="29"/>
       <c r="H57" s="29"/>
@@ -7313,18 +7457,20 @@
       <c r="M57" s="29"/>
       <c r="N57" s="29"/>
     </row>
-    <row r="58" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A58" s="63"/>
-      <c r="B58" s="58" t="s">
+    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="62"/>
+      <c r="B58" s="57" t="s">
         <v>115</v>
       </c>
-      <c r="C58" s="59" t="s">
+      <c r="C58" s="58" t="s">
         <v>58</v>
       </c>
-      <c r="D58" s="60">
+      <c r="D58" s="59">
         <v>1</v>
       </c>
-      <c r="E58" s="40"/>
+      <c r="E58" s="59">
+        <v>1</v>
+      </c>
       <c r="F58" s="29"/>
       <c r="G58" s="29"/>
       <c r="H58" s="29"/>
@@ -7335,12 +7481,12 @@
       <c r="M58" s="29"/>
       <c r="N58" s="29"/>
     </row>
-    <row r="59" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A59" s="63"/>
-      <c r="B59" s="64"/>
+    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="62"/>
+      <c r="B59" s="63"/>
       <c r="C59" s="29"/>
-      <c r="D59" s="60"/>
-      <c r="E59" s="40"/>
+      <c r="D59" s="59"/>
+      <c r="E59" s="66"/>
       <c r="F59" s="29"/>
       <c r="G59" s="29"/>
       <c r="H59" s="29"/>
@@ -7351,12 +7497,12 @@
       <c r="M59" s="29"/>
       <c r="N59" s="29"/>
     </row>
-    <row r="60" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A60" s="63"/>
+    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="62"/>
       <c r="B60" s="40"/>
       <c r="C60" s="29"/>
-      <c r="D60" s="60"/>
-      <c r="E60" s="40"/>
+      <c r="D60" s="59"/>
+      <c r="E60" s="66"/>
       <c r="F60" s="29"/>
       <c r="G60" s="29"/>
       <c r="H60" s="29"/>
@@ -7367,12 +7513,12 @@
       <c r="M60" s="29"/>
       <c r="N60" s="29"/>
     </row>
-    <row r="61" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A61" s="63"/>
+    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="62"/>
       <c r="B61" s="40"/>
       <c r="C61" s="29"/>
-      <c r="D61" s="60"/>
-      <c r="E61" s="40"/>
+      <c r="D61" s="59"/>
+      <c r="E61" s="66"/>
       <c r="F61" s="29"/>
       <c r="G61" s="29"/>
       <c r="H61" s="29"/>
@@ -7383,12 +7529,12 @@
       <c r="M61" s="29"/>
       <c r="N61" s="29"/>
     </row>
-    <row r="62" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A62" s="63"/>
+    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="62"/>
       <c r="B62" s="40"/>
       <c r="C62" s="29"/>
-      <c r="D62" s="60"/>
-      <c r="E62" s="40"/>
+      <c r="D62" s="59"/>
+      <c r="E62" s="66"/>
       <c r="F62" s="29"/>
       <c r="G62" s="29"/>
       <c r="H62" s="29"/>
@@ -7399,12 +7545,12 @@
       <c r="M62" s="29"/>
       <c r="N62" s="29"/>
     </row>
-    <row r="63" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A63" s="63"/>
+    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="62"/>
       <c r="B63" s="40"/>
       <c r="C63" s="29"/>
-      <c r="D63" s="60"/>
-      <c r="E63" s="40"/>
+      <c r="D63" s="59"/>
+      <c r="E63" s="66"/>
       <c r="F63" s="29"/>
       <c r="G63" s="29"/>
       <c r="H63" s="29"/>
@@ -7415,12 +7561,12 @@
       <c r="M63" s="29"/>
       <c r="N63" s="29"/>
     </row>
-    <row r="64" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A64" s="63"/>
+    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="62"/>
       <c r="B64" s="40"/>
       <c r="C64" s="29"/>
-      <c r="D64" s="60"/>
-      <c r="E64" s="40"/>
+      <c r="D64" s="59"/>
+      <c r="E64" s="66"/>
       <c r="F64" s="29"/>
       <c r="G64" s="29"/>
       <c r="H64" s="29"/>
@@ -7431,12 +7577,12 @@
       <c r="M64" s="29"/>
       <c r="N64" s="29"/>
     </row>
-    <row r="65" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A65" s="63"/>
+    <row r="65" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="62"/>
       <c r="B65" s="40"/>
       <c r="C65" s="29"/>
-      <c r="D65" s="60"/>
-      <c r="E65" s="40"/>
+      <c r="D65" s="59"/>
+      <c r="E65" s="66"/>
       <c r="F65" s="29"/>
       <c r="G65" s="29"/>
       <c r="H65" s="29"/>
@@ -7447,12 +7593,12 @@
       <c r="M65" s="29"/>
       <c r="N65" s="29"/>
     </row>
-    <row r="66" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A66" s="63"/>
+    <row r="66" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="62"/>
       <c r="B66" s="40"/>
       <c r="C66" s="29"/>
-      <c r="D66" s="60"/>
-      <c r="E66" s="40"/>
+      <c r="D66" s="59"/>
+      <c r="E66" s="66"/>
       <c r="F66" s="29"/>
       <c r="G66" s="29"/>
       <c r="H66" s="29"/>
@@ -7463,12 +7609,12 @@
       <c r="M66" s="29"/>
       <c r="N66" s="29"/>
     </row>
-    <row r="67" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A67" s="63"/>
+    <row r="67" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="62"/>
       <c r="B67" s="40"/>
       <c r="C67" s="29"/>
-      <c r="D67" s="60"/>
-      <c r="E67" s="40"/>
+      <c r="D67" s="59"/>
+      <c r="E67" s="66"/>
       <c r="F67" s="29"/>
       <c r="G67" s="29"/>
       <c r="H67" s="29"/>
@@ -7479,12 +7625,12 @@
       <c r="M67" s="29"/>
       <c r="N67" s="29"/>
     </row>
-    <row r="68" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A68" s="63"/>
+    <row r="68" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="62"/>
       <c r="B68" s="40"/>
       <c r="C68" s="29"/>
-      <c r="D68" s="60"/>
-      <c r="E68" s="40"/>
+      <c r="D68" s="59"/>
+      <c r="E68" s="66"/>
       <c r="F68" s="29"/>
       <c r="G68" s="29"/>
       <c r="H68" s="29"/>
@@ -7495,12 +7641,12 @@
       <c r="M68" s="29"/>
       <c r="N68" s="29"/>
     </row>
-    <row r="69" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A69" s="63"/>
+    <row r="69" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="62"/>
       <c r="B69" s="40"/>
       <c r="C69" s="29"/>
-      <c r="D69" s="60"/>
-      <c r="E69" s="40"/>
+      <c r="D69" s="59"/>
+      <c r="E69" s="66"/>
       <c r="F69" s="29"/>
       <c r="G69" s="29"/>
       <c r="H69" s="29"/>
@@ -7511,12 +7657,12 @@
       <c r="M69" s="29"/>
       <c r="N69" s="29"/>
     </row>
-    <row r="70" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A70" s="63"/>
+    <row r="70" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="62"/>
       <c r="B70" s="40"/>
       <c r="C70" s="29"/>
-      <c r="D70" s="60"/>
-      <c r="E70" s="40"/>
+      <c r="D70" s="59"/>
+      <c r="E70" s="66"/>
       <c r="F70" s="29"/>
       <c r="G70" s="29"/>
       <c r="H70" s="29"/>
@@ -7527,12 +7673,12 @@
       <c r="M70" s="29"/>
       <c r="N70" s="29"/>
     </row>
-    <row r="71" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A71" s="63"/>
+    <row r="71" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="62"/>
       <c r="B71" s="40"/>
       <c r="C71" s="29"/>
-      <c r="D71" s="60"/>
-      <c r="E71" s="40"/>
+      <c r="D71" s="59"/>
+      <c r="E71" s="66"/>
       <c r="F71" s="29"/>
       <c r="G71" s="29"/>
       <c r="H71" s="29"/>
@@ -7543,12 +7689,12 @@
       <c r="M71" s="29"/>
       <c r="N71" s="29"/>
     </row>
-    <row r="72" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A72" s="63"/>
+    <row r="72" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="62"/>
       <c r="B72" s="40"/>
       <c r="C72" s="29"/>
-      <c r="D72" s="60"/>
-      <c r="E72" s="40"/>
+      <c r="D72" s="59"/>
+      <c r="E72" s="66"/>
       <c r="F72" s="29"/>
       <c r="G72" s="29"/>
       <c r="H72" s="29"/>
@@ -7559,12 +7705,12 @@
       <c r="M72" s="29"/>
       <c r="N72" s="29"/>
     </row>
-    <row r="73" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A73" s="63"/>
+    <row r="73" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="62"/>
       <c r="B73" s="40"/>
       <c r="C73" s="29"/>
-      <c r="D73" s="60"/>
-      <c r="E73" s="40"/>
+      <c r="D73" s="59"/>
+      <c r="E73" s="66"/>
       <c r="F73" s="29"/>
       <c r="G73" s="29"/>
       <c r="H73" s="29"/>
@@ -7575,12 +7721,12 @@
       <c r="M73" s="29"/>
       <c r="N73" s="29"/>
     </row>
-    <row r="74" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A74" s="63"/>
+    <row r="74" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="62"/>
       <c r="B74" s="40"/>
       <c r="C74" s="29"/>
-      <c r="D74" s="60"/>
-      <c r="E74" s="40"/>
+      <c r="D74" s="59"/>
+      <c r="E74" s="66"/>
       <c r="F74" s="29"/>
       <c r="G74" s="29"/>
       <c r="H74" s="29"/>
@@ -7591,12 +7737,12 @@
       <c r="M74" s="29"/>
       <c r="N74" s="29"/>
     </row>
-    <row r="75" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A75" s="63"/>
+    <row r="75" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="62"/>
       <c r="B75" s="40"/>
       <c r="C75" s="29"/>
-      <c r="D75" s="60"/>
-      <c r="E75" s="40"/>
+      <c r="D75" s="59"/>
+      <c r="E75" s="66"/>
       <c r="F75" s="29"/>
       <c r="G75" s="29"/>
       <c r="H75" s="29"/>
@@ -7607,12 +7753,12 @@
       <c r="M75" s="29"/>
       <c r="N75" s="29"/>
     </row>
-    <row r="76" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A76" s="63"/>
+    <row r="76" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="62"/>
       <c r="B76" s="40"/>
       <c r="C76" s="29"/>
-      <c r="D76" s="60"/>
-      <c r="E76" s="40"/>
+      <c r="D76" s="59"/>
+      <c r="E76" s="66"/>
       <c r="F76" s="29"/>
       <c r="G76" s="29"/>
       <c r="H76" s="29"/>
@@ -7623,12 +7769,12 @@
       <c r="M76" s="29"/>
       <c r="N76" s="29"/>
     </row>
-    <row r="77" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A77" s="63"/>
+    <row r="77" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="62"/>
       <c r="B77" s="40"/>
       <c r="C77" s="29"/>
-      <c r="D77" s="60"/>
-      <c r="E77" s="40"/>
+      <c r="D77" s="59"/>
+      <c r="E77" s="66"/>
       <c r="F77" s="29"/>
       <c r="G77" s="29"/>
       <c r="H77" s="29"/>
@@ -7639,12 +7785,12 @@
       <c r="M77" s="29"/>
       <c r="N77" s="29"/>
     </row>
-    <row r="78" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A78" s="63"/>
+    <row r="78" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="62"/>
       <c r="B78" s="40"/>
       <c r="C78" s="29"/>
-      <c r="D78" s="60"/>
-      <c r="E78" s="40"/>
+      <c r="D78" s="59"/>
+      <c r="E78" s="66"/>
       <c r="F78" s="29"/>
       <c r="G78" s="29"/>
       <c r="H78" s="29"/>
@@ -7655,12 +7801,12 @@
       <c r="M78" s="29"/>
       <c r="N78" s="29"/>
     </row>
-    <row r="79" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A79" s="63"/>
+    <row r="79" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="62"/>
       <c r="B79" s="40"/>
       <c r="C79" s="29"/>
-      <c r="D79" s="60"/>
-      <c r="E79" s="40"/>
+      <c r="D79" s="59"/>
+      <c r="E79" s="66"/>
       <c r="F79" s="29"/>
       <c r="G79" s="29"/>
       <c r="H79" s="29"/>
@@ -7671,12 +7817,12 @@
       <c r="M79" s="29"/>
       <c r="N79" s="29"/>
     </row>
-    <row r="80" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A80" s="63"/>
+    <row r="80" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="62"/>
       <c r="B80" s="40"/>
       <c r="C80" s="29"/>
-      <c r="D80" s="60"/>
-      <c r="E80" s="40"/>
+      <c r="D80" s="59"/>
+      <c r="E80" s="66"/>
       <c r="F80" s="29"/>
       <c r="G80" s="29"/>
       <c r="H80" s="29"/>
@@ -7687,12 +7833,12 @@
       <c r="M80" s="29"/>
       <c r="N80" s="29"/>
     </row>
-    <row r="81" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A81" s="63"/>
+    <row r="81" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="62"/>
       <c r="B81" s="40"/>
       <c r="C81" s="29"/>
-      <c r="D81" s="60"/>
-      <c r="E81" s="40"/>
+      <c r="D81" s="59"/>
+      <c r="E81" s="66"/>
       <c r="F81" s="29"/>
       <c r="G81" s="29"/>
       <c r="H81" s="29"/>
@@ -7703,12 +7849,12 @@
       <c r="M81" s="29"/>
       <c r="N81" s="29"/>
     </row>
-    <row r="82" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A82" s="63"/>
+    <row r="82" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="62"/>
       <c r="B82" s="40"/>
       <c r="C82" s="29"/>
-      <c r="D82" s="60"/>
-      <c r="E82" s="40"/>
+      <c r="D82" s="59"/>
+      <c r="E82" s="66"/>
       <c r="F82" s="29"/>
       <c r="G82" s="29"/>
       <c r="H82" s="29"/>
@@ -7719,12 +7865,12 @@
       <c r="M82" s="29"/>
       <c r="N82" s="29"/>
     </row>
-    <row r="83" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A83" s="63"/>
+    <row r="83" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="62"/>
       <c r="B83" s="40"/>
       <c r="C83" s="29"/>
-      <c r="D83" s="60"/>
-      <c r="E83" s="40"/>
+      <c r="D83" s="59"/>
+      <c r="E83" s="66"/>
       <c r="F83" s="29"/>
       <c r="G83" s="29"/>
       <c r="H83" s="29"/>
@@ -7735,12 +7881,12 @@
       <c r="M83" s="29"/>
       <c r="N83" s="29"/>
     </row>
-    <row r="84" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A84" s="63"/>
+    <row r="84" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="62"/>
       <c r="B84" s="40"/>
       <c r="C84" s="29"/>
-      <c r="D84" s="60"/>
-      <c r="E84" s="40"/>
+      <c r="D84" s="59"/>
+      <c r="E84" s="66"/>
       <c r="F84" s="29"/>
       <c r="G84" s="29"/>
       <c r="H84" s="29"/>
@@ -7751,12 +7897,12 @@
       <c r="M84" s="29"/>
       <c r="N84" s="29"/>
     </row>
-    <row r="85" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A85" s="63"/>
+    <row r="85" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="62"/>
       <c r="B85" s="40"/>
       <c r="C85" s="29"/>
-      <c r="D85" s="60"/>
-      <c r="E85" s="40"/>
+      <c r="D85" s="59"/>
+      <c r="E85" s="66"/>
       <c r="F85" s="29"/>
       <c r="G85" s="29"/>
       <c r="H85" s="29"/>
@@ -7767,12 +7913,12 @@
       <c r="M85" s="29"/>
       <c r="N85" s="29"/>
     </row>
-    <row r="86" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A86" s="63"/>
+    <row r="86" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="62"/>
       <c r="B86" s="40"/>
       <c r="C86" s="29"/>
-      <c r="D86" s="60"/>
-      <c r="E86" s="40"/>
+      <c r="D86" s="59"/>
+      <c r="E86" s="66"/>
       <c r="F86" s="29"/>
       <c r="G86" s="29"/>
       <c r="H86" s="29"/>
@@ -7783,12 +7929,12 @@
       <c r="M86" s="29"/>
       <c r="N86" s="29"/>
     </row>
-    <row r="87" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A87" s="63"/>
+    <row r="87" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="62"/>
       <c r="B87" s="40"/>
       <c r="C87" s="29"/>
-      <c r="D87" s="60"/>
-      <c r="E87" s="40"/>
+      <c r="D87" s="59"/>
+      <c r="E87" s="66"/>
       <c r="F87" s="29"/>
       <c r="G87" s="29"/>
       <c r="H87" s="29"/>
@@ -7799,12 +7945,12 @@
       <c r="M87" s="29"/>
       <c r="N87" s="29"/>
     </row>
-    <row r="88" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A88" s="63"/>
+    <row r="88" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="62"/>
       <c r="B88" s="40"/>
       <c r="C88" s="29"/>
-      <c r="D88" s="60"/>
-      <c r="E88" s="40"/>
+      <c r="D88" s="59"/>
+      <c r="E88" s="66"/>
       <c r="F88" s="29"/>
       <c r="G88" s="29"/>
       <c r="H88" s="29"/>
@@ -7815,12 +7961,12 @@
       <c r="M88" s="29"/>
       <c r="N88" s="29"/>
     </row>
-    <row r="89" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A89" s="63"/>
+    <row r="89" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="62"/>
       <c r="B89" s="40"/>
       <c r="C89" s="29"/>
-      <c r="D89" s="60"/>
-      <c r="E89" s="40"/>
+      <c r="D89" s="59"/>
+      <c r="E89" s="66"/>
       <c r="F89" s="29"/>
       <c r="G89" s="29"/>
       <c r="H89" s="29"/>
@@ -7831,12 +7977,12 @@
       <c r="M89" s="29"/>
       <c r="N89" s="29"/>
     </row>
-    <row r="90" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A90" s="63"/>
+    <row r="90" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="62"/>
       <c r="B90" s="40"/>
       <c r="C90" s="29"/>
-      <c r="D90" s="60"/>
-      <c r="E90" s="40"/>
+      <c r="D90" s="59"/>
+      <c r="E90" s="66"/>
       <c r="F90" s="29"/>
       <c r="G90" s="29"/>
       <c r="H90" s="29"/>
@@ -7847,12 +7993,12 @@
       <c r="M90" s="29"/>
       <c r="N90" s="29"/>
     </row>
-    <row r="91" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A91" s="63"/>
+    <row r="91" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="62"/>
       <c r="B91" s="40"/>
       <c r="C91" s="29"/>
-      <c r="D91" s="60"/>
-      <c r="E91" s="40"/>
+      <c r="D91" s="59"/>
+      <c r="E91" s="66"/>
       <c r="F91" s="29"/>
       <c r="G91" s="29"/>
       <c r="H91" s="29"/>
@@ -7863,12 +8009,12 @@
       <c r="M91" s="29"/>
       <c r="N91" s="29"/>
     </row>
-    <row r="92" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A92" s="63"/>
+    <row r="92" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="62"/>
       <c r="B92" s="40"/>
       <c r="C92" s="29"/>
-      <c r="D92" s="60"/>
-      <c r="E92" s="40"/>
+      <c r="D92" s="59"/>
+      <c r="E92" s="66"/>
       <c r="F92" s="29"/>
       <c r="G92" s="29"/>
       <c r="H92" s="29"/>
@@ -7879,12 +8025,12 @@
       <c r="M92" s="29"/>
       <c r="N92" s="29"/>
     </row>
-    <row r="93" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A93" s="63"/>
+    <row r="93" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="62"/>
       <c r="B93" s="40"/>
       <c r="C93" s="29"/>
-      <c r="D93" s="60"/>
-      <c r="E93" s="40"/>
+      <c r="D93" s="59"/>
+      <c r="E93" s="66"/>
       <c r="F93" s="29"/>
       <c r="G93" s="29"/>
       <c r="H93" s="29"/>
@@ -7895,12 +8041,12 @@
       <c r="M93" s="29"/>
       <c r="N93" s="29"/>
     </row>
-    <row r="94" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A94" s="63"/>
+    <row r="94" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="62"/>
       <c r="B94" s="40"/>
       <c r="C94" s="29"/>
-      <c r="D94" s="60"/>
-      <c r="E94" s="40"/>
+      <c r="D94" s="59"/>
+      <c r="E94" s="66"/>
       <c r="F94" s="29"/>
       <c r="G94" s="29"/>
       <c r="H94" s="29"/>
@@ -7911,12 +8057,12 @@
       <c r="M94" s="29"/>
       <c r="N94" s="29"/>
     </row>
-    <row r="95" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A95" s="63"/>
+    <row r="95" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="62"/>
       <c r="B95" s="40"/>
       <c r="C95" s="29"/>
-      <c r="D95" s="60"/>
-      <c r="E95" s="40"/>
+      <c r="D95" s="59"/>
+      <c r="E95" s="66"/>
       <c r="F95" s="29"/>
       <c r="G95" s="29"/>
       <c r="H95" s="29"/>
@@ -7927,12 +8073,12 @@
       <c r="M95" s="29"/>
       <c r="N95" s="29"/>
     </row>
-    <row r="96" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A96" s="63"/>
+    <row r="96" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="62"/>
       <c r="B96" s="40"/>
       <c r="C96" s="29"/>
-      <c r="D96" s="60"/>
-      <c r="E96" s="40"/>
+      <c r="D96" s="59"/>
+      <c r="E96" s="66"/>
       <c r="F96" s="29"/>
       <c r="G96" s="29"/>
       <c r="H96" s="29"/>
@@ -7943,12 +8089,12 @@
       <c r="M96" s="29"/>
       <c r="N96" s="29"/>
     </row>
-    <row r="97" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A97" s="65"/>
+    <row r="97" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="64"/>
       <c r="B97" s="40"/>
       <c r="C97" s="29"/>
-      <c r="D97" s="60"/>
-      <c r="E97" s="40"/>
+      <c r="D97" s="59"/>
+      <c r="E97" s="66"/>
       <c r="F97" s="29"/>
       <c r="G97" s="29"/>
       <c r="H97" s="29"/>
@@ -7961,7 +8107,7 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A1:E1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>

--- a/spec/support/validRoSpreadsheet.xlsx
+++ b/spec/support/validRoSpreadsheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stephenhalliburton/workspace/caseflow/spec/support/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E37B50C1-60AE-0A47-A5C3-44A930A35156}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E49DA910-796D-8243-8CAA-8AB813C0AF03}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1120" yWindow="460" windowWidth="37280" windowHeight="21140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18220" yWindow="460" windowWidth="20840" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RO Non-Availability Dates" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="124">
   <si>
     <t>Example</t>
   </si>
@@ -391,6 +391,9 @@
   </si>
   <si>
     <t>Number of Hearing Days Without Rooms in Date Range</t>
+  </si>
+  <si>
+    <t>NVHQ</t>
   </si>
 </sst>
 </file>
@@ -400,7 +403,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -473,6 +476,17 @@
       <color indexed="11"/>
       <name val="Source Sans Pro"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -524,7 +538,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="36">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -969,11 +983,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="12"/>
+      </left>
+      <right style="thin">
+        <color indexed="12"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1081,7 +1108,6 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="5" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -1107,6 +1133,10 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="12" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="36" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2299,8 +2329,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IT50"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AU1" workbookViewId="0">
+      <selection activeCell="BE10" sqref="BE10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2311,27 +2341,29 @@
     <col min="4" max="4" width="13.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="14.5" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.5" style="1" customWidth="1"/>
-    <col min="7" max="254" width="11" style="1" customWidth="1"/>
+    <col min="7" max="57" width="11" style="1" customWidth="1"/>
+    <col min="58" max="58" width="11" style="46" customWidth="1"/>
+    <col min="59" max="254" width="11" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:57" ht="56" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:58" ht="56" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="68" t="s">
+      <c r="C1" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
       <c r="P1" s="4"/>
@@ -2376,8 +2408,9 @@
       <c r="BC1" s="4"/>
       <c r="BD1" s="4"/>
       <c r="BE1" s="5"/>
-    </row>
-    <row r="2" spans="1:57" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF1" s="5"/>
+    </row>
+    <row r="2" spans="1:58" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
@@ -2549,8 +2582,11 @@
       <c r="BE2" s="9" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="3" spans="1:57" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF2" s="75" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:58" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>59</v>
       </c>
@@ -2722,8 +2758,11 @@
       <c r="BE3" s="12" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="4" spans="1:57" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF3" s="74" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" spans="1:58" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
         <v>116</v>
       </c>
@@ -2895,8 +2934,11 @@
       <c r="BE4" s="18">
         <v>43114</v>
       </c>
-    </row>
-    <row r="5" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF4" s="77" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="5" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="19"/>
       <c r="B5" s="20">
         <v>43497</v>
@@ -3066,8 +3108,9 @@
       <c r="BE5" s="22">
         <v>43115</v>
       </c>
-    </row>
-    <row r="6" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF5" s="22"/>
+    </row>
+    <row r="6" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="19"/>
       <c r="B6" s="23">
         <v>43540</v>
@@ -3237,8 +3280,9 @@
       <c r="BE6" s="22">
         <v>43225</v>
       </c>
-    </row>
-    <row r="7" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF6" s="22"/>
+    </row>
+    <row r="7" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="19"/>
       <c r="B7" s="24">
         <v>43576</v>
@@ -3408,8 +3452,9 @@
       <c r="BE7" s="22">
         <v>43191</v>
       </c>
-    </row>
-    <row r="8" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF7" s="22"/>
+    </row>
+    <row r="8" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="19"/>
       <c r="B8" s="26">
         <v>43604</v>
@@ -3469,8 +3514,9 @@
       <c r="BC8" s="29"/>
       <c r="BD8" s="29"/>
       <c r="BE8" s="29"/>
-    </row>
-    <row r="9" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF8" s="29"/>
+    </row>
+    <row r="9" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="19"/>
       <c r="B9" s="30"/>
       <c r="C9" s="31"/>
@@ -3528,8 +3574,9 @@
       <c r="BC9" s="29"/>
       <c r="BD9" s="29"/>
       <c r="BE9" s="29"/>
-    </row>
-    <row r="10" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF9" s="29"/>
+    </row>
+    <row r="10" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="19"/>
       <c r="B10" s="32"/>
       <c r="C10" s="33"/>
@@ -3587,8 +3634,9 @@
       <c r="BC10" s="28"/>
       <c r="BD10" s="28"/>
       <c r="BE10" s="28"/>
-    </row>
-    <row r="11" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF10" s="28"/>
+    </row>
+    <row r="11" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="19"/>
       <c r="B11" s="34"/>
       <c r="C11" s="31"/>
@@ -3646,8 +3694,9 @@
       <c r="BC11" s="31"/>
       <c r="BD11" s="31"/>
       <c r="BE11" s="35"/>
-    </row>
-    <row r="12" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF11" s="35"/>
+    </row>
+    <row r="12" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="19"/>
       <c r="B12" s="32"/>
       <c r="C12" s="33"/>
@@ -3705,8 +3754,9 @@
       <c r="BC12" s="33"/>
       <c r="BD12" s="33"/>
       <c r="BE12" s="33"/>
-    </row>
-    <row r="13" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF12" s="33"/>
+    </row>
+    <row r="13" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="19"/>
       <c r="B13" s="34"/>
       <c r="C13" s="31"/>
@@ -3764,8 +3814,9 @@
       <c r="BC13" s="31"/>
       <c r="BD13" s="31"/>
       <c r="BE13" s="35"/>
-    </row>
-    <row r="14" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF13" s="35"/>
+    </row>
+    <row r="14" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="19"/>
       <c r="B14" s="32"/>
       <c r="C14" s="33"/>
@@ -3823,8 +3874,9 @@
       <c r="BC14" s="33"/>
       <c r="BD14" s="33"/>
       <c r="BE14" s="33"/>
-    </row>
-    <row r="15" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF14" s="33"/>
+    </row>
+    <row r="15" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="19"/>
       <c r="B15" s="34"/>
       <c r="C15" s="31"/>
@@ -3882,8 +3934,9 @@
       <c r="BC15" s="31"/>
       <c r="BD15" s="31"/>
       <c r="BE15" s="35"/>
-    </row>
-    <row r="16" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF15" s="35"/>
+    </row>
+    <row r="16" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="19"/>
       <c r="B16" s="32"/>
       <c r="C16" s="33"/>
@@ -3941,8 +3994,9 @@
       <c r="BC16" s="33"/>
       <c r="BD16" s="33"/>
       <c r="BE16" s="33"/>
-    </row>
-    <row r="17" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF16" s="33"/>
+    </row>
+    <row r="17" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="19"/>
       <c r="B17" s="34"/>
       <c r="C17" s="31"/>
@@ -4000,8 +4054,9 @@
       <c r="BC17" s="31"/>
       <c r="BD17" s="31"/>
       <c r="BE17" s="35"/>
-    </row>
-    <row r="18" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF17" s="35"/>
+    </row>
+    <row r="18" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="19"/>
       <c r="B18" s="32"/>
       <c r="C18" s="33"/>
@@ -4059,8 +4114,9 @@
       <c r="BC18" s="33"/>
       <c r="BD18" s="33"/>
       <c r="BE18" s="33"/>
-    </row>
-    <row r="19" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF18" s="33"/>
+    </row>
+    <row r="19" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="19"/>
       <c r="B19" s="34"/>
       <c r="C19" s="31"/>
@@ -4118,8 +4174,9 @@
       <c r="BC19" s="31"/>
       <c r="BD19" s="31"/>
       <c r="BE19" s="35"/>
-    </row>
-    <row r="20" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF19" s="35"/>
+    </row>
+    <row r="20" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="19"/>
       <c r="B20" s="32"/>
       <c r="C20" s="33"/>
@@ -4177,8 +4234,9 @@
       <c r="BC20" s="33"/>
       <c r="BD20" s="33"/>
       <c r="BE20" s="33"/>
-    </row>
-    <row r="21" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF20" s="33"/>
+    </row>
+    <row r="21" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="19"/>
       <c r="B21" s="34"/>
       <c r="C21" s="31"/>
@@ -4236,8 +4294,9 @@
       <c r="BC21" s="31"/>
       <c r="BD21" s="31"/>
       <c r="BE21" s="35"/>
-    </row>
-    <row r="22" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF21" s="35"/>
+    </row>
+    <row r="22" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="19"/>
       <c r="B22" s="32"/>
       <c r="C22" s="33"/>
@@ -4295,8 +4354,9 @@
       <c r="BC22" s="33"/>
       <c r="BD22" s="33"/>
       <c r="BE22" s="33"/>
-    </row>
-    <row r="23" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF22" s="33"/>
+    </row>
+    <row r="23" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="19"/>
       <c r="B23" s="34"/>
       <c r="C23" s="31"/>
@@ -4354,8 +4414,9 @@
       <c r="BC23" s="31"/>
       <c r="BD23" s="31"/>
       <c r="BE23" s="35"/>
-    </row>
-    <row r="24" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF23" s="35"/>
+    </row>
+    <row r="24" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="19"/>
       <c r="B24" s="32"/>
       <c r="C24" s="33"/>
@@ -4413,8 +4474,9 @@
       <c r="BC24" s="33"/>
       <c r="BD24" s="33"/>
       <c r="BE24" s="33"/>
-    </row>
-    <row r="25" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF24" s="33"/>
+    </row>
+    <row r="25" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="19"/>
       <c r="B25" s="34"/>
       <c r="C25" s="31"/>
@@ -4472,8 +4534,9 @@
       <c r="BC25" s="31"/>
       <c r="BD25" s="31"/>
       <c r="BE25" s="35"/>
-    </row>
-    <row r="26" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF25" s="35"/>
+    </row>
+    <row r="26" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="19"/>
       <c r="B26" s="32"/>
       <c r="C26" s="33"/>
@@ -4531,8 +4594,9 @@
       <c r="BC26" s="33"/>
       <c r="BD26" s="33"/>
       <c r="BE26" s="33"/>
-    </row>
-    <row r="27" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF26" s="33"/>
+    </row>
+    <row r="27" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="19"/>
       <c r="B27" s="34"/>
       <c r="C27" s="31"/>
@@ -4590,8 +4654,9 @@
       <c r="BC27" s="31"/>
       <c r="BD27" s="31"/>
       <c r="BE27" s="35"/>
-    </row>
-    <row r="28" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF27" s="35"/>
+    </row>
+    <row r="28" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="19"/>
       <c r="B28" s="32"/>
       <c r="C28" s="33"/>
@@ -4649,8 +4714,9 @@
       <c r="BC28" s="33"/>
       <c r="BD28" s="33"/>
       <c r="BE28" s="33"/>
-    </row>
-    <row r="29" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF28" s="33"/>
+    </row>
+    <row r="29" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="19"/>
       <c r="B29" s="34"/>
       <c r="C29" s="31"/>
@@ -4708,8 +4774,9 @@
       <c r="BC29" s="31"/>
       <c r="BD29" s="31"/>
       <c r="BE29" s="35"/>
-    </row>
-    <row r="30" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF29" s="35"/>
+    </row>
+    <row r="30" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="19"/>
       <c r="B30" s="32"/>
       <c r="C30" s="33"/>
@@ -4767,8 +4834,9 @@
       <c r="BC30" s="33"/>
       <c r="BD30" s="33"/>
       <c r="BE30" s="33"/>
-    </row>
-    <row r="31" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF30" s="33"/>
+    </row>
+    <row r="31" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="19"/>
       <c r="B31" s="34"/>
       <c r="C31" s="31"/>
@@ -4826,8 +4894,9 @@
       <c r="BC31" s="31"/>
       <c r="BD31" s="31"/>
       <c r="BE31" s="35"/>
-    </row>
-    <row r="32" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF31" s="35"/>
+    </row>
+    <row r="32" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="19"/>
       <c r="B32" s="32"/>
       <c r="C32" s="33"/>
@@ -4885,8 +4954,9 @@
       <c r="BC32" s="33"/>
       <c r="BD32" s="33"/>
       <c r="BE32" s="33"/>
-    </row>
-    <row r="33" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF32" s="33"/>
+    </row>
+    <row r="33" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="19"/>
       <c r="B33" s="34"/>
       <c r="C33" s="31"/>
@@ -4944,8 +5014,9 @@
       <c r="BC33" s="31"/>
       <c r="BD33" s="31"/>
       <c r="BE33" s="35"/>
-    </row>
-    <row r="34" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF33" s="35"/>
+    </row>
+    <row r="34" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="19"/>
       <c r="B34" s="32"/>
       <c r="C34" s="33"/>
@@ -5003,8 +5074,9 @@
       <c r="BC34" s="33"/>
       <c r="BD34" s="33"/>
       <c r="BE34" s="33"/>
-    </row>
-    <row r="35" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF34" s="33"/>
+    </row>
+    <row r="35" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="19"/>
       <c r="B35" s="34"/>
       <c r="C35" s="31"/>
@@ -5062,8 +5134,9 @@
       <c r="BC35" s="31"/>
       <c r="BD35" s="31"/>
       <c r="BE35" s="35"/>
-    </row>
-    <row r="36" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF35" s="35"/>
+    </row>
+    <row r="36" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="19"/>
       <c r="B36" s="32"/>
       <c r="C36" s="33"/>
@@ -5121,8 +5194,9 @@
       <c r="BC36" s="33"/>
       <c r="BD36" s="33"/>
       <c r="BE36" s="33"/>
-    </row>
-    <row r="37" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF36" s="33"/>
+    </row>
+    <row r="37" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="19"/>
       <c r="B37" s="34"/>
       <c r="C37" s="31"/>
@@ -5180,8 +5254,9 @@
       <c r="BC37" s="31"/>
       <c r="BD37" s="31"/>
       <c r="BE37" s="35"/>
-    </row>
-    <row r="38" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF37" s="35"/>
+    </row>
+    <row r="38" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="19"/>
       <c r="B38" s="32"/>
       <c r="C38" s="33"/>
@@ -5239,8 +5314,9 @@
       <c r="BC38" s="33"/>
       <c r="BD38" s="33"/>
       <c r="BE38" s="33"/>
-    </row>
-    <row r="39" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF38" s="33"/>
+    </row>
+    <row r="39" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="19"/>
       <c r="B39" s="34"/>
       <c r="C39" s="31"/>
@@ -5298,8 +5374,9 @@
       <c r="BC39" s="31"/>
       <c r="BD39" s="31"/>
       <c r="BE39" s="35"/>
-    </row>
-    <row r="40" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF39" s="35"/>
+    </row>
+    <row r="40" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="19"/>
       <c r="B40" s="32"/>
       <c r="C40" s="33"/>
@@ -5357,8 +5434,9 @@
       <c r="BC40" s="33"/>
       <c r="BD40" s="33"/>
       <c r="BE40" s="33"/>
-    </row>
-    <row r="41" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF40" s="33"/>
+    </row>
+    <row r="41" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="19"/>
       <c r="B41" s="34"/>
       <c r="C41" s="31"/>
@@ -5416,8 +5494,9 @@
       <c r="BC41" s="31"/>
       <c r="BD41" s="31"/>
       <c r="BE41" s="35"/>
-    </row>
-    <row r="42" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF41" s="35"/>
+    </row>
+    <row r="42" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="19"/>
       <c r="B42" s="32"/>
       <c r="C42" s="33"/>
@@ -5475,8 +5554,9 @@
       <c r="BC42" s="33"/>
       <c r="BD42" s="33"/>
       <c r="BE42" s="33"/>
-    </row>
-    <row r="43" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF42" s="33"/>
+    </row>
+    <row r="43" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="19"/>
       <c r="B43" s="34"/>
       <c r="C43" s="31"/>
@@ -5534,8 +5614,9 @@
       <c r="BC43" s="31"/>
       <c r="BD43" s="31"/>
       <c r="BE43" s="35"/>
-    </row>
-    <row r="44" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF43" s="35"/>
+    </row>
+    <row r="44" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="19"/>
       <c r="B44" s="32"/>
       <c r="C44" s="33"/>
@@ -5593,8 +5674,9 @@
       <c r="BC44" s="33"/>
       <c r="BD44" s="33"/>
       <c r="BE44" s="33"/>
-    </row>
-    <row r="45" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF44" s="33"/>
+    </row>
+    <row r="45" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="19"/>
       <c r="B45" s="34"/>
       <c r="C45" s="31"/>
@@ -5652,8 +5734,9 @@
       <c r="BC45" s="31"/>
       <c r="BD45" s="31"/>
       <c r="BE45" s="35"/>
-    </row>
-    <row r="46" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF45" s="35"/>
+    </row>
+    <row r="46" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="19"/>
       <c r="B46" s="32"/>
       <c r="C46" s="33"/>
@@ -5711,8 +5794,9 @@
       <c r="BC46" s="33"/>
       <c r="BD46" s="33"/>
       <c r="BE46" s="33"/>
-    </row>
-    <row r="47" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF46" s="33"/>
+    </row>
+    <row r="47" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="19"/>
       <c r="B47" s="34"/>
       <c r="C47" s="31"/>
@@ -5770,8 +5854,9 @@
       <c r="BC47" s="31"/>
       <c r="BD47" s="31"/>
       <c r="BE47" s="35"/>
-    </row>
-    <row r="48" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF47" s="35"/>
+    </row>
+    <row r="48" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="19"/>
       <c r="B48" s="32"/>
       <c r="C48" s="33"/>
@@ -5829,8 +5914,9 @@
       <c r="BC48" s="33"/>
       <c r="BD48" s="33"/>
       <c r="BE48" s="33"/>
-    </row>
-    <row r="49" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF48" s="33"/>
+    </row>
+    <row r="49" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="19"/>
       <c r="B49" s="34"/>
       <c r="C49" s="31"/>
@@ -5888,8 +5974,9 @@
       <c r="BC49" s="31"/>
       <c r="BD49" s="31"/>
       <c r="BE49" s="35"/>
-    </row>
-    <row r="50" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF49" s="35"/>
+    </row>
+    <row r="50" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="36"/>
       <c r="B50" s="37"/>
       <c r="C50" s="38"/>
@@ -5947,11 +6034,13 @@
       <c r="BC50" s="38"/>
       <c r="BD50" s="38"/>
       <c r="BE50" s="38"/>
+      <c r="BF50" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C1:M1"/>
   </mergeCells>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>
   <headerFooter>
@@ -5976,10 +6065,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="69" t="s">
         <v>118</v>
       </c>
-      <c r="B1" s="71"/>
+      <c r="B1" s="70"/>
       <c r="C1" s="40"/>
       <c r="D1" s="29"/>
       <c r="E1" s="29"/>
@@ -6079,8 +6168,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:IV97"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView showGridLines="0" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B59" sqref="B59:E59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6089,18 +6178,18 @@
     <col min="2" max="2" width="23.5" style="46" customWidth="1"/>
     <col min="3" max="3" width="11" style="46" customWidth="1"/>
     <col min="4" max="4" width="22.5" style="46" customWidth="1"/>
-    <col min="5" max="5" width="23" style="67" customWidth="1"/>
+    <col min="5" max="5" width="23" style="66" customWidth="1"/>
     <col min="6" max="256" width="11" style="46" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="71" t="s">
         <v>119</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="74"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="73"/>
       <c r="F1" s="47"/>
       <c r="G1" s="47"/>
       <c r="H1" s="47"/>
@@ -6148,7 +6237,7 @@
       <c r="D3" s="55">
         <v>10</v>
       </c>
-      <c r="E3" s="65">
+      <c r="E3" s="64">
         <v>50</v>
       </c>
       <c r="F3" s="29"/>
@@ -7483,10 +7572,18 @@
     </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="62"/>
-      <c r="B59" s="63"/>
-      <c r="C59" s="29"/>
-      <c r="D59" s="59"/>
-      <c r="E59" s="66"/>
+      <c r="B59" s="74" t="s">
+        <v>117</v>
+      </c>
+      <c r="C59" s="75" t="s">
+        <v>123</v>
+      </c>
+      <c r="D59" s="76">
+        <v>0</v>
+      </c>
+      <c r="E59" s="76">
+        <v>25</v>
+      </c>
       <c r="F59" s="29"/>
       <c r="G59" s="29"/>
       <c r="H59" s="29"/>
@@ -7502,7 +7599,7 @@
       <c r="B60" s="40"/>
       <c r="C60" s="29"/>
       <c r="D60" s="59"/>
-      <c r="E60" s="66"/>
+      <c r="E60" s="65"/>
       <c r="F60" s="29"/>
       <c r="G60" s="29"/>
       <c r="H60" s="29"/>
@@ -7518,7 +7615,7 @@
       <c r="B61" s="40"/>
       <c r="C61" s="29"/>
       <c r="D61" s="59"/>
-      <c r="E61" s="66"/>
+      <c r="E61" s="65"/>
       <c r="F61" s="29"/>
       <c r="G61" s="29"/>
       <c r="H61" s="29"/>
@@ -7534,7 +7631,7 @@
       <c r="B62" s="40"/>
       <c r="C62" s="29"/>
       <c r="D62" s="59"/>
-      <c r="E62" s="66"/>
+      <c r="E62" s="65"/>
       <c r="F62" s="29"/>
       <c r="G62" s="29"/>
       <c r="H62" s="29"/>
@@ -7550,7 +7647,7 @@
       <c r="B63" s="40"/>
       <c r="C63" s="29"/>
       <c r="D63" s="59"/>
-      <c r="E63" s="66"/>
+      <c r="E63" s="65"/>
       <c r="F63" s="29"/>
       <c r="G63" s="29"/>
       <c r="H63" s="29"/>
@@ -7566,7 +7663,7 @@
       <c r="B64" s="40"/>
       <c r="C64" s="29"/>
       <c r="D64" s="59"/>
-      <c r="E64" s="66"/>
+      <c r="E64" s="65"/>
       <c r="F64" s="29"/>
       <c r="G64" s="29"/>
       <c r="H64" s="29"/>
@@ -7582,7 +7679,7 @@
       <c r="B65" s="40"/>
       <c r="C65" s="29"/>
       <c r="D65" s="59"/>
-      <c r="E65" s="66"/>
+      <c r="E65" s="65"/>
       <c r="F65" s="29"/>
       <c r="G65" s="29"/>
       <c r="H65" s="29"/>
@@ -7598,7 +7695,7 @@
       <c r="B66" s="40"/>
       <c r="C66" s="29"/>
       <c r="D66" s="59"/>
-      <c r="E66" s="66"/>
+      <c r="E66" s="65"/>
       <c r="F66" s="29"/>
       <c r="G66" s="29"/>
       <c r="H66" s="29"/>
@@ -7614,7 +7711,7 @@
       <c r="B67" s="40"/>
       <c r="C67" s="29"/>
       <c r="D67" s="59"/>
-      <c r="E67" s="66"/>
+      <c r="E67" s="65"/>
       <c r="F67" s="29"/>
       <c r="G67" s="29"/>
       <c r="H67" s="29"/>
@@ -7630,7 +7727,7 @@
       <c r="B68" s="40"/>
       <c r="C68" s="29"/>
       <c r="D68" s="59"/>
-      <c r="E68" s="66"/>
+      <c r="E68" s="65"/>
       <c r="F68" s="29"/>
       <c r="G68" s="29"/>
       <c r="H68" s="29"/>
@@ -7646,7 +7743,7 @@
       <c r="B69" s="40"/>
       <c r="C69" s="29"/>
       <c r="D69" s="59"/>
-      <c r="E69" s="66"/>
+      <c r="E69" s="65"/>
       <c r="F69" s="29"/>
       <c r="G69" s="29"/>
       <c r="H69" s="29"/>
@@ -7662,7 +7759,7 @@
       <c r="B70" s="40"/>
       <c r="C70" s="29"/>
       <c r="D70" s="59"/>
-      <c r="E70" s="66"/>
+      <c r="E70" s="65"/>
       <c r="F70" s="29"/>
       <c r="G70" s="29"/>
       <c r="H70" s="29"/>
@@ -7678,7 +7775,7 @@
       <c r="B71" s="40"/>
       <c r="C71" s="29"/>
       <c r="D71" s="59"/>
-      <c r="E71" s="66"/>
+      <c r="E71" s="65"/>
       <c r="F71" s="29"/>
       <c r="G71" s="29"/>
       <c r="H71" s="29"/>
@@ -7694,7 +7791,7 @@
       <c r="B72" s="40"/>
       <c r="C72" s="29"/>
       <c r="D72" s="59"/>
-      <c r="E72" s="66"/>
+      <c r="E72" s="65"/>
       <c r="F72" s="29"/>
       <c r="G72" s="29"/>
       <c r="H72" s="29"/>
@@ -7710,7 +7807,7 @@
       <c r="B73" s="40"/>
       <c r="C73" s="29"/>
       <c r="D73" s="59"/>
-      <c r="E73" s="66"/>
+      <c r="E73" s="65"/>
       <c r="F73" s="29"/>
       <c r="G73" s="29"/>
       <c r="H73" s="29"/>
@@ -7726,7 +7823,7 @@
       <c r="B74" s="40"/>
       <c r="C74" s="29"/>
       <c r="D74" s="59"/>
-      <c r="E74" s="66"/>
+      <c r="E74" s="65"/>
       <c r="F74" s="29"/>
       <c r="G74" s="29"/>
       <c r="H74" s="29"/>
@@ -7742,7 +7839,7 @@
       <c r="B75" s="40"/>
       <c r="C75" s="29"/>
       <c r="D75" s="59"/>
-      <c r="E75" s="66"/>
+      <c r="E75" s="65"/>
       <c r="F75" s="29"/>
       <c r="G75" s="29"/>
       <c r="H75" s="29"/>
@@ -7758,7 +7855,7 @@
       <c r="B76" s="40"/>
       <c r="C76" s="29"/>
       <c r="D76" s="59"/>
-      <c r="E76" s="66"/>
+      <c r="E76" s="65"/>
       <c r="F76" s="29"/>
       <c r="G76" s="29"/>
       <c r="H76" s="29"/>
@@ -7774,7 +7871,7 @@
       <c r="B77" s="40"/>
       <c r="C77" s="29"/>
       <c r="D77" s="59"/>
-      <c r="E77" s="66"/>
+      <c r="E77" s="65"/>
       <c r="F77" s="29"/>
       <c r="G77" s="29"/>
       <c r="H77" s="29"/>
@@ -7790,7 +7887,7 @@
       <c r="B78" s="40"/>
       <c r="C78" s="29"/>
       <c r="D78" s="59"/>
-      <c r="E78" s="66"/>
+      <c r="E78" s="65"/>
       <c r="F78" s="29"/>
       <c r="G78" s="29"/>
       <c r="H78" s="29"/>
@@ -7806,7 +7903,7 @@
       <c r="B79" s="40"/>
       <c r="C79" s="29"/>
       <c r="D79" s="59"/>
-      <c r="E79" s="66"/>
+      <c r="E79" s="65"/>
       <c r="F79" s="29"/>
       <c r="G79" s="29"/>
       <c r="H79" s="29"/>
@@ -7822,7 +7919,7 @@
       <c r="B80" s="40"/>
       <c r="C80" s="29"/>
       <c r="D80" s="59"/>
-      <c r="E80" s="66"/>
+      <c r="E80" s="65"/>
       <c r="F80" s="29"/>
       <c r="G80" s="29"/>
       <c r="H80" s="29"/>
@@ -7838,7 +7935,7 @@
       <c r="B81" s="40"/>
       <c r="C81" s="29"/>
       <c r="D81" s="59"/>
-      <c r="E81" s="66"/>
+      <c r="E81" s="65"/>
       <c r="F81" s="29"/>
       <c r="G81" s="29"/>
       <c r="H81" s="29"/>
@@ -7854,7 +7951,7 @@
       <c r="B82" s="40"/>
       <c r="C82" s="29"/>
       <c r="D82" s="59"/>
-      <c r="E82" s="66"/>
+      <c r="E82" s="65"/>
       <c r="F82" s="29"/>
       <c r="G82" s="29"/>
       <c r="H82" s="29"/>
@@ -7870,7 +7967,7 @@
       <c r="B83" s="40"/>
       <c r="C83" s="29"/>
       <c r="D83" s="59"/>
-      <c r="E83" s="66"/>
+      <c r="E83" s="65"/>
       <c r="F83" s="29"/>
       <c r="G83" s="29"/>
       <c r="H83" s="29"/>
@@ -7886,7 +7983,7 @@
       <c r="B84" s="40"/>
       <c r="C84" s="29"/>
       <c r="D84" s="59"/>
-      <c r="E84" s="66"/>
+      <c r="E84" s="65"/>
       <c r="F84" s="29"/>
       <c r="G84" s="29"/>
       <c r="H84" s="29"/>
@@ -7902,7 +7999,7 @@
       <c r="B85" s="40"/>
       <c r="C85" s="29"/>
       <c r="D85" s="59"/>
-      <c r="E85" s="66"/>
+      <c r="E85" s="65"/>
       <c r="F85" s="29"/>
       <c r="G85" s="29"/>
       <c r="H85" s="29"/>
@@ -7918,7 +8015,7 @@
       <c r="B86" s="40"/>
       <c r="C86" s="29"/>
       <c r="D86" s="59"/>
-      <c r="E86" s="66"/>
+      <c r="E86" s="65"/>
       <c r="F86" s="29"/>
       <c r="G86" s="29"/>
       <c r="H86" s="29"/>
@@ -7934,7 +8031,7 @@
       <c r="B87" s="40"/>
       <c r="C87" s="29"/>
       <c r="D87" s="59"/>
-      <c r="E87" s="66"/>
+      <c r="E87" s="65"/>
       <c r="F87" s="29"/>
       <c r="G87" s="29"/>
       <c r="H87" s="29"/>
@@ -7950,7 +8047,7 @@
       <c r="B88" s="40"/>
       <c r="C88" s="29"/>
       <c r="D88" s="59"/>
-      <c r="E88" s="66"/>
+      <c r="E88" s="65"/>
       <c r="F88" s="29"/>
       <c r="G88" s="29"/>
       <c r="H88" s="29"/>
@@ -7966,7 +8063,7 @@
       <c r="B89" s="40"/>
       <c r="C89" s="29"/>
       <c r="D89" s="59"/>
-      <c r="E89" s="66"/>
+      <c r="E89" s="65"/>
       <c r="F89" s="29"/>
       <c r="G89" s="29"/>
       <c r="H89" s="29"/>
@@ -7982,7 +8079,7 @@
       <c r="B90" s="40"/>
       <c r="C90" s="29"/>
       <c r="D90" s="59"/>
-      <c r="E90" s="66"/>
+      <c r="E90" s="65"/>
       <c r="F90" s="29"/>
       <c r="G90" s="29"/>
       <c r="H90" s="29"/>
@@ -7998,7 +8095,7 @@
       <c r="B91" s="40"/>
       <c r="C91" s="29"/>
       <c r="D91" s="59"/>
-      <c r="E91" s="66"/>
+      <c r="E91" s="65"/>
       <c r="F91" s="29"/>
       <c r="G91" s="29"/>
       <c r="H91" s="29"/>
@@ -8014,7 +8111,7 @@
       <c r="B92" s="40"/>
       <c r="C92" s="29"/>
       <c r="D92" s="59"/>
-      <c r="E92" s="66"/>
+      <c r="E92" s="65"/>
       <c r="F92" s="29"/>
       <c r="G92" s="29"/>
       <c r="H92" s="29"/>
@@ -8030,7 +8127,7 @@
       <c r="B93" s="40"/>
       <c r="C93" s="29"/>
       <c r="D93" s="59"/>
-      <c r="E93" s="66"/>
+      <c r="E93" s="65"/>
       <c r="F93" s="29"/>
       <c r="G93" s="29"/>
       <c r="H93" s="29"/>
@@ -8046,7 +8143,7 @@
       <c r="B94" s="40"/>
       <c r="C94" s="29"/>
       <c r="D94" s="59"/>
-      <c r="E94" s="66"/>
+      <c r="E94" s="65"/>
       <c r="F94" s="29"/>
       <c r="G94" s="29"/>
       <c r="H94" s="29"/>
@@ -8062,7 +8159,7 @@
       <c r="B95" s="40"/>
       <c r="C95" s="29"/>
       <c r="D95" s="59"/>
-      <c r="E95" s="66"/>
+      <c r="E95" s="65"/>
       <c r="F95" s="29"/>
       <c r="G95" s="29"/>
       <c r="H95" s="29"/>
@@ -8078,7 +8175,7 @@
       <c r="B96" s="40"/>
       <c r="C96" s="29"/>
       <c r="D96" s="59"/>
-      <c r="E96" s="66"/>
+      <c r="E96" s="65"/>
       <c r="F96" s="29"/>
       <c r="G96" s="29"/>
       <c r="H96" s="29"/>
@@ -8090,11 +8187,11 @@
       <c r="N96" s="29"/>
     </row>
     <row r="97" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="64"/>
+      <c r="A97" s="63"/>
       <c r="B97" s="40"/>
       <c r="C97" s="29"/>
       <c r="D97" s="59"/>
-      <c r="E97" s="66"/>
+      <c r="E97" s="65"/>
       <c r="F97" s="29"/>
       <c r="G97" s="29"/>
       <c r="H97" s="29"/>
@@ -8109,6 +8206,7 @@
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>
   <headerFooter>

--- a/spec/support/validRoSpreadsheet.xlsx
+++ b/spec/support/validRoSpreadsheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stephenhalliburton/workspace/caseflow/spec/support/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E49DA910-796D-8243-8CAA-8AB813C0AF03}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8B0FD0E-34E8-ED42-B398-34D876A22743}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18220" yWindow="460" windowWidth="20840" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13040" yWindow="460" windowWidth="25360" windowHeight="17440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RO Non-Availability Dates" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="129">
   <si>
     <t>Example</t>
   </si>
@@ -384,16 +384,31 @@
     <t>Allocation of Regional Office Video Hearings</t>
   </si>
   <si>
-    <t>Number of Hearing Days Allocated in Date Range</t>
-  </si>
-  <si>
     <t xml:space="preserve">Des Moines, IA </t>
   </si>
   <si>
-    <t>Number of Hearing Days Without Rooms in Date Range</t>
-  </si>
-  <si>
     <t>NVHQ</t>
+  </si>
+  <si>
+    <t>Virtual Days</t>
+  </si>
+  <si>
+    <t># of Video Days</t>
+  </si>
+  <si>
+    <t># of Virtual Days</t>
+  </si>
+  <si>
+    <t>Number of Time Slots</t>
+  </si>
+  <si>
+    <t>Length of Time Slots (Minutes)</t>
+  </si>
+  <si>
+    <t>Start Time (Eastern)</t>
+  </si>
+  <si>
+    <t>8:30</t>
   </si>
 </sst>
 </file>
@@ -403,7 +418,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -487,8 +502,45 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF595959"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -537,8 +589,38 @@
         <bgColor auto="1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDAEEF3"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="37">
+  <borders count="43">
     <border>
       <left/>
       <right/>
@@ -840,71 +922,6 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="12"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="12"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="12"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="12"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="12"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color indexed="12"/>
       </left>
       <right style="thin">
@@ -960,34 +977,6 @@
         <color indexed="12"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="12"/>
-      </right>
-      <top style="thin">
-        <color indexed="12"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="12"/>
-      </left>
-      <right style="thin">
         <color indexed="12"/>
       </right>
       <top style="thin">
@@ -996,11 +985,170 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFAAAAAA"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFAAAAAA"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFAAAAAA"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFAAAAAA"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFAAAAAA"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFAAAAAA"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFAAAAAA"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFAAAAAA"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFAAAAAA"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1079,39 +1227,24 @@
     <xf numFmtId="0" fontId="11" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="5" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="12" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1124,19 +1257,55 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="9" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="9" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="12" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="36" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="14" fillId="10" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="10" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="10" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="10" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="10" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="11" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="11" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="11" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="11" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="12" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="13" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="16" fillId="13" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="16" fillId="13" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="12" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2329,7 +2498,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IT50"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AU1" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="AU1" workbookViewId="0">
       <selection activeCell="BE10" sqref="BE10"/>
     </sheetView>
   </sheetViews>
@@ -2351,19 +2520,19 @@
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="67" t="s">
+      <c r="C1" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
       <c r="P1" s="4"/>
@@ -2582,8 +2751,8 @@
       <c r="BE2" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="BF2" s="75" t="s">
-        <v>123</v>
+      <c r="BF2" s="59" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:58" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -2758,7 +2927,7 @@
       <c r="BE3" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="BF3" s="74" t="s">
+      <c r="BF3" s="58" t="s">
         <v>117</v>
       </c>
     </row>
@@ -2934,7 +3103,7 @@
       <c r="BE4" s="18">
         <v>43114</v>
       </c>
-      <c r="BF4" s="77" t="s">
+      <c r="BF4" s="61" t="s">
         <v>117</v>
       </c>
     </row>
@@ -6065,10 +6234,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="64" t="s">
         <v>118</v>
       </c>
-      <c r="B1" s="70"/>
+      <c r="B1" s="65"/>
       <c r="C1" s="40"/>
       <c r="D1" s="29"/>
       <c r="E1" s="29"/>
@@ -6166,10 +6335,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:IV97"/>
+  <dimension ref="A1:IV98"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B59" sqref="B59:E59"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6178,21 +6347,23 @@
     <col min="2" max="2" width="23.5" style="46" customWidth="1"/>
     <col min="3" max="3" width="11" style="46" customWidth="1"/>
     <col min="4" max="4" width="22.5" style="46" customWidth="1"/>
-    <col min="5" max="5" width="23" style="66" customWidth="1"/>
-    <col min="6" max="256" width="11" style="46" customWidth="1"/>
+    <col min="5" max="5" width="23" style="57" customWidth="1"/>
+    <col min="6" max="7" width="11" style="46" customWidth="1"/>
+    <col min="8" max="8" width="11" style="85" customWidth="1"/>
+    <col min="9" max="256" width="11" style="46" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="66" t="s">
         <v>119</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="68"/>
       <c r="I1" s="47"/>
       <c r="J1" s="47"/>
       <c r="K1" s="47"/>
@@ -6201,22 +6372,16 @@
       <c r="N1" s="47"/>
     </row>
     <row r="2" spans="1:14" ht="47" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="48"/>
-      <c r="B2" s="49" t="s">
-        <v>59</v>
-      </c>
-      <c r="C2" s="50" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="51" t="s">
-        <v>120</v>
-      </c>
-      <c r="E2" s="51" t="s">
+      <c r="A2" s="69"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="71" t="s">
         <v>122</v>
       </c>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="73"/>
       <c r="I2" s="29"/>
       <c r="J2" s="29"/>
       <c r="K2" s="29"/>
@@ -6224,25 +6389,29 @@
       <c r="M2" s="29"/>
       <c r="N2" s="29"/>
     </row>
-    <row r="3" spans="1:14" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="53" t="s">
-        <v>60</v>
-      </c>
-      <c r="C3" s="54" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="55">
-        <v>10</v>
-      </c>
-      <c r="E3" s="64">
-        <v>50</v>
-      </c>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
+    <row r="3" spans="1:14" ht="47" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="74"/>
+      <c r="B3" s="75" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="76" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="77" t="s">
+        <v>123</v>
+      </c>
+      <c r="E3" s="77" t="s">
+        <v>124</v>
+      </c>
+      <c r="F3" s="78" t="s">
+        <v>125</v>
+      </c>
+      <c r="G3" s="77" t="s">
+        <v>126</v>
+      </c>
+      <c r="H3" s="77" t="s">
+        <v>127</v>
+      </c>
       <c r="I3" s="29"/>
       <c r="J3" s="29"/>
       <c r="K3" s="29"/>
@@ -6250,23 +6419,31 @@
       <c r="M3" s="29"/>
       <c r="N3" s="29"/>
     </row>
-    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="56"/>
-      <c r="B4" s="57" t="s">
-        <v>61</v>
-      </c>
-      <c r="C4" s="58" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="59">
-        <v>4</v>
-      </c>
-      <c r="E4" s="59">
-        <v>9</v>
-      </c>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
+    <row r="4" spans="1:14" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="80" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="81" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="82">
+        <v>10</v>
+      </c>
+      <c r="E4" s="83">
+        <v>50</v>
+      </c>
+      <c r="F4" s="83">
+        <v>8</v>
+      </c>
+      <c r="G4" s="83">
+        <v>60</v>
+      </c>
+      <c r="H4" s="84" t="s">
+        <v>128</v>
+      </c>
       <c r="I4" s="29"/>
       <c r="J4" s="29"/>
       <c r="K4" s="29"/>
@@ -6275,22 +6452,28 @@
       <c r="N4" s="29"/>
     </row>
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="60"/>
-      <c r="B5" s="57" t="s">
-        <v>62</v>
-      </c>
-      <c r="C5" s="58" t="s">
+      <c r="A5" s="48"/>
+      <c r="B5" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="51">
+        <v>4</v>
+      </c>
+      <c r="E5" s="51">
+        <v>9</v>
+      </c>
+      <c r="F5" s="29">
         <v>5</v>
       </c>
-      <c r="D5" s="59">
-        <v>10</v>
-      </c>
-      <c r="E5" s="59">
-        <v>50</v>
-      </c>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
+      <c r="G5" s="29">
+        <v>30</v>
+      </c>
+      <c r="H5" s="86" t="s">
+        <v>128</v>
+      </c>
       <c r="I5" s="29"/>
       <c r="J5" s="29"/>
       <c r="K5" s="29"/>
@@ -6299,22 +6482,28 @@
       <c r="N5" s="29"/>
     </row>
     <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="61"/>
-      <c r="B6" s="57" t="s">
-        <v>63</v>
-      </c>
-      <c r="C6" s="58" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="59">
-        <v>11</v>
-      </c>
-      <c r="E6" s="59">
-        <v>11</v>
-      </c>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
+      <c r="A6" s="52"/>
+      <c r="B6" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="51">
+        <v>10</v>
+      </c>
+      <c r="E6" s="51">
+        <v>50</v>
+      </c>
+      <c r="F6" s="29">
+        <v>5</v>
+      </c>
+      <c r="G6" s="29">
+        <v>30</v>
+      </c>
+      <c r="H6" s="86" t="s">
+        <v>128</v>
+      </c>
       <c r="I6" s="29"/>
       <c r="J6" s="29"/>
       <c r="K6" s="29"/>
@@ -6323,22 +6512,28 @@
       <c r="N6" s="29"/>
     </row>
     <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="62"/>
-      <c r="B7" s="57" t="s">
-        <v>64</v>
-      </c>
-      <c r="C7" s="58" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="59">
-        <v>4</v>
-      </c>
-      <c r="E7" s="59">
-        <v>4</v>
-      </c>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
+      <c r="A7" s="53"/>
+      <c r="B7" s="49" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="51">
+        <v>11</v>
+      </c>
+      <c r="E7" s="51">
+        <v>11</v>
+      </c>
+      <c r="F7" s="29">
+        <v>5</v>
+      </c>
+      <c r="G7" s="29">
+        <v>30</v>
+      </c>
+      <c r="H7" s="86" t="s">
+        <v>128</v>
+      </c>
       <c r="I7" s="29"/>
       <c r="J7" s="29"/>
       <c r="K7" s="29"/>
@@ -6347,22 +6542,28 @@
       <c r="N7" s="29"/>
     </row>
     <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="62"/>
-      <c r="B8" s="57" t="s">
-        <v>65</v>
-      </c>
-      <c r="C8" s="58" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="59">
-        <v>6</v>
-      </c>
-      <c r="E8" s="59">
-        <v>20</v>
-      </c>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
+      <c r="A8" s="54"/>
+      <c r="B8" s="49" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="51">
+        <v>4</v>
+      </c>
+      <c r="E8" s="51">
+        <v>4</v>
+      </c>
+      <c r="F8" s="29">
+        <v>5</v>
+      </c>
+      <c r="G8" s="29">
+        <v>30</v>
+      </c>
+      <c r="H8" s="86" t="s">
+        <v>128</v>
+      </c>
       <c r="I8" s="29"/>
       <c r="J8" s="29"/>
       <c r="K8" s="29"/>
@@ -6371,22 +6572,28 @@
       <c r="N8" s="29"/>
     </row>
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="62"/>
-      <c r="B9" s="57" t="s">
-        <v>66</v>
-      </c>
-      <c r="C9" s="58" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="59">
-        <v>3</v>
-      </c>
-      <c r="E9" s="59">
-        <v>3</v>
-      </c>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
+      <c r="A9" s="54"/>
+      <c r="B9" s="49" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="51">
+        <v>6</v>
+      </c>
+      <c r="E9" s="51">
+        <v>20</v>
+      </c>
+      <c r="F9" s="29">
+        <v>5</v>
+      </c>
+      <c r="G9" s="29">
+        <v>30</v>
+      </c>
+      <c r="H9" s="86" t="s">
+        <v>128</v>
+      </c>
       <c r="I9" s="29"/>
       <c r="J9" s="29"/>
       <c r="K9" s="29"/>
@@ -6395,22 +6602,28 @@
       <c r="N9" s="29"/>
     </row>
     <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="62"/>
-      <c r="B10" s="57" t="s">
-        <v>67</v>
-      </c>
-      <c r="C10" s="58" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="59">
-        <v>1</v>
-      </c>
-      <c r="E10" s="59">
-        <v>1</v>
-      </c>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
+      <c r="A10" s="54"/>
+      <c r="B10" s="49" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="51">
+        <v>3</v>
+      </c>
+      <c r="E10" s="51">
+        <v>3</v>
+      </c>
+      <c r="F10" s="29">
+        <v>5</v>
+      </c>
+      <c r="G10" s="29">
+        <v>30</v>
+      </c>
+      <c r="H10" s="86" t="s">
+        <v>128</v>
+      </c>
       <c r="I10" s="29"/>
       <c r="J10" s="29"/>
       <c r="K10" s="29"/>
@@ -6419,22 +6632,28 @@
       <c r="N10" s="29"/>
     </row>
     <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="62"/>
-      <c r="B11" s="57" t="s">
-        <v>68</v>
-      </c>
-      <c r="C11" s="58" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="59">
-        <v>6</v>
-      </c>
-      <c r="E11" s="59">
-        <v>6</v>
-      </c>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
+      <c r="A11" s="54"/>
+      <c r="B11" s="49" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="51">
+        <v>1</v>
+      </c>
+      <c r="E11" s="51">
+        <v>1</v>
+      </c>
+      <c r="F11" s="29">
+        <v>5</v>
+      </c>
+      <c r="G11" s="29">
+        <v>30</v>
+      </c>
+      <c r="H11" s="86" t="s">
+        <v>128</v>
+      </c>
       <c r="I11" s="29"/>
       <c r="J11" s="29"/>
       <c r="K11" s="29"/>
@@ -6443,22 +6662,28 @@
       <c r="N11" s="29"/>
     </row>
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="62"/>
-      <c r="B12" s="57" t="s">
-        <v>69</v>
-      </c>
-      <c r="C12" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="59">
-        <v>8</v>
-      </c>
-      <c r="E12" s="59">
-        <v>8</v>
-      </c>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
+      <c r="A12" s="54"/>
+      <c r="B12" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="50" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="51">
+        <v>6</v>
+      </c>
+      <c r="E12" s="51">
+        <v>6</v>
+      </c>
+      <c r="F12" s="29">
+        <v>5</v>
+      </c>
+      <c r="G12" s="29">
+        <v>30</v>
+      </c>
+      <c r="H12" s="86" t="s">
+        <v>128</v>
+      </c>
       <c r="I12" s="29"/>
       <c r="J12" s="29"/>
       <c r="K12" s="29"/>
@@ -6467,22 +6692,28 @@
       <c r="N12" s="29"/>
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="62"/>
-      <c r="B13" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="C13" s="58" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="59">
-        <v>9</v>
-      </c>
-      <c r="E13" s="59">
-        <v>60</v>
-      </c>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
+      <c r="A13" s="54"/>
+      <c r="B13" s="49" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="51">
+        <v>8</v>
+      </c>
+      <c r="E13" s="51">
+        <v>8</v>
+      </c>
+      <c r="F13" s="29">
+        <v>5</v>
+      </c>
+      <c r="G13" s="29">
+        <v>30</v>
+      </c>
+      <c r="H13" s="86" t="s">
+        <v>128</v>
+      </c>
       <c r="I13" s="29"/>
       <c r="J13" s="29"/>
       <c r="K13" s="29"/>
@@ -6491,22 +6722,28 @@
       <c r="N13" s="29"/>
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="62"/>
-      <c r="B14" s="57" t="s">
-        <v>71</v>
-      </c>
-      <c r="C14" s="58" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="59">
+      <c r="A14" s="54"/>
+      <c r="B14" s="49" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="51">
+        <v>9</v>
+      </c>
+      <c r="E14" s="51">
+        <v>60</v>
+      </c>
+      <c r="F14" s="29">
         <v>5</v>
       </c>
-      <c r="E14" s="59">
-        <v>5</v>
-      </c>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
+      <c r="G14" s="29">
+        <v>30</v>
+      </c>
+      <c r="H14" s="86" t="s">
+        <v>128</v>
+      </c>
       <c r="I14" s="29"/>
       <c r="J14" s="29"/>
       <c r="K14" s="29"/>
@@ -6515,22 +6752,28 @@
       <c r="N14" s="29"/>
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="62"/>
-      <c r="B15" s="57" t="s">
-        <v>72</v>
-      </c>
-      <c r="C15" s="58" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="59">
-        <v>4</v>
-      </c>
-      <c r="E15" s="59">
-        <v>4</v>
-      </c>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
+      <c r="A15" s="54"/>
+      <c r="B15" s="49" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" s="50" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="51">
+        <v>5</v>
+      </c>
+      <c r="E15" s="51">
+        <v>5</v>
+      </c>
+      <c r="F15" s="29">
+        <v>5</v>
+      </c>
+      <c r="G15" s="29">
+        <v>30</v>
+      </c>
+      <c r="H15" s="86" t="s">
+        <v>128</v>
+      </c>
       <c r="I15" s="29"/>
       <c r="J15" s="29"/>
       <c r="K15" s="29"/>
@@ -6539,22 +6782,28 @@
       <c r="N15" s="29"/>
     </row>
     <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="62"/>
-      <c r="B16" s="57" t="s">
-        <v>73</v>
-      </c>
-      <c r="C16" s="58" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="59">
-        <v>2</v>
-      </c>
-      <c r="E16" s="59">
-        <v>2</v>
-      </c>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
+      <c r="A16" s="54"/>
+      <c r="B16" s="49" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="51">
+        <v>4</v>
+      </c>
+      <c r="E16" s="51">
+        <v>4</v>
+      </c>
+      <c r="F16" s="29">
+        <v>5</v>
+      </c>
+      <c r="G16" s="29">
+        <v>30</v>
+      </c>
+      <c r="H16" s="86" t="s">
+        <v>128</v>
+      </c>
       <c r="I16" s="29"/>
       <c r="J16" s="29"/>
       <c r="K16" s="29"/>
@@ -6563,22 +6812,28 @@
       <c r="N16" s="29"/>
     </row>
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="62"/>
-      <c r="B17" s="57" t="s">
-        <v>74</v>
-      </c>
-      <c r="C17" s="58" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" s="59">
+      <c r="A17" s="54"/>
+      <c r="B17" s="49" t="s">
+        <v>73</v>
+      </c>
+      <c r="C17" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="51">
+        <v>2</v>
+      </c>
+      <c r="E17" s="51">
+        <v>2</v>
+      </c>
+      <c r="F17" s="29">
         <v>5</v>
       </c>
-      <c r="E17" s="59">
-        <v>5</v>
-      </c>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
+      <c r="G17" s="29">
+        <v>30</v>
+      </c>
+      <c r="H17" s="86" t="s">
+        <v>128</v>
+      </c>
       <c r="I17" s="29"/>
       <c r="J17" s="29"/>
       <c r="K17" s="29"/>
@@ -6587,22 +6842,28 @@
       <c r="N17" s="29"/>
     </row>
     <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="62"/>
-      <c r="B18" s="57" t="s">
-        <v>75</v>
-      </c>
-      <c r="C18" s="58" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18" s="59">
-        <v>7</v>
-      </c>
-      <c r="E18" s="59">
-        <v>7</v>
-      </c>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="29"/>
+      <c r="A18" s="54"/>
+      <c r="B18" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" s="50" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="51">
+        <v>5</v>
+      </c>
+      <c r="E18" s="51">
+        <v>5</v>
+      </c>
+      <c r="F18" s="29">
+        <v>5</v>
+      </c>
+      <c r="G18" s="29">
+        <v>30</v>
+      </c>
+      <c r="H18" s="86" t="s">
+        <v>128</v>
+      </c>
       <c r="I18" s="29"/>
       <c r="J18" s="29"/>
       <c r="K18" s="29"/>
@@ -6611,22 +6872,28 @@
       <c r="N18" s="29"/>
     </row>
     <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="62"/>
-      <c r="B19" s="57" t="s">
-        <v>76</v>
-      </c>
-      <c r="C19" s="58" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" s="59">
-        <v>15</v>
-      </c>
-      <c r="E19" s="59">
-        <v>115</v>
-      </c>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="29"/>
+      <c r="A19" s="54"/>
+      <c r="B19" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="51">
+        <v>7</v>
+      </c>
+      <c r="E19" s="51">
+        <v>7</v>
+      </c>
+      <c r="F19" s="29">
+        <v>5</v>
+      </c>
+      <c r="G19" s="29">
+        <v>30</v>
+      </c>
+      <c r="H19" s="86" t="s">
+        <v>128</v>
+      </c>
       <c r="I19" s="29"/>
       <c r="J19" s="29"/>
       <c r="K19" s="29"/>
@@ -6635,22 +6902,28 @@
       <c r="N19" s="29"/>
     </row>
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="62"/>
-      <c r="B20" s="57" t="s">
-        <v>77</v>
-      </c>
-      <c r="C20" s="58" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20" s="59">
-        <v>3</v>
-      </c>
-      <c r="E20" s="59">
-        <v>3</v>
-      </c>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
+      <c r="A20" s="54"/>
+      <c r="B20" s="49" t="s">
+        <v>76</v>
+      </c>
+      <c r="C20" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="51">
+        <v>15</v>
+      </c>
+      <c r="E20" s="51">
+        <v>115</v>
+      </c>
+      <c r="F20" s="29">
+        <v>5</v>
+      </c>
+      <c r="G20" s="29">
+        <v>30</v>
+      </c>
+      <c r="H20" s="86" t="s">
+        <v>128</v>
+      </c>
       <c r="I20" s="29"/>
       <c r="J20" s="29"/>
       <c r="K20" s="29"/>
@@ -6659,22 +6932,28 @@
       <c r="N20" s="29"/>
     </row>
     <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="62"/>
-      <c r="B21" s="57" t="s">
-        <v>78</v>
-      </c>
-      <c r="C21" s="58" t="s">
-        <v>21</v>
-      </c>
-      <c r="D21" s="59">
-        <v>7</v>
-      </c>
-      <c r="E21" s="59">
-        <v>7</v>
-      </c>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="29"/>
+      <c r="A21" s="54"/>
+      <c r="B21" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="C21" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="51">
+        <v>3</v>
+      </c>
+      <c r="E21" s="51">
+        <v>3</v>
+      </c>
+      <c r="F21" s="29">
+        <v>5</v>
+      </c>
+      <c r="G21" s="29">
+        <v>30</v>
+      </c>
+      <c r="H21" s="86" t="s">
+        <v>128</v>
+      </c>
       <c r="I21" s="29"/>
       <c r="J21" s="29"/>
       <c r="K21" s="29"/>
@@ -6683,22 +6962,28 @@
       <c r="N21" s="29"/>
     </row>
     <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="62"/>
-      <c r="B22" s="57" t="s">
-        <v>79</v>
-      </c>
-      <c r="C22" s="58" t="s">
-        <v>22</v>
-      </c>
-      <c r="D22" s="59">
-        <v>0</v>
-      </c>
-      <c r="E22" s="59">
-        <v>0</v>
-      </c>
-      <c r="F22" s="29"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="29"/>
+      <c r="A22" s="54"/>
+      <c r="B22" s="49" t="s">
+        <v>78</v>
+      </c>
+      <c r="C22" s="50" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="51">
+        <v>7</v>
+      </c>
+      <c r="E22" s="51">
+        <v>7</v>
+      </c>
+      <c r="F22" s="29">
+        <v>5</v>
+      </c>
+      <c r="G22" s="29">
+        <v>30</v>
+      </c>
+      <c r="H22" s="86" t="s">
+        <v>128</v>
+      </c>
       <c r="I22" s="29"/>
       <c r="J22" s="29"/>
       <c r="K22" s="29"/>
@@ -6707,22 +6992,28 @@
       <c r="N22" s="29"/>
     </row>
     <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="62"/>
-      <c r="B23" s="57" t="s">
-        <v>80</v>
-      </c>
-      <c r="C23" s="58" t="s">
-        <v>23</v>
-      </c>
-      <c r="D23" s="59">
-        <v>3</v>
-      </c>
-      <c r="E23" s="59">
+      <c r="A23" s="54"/>
+      <c r="B23" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="C23" s="50" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="51">
+        <v>0</v>
+      </c>
+      <c r="E23" s="51">
+        <v>0</v>
+      </c>
+      <c r="F23" s="29">
+        <v>5</v>
+      </c>
+      <c r="G23" s="29">
         <v>30</v>
       </c>
-      <c r="F23" s="29"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="29"/>
+      <c r="H23" s="86" t="s">
+        <v>128</v>
+      </c>
       <c r="I23" s="29"/>
       <c r="J23" s="29"/>
       <c r="K23" s="29"/>
@@ -6731,22 +7022,28 @@
       <c r="N23" s="29"/>
     </row>
     <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="62"/>
-      <c r="B24" s="57" t="s">
-        <v>81</v>
-      </c>
-      <c r="C24" s="58" t="s">
-        <v>24</v>
-      </c>
-      <c r="D24" s="59">
-        <v>7</v>
-      </c>
-      <c r="E24" s="59">
-        <v>7</v>
-      </c>
-      <c r="F24" s="29"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="29"/>
+      <c r="A24" s="54"/>
+      <c r="B24" s="49" t="s">
+        <v>80</v>
+      </c>
+      <c r="C24" s="50" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24" s="51">
+        <v>3</v>
+      </c>
+      <c r="E24" s="51">
+        <v>30</v>
+      </c>
+      <c r="F24" s="29">
+        <v>5</v>
+      </c>
+      <c r="G24" s="29">
+        <v>30</v>
+      </c>
+      <c r="H24" s="86" t="s">
+        <v>128</v>
+      </c>
       <c r="I24" s="29"/>
       <c r="J24" s="29"/>
       <c r="K24" s="29"/>
@@ -6755,22 +7052,28 @@
       <c r="N24" s="29"/>
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="62"/>
-      <c r="B25" s="57" t="s">
-        <v>82</v>
-      </c>
-      <c r="C25" s="58" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" s="59">
-        <v>3</v>
-      </c>
-      <c r="E25" s="59">
-        <v>3</v>
-      </c>
-      <c r="F25" s="29"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="29"/>
+      <c r="A25" s="54"/>
+      <c r="B25" s="49" t="s">
+        <v>81</v>
+      </c>
+      <c r="C25" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" s="51">
+        <v>7</v>
+      </c>
+      <c r="E25" s="51">
+        <v>7</v>
+      </c>
+      <c r="F25" s="29">
+        <v>5</v>
+      </c>
+      <c r="G25" s="29">
+        <v>30</v>
+      </c>
+      <c r="H25" s="86" t="s">
+        <v>128</v>
+      </c>
       <c r="I25" s="29"/>
       <c r="J25" s="29"/>
       <c r="K25" s="29"/>
@@ -6779,22 +7082,28 @@
       <c r="N25" s="29"/>
     </row>
     <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="62"/>
-      <c r="B26" s="57" t="s">
-        <v>83</v>
-      </c>
-      <c r="C26" s="58" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" s="59">
-        <v>2</v>
-      </c>
-      <c r="E26" s="59">
-        <v>2</v>
-      </c>
-      <c r="F26" s="29"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="29"/>
+      <c r="A26" s="54"/>
+      <c r="B26" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="C26" s="50" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" s="51">
+        <v>3</v>
+      </c>
+      <c r="E26" s="51">
+        <v>3</v>
+      </c>
+      <c r="F26" s="29">
+        <v>5</v>
+      </c>
+      <c r="G26" s="29">
+        <v>30</v>
+      </c>
+      <c r="H26" s="86" t="s">
+        <v>128</v>
+      </c>
       <c r="I26" s="29"/>
       <c r="J26" s="29"/>
       <c r="K26" s="29"/>
@@ -6803,22 +7112,28 @@
       <c r="N26" s="29"/>
     </row>
     <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="62"/>
-      <c r="B27" s="57" t="s">
-        <v>84</v>
-      </c>
-      <c r="C27" s="58" t="s">
-        <v>27</v>
-      </c>
-      <c r="D27" s="59">
+      <c r="A27" s="54"/>
+      <c r="B27" s="49" t="s">
+        <v>83</v>
+      </c>
+      <c r="C27" s="50" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" s="51">
+        <v>2</v>
+      </c>
+      <c r="E27" s="51">
+        <v>2</v>
+      </c>
+      <c r="F27" s="29">
         <v>5</v>
       </c>
-      <c r="E27" s="59">
-        <v>5</v>
-      </c>
-      <c r="F27" s="29"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="29"/>
+      <c r="G27" s="29">
+        <v>30</v>
+      </c>
+      <c r="H27" s="86" t="s">
+        <v>128</v>
+      </c>
       <c r="I27" s="29"/>
       <c r="J27" s="29"/>
       <c r="K27" s="29"/>
@@ -6827,22 +7142,28 @@
       <c r="N27" s="29"/>
     </row>
     <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="62"/>
-      <c r="B28" s="57" t="s">
-        <v>85</v>
-      </c>
-      <c r="C28" s="58" t="s">
-        <v>28</v>
-      </c>
-      <c r="D28" s="59">
-        <v>7</v>
-      </c>
-      <c r="E28" s="59">
-        <v>7</v>
-      </c>
-      <c r="F28" s="29"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="29"/>
+      <c r="A28" s="54"/>
+      <c r="B28" s="49" t="s">
+        <v>84</v>
+      </c>
+      <c r="C28" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" s="51">
+        <v>5</v>
+      </c>
+      <c r="E28" s="51">
+        <v>5</v>
+      </c>
+      <c r="F28" s="29">
+        <v>5</v>
+      </c>
+      <c r="G28" s="29">
+        <v>30</v>
+      </c>
+      <c r="H28" s="86" t="s">
+        <v>128</v>
+      </c>
       <c r="I28" s="29"/>
       <c r="J28" s="29"/>
       <c r="K28" s="29"/>
@@ -6851,22 +7172,28 @@
       <c r="N28" s="29"/>
     </row>
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="62"/>
-      <c r="B29" s="57" t="s">
-        <v>86</v>
-      </c>
-      <c r="C29" s="58" t="s">
-        <v>29</v>
-      </c>
-      <c r="D29" s="59">
-        <v>4</v>
-      </c>
-      <c r="E29" s="59">
-        <v>4</v>
-      </c>
-      <c r="F29" s="29"/>
-      <c r="G29" s="29"/>
-      <c r="H29" s="29"/>
+      <c r="A29" s="54"/>
+      <c r="B29" s="49" t="s">
+        <v>85</v>
+      </c>
+      <c r="C29" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="D29" s="51">
+        <v>7</v>
+      </c>
+      <c r="E29" s="51">
+        <v>7</v>
+      </c>
+      <c r="F29" s="29">
+        <v>5</v>
+      </c>
+      <c r="G29" s="29">
+        <v>30</v>
+      </c>
+      <c r="H29" s="86" t="s">
+        <v>128</v>
+      </c>
       <c r="I29" s="29"/>
       <c r="J29" s="29"/>
       <c r="K29" s="29"/>
@@ -6875,22 +7202,28 @@
       <c r="N29" s="29"/>
     </row>
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="62"/>
-      <c r="B30" s="57" t="s">
-        <v>87</v>
-      </c>
-      <c r="C30" s="58" t="s">
+      <c r="A30" s="54"/>
+      <c r="B30" s="49" t="s">
+        <v>86</v>
+      </c>
+      <c r="C30" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="D30" s="51">
+        <v>4</v>
+      </c>
+      <c r="E30" s="51">
+        <v>4</v>
+      </c>
+      <c r="F30" s="29">
+        <v>5</v>
+      </c>
+      <c r="G30" s="29">
         <v>30</v>
       </c>
-      <c r="D30" s="59">
-        <v>4</v>
-      </c>
-      <c r="E30" s="59">
-        <v>4</v>
-      </c>
-      <c r="F30" s="29"/>
-      <c r="G30" s="29"/>
-      <c r="H30" s="29"/>
+      <c r="H30" s="86" t="s">
+        <v>128</v>
+      </c>
       <c r="I30" s="29"/>
       <c r="J30" s="29"/>
       <c r="K30" s="29"/>
@@ -6899,22 +7232,28 @@
       <c r="N30" s="29"/>
     </row>
     <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="62"/>
-      <c r="B31" s="57" t="s">
-        <v>121</v>
-      </c>
-      <c r="C31" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="D31" s="59">
-        <v>2</v>
-      </c>
-      <c r="E31" s="59">
-        <v>2</v>
-      </c>
-      <c r="F31" s="29"/>
-      <c r="G31" s="29"/>
-      <c r="H31" s="29"/>
+      <c r="A31" s="54"/>
+      <c r="B31" s="49" t="s">
+        <v>87</v>
+      </c>
+      <c r="C31" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="D31" s="51">
+        <v>4</v>
+      </c>
+      <c r="E31" s="51">
+        <v>4</v>
+      </c>
+      <c r="F31" s="29">
+        <v>5</v>
+      </c>
+      <c r="G31" s="29">
+        <v>30</v>
+      </c>
+      <c r="H31" s="86" t="s">
+        <v>128</v>
+      </c>
       <c r="I31" s="29"/>
       <c r="J31" s="29"/>
       <c r="K31" s="29"/>
@@ -6923,22 +7262,28 @@
       <c r="N31" s="29"/>
     </row>
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="62"/>
-      <c r="B32" s="57" t="s">
-        <v>89</v>
-      </c>
-      <c r="C32" s="58" t="s">
-        <v>32</v>
-      </c>
-      <c r="D32" s="59">
+      <c r="A32" s="54"/>
+      <c r="B32" s="49" t="s">
+        <v>120</v>
+      </c>
+      <c r="C32" s="50" t="s">
+        <v>31</v>
+      </c>
+      <c r="D32" s="51">
+        <v>2</v>
+      </c>
+      <c r="E32" s="51">
+        <v>2</v>
+      </c>
+      <c r="F32" s="29">
         <v>5</v>
       </c>
-      <c r="E32" s="59">
-        <v>5</v>
-      </c>
-      <c r="F32" s="29"/>
-      <c r="G32" s="29"/>
-      <c r="H32" s="29"/>
+      <c r="G32" s="29">
+        <v>30</v>
+      </c>
+      <c r="H32" s="86" t="s">
+        <v>128</v>
+      </c>
       <c r="I32" s="29"/>
       <c r="J32" s="29"/>
       <c r="K32" s="29"/>
@@ -6947,22 +7292,28 @@
       <c r="N32" s="29"/>
     </row>
     <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="62"/>
-      <c r="B33" s="57" t="s">
-        <v>90</v>
-      </c>
-      <c r="C33" s="58" t="s">
-        <v>33</v>
-      </c>
-      <c r="D33" s="59">
-        <v>7</v>
-      </c>
-      <c r="E33" s="59">
-        <v>7</v>
-      </c>
-      <c r="F33" s="29"/>
-      <c r="G33" s="29"/>
-      <c r="H33" s="29"/>
+      <c r="A33" s="54"/>
+      <c r="B33" s="49" t="s">
+        <v>89</v>
+      </c>
+      <c r="C33" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D33" s="51">
+        <v>5</v>
+      </c>
+      <c r="E33" s="51">
+        <v>5</v>
+      </c>
+      <c r="F33" s="29">
+        <v>5</v>
+      </c>
+      <c r="G33" s="29">
+        <v>30</v>
+      </c>
+      <c r="H33" s="86" t="s">
+        <v>128</v>
+      </c>
       <c r="I33" s="29"/>
       <c r="J33" s="29"/>
       <c r="K33" s="29"/>
@@ -6971,22 +7322,28 @@
       <c r="N33" s="29"/>
     </row>
     <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="62"/>
-      <c r="B34" s="57" t="s">
-        <v>91</v>
-      </c>
-      <c r="C34" s="58" t="s">
-        <v>34</v>
-      </c>
-      <c r="D34" s="59">
-        <v>9</v>
-      </c>
-      <c r="E34" s="59">
-        <v>9</v>
-      </c>
-      <c r="F34" s="29"/>
-      <c r="G34" s="29"/>
-      <c r="H34" s="29"/>
+      <c r="A34" s="54"/>
+      <c r="B34" s="49" t="s">
+        <v>90</v>
+      </c>
+      <c r="C34" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="D34" s="51">
+        <v>7</v>
+      </c>
+      <c r="E34" s="51">
+        <v>7</v>
+      </c>
+      <c r="F34" s="29">
+        <v>5</v>
+      </c>
+      <c r="G34" s="29">
+        <v>30</v>
+      </c>
+      <c r="H34" s="86" t="s">
+        <v>128</v>
+      </c>
       <c r="I34" s="29"/>
       <c r="J34" s="29"/>
       <c r="K34" s="29"/>
@@ -6995,22 +7352,28 @@
       <c r="N34" s="29"/>
     </row>
     <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="62"/>
-      <c r="B35" s="57" t="s">
-        <v>92</v>
-      </c>
-      <c r="C35" s="58" t="s">
-        <v>35</v>
-      </c>
-      <c r="D35" s="59">
-        <v>4</v>
-      </c>
-      <c r="E35" s="59">
-        <v>4</v>
-      </c>
-      <c r="F35" s="29"/>
-      <c r="G35" s="29"/>
-      <c r="H35" s="29"/>
+      <c r="A35" s="54"/>
+      <c r="B35" s="49" t="s">
+        <v>91</v>
+      </c>
+      <c r="C35" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="D35" s="51">
+        <v>9</v>
+      </c>
+      <c r="E35" s="51">
+        <v>9</v>
+      </c>
+      <c r="F35" s="29">
+        <v>5</v>
+      </c>
+      <c r="G35" s="29">
+        <v>30</v>
+      </c>
+      <c r="H35" s="86" t="s">
+        <v>128</v>
+      </c>
       <c r="I35" s="29"/>
       <c r="J35" s="29"/>
       <c r="K35" s="29"/>
@@ -7019,22 +7382,28 @@
       <c r="N35" s="29"/>
     </row>
     <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="62"/>
-      <c r="B36" s="57" t="s">
-        <v>93</v>
-      </c>
-      <c r="C36" s="58" t="s">
-        <v>36</v>
-      </c>
-      <c r="D36" s="59">
-        <v>2</v>
-      </c>
-      <c r="E36" s="59">
-        <v>2</v>
-      </c>
-      <c r="F36" s="29"/>
-      <c r="G36" s="29"/>
-      <c r="H36" s="29"/>
+      <c r="A36" s="54"/>
+      <c r="B36" s="49" t="s">
+        <v>92</v>
+      </c>
+      <c r="C36" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="D36" s="51">
+        <v>4</v>
+      </c>
+      <c r="E36" s="51">
+        <v>4</v>
+      </c>
+      <c r="F36" s="29">
+        <v>5</v>
+      </c>
+      <c r="G36" s="29">
+        <v>30</v>
+      </c>
+      <c r="H36" s="86" t="s">
+        <v>128</v>
+      </c>
       <c r="I36" s="29"/>
       <c r="J36" s="29"/>
       <c r="K36" s="29"/>
@@ -7043,22 +7412,28 @@
       <c r="N36" s="29"/>
     </row>
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="62"/>
-      <c r="B37" s="57" t="s">
-        <v>94</v>
-      </c>
-      <c r="C37" s="58" t="s">
-        <v>37</v>
-      </c>
-      <c r="D37" s="59">
-        <v>6</v>
-      </c>
-      <c r="E37" s="59">
-        <v>6</v>
-      </c>
-      <c r="F37" s="29"/>
-      <c r="G37" s="29"/>
-      <c r="H37" s="29"/>
+      <c r="A37" s="54"/>
+      <c r="B37" s="49" t="s">
+        <v>93</v>
+      </c>
+      <c r="C37" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="D37" s="51">
+        <v>2</v>
+      </c>
+      <c r="E37" s="51">
+        <v>2</v>
+      </c>
+      <c r="F37" s="29">
+        <v>5</v>
+      </c>
+      <c r="G37" s="29">
+        <v>30</v>
+      </c>
+      <c r="H37" s="86" t="s">
+        <v>128</v>
+      </c>
       <c r="I37" s="29"/>
       <c r="J37" s="29"/>
       <c r="K37" s="29"/>
@@ -7067,22 +7442,28 @@
       <c r="N37" s="29"/>
     </row>
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="62"/>
-      <c r="B38" s="57" t="s">
-        <v>95</v>
-      </c>
-      <c r="C38" s="58" t="s">
-        <v>38</v>
-      </c>
-      <c r="D38" s="59">
-        <v>3</v>
-      </c>
-      <c r="E38" s="59">
-        <v>3</v>
-      </c>
-      <c r="F38" s="29"/>
-      <c r="G38" s="29"/>
-      <c r="H38" s="29"/>
+      <c r="A38" s="54"/>
+      <c r="B38" s="49" t="s">
+        <v>94</v>
+      </c>
+      <c r="C38" s="50" t="s">
+        <v>37</v>
+      </c>
+      <c r="D38" s="51">
+        <v>6</v>
+      </c>
+      <c r="E38" s="51">
+        <v>6</v>
+      </c>
+      <c r="F38" s="29">
+        <v>5</v>
+      </c>
+      <c r="G38" s="29">
+        <v>30</v>
+      </c>
+      <c r="H38" s="86" t="s">
+        <v>128</v>
+      </c>
       <c r="I38" s="29"/>
       <c r="J38" s="29"/>
       <c r="K38" s="29"/>
@@ -7091,22 +7472,28 @@
       <c r="N38" s="29"/>
     </row>
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="62"/>
-      <c r="B39" s="57" t="s">
-        <v>96</v>
-      </c>
-      <c r="C39" s="58" t="s">
-        <v>39</v>
-      </c>
-      <c r="D39" s="59">
-        <v>2</v>
-      </c>
-      <c r="E39" s="59">
-        <v>2</v>
-      </c>
-      <c r="F39" s="29"/>
-      <c r="G39" s="29"/>
-      <c r="H39" s="29"/>
+      <c r="A39" s="54"/>
+      <c r="B39" s="49" t="s">
+        <v>95</v>
+      </c>
+      <c r="C39" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="D39" s="51">
+        <v>3</v>
+      </c>
+      <c r="E39" s="51">
+        <v>3</v>
+      </c>
+      <c r="F39" s="29">
+        <v>5</v>
+      </c>
+      <c r="G39" s="29">
+        <v>30</v>
+      </c>
+      <c r="H39" s="86" t="s">
+        <v>128</v>
+      </c>
       <c r="I39" s="29"/>
       <c r="J39" s="29"/>
       <c r="K39" s="29"/>
@@ -7115,22 +7502,28 @@
       <c r="N39" s="29"/>
     </row>
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="62"/>
-      <c r="B40" s="57" t="s">
-        <v>97</v>
-      </c>
-      <c r="C40" s="58" t="s">
-        <v>40</v>
-      </c>
-      <c r="D40" s="59">
-        <v>6</v>
-      </c>
-      <c r="E40" s="59">
-        <v>6</v>
-      </c>
-      <c r="F40" s="29"/>
-      <c r="G40" s="29"/>
-      <c r="H40" s="29"/>
+      <c r="A40" s="54"/>
+      <c r="B40" s="49" t="s">
+        <v>96</v>
+      </c>
+      <c r="C40" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="D40" s="51">
+        <v>2</v>
+      </c>
+      <c r="E40" s="51">
+        <v>2</v>
+      </c>
+      <c r="F40" s="29">
+        <v>5</v>
+      </c>
+      <c r="G40" s="29">
+        <v>30</v>
+      </c>
+      <c r="H40" s="86" t="s">
+        <v>128</v>
+      </c>
       <c r="I40" s="29"/>
       <c r="J40" s="29"/>
       <c r="K40" s="29"/>
@@ -7139,22 +7532,28 @@
       <c r="N40" s="29"/>
     </row>
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="62"/>
-      <c r="B41" s="57" t="s">
-        <v>98</v>
-      </c>
-      <c r="C41" s="58" t="s">
-        <v>41</v>
-      </c>
-      <c r="D41" s="59">
+      <c r="A41" s="54"/>
+      <c r="B41" s="49" t="s">
+        <v>97</v>
+      </c>
+      <c r="C41" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="D41" s="51">
+        <v>6</v>
+      </c>
+      <c r="E41" s="51">
+        <v>6</v>
+      </c>
+      <c r="F41" s="29">
         <v>5</v>
       </c>
-      <c r="E41" s="59">
-        <v>5</v>
-      </c>
-      <c r="F41" s="29"/>
-      <c r="G41" s="29"/>
-      <c r="H41" s="29"/>
+      <c r="G41" s="29">
+        <v>30</v>
+      </c>
+      <c r="H41" s="86" t="s">
+        <v>128</v>
+      </c>
       <c r="I41" s="29"/>
       <c r="J41" s="29"/>
       <c r="K41" s="29"/>
@@ -7163,22 +7562,28 @@
       <c r="N41" s="29"/>
     </row>
     <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="62"/>
-      <c r="B42" s="57" t="s">
-        <v>99</v>
-      </c>
-      <c r="C42" s="58" t="s">
-        <v>42</v>
-      </c>
-      <c r="D42" s="59">
-        <v>3</v>
-      </c>
-      <c r="E42" s="59">
-        <v>3</v>
-      </c>
-      <c r="F42" s="29"/>
-      <c r="G42" s="29"/>
-      <c r="H42" s="29"/>
+      <c r="A42" s="54"/>
+      <c r="B42" s="49" t="s">
+        <v>98</v>
+      </c>
+      <c r="C42" s="50" t="s">
+        <v>41</v>
+      </c>
+      <c r="D42" s="51">
+        <v>5</v>
+      </c>
+      <c r="E42" s="51">
+        <v>5</v>
+      </c>
+      <c r="F42" s="29">
+        <v>5</v>
+      </c>
+      <c r="G42" s="29">
+        <v>30</v>
+      </c>
+      <c r="H42" s="86" t="s">
+        <v>128</v>
+      </c>
       <c r="I42" s="29"/>
       <c r="J42" s="29"/>
       <c r="K42" s="29"/>
@@ -7187,22 +7592,28 @@
       <c r="N42" s="29"/>
     </row>
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="62"/>
-      <c r="B43" s="57" t="s">
-        <v>100</v>
-      </c>
-      <c r="C43" s="58" t="s">
-        <v>43</v>
-      </c>
-      <c r="D43" s="59">
+      <c r="A43" s="54"/>
+      <c r="B43" s="49" t="s">
+        <v>99</v>
+      </c>
+      <c r="C43" s="50" t="s">
+        <v>42</v>
+      </c>
+      <c r="D43" s="51">
+        <v>3</v>
+      </c>
+      <c r="E43" s="51">
+        <v>3</v>
+      </c>
+      <c r="F43" s="29">
         <v>5</v>
       </c>
-      <c r="E43" s="59">
-        <v>5</v>
-      </c>
-      <c r="F43" s="29"/>
-      <c r="G43" s="29"/>
-      <c r="H43" s="29"/>
+      <c r="G43" s="29">
+        <v>30</v>
+      </c>
+      <c r="H43" s="86" t="s">
+        <v>128</v>
+      </c>
       <c r="I43" s="29"/>
       <c r="J43" s="29"/>
       <c r="K43" s="29"/>
@@ -7211,22 +7622,28 @@
       <c r="N43" s="29"/>
     </row>
     <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="62"/>
-      <c r="B44" s="57" t="s">
-        <v>101</v>
-      </c>
-      <c r="C44" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="D44" s="59">
-        <v>36</v>
-      </c>
-      <c r="E44" s="59">
-        <v>36</v>
-      </c>
-      <c r="F44" s="29"/>
-      <c r="G44" s="29"/>
-      <c r="H44" s="29"/>
+      <c r="A44" s="54"/>
+      <c r="B44" s="49" t="s">
+        <v>100</v>
+      </c>
+      <c r="C44" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="D44" s="51">
+        <v>5</v>
+      </c>
+      <c r="E44" s="51">
+        <v>5</v>
+      </c>
+      <c r="F44" s="29">
+        <v>5</v>
+      </c>
+      <c r="G44" s="29">
+        <v>30</v>
+      </c>
+      <c r="H44" s="86" t="s">
+        <v>128</v>
+      </c>
       <c r="I44" s="29"/>
       <c r="J44" s="29"/>
       <c r="K44" s="29"/>
@@ -7235,22 +7652,28 @@
       <c r="N44" s="29"/>
     </row>
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="62"/>
-      <c r="B45" s="57" t="s">
-        <v>102</v>
-      </c>
-      <c r="C45" s="58" t="s">
-        <v>45</v>
-      </c>
-      <c r="D45" s="59">
-        <v>7</v>
-      </c>
-      <c r="E45" s="59">
-        <v>7</v>
-      </c>
-      <c r="F45" s="29"/>
-      <c r="G45" s="29"/>
-      <c r="H45" s="29"/>
+      <c r="A45" s="54"/>
+      <c r="B45" s="49" t="s">
+        <v>101</v>
+      </c>
+      <c r="C45" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="D45" s="51">
+        <v>36</v>
+      </c>
+      <c r="E45" s="51">
+        <v>36</v>
+      </c>
+      <c r="F45" s="29">
+        <v>5</v>
+      </c>
+      <c r="G45" s="29">
+        <v>30</v>
+      </c>
+      <c r="H45" s="86" t="s">
+        <v>128</v>
+      </c>
       <c r="I45" s="29"/>
       <c r="J45" s="29"/>
       <c r="K45" s="29"/>
@@ -7259,22 +7682,28 @@
       <c r="N45" s="29"/>
     </row>
     <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="62"/>
-      <c r="B46" s="57" t="s">
-        <v>103</v>
-      </c>
-      <c r="C46" s="58" t="s">
-        <v>46</v>
-      </c>
-      <c r="D46" s="59">
-        <v>1</v>
-      </c>
-      <c r="E46" s="59">
-        <v>1</v>
-      </c>
-      <c r="F46" s="29"/>
-      <c r="G46" s="29"/>
-      <c r="H46" s="29"/>
+      <c r="A46" s="54"/>
+      <c r="B46" s="49" t="s">
+        <v>102</v>
+      </c>
+      <c r="C46" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="D46" s="51">
+        <v>7</v>
+      </c>
+      <c r="E46" s="51">
+        <v>7</v>
+      </c>
+      <c r="F46" s="29">
+        <v>5</v>
+      </c>
+      <c r="G46" s="29">
+        <v>30</v>
+      </c>
+      <c r="H46" s="86" t="s">
+        <v>128</v>
+      </c>
       <c r="I46" s="29"/>
       <c r="J46" s="29"/>
       <c r="K46" s="29"/>
@@ -7283,22 +7712,28 @@
       <c r="N46" s="29"/>
     </row>
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="62"/>
-      <c r="B47" s="57" t="s">
-        <v>104</v>
-      </c>
-      <c r="C47" s="58" t="s">
-        <v>47</v>
-      </c>
-      <c r="D47" s="59">
-        <v>4</v>
-      </c>
-      <c r="E47" s="59">
-        <v>4</v>
-      </c>
-      <c r="F47" s="29"/>
-      <c r="G47" s="29"/>
-      <c r="H47" s="29"/>
+      <c r="A47" s="54"/>
+      <c r="B47" s="49" t="s">
+        <v>103</v>
+      </c>
+      <c r="C47" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="D47" s="51">
+        <v>1</v>
+      </c>
+      <c r="E47" s="51">
+        <v>1</v>
+      </c>
+      <c r="F47" s="29">
+        <v>5</v>
+      </c>
+      <c r="G47" s="29">
+        <v>30</v>
+      </c>
+      <c r="H47" s="86" t="s">
+        <v>128</v>
+      </c>
       <c r="I47" s="29"/>
       <c r="J47" s="29"/>
       <c r="K47" s="29"/>
@@ -7307,22 +7742,28 @@
       <c r="N47" s="29"/>
     </row>
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="62"/>
-      <c r="B48" s="57" t="s">
-        <v>105</v>
-      </c>
-      <c r="C48" s="58" t="s">
-        <v>48</v>
-      </c>
-      <c r="D48" s="59">
-        <v>57</v>
-      </c>
-      <c r="E48" s="59">
-        <v>57</v>
-      </c>
-      <c r="F48" s="29"/>
-      <c r="G48" s="29"/>
-      <c r="H48" s="29"/>
+      <c r="A48" s="54"/>
+      <c r="B48" s="49" t="s">
+        <v>104</v>
+      </c>
+      <c r="C48" s="50" t="s">
+        <v>47</v>
+      </c>
+      <c r="D48" s="51">
+        <v>4</v>
+      </c>
+      <c r="E48" s="51">
+        <v>4</v>
+      </c>
+      <c r="F48" s="29">
+        <v>5</v>
+      </c>
+      <c r="G48" s="29">
+        <v>30</v>
+      </c>
+      <c r="H48" s="86" t="s">
+        <v>128</v>
+      </c>
       <c r="I48" s="29"/>
       <c r="J48" s="29"/>
       <c r="K48" s="29"/>
@@ -7331,22 +7772,28 @@
       <c r="N48" s="29"/>
     </row>
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="62"/>
-      <c r="B49" s="57" t="s">
-        <v>106</v>
-      </c>
-      <c r="C49" s="58" t="s">
-        <v>49</v>
-      </c>
-      <c r="D49" s="59">
-        <v>3</v>
-      </c>
-      <c r="E49" s="59">
-        <v>3</v>
-      </c>
-      <c r="F49" s="29"/>
-      <c r="G49" s="29"/>
-      <c r="H49" s="29"/>
+      <c r="A49" s="54"/>
+      <c r="B49" s="49" t="s">
+        <v>105</v>
+      </c>
+      <c r="C49" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="D49" s="51">
+        <v>57</v>
+      </c>
+      <c r="E49" s="51">
+        <v>57</v>
+      </c>
+      <c r="F49" s="29">
+        <v>5</v>
+      </c>
+      <c r="G49" s="29">
+        <v>30</v>
+      </c>
+      <c r="H49" s="86" t="s">
+        <v>128</v>
+      </c>
       <c r="I49" s="29"/>
       <c r="J49" s="29"/>
       <c r="K49" s="29"/>
@@ -7355,22 +7802,28 @@
       <c r="N49" s="29"/>
     </row>
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="62"/>
-      <c r="B50" s="57" t="s">
-        <v>107</v>
-      </c>
-      <c r="C50" s="58" t="s">
-        <v>50</v>
-      </c>
-      <c r="D50" s="59">
-        <v>1</v>
-      </c>
-      <c r="E50" s="59">
-        <v>1</v>
-      </c>
-      <c r="F50" s="29"/>
-      <c r="G50" s="29"/>
-      <c r="H50" s="29"/>
+      <c r="A50" s="54"/>
+      <c r="B50" s="49" t="s">
+        <v>106</v>
+      </c>
+      <c r="C50" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D50" s="51">
+        <v>3</v>
+      </c>
+      <c r="E50" s="51">
+        <v>3</v>
+      </c>
+      <c r="F50" s="29">
+        <v>5</v>
+      </c>
+      <c r="G50" s="29">
+        <v>30</v>
+      </c>
+      <c r="H50" s="86" t="s">
+        <v>128</v>
+      </c>
       <c r="I50" s="29"/>
       <c r="J50" s="29"/>
       <c r="K50" s="29"/>
@@ -7379,22 +7832,28 @@
       <c r="N50" s="29"/>
     </row>
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="62"/>
-      <c r="B51" s="57" t="s">
-        <v>108</v>
-      </c>
-      <c r="C51" s="58" t="s">
-        <v>51</v>
-      </c>
-      <c r="D51" s="59">
-        <v>7</v>
-      </c>
-      <c r="E51" s="59">
-        <v>7</v>
-      </c>
-      <c r="F51" s="29"/>
-      <c r="G51" s="29"/>
-      <c r="H51" s="29"/>
+      <c r="A51" s="54"/>
+      <c r="B51" s="49" t="s">
+        <v>107</v>
+      </c>
+      <c r="C51" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="D51" s="51">
+        <v>1</v>
+      </c>
+      <c r="E51" s="51">
+        <v>1</v>
+      </c>
+      <c r="F51" s="29">
+        <v>5</v>
+      </c>
+      <c r="G51" s="29">
+        <v>30</v>
+      </c>
+      <c r="H51" s="86" t="s">
+        <v>128</v>
+      </c>
       <c r="I51" s="29"/>
       <c r="J51" s="29"/>
       <c r="K51" s="29"/>
@@ -7403,22 +7862,28 @@
       <c r="N51" s="29"/>
     </row>
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="62"/>
-      <c r="B52" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="C52" s="58" t="s">
-        <v>52</v>
-      </c>
-      <c r="D52" s="59">
-        <v>4</v>
-      </c>
-      <c r="E52" s="59">
-        <v>4</v>
-      </c>
-      <c r="F52" s="29"/>
-      <c r="G52" s="29"/>
-      <c r="H52" s="29"/>
+      <c r="A52" s="54"/>
+      <c r="B52" s="49" t="s">
+        <v>108</v>
+      </c>
+      <c r="C52" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="D52" s="51">
+        <v>7</v>
+      </c>
+      <c r="E52" s="51">
+        <v>7</v>
+      </c>
+      <c r="F52" s="29">
+        <v>5</v>
+      </c>
+      <c r="G52" s="29">
+        <v>30</v>
+      </c>
+      <c r="H52" s="86" t="s">
+        <v>128</v>
+      </c>
       <c r="I52" s="29"/>
       <c r="J52" s="29"/>
       <c r="K52" s="29"/>
@@ -7427,22 +7892,28 @@
       <c r="N52" s="29"/>
     </row>
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="62"/>
-      <c r="B53" s="57" t="s">
-        <v>110</v>
-      </c>
-      <c r="C53" s="58" t="s">
-        <v>53</v>
-      </c>
-      <c r="D53" s="59">
-        <v>2</v>
-      </c>
-      <c r="E53" s="59">
-        <v>2</v>
-      </c>
-      <c r="F53" s="29"/>
-      <c r="G53" s="29"/>
-      <c r="H53" s="29"/>
+      <c r="A53" s="54"/>
+      <c r="B53" s="49" t="s">
+        <v>109</v>
+      </c>
+      <c r="C53" s="50" t="s">
+        <v>52</v>
+      </c>
+      <c r="D53" s="51">
+        <v>4</v>
+      </c>
+      <c r="E53" s="51">
+        <v>4</v>
+      </c>
+      <c r="F53" s="29">
+        <v>5</v>
+      </c>
+      <c r="G53" s="29">
+        <v>30</v>
+      </c>
+      <c r="H53" s="86" t="s">
+        <v>128</v>
+      </c>
       <c r="I53" s="29"/>
       <c r="J53" s="29"/>
       <c r="K53" s="29"/>
@@ -7451,22 +7922,28 @@
       <c r="N53" s="29"/>
     </row>
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="62"/>
-      <c r="B54" s="57" t="s">
-        <v>111</v>
-      </c>
-      <c r="C54" s="58" t="s">
-        <v>54</v>
-      </c>
-      <c r="D54" s="59">
-        <v>6</v>
-      </c>
-      <c r="E54" s="59">
-        <v>6</v>
-      </c>
-      <c r="F54" s="29"/>
-      <c r="G54" s="29"/>
-      <c r="H54" s="29"/>
+      <c r="A54" s="54"/>
+      <c r="B54" s="49" t="s">
+        <v>110</v>
+      </c>
+      <c r="C54" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="D54" s="51">
+        <v>2</v>
+      </c>
+      <c r="E54" s="51">
+        <v>2</v>
+      </c>
+      <c r="F54" s="29">
+        <v>5</v>
+      </c>
+      <c r="G54" s="29">
+        <v>30</v>
+      </c>
+      <c r="H54" s="86" t="s">
+        <v>128</v>
+      </c>
       <c r="I54" s="29"/>
       <c r="J54" s="29"/>
       <c r="K54" s="29"/>
@@ -7475,22 +7952,28 @@
       <c r="N54" s="29"/>
     </row>
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="62"/>
-      <c r="B55" s="57" t="s">
-        <v>112</v>
-      </c>
-      <c r="C55" s="58" t="s">
-        <v>55</v>
-      </c>
-      <c r="D55" s="59">
-        <v>2</v>
-      </c>
-      <c r="E55" s="59">
-        <v>2</v>
-      </c>
-      <c r="F55" s="29"/>
-      <c r="G55" s="29"/>
-      <c r="H55" s="29"/>
+      <c r="A55" s="54"/>
+      <c r="B55" s="49" t="s">
+        <v>111</v>
+      </c>
+      <c r="C55" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="D55" s="51">
+        <v>6</v>
+      </c>
+      <c r="E55" s="51">
+        <v>6</v>
+      </c>
+      <c r="F55" s="29">
+        <v>5</v>
+      </c>
+      <c r="G55" s="29">
+        <v>30</v>
+      </c>
+      <c r="H55" s="86" t="s">
+        <v>128</v>
+      </c>
       <c r="I55" s="29"/>
       <c r="J55" s="29"/>
       <c r="K55" s="29"/>
@@ -7499,22 +7982,28 @@
       <c r="N55" s="29"/>
     </row>
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="62"/>
-      <c r="B56" s="57" t="s">
-        <v>113</v>
-      </c>
-      <c r="C56" s="58" t="s">
-        <v>56</v>
-      </c>
-      <c r="D56" s="59">
+      <c r="A56" s="54"/>
+      <c r="B56" s="49" t="s">
+        <v>112</v>
+      </c>
+      <c r="C56" s="50" t="s">
+        <v>55</v>
+      </c>
+      <c r="D56" s="51">
         <v>2</v>
       </c>
-      <c r="E56" s="59">
+      <c r="E56" s="51">
         <v>2</v>
       </c>
-      <c r="F56" s="29"/>
-      <c r="G56" s="29"/>
-      <c r="H56" s="29"/>
+      <c r="F56" s="29">
+        <v>5</v>
+      </c>
+      <c r="G56" s="29">
+        <v>30</v>
+      </c>
+      <c r="H56" s="86" t="s">
+        <v>128</v>
+      </c>
       <c r="I56" s="29"/>
       <c r="J56" s="29"/>
       <c r="K56" s="29"/>
@@ -7523,22 +8012,28 @@
       <c r="N56" s="29"/>
     </row>
     <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="62"/>
-      <c r="B57" s="57" t="s">
-        <v>114</v>
-      </c>
-      <c r="C57" s="58" t="s">
-        <v>57</v>
-      </c>
-      <c r="D57" s="59">
-        <v>6</v>
-      </c>
-      <c r="E57" s="59">
-        <v>6</v>
-      </c>
-      <c r="F57" s="29"/>
-      <c r="G57" s="29"/>
-      <c r="H57" s="29"/>
+      <c r="A57" s="54"/>
+      <c r="B57" s="49" t="s">
+        <v>113</v>
+      </c>
+      <c r="C57" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="D57" s="51">
+        <v>2</v>
+      </c>
+      <c r="E57" s="51">
+        <v>2</v>
+      </c>
+      <c r="F57" s="29">
+        <v>5</v>
+      </c>
+      <c r="G57" s="29">
+        <v>30</v>
+      </c>
+      <c r="H57" s="86" t="s">
+        <v>128</v>
+      </c>
       <c r="I57" s="29"/>
       <c r="J57" s="29"/>
       <c r="K57" s="29"/>
@@ -7547,22 +8042,28 @@
       <c r="N57" s="29"/>
     </row>
     <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="62"/>
-      <c r="B58" s="57" t="s">
-        <v>115</v>
-      </c>
-      <c r="C58" s="58" t="s">
-        <v>58</v>
-      </c>
-      <c r="D58" s="59">
-        <v>1</v>
-      </c>
-      <c r="E58" s="59">
-        <v>1</v>
-      </c>
-      <c r="F58" s="29"/>
-      <c r="G58" s="29"/>
-      <c r="H58" s="29"/>
+      <c r="A58" s="54"/>
+      <c r="B58" s="49" t="s">
+        <v>114</v>
+      </c>
+      <c r="C58" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="D58" s="51">
+        <v>6</v>
+      </c>
+      <c r="E58" s="51">
+        <v>6</v>
+      </c>
+      <c r="F58" s="29">
+        <v>5</v>
+      </c>
+      <c r="G58" s="29">
+        <v>30</v>
+      </c>
+      <c r="H58" s="86" t="s">
+        <v>128</v>
+      </c>
       <c r="I58" s="29"/>
       <c r="J58" s="29"/>
       <c r="K58" s="29"/>
@@ -7571,22 +8072,28 @@
       <c r="N58" s="29"/>
     </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="62"/>
-      <c r="B59" s="74" t="s">
-        <v>117</v>
-      </c>
-      <c r="C59" s="75" t="s">
-        <v>123</v>
-      </c>
-      <c r="D59" s="76">
-        <v>0</v>
-      </c>
-      <c r="E59" s="76">
-        <v>25</v>
-      </c>
-      <c r="F59" s="29"/>
-      <c r="G59" s="29"/>
-      <c r="H59" s="29"/>
+      <c r="A59" s="54"/>
+      <c r="B59" s="49" t="s">
+        <v>115</v>
+      </c>
+      <c r="C59" s="50" t="s">
+        <v>58</v>
+      </c>
+      <c r="D59" s="51">
+        <v>1</v>
+      </c>
+      <c r="E59" s="51">
+        <v>1</v>
+      </c>
+      <c r="F59" s="29">
+        <v>5</v>
+      </c>
+      <c r="G59" s="29">
+        <v>30</v>
+      </c>
+      <c r="H59" s="86" t="s">
+        <v>128</v>
+      </c>
       <c r="I59" s="29"/>
       <c r="J59" s="29"/>
       <c r="K59" s="29"/>
@@ -7595,14 +8102,28 @@
       <c r="N59" s="29"/>
     </row>
     <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="62"/>
-      <c r="B60" s="40"/>
-      <c r="C60" s="29"/>
-      <c r="D60" s="59"/>
-      <c r="E60" s="65"/>
-      <c r="F60" s="29"/>
-      <c r="G60" s="29"/>
-      <c r="H60" s="29"/>
+      <c r="A60" s="54"/>
+      <c r="B60" s="58" t="s">
+        <v>117</v>
+      </c>
+      <c r="C60" s="59" t="s">
+        <v>121</v>
+      </c>
+      <c r="D60" s="60">
+        <v>0</v>
+      </c>
+      <c r="E60" s="60">
+        <v>25</v>
+      </c>
+      <c r="F60" s="29">
+        <v>5</v>
+      </c>
+      <c r="G60" s="29">
+        <v>30</v>
+      </c>
+      <c r="H60" s="86" t="s">
+        <v>128</v>
+      </c>
       <c r="I60" s="29"/>
       <c r="J60" s="29"/>
       <c r="K60" s="29"/>
@@ -7611,14 +8132,14 @@
       <c r="N60" s="29"/>
     </row>
     <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="62"/>
+      <c r="A61" s="54"/>
       <c r="B61" s="40"/>
       <c r="C61" s="29"/>
-      <c r="D61" s="59"/>
-      <c r="E61" s="65"/>
+      <c r="D61" s="51"/>
+      <c r="E61" s="56"/>
       <c r="F61" s="29"/>
       <c r="G61" s="29"/>
-      <c r="H61" s="29"/>
+      <c r="H61" s="25"/>
       <c r="I61" s="29"/>
       <c r="J61" s="29"/>
       <c r="K61" s="29"/>
@@ -7627,14 +8148,14 @@
       <c r="N61" s="29"/>
     </row>
     <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="62"/>
+      <c r="A62" s="54"/>
       <c r="B62" s="40"/>
       <c r="C62" s="29"/>
-      <c r="D62" s="59"/>
-      <c r="E62" s="65"/>
+      <c r="D62" s="51"/>
+      <c r="E62" s="56"/>
       <c r="F62" s="29"/>
       <c r="G62" s="29"/>
-      <c r="H62" s="29"/>
+      <c r="H62" s="25"/>
       <c r="I62" s="29"/>
       <c r="J62" s="29"/>
       <c r="K62" s="29"/>
@@ -7643,14 +8164,14 @@
       <c r="N62" s="29"/>
     </row>
     <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="62"/>
+      <c r="A63" s="54"/>
       <c r="B63" s="40"/>
       <c r="C63" s="29"/>
-      <c r="D63" s="59"/>
-      <c r="E63" s="65"/>
+      <c r="D63" s="51"/>
+      <c r="E63" s="56"/>
       <c r="F63" s="29"/>
       <c r="G63" s="29"/>
-      <c r="H63" s="29"/>
+      <c r="H63" s="25"/>
       <c r="I63" s="29"/>
       <c r="J63" s="29"/>
       <c r="K63" s="29"/>
@@ -7659,14 +8180,14 @@
       <c r="N63" s="29"/>
     </row>
     <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="62"/>
+      <c r="A64" s="54"/>
       <c r="B64" s="40"/>
       <c r="C64" s="29"/>
-      <c r="D64" s="59"/>
-      <c r="E64" s="65"/>
+      <c r="D64" s="51"/>
+      <c r="E64" s="56"/>
       <c r="F64" s="29"/>
       <c r="G64" s="29"/>
-      <c r="H64" s="29"/>
+      <c r="H64" s="25"/>
       <c r="I64" s="29"/>
       <c r="J64" s="29"/>
       <c r="K64" s="29"/>
@@ -7675,14 +8196,14 @@
       <c r="N64" s="29"/>
     </row>
     <row r="65" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="62"/>
+      <c r="A65" s="54"/>
       <c r="B65" s="40"/>
       <c r="C65" s="29"/>
-      <c r="D65" s="59"/>
-      <c r="E65" s="65"/>
+      <c r="D65" s="51"/>
+      <c r="E65" s="56"/>
       <c r="F65" s="29"/>
       <c r="G65" s="29"/>
-      <c r="H65" s="29"/>
+      <c r="H65" s="25"/>
       <c r="I65" s="29"/>
       <c r="J65" s="29"/>
       <c r="K65" s="29"/>
@@ -7691,14 +8212,14 @@
       <c r="N65" s="29"/>
     </row>
     <row r="66" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="62"/>
+      <c r="A66" s="54"/>
       <c r="B66" s="40"/>
       <c r="C66" s="29"/>
-      <c r="D66" s="59"/>
-      <c r="E66" s="65"/>
+      <c r="D66" s="51"/>
+      <c r="E66" s="56"/>
       <c r="F66" s="29"/>
       <c r="G66" s="29"/>
-      <c r="H66" s="29"/>
+      <c r="H66" s="25"/>
       <c r="I66" s="29"/>
       <c r="J66" s="29"/>
       <c r="K66" s="29"/>
@@ -7707,14 +8228,14 @@
       <c r="N66" s="29"/>
     </row>
     <row r="67" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="62"/>
+      <c r="A67" s="54"/>
       <c r="B67" s="40"/>
       <c r="C67" s="29"/>
-      <c r="D67" s="59"/>
-      <c r="E67" s="65"/>
+      <c r="D67" s="51"/>
+      <c r="E67" s="56"/>
       <c r="F67" s="29"/>
       <c r="G67" s="29"/>
-      <c r="H67" s="29"/>
+      <c r="H67" s="25"/>
       <c r="I67" s="29"/>
       <c r="J67" s="29"/>
       <c r="K67" s="29"/>
@@ -7723,14 +8244,14 @@
       <c r="N67" s="29"/>
     </row>
     <row r="68" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="62"/>
+      <c r="A68" s="54"/>
       <c r="B68" s="40"/>
       <c r="C68" s="29"/>
-      <c r="D68" s="59"/>
-      <c r="E68" s="65"/>
+      <c r="D68" s="51"/>
+      <c r="E68" s="56"/>
       <c r="F68" s="29"/>
       <c r="G68" s="29"/>
-      <c r="H68" s="29"/>
+      <c r="H68" s="25"/>
       <c r="I68" s="29"/>
       <c r="J68" s="29"/>
       <c r="K68" s="29"/>
@@ -7739,14 +8260,14 @@
       <c r="N68" s="29"/>
     </row>
     <row r="69" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="62"/>
+      <c r="A69" s="54"/>
       <c r="B69" s="40"/>
       <c r="C69" s="29"/>
-      <c r="D69" s="59"/>
-      <c r="E69" s="65"/>
+      <c r="D69" s="51"/>
+      <c r="E69" s="56"/>
       <c r="F69" s="29"/>
       <c r="G69" s="29"/>
-      <c r="H69" s="29"/>
+      <c r="H69" s="25"/>
       <c r="I69" s="29"/>
       <c r="J69" s="29"/>
       <c r="K69" s="29"/>
@@ -7755,14 +8276,14 @@
       <c r="N69" s="29"/>
     </row>
     <row r="70" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="62"/>
+      <c r="A70" s="54"/>
       <c r="B70" s="40"/>
       <c r="C70" s="29"/>
-      <c r="D70" s="59"/>
-      <c r="E70" s="65"/>
+      <c r="D70" s="51"/>
+      <c r="E70" s="56"/>
       <c r="F70" s="29"/>
       <c r="G70" s="29"/>
-      <c r="H70" s="29"/>
+      <c r="H70" s="25"/>
       <c r="I70" s="29"/>
       <c r="J70" s="29"/>
       <c r="K70" s="29"/>
@@ -7771,14 +8292,14 @@
       <c r="N70" s="29"/>
     </row>
     <row r="71" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="62"/>
+      <c r="A71" s="54"/>
       <c r="B71" s="40"/>
       <c r="C71" s="29"/>
-      <c r="D71" s="59"/>
-      <c r="E71" s="65"/>
+      <c r="D71" s="51"/>
+      <c r="E71" s="56"/>
       <c r="F71" s="29"/>
       <c r="G71" s="29"/>
-      <c r="H71" s="29"/>
+      <c r="H71" s="25"/>
       <c r="I71" s="29"/>
       <c r="J71" s="29"/>
       <c r="K71" s="29"/>
@@ -7787,14 +8308,14 @@
       <c r="N71" s="29"/>
     </row>
     <row r="72" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="62"/>
+      <c r="A72" s="54"/>
       <c r="B72" s="40"/>
       <c r="C72" s="29"/>
-      <c r="D72" s="59"/>
-      <c r="E72" s="65"/>
+      <c r="D72" s="51"/>
+      <c r="E72" s="56"/>
       <c r="F72" s="29"/>
       <c r="G72" s="29"/>
-      <c r="H72" s="29"/>
+      <c r="H72" s="25"/>
       <c r="I72" s="29"/>
       <c r="J72" s="29"/>
       <c r="K72" s="29"/>
@@ -7803,14 +8324,14 @@
       <c r="N72" s="29"/>
     </row>
     <row r="73" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="62"/>
+      <c r="A73" s="54"/>
       <c r="B73" s="40"/>
       <c r="C73" s="29"/>
-      <c r="D73" s="59"/>
-      <c r="E73" s="65"/>
+      <c r="D73" s="51"/>
+      <c r="E73" s="56"/>
       <c r="F73" s="29"/>
       <c r="G73" s="29"/>
-      <c r="H73" s="29"/>
+      <c r="H73" s="25"/>
       <c r="I73" s="29"/>
       <c r="J73" s="29"/>
       <c r="K73" s="29"/>
@@ -7819,14 +8340,14 @@
       <c r="N73" s="29"/>
     </row>
     <row r="74" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="62"/>
+      <c r="A74" s="54"/>
       <c r="B74" s="40"/>
       <c r="C74" s="29"/>
-      <c r="D74" s="59"/>
-      <c r="E74" s="65"/>
+      <c r="D74" s="51"/>
+      <c r="E74" s="56"/>
       <c r="F74" s="29"/>
       <c r="G74" s="29"/>
-      <c r="H74" s="29"/>
+      <c r="H74" s="25"/>
       <c r="I74" s="29"/>
       <c r="J74" s="29"/>
       <c r="K74" s="29"/>
@@ -7835,14 +8356,14 @@
       <c r="N74" s="29"/>
     </row>
     <row r="75" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="62"/>
+      <c r="A75" s="54"/>
       <c r="B75" s="40"/>
       <c r="C75" s="29"/>
-      <c r="D75" s="59"/>
-      <c r="E75" s="65"/>
+      <c r="D75" s="51"/>
+      <c r="E75" s="56"/>
       <c r="F75" s="29"/>
       <c r="G75" s="29"/>
-      <c r="H75" s="29"/>
+      <c r="H75" s="25"/>
       <c r="I75" s="29"/>
       <c r="J75" s="29"/>
       <c r="K75" s="29"/>
@@ -7851,14 +8372,14 @@
       <c r="N75" s="29"/>
     </row>
     <row r="76" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="62"/>
+      <c r="A76" s="54"/>
       <c r="B76" s="40"/>
       <c r="C76" s="29"/>
-      <c r="D76" s="59"/>
-      <c r="E76" s="65"/>
+      <c r="D76" s="51"/>
+      <c r="E76" s="56"/>
       <c r="F76" s="29"/>
       <c r="G76" s="29"/>
-      <c r="H76" s="29"/>
+      <c r="H76" s="25"/>
       <c r="I76" s="29"/>
       <c r="J76" s="29"/>
       <c r="K76" s="29"/>
@@ -7867,14 +8388,14 @@
       <c r="N76" s="29"/>
     </row>
     <row r="77" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="62"/>
+      <c r="A77" s="54"/>
       <c r="B77" s="40"/>
       <c r="C77" s="29"/>
-      <c r="D77" s="59"/>
-      <c r="E77" s="65"/>
+      <c r="D77" s="51"/>
+      <c r="E77" s="56"/>
       <c r="F77" s="29"/>
       <c r="G77" s="29"/>
-      <c r="H77" s="29"/>
+      <c r="H77" s="25"/>
       <c r="I77" s="29"/>
       <c r="J77" s="29"/>
       <c r="K77" s="29"/>
@@ -7883,14 +8404,14 @@
       <c r="N77" s="29"/>
     </row>
     <row r="78" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="62"/>
+      <c r="A78" s="54"/>
       <c r="B78" s="40"/>
       <c r="C78" s="29"/>
-      <c r="D78" s="59"/>
-      <c r="E78" s="65"/>
+      <c r="D78" s="51"/>
+      <c r="E78" s="56"/>
       <c r="F78" s="29"/>
       <c r="G78" s="29"/>
-      <c r="H78" s="29"/>
+      <c r="H78" s="25"/>
       <c r="I78" s="29"/>
       <c r="J78" s="29"/>
       <c r="K78" s="29"/>
@@ -7899,14 +8420,14 @@
       <c r="N78" s="29"/>
     </row>
     <row r="79" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="62"/>
+      <c r="A79" s="54"/>
       <c r="B79" s="40"/>
       <c r="C79" s="29"/>
-      <c r="D79" s="59"/>
-      <c r="E79" s="65"/>
+      <c r="D79" s="51"/>
+      <c r="E79" s="56"/>
       <c r="F79" s="29"/>
       <c r="G79" s="29"/>
-      <c r="H79" s="29"/>
+      <c r="H79" s="25"/>
       <c r="I79" s="29"/>
       <c r="J79" s="29"/>
       <c r="K79" s="29"/>
@@ -7915,14 +8436,14 @@
       <c r="N79" s="29"/>
     </row>
     <row r="80" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="62"/>
+      <c r="A80" s="54"/>
       <c r="B80" s="40"/>
       <c r="C80" s="29"/>
-      <c r="D80" s="59"/>
-      <c r="E80" s="65"/>
+      <c r="D80" s="51"/>
+      <c r="E80" s="56"/>
       <c r="F80" s="29"/>
       <c r="G80" s="29"/>
-      <c r="H80" s="29"/>
+      <c r="H80" s="25"/>
       <c r="I80" s="29"/>
       <c r="J80" s="29"/>
       <c r="K80" s="29"/>
@@ -7931,14 +8452,14 @@
       <c r="N80" s="29"/>
     </row>
     <row r="81" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="62"/>
+      <c r="A81" s="54"/>
       <c r="B81" s="40"/>
       <c r="C81" s="29"/>
-      <c r="D81" s="59"/>
-      <c r="E81" s="65"/>
+      <c r="D81" s="51"/>
+      <c r="E81" s="56"/>
       <c r="F81" s="29"/>
       <c r="G81" s="29"/>
-      <c r="H81" s="29"/>
+      <c r="H81" s="25"/>
       <c r="I81" s="29"/>
       <c r="J81" s="29"/>
       <c r="K81" s="29"/>
@@ -7947,14 +8468,14 @@
       <c r="N81" s="29"/>
     </row>
     <row r="82" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="62"/>
+      <c r="A82" s="54"/>
       <c r="B82" s="40"/>
       <c r="C82" s="29"/>
-      <c r="D82" s="59"/>
-      <c r="E82" s="65"/>
+      <c r="D82" s="51"/>
+      <c r="E82" s="56"/>
       <c r="F82" s="29"/>
       <c r="G82" s="29"/>
-      <c r="H82" s="29"/>
+      <c r="H82" s="25"/>
       <c r="I82" s="29"/>
       <c r="J82" s="29"/>
       <c r="K82" s="29"/>
@@ -7963,14 +8484,14 @@
       <c r="N82" s="29"/>
     </row>
     <row r="83" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="62"/>
+      <c r="A83" s="54"/>
       <c r="B83" s="40"/>
       <c r="C83" s="29"/>
-      <c r="D83" s="59"/>
-      <c r="E83" s="65"/>
+      <c r="D83" s="51"/>
+      <c r="E83" s="56"/>
       <c r="F83" s="29"/>
       <c r="G83" s="29"/>
-      <c r="H83" s="29"/>
+      <c r="H83" s="25"/>
       <c r="I83" s="29"/>
       <c r="J83" s="29"/>
       <c r="K83" s="29"/>
@@ -7979,14 +8500,14 @@
       <c r="N83" s="29"/>
     </row>
     <row r="84" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="62"/>
+      <c r="A84" s="54"/>
       <c r="B84" s="40"/>
       <c r="C84" s="29"/>
-      <c r="D84" s="59"/>
-      <c r="E84" s="65"/>
+      <c r="D84" s="51"/>
+      <c r="E84" s="56"/>
       <c r="F84" s="29"/>
       <c r="G84" s="29"/>
-      <c r="H84" s="29"/>
+      <c r="H84" s="25"/>
       <c r="I84" s="29"/>
       <c r="J84" s="29"/>
       <c r="K84" s="29"/>
@@ -7995,14 +8516,14 @@
       <c r="N84" s="29"/>
     </row>
     <row r="85" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="62"/>
+      <c r="A85" s="54"/>
       <c r="B85" s="40"/>
       <c r="C85" s="29"/>
-      <c r="D85" s="59"/>
-      <c r="E85" s="65"/>
+      <c r="D85" s="51"/>
+      <c r="E85" s="56"/>
       <c r="F85" s="29"/>
       <c r="G85" s="29"/>
-      <c r="H85" s="29"/>
+      <c r="H85" s="25"/>
       <c r="I85" s="29"/>
       <c r="J85" s="29"/>
       <c r="K85" s="29"/>
@@ -8011,14 +8532,14 @@
       <c r="N85" s="29"/>
     </row>
     <row r="86" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="62"/>
+      <c r="A86" s="54"/>
       <c r="B86" s="40"/>
       <c r="C86" s="29"/>
-      <c r="D86" s="59"/>
-      <c r="E86" s="65"/>
+      <c r="D86" s="51"/>
+      <c r="E86" s="56"/>
       <c r="F86" s="29"/>
       <c r="G86" s="29"/>
-      <c r="H86" s="29"/>
+      <c r="H86" s="25"/>
       <c r="I86" s="29"/>
       <c r="J86" s="29"/>
       <c r="K86" s="29"/>
@@ -8027,14 +8548,14 @@
       <c r="N86" s="29"/>
     </row>
     <row r="87" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="62"/>
+      <c r="A87" s="54"/>
       <c r="B87" s="40"/>
       <c r="C87" s="29"/>
-      <c r="D87" s="59"/>
-      <c r="E87" s="65"/>
+      <c r="D87" s="51"/>
+      <c r="E87" s="56"/>
       <c r="F87" s="29"/>
       <c r="G87" s="29"/>
-      <c r="H87" s="29"/>
+      <c r="H87" s="25"/>
       <c r="I87" s="29"/>
       <c r="J87" s="29"/>
       <c r="K87" s="29"/>
@@ -8043,14 +8564,14 @@
       <c r="N87" s="29"/>
     </row>
     <row r="88" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="62"/>
+      <c r="A88" s="54"/>
       <c r="B88" s="40"/>
       <c r="C88" s="29"/>
-      <c r="D88" s="59"/>
-      <c r="E88" s="65"/>
+      <c r="D88" s="51"/>
+      <c r="E88" s="56"/>
       <c r="F88" s="29"/>
       <c r="G88" s="29"/>
-      <c r="H88" s="29"/>
+      <c r="H88" s="25"/>
       <c r="I88" s="29"/>
       <c r="J88" s="29"/>
       <c r="K88" s="29"/>
@@ -8059,14 +8580,14 @@
       <c r="N88" s="29"/>
     </row>
     <row r="89" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="62"/>
+      <c r="A89" s="54"/>
       <c r="B89" s="40"/>
       <c r="C89" s="29"/>
-      <c r="D89" s="59"/>
-      <c r="E89" s="65"/>
+      <c r="D89" s="51"/>
+      <c r="E89" s="56"/>
       <c r="F89" s="29"/>
       <c r="G89" s="29"/>
-      <c r="H89" s="29"/>
+      <c r="H89" s="25"/>
       <c r="I89" s="29"/>
       <c r="J89" s="29"/>
       <c r="K89" s="29"/>
@@ -8075,14 +8596,14 @@
       <c r="N89" s="29"/>
     </row>
     <row r="90" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="62"/>
+      <c r="A90" s="54"/>
       <c r="B90" s="40"/>
       <c r="C90" s="29"/>
-      <c r="D90" s="59"/>
-      <c r="E90" s="65"/>
+      <c r="D90" s="51"/>
+      <c r="E90" s="56"/>
       <c r="F90" s="29"/>
       <c r="G90" s="29"/>
-      <c r="H90" s="29"/>
+      <c r="H90" s="25"/>
       <c r="I90" s="29"/>
       <c r="J90" s="29"/>
       <c r="K90" s="29"/>
@@ -8091,14 +8612,14 @@
       <c r="N90" s="29"/>
     </row>
     <row r="91" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="62"/>
+      <c r="A91" s="54"/>
       <c r="B91" s="40"/>
       <c r="C91" s="29"/>
-      <c r="D91" s="59"/>
-      <c r="E91" s="65"/>
+      <c r="D91" s="51"/>
+      <c r="E91" s="56"/>
       <c r="F91" s="29"/>
       <c r="G91" s="29"/>
-      <c r="H91" s="29"/>
+      <c r="H91" s="25"/>
       <c r="I91" s="29"/>
       <c r="J91" s="29"/>
       <c r="K91" s="29"/>
@@ -8107,14 +8628,14 @@
       <c r="N91" s="29"/>
     </row>
     <row r="92" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="62"/>
+      <c r="A92" s="54"/>
       <c r="B92" s="40"/>
       <c r="C92" s="29"/>
-      <c r="D92" s="59"/>
-      <c r="E92" s="65"/>
+      <c r="D92" s="51"/>
+      <c r="E92" s="56"/>
       <c r="F92" s="29"/>
       <c r="G92" s="29"/>
-      <c r="H92" s="29"/>
+      <c r="H92" s="25"/>
       <c r="I92" s="29"/>
       <c r="J92" s="29"/>
       <c r="K92" s="29"/>
@@ -8123,14 +8644,14 @@
       <c r="N92" s="29"/>
     </row>
     <row r="93" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="62"/>
+      <c r="A93" s="54"/>
       <c r="B93" s="40"/>
       <c r="C93" s="29"/>
-      <c r="D93" s="59"/>
-      <c r="E93" s="65"/>
+      <c r="D93" s="51"/>
+      <c r="E93" s="56"/>
       <c r="F93" s="29"/>
       <c r="G93" s="29"/>
-      <c r="H93" s="29"/>
+      <c r="H93" s="25"/>
       <c r="I93" s="29"/>
       <c r="J93" s="29"/>
       <c r="K93" s="29"/>
@@ -8139,14 +8660,14 @@
       <c r="N93" s="29"/>
     </row>
     <row r="94" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="62"/>
+      <c r="A94" s="54"/>
       <c r="B94" s="40"/>
       <c r="C94" s="29"/>
-      <c r="D94" s="59"/>
-      <c r="E94" s="65"/>
+      <c r="D94" s="51"/>
+      <c r="E94" s="56"/>
       <c r="F94" s="29"/>
       <c r="G94" s="29"/>
-      <c r="H94" s="29"/>
+      <c r="H94" s="25"/>
       <c r="I94" s="29"/>
       <c r="J94" s="29"/>
       <c r="K94" s="29"/>
@@ -8155,14 +8676,14 @@
       <c r="N94" s="29"/>
     </row>
     <row r="95" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="62"/>
+      <c r="A95" s="54"/>
       <c r="B95" s="40"/>
       <c r="C95" s="29"/>
-      <c r="D95" s="59"/>
-      <c r="E95" s="65"/>
+      <c r="D95" s="51"/>
+      <c r="E95" s="56"/>
       <c r="F95" s="29"/>
       <c r="G95" s="29"/>
-      <c r="H95" s="29"/>
+      <c r="H95" s="25"/>
       <c r="I95" s="29"/>
       <c r="J95" s="29"/>
       <c r="K95" s="29"/>
@@ -8171,14 +8692,14 @@
       <c r="N95" s="29"/>
     </row>
     <row r="96" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="62"/>
+      <c r="A96" s="54"/>
       <c r="B96" s="40"/>
       <c r="C96" s="29"/>
-      <c r="D96" s="59"/>
-      <c r="E96" s="65"/>
+      <c r="D96" s="51"/>
+      <c r="E96" s="56"/>
       <c r="F96" s="29"/>
       <c r="G96" s="29"/>
-      <c r="H96" s="29"/>
+      <c r="H96" s="25"/>
       <c r="I96" s="29"/>
       <c r="J96" s="29"/>
       <c r="K96" s="29"/>
@@ -8187,14 +8708,14 @@
       <c r="N96" s="29"/>
     </row>
     <row r="97" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="63"/>
+      <c r="A97" s="54"/>
       <c r="B97" s="40"/>
       <c r="C97" s="29"/>
-      <c r="D97" s="59"/>
-      <c r="E97" s="65"/>
+      <c r="D97" s="51"/>
+      <c r="E97" s="56"/>
       <c r="F97" s="29"/>
       <c r="G97" s="29"/>
-      <c r="H97" s="29"/>
+      <c r="H97" s="25"/>
       <c r="I97" s="29"/>
       <c r="J97" s="29"/>
       <c r="K97" s="29"/>
@@ -8202,9 +8723,26 @@
       <c r="M97" s="29"/>
       <c r="N97" s="29"/>
     </row>
+    <row r="98" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="55"/>
+      <c r="B98" s="40"/>
+      <c r="C98" s="29"/>
+      <c r="D98" s="51"/>
+      <c r="E98" s="56"/>
+      <c r="F98" s="29"/>
+      <c r="G98" s="29"/>
+      <c r="H98" s="25"/>
+      <c r="I98" s="29"/>
+      <c r="J98" s="29"/>
+      <c r="K98" s="29"/>
+      <c r="L98" s="29"/>
+      <c r="M98" s="29"/>
+      <c r="N98" s="29"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
+  <mergeCells count="2">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="E2:H2"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
